--- a/部门项目数据汇总表.xlsx
+++ b/部门项目数据汇总表.xlsx
@@ -220,11 +220,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -279,7 +279,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,14 +287,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,13 +309,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -330,7 +316,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,13 +361,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,9 +376,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,54 +418,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,6 +491,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -503,13 +533,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,91 +599,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,19 +629,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,25 +653,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,17 +1113,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1152,46 +1152,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1210,16 +1181,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1228,141 +1228,141 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
@@ -2007,8 +2007,8 @@
   <sheetPr/>
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -4163,11 +4163,11 @@
         <v>6</v>
       </c>
       <c r="E58" s="69">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F58" s="68">
         <f t="shared" si="32"/>
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="G58" s="50"/>
       <c r="H58" s="46"/>
@@ -4186,11 +4186,11 @@
       </c>
       <c r="M58" s="88">
         <f t="shared" si="35"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N58" s="89">
         <f t="shared" si="31"/>
-        <v>0.333333333333333</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="59" spans="2:14">
@@ -4354,11 +4354,11 @@
       </c>
       <c r="E63" s="75">
         <f t="shared" si="36"/>
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F63" s="76">
         <f t="shared" si="32"/>
-        <v>-4</v>
+        <v>-11</v>
       </c>
       <c r="G63" s="75">
         <f t="shared" si="36"/>
@@ -4386,11 +4386,11 @@
       </c>
       <c r="M63" s="75">
         <f t="shared" si="37"/>
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="N63" s="106">
         <f t="shared" si="31"/>
-        <v>1.06896551724138</v>
+        <v>1.18965517241379</v>
       </c>
     </row>
     <row r="64" ht="15"/>

--- a/部门项目数据汇总表.xlsx
+++ b/部门项目数据汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="5" r:id="rId1"/>
@@ -222,9 +222,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -278,16 +278,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,38 +316,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,13 +331,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,29 +346,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -418,6 +368,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -427,7 +420,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,25 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,31 +503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,49 +521,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,7 +545,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,25 +623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,13 +635,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,17 +1113,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1133,6 +1129,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,6 +1153,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1182,31 +1196,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1216,10 +1216,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1228,141 +1228,141 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
@@ -2007,8 +2007,8 @@
   <sheetPr/>
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -4449,7 +4449,8 @@
         <v>1</v>
       </c>
       <c r="F66" s="70">
-        <v>3</v>
+        <f>D66-E66</f>
+        <v>-1</v>
       </c>
       <c r="G66" s="46"/>
       <c r="H66" s="46"/>
@@ -4487,7 +4488,8 @@
         <v>3</v>
       </c>
       <c r="F67" s="70">
-        <v>0</v>
+        <f t="shared" ref="F67:F75" si="42">D67-E67</f>
+        <v>-3</v>
       </c>
       <c r="G67" s="50"/>
       <c r="H67" s="46"/>
@@ -4505,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="88">
-        <f t="shared" ref="M67:M75" si="42">E67+J67</f>
+        <f t="shared" ref="M67:M75" si="43">E67+J67</f>
         <v>3</v>
       </c>
       <c r="N67" s="89" t="e">
@@ -4525,7 +4527,8 @@
         <v>3</v>
       </c>
       <c r="F68" s="70">
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>-1</v>
       </c>
       <c r="G68" s="50"/>
       <c r="H68" s="46"/>
@@ -4543,7 +4546,7 @@
         <v>2</v>
       </c>
       <c r="M68" s="88">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>3</v>
       </c>
       <c r="N68" s="89">
@@ -4563,7 +4566,8 @@
         <v>5</v>
       </c>
       <c r="F69" s="70">
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>-2</v>
       </c>
       <c r="G69" s="50"/>
       <c r="H69" s="46"/>
@@ -4581,7 +4585,7 @@
         <v>3</v>
       </c>
       <c r="M69" s="88">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
       <c r="N69" s="89">
@@ -4601,7 +4605,8 @@
         <v>5</v>
       </c>
       <c r="F70" s="70">
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>-5</v>
       </c>
       <c r="G70" s="50"/>
       <c r="H70" s="46"/>
@@ -4619,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="88">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
       <c r="N70" s="89" t="e">
@@ -4639,7 +4644,8 @@
         <v>5</v>
       </c>
       <c r="F71" s="70">
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>-4</v>
       </c>
       <c r="G71" s="50"/>
       <c r="H71" s="46"/>
@@ -4657,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="M71" s="88">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
       <c r="N71" s="89">
@@ -4677,7 +4683,8 @@
         <v>5</v>
       </c>
       <c r="F72" s="70">
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>-2</v>
       </c>
       <c r="G72" s="50"/>
       <c r="H72" s="46"/>
@@ -4695,7 +4702,7 @@
         <v>3</v>
       </c>
       <c r="M72" s="88">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
       <c r="N72" s="89">
@@ -4715,7 +4722,8 @@
         <v>1</v>
       </c>
       <c r="F73" s="70">
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>2</v>
       </c>
       <c r="G73" s="50"/>
       <c r="H73" s="50"/>
@@ -4730,7 +4738,7 @@
         <v>3</v>
       </c>
       <c r="M73" s="93">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="N73" s="104">
@@ -4750,6 +4758,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="70">
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G74" s="50"/>
@@ -4765,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="M74" s="93">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N74" s="104" t="e">
@@ -4785,7 +4794,8 @@
         <v>4</v>
       </c>
       <c r="F75" s="70">
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>-2</v>
       </c>
       <c r="G75" s="50"/>
       <c r="H75" s="50"/>
@@ -4803,7 +4813,7 @@
         <v>2</v>
       </c>
       <c r="M75" s="93">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
       <c r="N75" s="104">

--- a/部门项目数据汇总表.xlsx
+++ b/部门项目数据汇总表.xlsx
@@ -221,10 +221,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -280,7 +280,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,6 +316,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -316,7 +329,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,14 +358,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,27 +404,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,23 +426,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,7 +491,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,13 +539,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,13 +563,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,7 +617,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,55 +635,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,37 +653,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,7 +665,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,59 +1109,6 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1196,6 +1143,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1210,159 +1192,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
@@ -2008,7 +2008,7 @@
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="O63" sqref="O63"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -4638,14 +4638,14 @@
         <v>24</v>
       </c>
       <c r="D71" s="68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E71" s="69">
         <v>5</v>
       </c>
       <c r="F71" s="70">
         <f t="shared" si="42"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="G71" s="50"/>
       <c r="H71" s="46"/>
@@ -4660,7 +4660,7 @@
       </c>
       <c r="L71" s="87">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M71" s="88">
         <f t="shared" si="43"/>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="N71" s="89">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>1.66666666666667</v>
       </c>
     </row>
     <row r="72" spans="2:14">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="D76" s="75">
         <f>SUM(D66:D75)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E76" s="75">
         <f>SUM(E66:E75)</f>
@@ -4859,7 +4859,7 @@
       </c>
       <c r="L76" s="75">
         <f>SUM(L66:L75)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M76" s="75">
         <f>SUM(M66:M75)</f>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="N76" s="106">
         <f t="shared" si="41"/>
-        <v>2.28571428571429</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/部门项目数据汇总表.xlsx
+++ b/部门项目数据汇总表.xlsx
@@ -221,10 +221,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -278,102 +278,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,7 +317,80 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,10 +419,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -491,13 +491,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,19 +575,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,13 +599,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,31 +611,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,19 +647,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,49 +665,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,17 +1113,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,27 +1158,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1196,17 +1190,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1216,10 +1216,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1228,144 +1228,144 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2008,7 +2008,7 @@
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>

--- a/部门项目数据汇总表.xlsx
+++ b/部门项目数据汇总表.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="5" r:id="rId1"/>
     <sheet name="加班明细表" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
   <si>
     <t>南京实施数据分析表</t>
   </si>
@@ -131,6 +132,9 @@
     <t>加班内容</t>
   </si>
   <si>
+    <t>补贴方式</t>
+  </si>
+  <si>
     <t>无锡六府实施</t>
   </si>
   <si>
@@ -213,6 +217,477 @@
   </si>
   <si>
     <t>三庐奶茶驻店</t>
+  </si>
+  <si>
+    <t>薪资</t>
+  </si>
+  <si>
+    <t>未调休</t>
+  </si>
+  <si>
+    <t>已调休</t>
+  </si>
+  <si>
+    <t>加班调休登记表</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>加班时间</t>
+  </si>
+  <si>
+    <t>加班时长（小时数）</t>
+  </si>
+  <si>
+    <t>加班事由</t>
+  </si>
+  <si>
+    <t>补休时间</t>
+  </si>
+  <si>
+    <t>服务记录单确认</t>
+  </si>
+  <si>
+    <t>8月19日
+-8月20日</t>
+  </si>
+  <si>
+    <t>2天</t>
+  </si>
+  <si>
+    <t>金五门实施培训驻店</t>
+  </si>
+  <si>
+    <t>已确认</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2月4日-12月5日</t>
+    </r>
+  </si>
+  <si>
+    <t>9月2日
+9：00-18：00</t>
+  </si>
+  <si>
+    <t>音乐厨房供应链系统上线</t>
+  </si>
+  <si>
+    <t>9月3日
+9：00-18：00</t>
+  </si>
+  <si>
+    <t>9月9日
+9：00-18：00</t>
+  </si>
+  <si>
+    <t>沙县小吃常州009门店上线</t>
+  </si>
+  <si>
+    <t>已计加班费</t>
+  </si>
+  <si>
+    <t>上线确认单已确认</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">9月9日
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：00-18：00</t>
+    </r>
+  </si>
+  <si>
+    <t>烫小二项目saas门店上线</t>
+  </si>
+  <si>
+    <t>1月2日
+3小时</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9月9日
+13：00-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：00</t>
+    </r>
+  </si>
+  <si>
+    <t>和满楼项目上线需要培训</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9月9日
+20：00-23：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>虞家锅盔（五爱家园店）门店上线需要实施培训</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日
+9：00-18：00</t>
+    </r>
+  </si>
+  <si>
+    <t>虞家锅盔（三阳广场店）门店上线需要实施培训</t>
+  </si>
+  <si>
+    <t>9月23日
+13：30-15：00</t>
+  </si>
+  <si>
+    <t>小小河边鱼仙林店项目saas门店上线</t>
+  </si>
+  <si>
+    <t>9月23日
+9：00-18：00</t>
+  </si>
+  <si>
+    <t>一门忠辣门店上线需要实施和培训</t>
+  </si>
+  <si>
+    <t>9月24日
+15：00-22：00</t>
+  </si>
+  <si>
+    <t>众匠项目大聪家店</t>
+  </si>
+  <si>
+    <t>10月1日
+9:00-13:30</t>
+  </si>
+  <si>
+    <t>小青森常州</t>
+  </si>
+  <si>
+    <t>10月5日
+11:00-21:00</t>
+  </si>
+  <si>
+    <t>兰州拉面、潮牛</t>
+  </si>
+  <si>
+    <t>10月8日
+9:00-18:00</t>
+  </si>
+  <si>
+    <t>木香阁驻店；惠之鲜项目上线需要实施和培训</t>
+  </si>
+  <si>
+    <t>10月14日
+13:00-21:30</t>
+  </si>
+  <si>
+    <t>Honeyfresh项目上线需要实施和培训</t>
+  </si>
+  <si>
+    <t>10月21日
+12：00-18：30</t>
+  </si>
+  <si>
+    <t>北京羊蝎子火锅项目上线需要实施和培训</t>
+  </si>
+  <si>
+    <t>10月7日
+10:50-16:45</t>
+  </si>
+  <si>
+    <t>杠岗香</t>
+  </si>
+  <si>
+    <t>扬州大龙火锅开业，驻店</t>
+  </si>
+  <si>
+    <t>鸭德堡（天赋广场）项目上线</t>
+  </si>
+  <si>
+    <t>鸭得堡无锡店上线培训</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2月10日
+10:00-15:00</t>
+    </r>
+  </si>
+  <si>
+    <t>老大薯条项目上线</t>
+  </si>
+  <si>
+    <t>匠边鱼开业驻店</t>
+  </si>
+  <si>
+    <t>12月16日
+9:00-14:00</t>
+  </si>
+  <si>
+    <t>小羔羊上线驻店</t>
+  </si>
+  <si>
+    <t>成都分公司项目</t>
+  </si>
+  <si>
+    <t>徐州一品飘香及爆味小地锅项目安装</t>
+  </si>
+  <si>
+    <t>广东猪肚鸡 项目门店实施</t>
+  </si>
+  <si>
+    <t>美美翰尼炸鸡店项目实施安装</t>
+  </si>
+  <si>
+    <t>常州存誉大酒店实施及驻店</t>
+  </si>
+  <si>
+    <t>锦春东台店实施</t>
+  </si>
+  <si>
+    <t>茶阡陌驻店</t>
+  </si>
+  <si>
+    <t>巴适满堂美蛙鱼头火锅店上线</t>
+  </si>
+  <si>
+    <t>元旦放假需值班</t>
+  </si>
+  <si>
+    <t>养记百味鸡秦虹路店实施</t>
+  </si>
+  <si>
+    <t>卤味牛肉锅开业驻店</t>
+  </si>
+  <si>
+    <t>两个天堂项目上线</t>
+  </si>
+  <si>
+    <t>鱼见幸福上线</t>
+  </si>
+  <si>
+    <t>女人当家实施上线和九月红厨房打印机不出单</t>
+  </si>
+  <si>
+    <t>哈姆特天印大道店重新安装操作系统</t>
+  </si>
+  <si>
+    <t>南京福怡阁餐饮管理有限公司上线</t>
+  </si>
+  <si>
+    <t>南京咪咔烘焙开业驻店</t>
+  </si>
+  <si>
+    <t>福鑫园开业驻店</t>
+  </si>
+  <si>
+    <t>无锡六府项目上线</t>
+  </si>
+  <si>
+    <t>大卤爷项目上线</t>
+  </si>
+  <si>
+    <t>南京六福餐饮上线培训驻店</t>
+  </si>
+  <si>
+    <t>清明节放假留守值班</t>
+  </si>
+  <si>
+    <t>让签签飞南京栖霞店实施及培训</t>
+  </si>
+  <si>
+    <t>百鹅汇商户售后，需要更换收银机</t>
+  </si>
+  <si>
+    <t>苏州沙县小吃店更换内存条</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14日-4月15日</t>
+    </r>
+  </si>
+  <si>
+    <t>常熟沙县小吃店更换内存条</t>
+  </si>
+  <si>
+    <t>李不管南通店实施、培训</t>
+  </si>
+  <si>
+    <t>鲜货俚火锅实施培训</t>
+  </si>
+  <si>
+    <t>八戒肥肠托乐嘉店实施及培训</t>
+  </si>
+  <si>
+    <t>美蛙鱼头如东店实施、培训</t>
+  </si>
+  <si>
+    <t>劳动节放假留守值班</t>
+  </si>
+  <si>
+    <t>家的味道实施、培训</t>
+  </si>
+  <si>
+    <t>熊牛日式炭烧肉项目上线</t>
+  </si>
+  <si>
+    <t>老厨人深海炖锅实施、培训</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30-5月1日</t>
+    </r>
+  </si>
+  <si>
+    <t>槐店王婆大虾泰州店实施培训以及驻店</t>
+  </si>
+  <si>
+    <t>董家金牌锅贴安庆馄饨实施、培训</t>
+  </si>
+  <si>
+    <t>丼憩茶饮项目驻店</t>
+  </si>
+  <si>
+    <t>劳动节放假值班</t>
+  </si>
+  <si>
+    <t>福客多大食堂项目驻店</t>
+  </si>
+  <si>
+    <t>奶酪时光驻店</t>
   </si>
 </sst>
 </file>
@@ -220,17 +695,40 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -240,6 +738,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -278,15 +782,67 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,65 +873,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,6 +889,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,39 +919,49 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -491,7 +1007,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,31 +1085,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,25 +1145,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,97 +1175,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,58 +1210,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -768,10 +1239,66 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -786,6 +1313,17 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -972,27 +1510,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1064,8 +1604,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1075,60 +1619,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,6 +1649,41 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1195,191 +1726,216 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1388,20 +1944,20 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1410,275 +1966,282 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2007,7 +2570,7 @@
   <sheetPr/>
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+    <sheetView topLeftCell="B43" workbookViewId="0">
       <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
@@ -2024,2848 +2587,2848 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:17">
-      <c r="A1" s="32"/>
-      <c r="B1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
+      <c r="A1" s="49"/>
+      <c r="B1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
     </row>
     <row r="2" ht="16.5" spans="1:17">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="79" t="s">
+      <c r="J2" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="81" t="s">
+      <c r="L2" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="82" t="s">
+      <c r="M2" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="83" t="s">
+      <c r="N2" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
     </row>
     <row r="3" ht="15" spans="1:17">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="60">
         <v>6</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="61">
         <v>12</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="62">
         <f t="shared" ref="F3:F13" si="0">D3-E3</f>
         <v>-6</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46">
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63">
         <f t="shared" ref="I3:I9" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86">
+      <c r="J3" s="102"/>
+      <c r="K3" s="103">
         <f t="shared" ref="K3:K10" si="2">J3/M3*100%</f>
         <v>0</v>
       </c>
-      <c r="L3" s="87">
+      <c r="L3" s="104">
         <f t="shared" ref="L3:L12" si="3">D3+H3</f>
         <v>6</v>
       </c>
-      <c r="M3" s="88">
+      <c r="M3" s="105">
         <f>E3+H3</f>
         <v>12</v>
       </c>
-      <c r="N3" s="89">
+      <c r="N3" s="106">
         <f t="shared" ref="N3:N10" si="4">M3/L3*100%</f>
         <v>2</v>
       </c>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="40">
+      <c r="A4" s="57">
         <v>4</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="66">
         <v>2</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="61">
         <v>4</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="62">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="50">
+      <c r="G4" s="67"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="86">
+      <c r="J4" s="108"/>
+      <c r="K4" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L4" s="87">
+      <c r="L4" s="104">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M4" s="88">
+      <c r="M4" s="105">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>4</v>
       </c>
-      <c r="N4" s="89">
+      <c r="N4" s="106">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="51"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="66">
         <v>4</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="61">
         <v>3</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="62">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="50">
+      <c r="G5" s="67"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="91"/>
-      <c r="K5" s="86">
+      <c r="J5" s="108"/>
+      <c r="K5" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L5" s="87">
+      <c r="L5" s="104">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M5" s="88">
+      <c r="M5" s="105">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="N5" s="89">
+      <c r="N5" s="106">
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="51"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48" t="s">
+      <c r="A6" s="68"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="66">
         <v>4</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="61">
         <v>3</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="62">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="50">
+      <c r="G6" s="67"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="91"/>
-      <c r="K6" s="86">
+      <c r="J6" s="108"/>
+      <c r="K6" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L6" s="87">
+      <c r="L6" s="104">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M6" s="88">
+      <c r="M6" s="105">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="N6" s="89">
+      <c r="N6" s="106">
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="51"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="66">
         <v>3</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="61">
         <v>1</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="62">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="50">
+      <c r="G7" s="67"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="86">
+      <c r="J7" s="108"/>
+      <c r="K7" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L7" s="87">
+      <c r="L7" s="104">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="M7" s="88">
+      <c r="M7" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N7" s="89">
+      <c r="N7" s="106">
         <f t="shared" si="4"/>
         <v>0.333333333333333</v>
       </c>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="51"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48" t="s">
+      <c r="A8" s="68"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="66">
         <v>6</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="61">
         <v>3</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="62">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="50">
+      <c r="G8" s="67"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="91"/>
-      <c r="K8" s="86">
+      <c r="J8" s="108"/>
+      <c r="K8" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L8" s="87">
+      <c r="L8" s="104">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="M8" s="88">
+      <c r="M8" s="105">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="N8" s="89">
+      <c r="N8" s="106">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="51"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48" t="s">
+      <c r="A9" s="68"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="66">
         <v>1</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="61">
         <v>1</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="50">
+      <c r="G9" s="67"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="91"/>
-      <c r="K9" s="86">
+      <c r="J9" s="108"/>
+      <c r="K9" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L9" s="87">
+      <c r="L9" s="104">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M9" s="88">
+      <c r="M9" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N9" s="89">
+      <c r="N9" s="106">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="51"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48" t="s">
+      <c r="A10" s="68"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="69">
         <v>4</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="66">
         <v>4</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="92">
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="109">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L10" s="93">
+      <c r="L10" s="110">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M10" s="93">
+      <c r="M10" s="110">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="N10" s="94">
+      <c r="N10" s="111">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="107"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="51"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="53" t="s">
+      <c r="A11" s="68"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="69">
         <v>4</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="66">
         <v>5</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="62">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="93">
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="110">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M11" s="93">
+      <c r="M11" s="110">
         <v>5</v>
       </c>
-      <c r="N11" s="94">
-        <v>0</v>
-      </c>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
+      <c r="N11" s="111">
+        <v>0</v>
+      </c>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="51"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55" t="s">
+      <c r="A12" s="68"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D12" s="69">
         <v>1</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="66">
         <v>1</v>
       </c>
-      <c r="F12" s="45">
-        <v>0</v>
-      </c>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="93">
+      <c r="F12" s="62">
+        <v>0</v>
+      </c>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="110">
         <v>1</v>
       </c>
-      <c r="M12" s="93">
+      <c r="M12" s="110">
         <v>1</v>
       </c>
-      <c r="N12" s="89">
+      <c r="N12" s="106">
         <f>M12/L12*100%</f>
         <v>1</v>
       </c>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
     </row>
     <row r="13" ht="15" spans="1:17">
-      <c r="A13" s="51"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="56" t="s">
+      <c r="A13" s="68"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D13" s="69">
         <v>5</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="66">
         <v>6</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="62">
         <f>D13-E13</f>
         <v>-1</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50">
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67">
         <f t="shared" ref="I13:I23" si="6">G13-H13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="91"/>
-      <c r="K13" s="92">
+      <c r="J13" s="108"/>
+      <c r="K13" s="109">
         <f t="shared" ref="K13:K26" si="7">J13/M13*100%</f>
         <v>0</v>
       </c>
-      <c r="L13" s="93">
+      <c r="L13" s="110">
         <f>D13+H13</f>
         <v>5</v>
       </c>
-      <c r="M13" s="93">
+      <c r="M13" s="110">
         <f>E13+J13</f>
         <v>6</v>
       </c>
-      <c r="N13" s="94">
+      <c r="N13" s="111">
         <f t="shared" ref="N13:N26" si="8">M13/L13*100%</f>
         <v>1.2</v>
       </c>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
     </row>
     <row r="14" ht="15" spans="1:17">
-      <c r="A14" s="57"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59" t="s">
+      <c r="A14" s="74"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14" s="77">
         <f>SUM(D3:D13)</f>
         <v>40</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E14" s="78">
         <f>SUM(E3:E13)</f>
         <v>43</v>
       </c>
-      <c r="F14" s="62">
+      <c r="F14" s="79">
         <f>D14-E14</f>
         <v>-3</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="80">
         <f>SUM(G3:G13)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="80">
         <f>SUM(H3:H13)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="63">
+      <c r="I14" s="80">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J14" s="63">
+      <c r="J14" s="80">
         <f>SUM(J3:J13)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="95">
+      <c r="K14" s="112">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L14" s="63">
+      <c r="L14" s="80">
         <f>SUM(L3:L13)</f>
         <v>40</v>
       </c>
-      <c r="M14" s="63">
+      <c r="M14" s="80">
         <f>SUM(M3:M13)</f>
         <v>43</v>
       </c>
-      <c r="N14" s="96">
+      <c r="N14" s="113">
         <f t="shared" si="8"/>
         <v>1.075</v>
       </c>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="107"/>
     </row>
     <row r="15" ht="15"/>
     <row r="16" ht="15" spans="2:14">
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="78" t="s">
+      <c r="I16" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="79" t="s">
+      <c r="J16" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="80" t="s">
+      <c r="K16" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="81" t="s">
+      <c r="L16" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="82" t="s">
+      <c r="M16" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="N16" s="97" t="s">
+      <c r="N16" s="114" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="60">
         <v>5</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="81">
         <v>5</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="62">
         <f t="shared" ref="F17:F26" si="9">D17-E17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46">
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J17" s="85"/>
-      <c r="K17" s="86">
+      <c r="J17" s="102"/>
+      <c r="K17" s="103">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L17" s="87">
+      <c r="L17" s="104">
         <f t="shared" ref="L17:L25" si="10">D17+H17</f>
         <v>5</v>
       </c>
-      <c r="M17" s="88">
+      <c r="M17" s="105">
         <f>E17+H17</f>
         <v>5</v>
       </c>
-      <c r="N17" s="89">
+      <c r="N17" s="106">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="47"/>
-      <c r="C18" s="48" t="s">
+      <c r="B18" s="64"/>
+      <c r="C18" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="49">
+      <c r="D18" s="66">
         <v>7</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="61">
         <v>7</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="62">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="50">
+      <c r="G18" s="67"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="67">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J18" s="91"/>
-      <c r="K18" s="86">
+      <c r="J18" s="108"/>
+      <c r="K18" s="103">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L18" s="87">
+      <c r="L18" s="104">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="M18" s="88">
+      <c r="M18" s="105">
         <f t="shared" ref="M18:M25" si="11">E18+J18</f>
         <v>7</v>
       </c>
-      <c r="N18" s="89">
+      <c r="N18" s="106">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="47"/>
-      <c r="C19" s="48" t="s">
+      <c r="B19" s="64"/>
+      <c r="C19" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="49">
+      <c r="D19" s="66">
         <v>3</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="61">
         <v>3</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="62">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="50">
+      <c r="G19" s="67"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="67">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J19" s="91"/>
-      <c r="K19" s="86">
+      <c r="J19" s="108"/>
+      <c r="K19" s="103">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L19" s="87">
+      <c r="L19" s="104">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="M19" s="88">
+      <c r="M19" s="105">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="N19" s="89">
+      <c r="N19" s="106">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="47"/>
-      <c r="C20" s="48" t="s">
+      <c r="B20" s="64"/>
+      <c r="C20" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="66">
         <v>2</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="61">
         <v>5</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="62">
         <f t="shared" si="9"/>
         <v>-3</v>
       </c>
-      <c r="G20" s="50"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="50">
+      <c r="G20" s="67"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="67">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J20" s="91"/>
-      <c r="K20" s="86">
+      <c r="J20" s="108"/>
+      <c r="K20" s="103">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L20" s="87">
+      <c r="L20" s="104">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="M20" s="88">
+      <c r="M20" s="105">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="N20" s="89">
+      <c r="N20" s="106">
         <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="47"/>
-      <c r="C21" s="48" t="s">
+      <c r="B21" s="64"/>
+      <c r="C21" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="49">
+      <c r="D21" s="66">
         <v>3</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="61">
         <v>2</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="62">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="G21" s="50"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="50">
+      <c r="G21" s="67"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="67">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J21" s="91"/>
-      <c r="K21" s="86">
+      <c r="J21" s="108"/>
+      <c r="K21" s="103">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L21" s="87">
+      <c r="L21" s="104">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="M21" s="88">
+      <c r="M21" s="105">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="N21" s="89">
+      <c r="N21" s="106">
         <f t="shared" si="8"/>
         <v>0.666666666666667</v>
       </c>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="47"/>
-      <c r="C22" s="48" t="s">
+      <c r="B22" s="64"/>
+      <c r="C22" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="49">
+      <c r="D22" s="66">
         <v>10</v>
       </c>
-      <c r="E22" s="49">
+      <c r="E22" s="66">
         <v>9</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="62">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="G22" s="50"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="50">
+      <c r="G22" s="67"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="67">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J22" s="91"/>
-      <c r="K22" s="86">
+      <c r="J22" s="108"/>
+      <c r="K22" s="103">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L22" s="87">
+      <c r="L22" s="104">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="M22" s="88">
+      <c r="M22" s="105">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="N22" s="89">
+      <c r="N22" s="106">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="47"/>
-      <c r="C23" s="48" t="s">
+      <c r="B23" s="64"/>
+      <c r="C23" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="65">
+      <c r="D23" s="82">
         <v>3</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="61">
         <v>6</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="62">
         <f t="shared" si="9"/>
         <v>-3</v>
       </c>
-      <c r="G23" s="50"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="50">
+      <c r="G23" s="67"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="67">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J23" s="91"/>
-      <c r="K23" s="86">
+      <c r="J23" s="108"/>
+      <c r="K23" s="103">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L23" s="87">
+      <c r="L23" s="104">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="M23" s="88">
+      <c r="M23" s="105">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="N23" s="89">
+      <c r="N23" s="106">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="47"/>
-      <c r="C24" s="48" t="s">
+      <c r="B24" s="64"/>
+      <c r="C24" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="65">
+      <c r="D24" s="82">
         <v>1</v>
       </c>
-      <c r="E24" s="49">
+      <c r="E24" s="66">
         <v>1</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="62">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G24" s="50"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="86">
+      <c r="G24" s="67"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="103">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L24" s="87">
+      <c r="L24" s="104">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M24" s="88">
+      <c r="M24" s="105">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="N24" s="98">
+      <c r="N24" s="115">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O24" s="99"/>
+      <c r="O24" s="116"/>
     </row>
     <row r="25" ht="15" spans="2:14">
-      <c r="B25" s="47"/>
-      <c r="C25" s="48" t="s">
+      <c r="B25" s="64"/>
+      <c r="C25" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="52">
+      <c r="D25" s="69">
         <v>3</v>
       </c>
-      <c r="E25" s="49">
+      <c r="E25" s="66">
         <v>3</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="62">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="92">
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="109">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L25" s="93">
+      <c r="L25" s="110">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="M25" s="93">
+      <c r="M25" s="110">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="N25" s="100">
+      <c r="N25" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" ht="15" spans="2:14">
-      <c r="B26" s="58"/>
-      <c r="C26" s="59" t="s">
+      <c r="B26" s="75"/>
+      <c r="C26" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="60">
+      <c r="D26" s="77">
         <f t="shared" ref="D26:H26" si="12">SUM(D17:D25)</f>
         <v>37</v>
       </c>
-      <c r="E26" s="61">
+      <c r="E26" s="78">
         <f t="shared" si="12"/>
         <v>41</v>
       </c>
-      <c r="F26" s="62">
+      <c r="F26" s="79">
         <f t="shared" si="9"/>
         <v>-4</v>
       </c>
-      <c r="G26" s="63">
+      <c r="G26" s="80">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H26" s="63">
+      <c r="H26" s="80">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I26" s="63">
+      <c r="I26" s="80">
         <f t="shared" ref="I26:I35" si="13">G26-H26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="63">
+      <c r="J26" s="80">
         <f t="shared" ref="J26:M26" si="14">SUM(J17:J25)</f>
         <v>0</v>
       </c>
-      <c r="K26" s="95">
+      <c r="K26" s="112">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L26" s="63">
+      <c r="L26" s="80">
         <f t="shared" si="14"/>
         <v>37</v>
       </c>
-      <c r="M26" s="63">
+      <c r="M26" s="80">
         <f t="shared" si="14"/>
         <v>41</v>
       </c>
-      <c r="N26" s="96">
+      <c r="N26" s="113">
         <f t="shared" si="8"/>
         <v>1.10810810810811</v>
       </c>
     </row>
     <row r="27" ht="15"/>
     <row r="28" ht="15" spans="2:14">
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="67" t="s">
+      <c r="F28" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="39" t="s">
+      <c r="H28" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="78" t="s">
+      <c r="I28" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="J28" s="79" t="s">
+      <c r="J28" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="K28" s="80" t="s">
+      <c r="K28" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="L28" s="101" t="s">
+      <c r="L28" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="M28" s="102" t="s">
+      <c r="M28" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="N28" s="103" t="s">
+      <c r="N28" s="120" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="60">
         <v>4</v>
       </c>
-      <c r="E29" s="64">
+      <c r="E29" s="81">
         <v>6</v>
       </c>
-      <c r="F29" s="45">
+      <c r="F29" s="62">
         <f t="shared" ref="F29:F38" si="15">D29-E29</f>
         <v>-2</v>
       </c>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46">
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J29" s="85"/>
-      <c r="K29" s="86">
+      <c r="J29" s="102"/>
+      <c r="K29" s="103">
         <f t="shared" ref="K29:K35" si="16">J29/M29*100%</f>
         <v>0</v>
       </c>
-      <c r="L29" s="87">
+      <c r="L29" s="104">
         <f t="shared" ref="L29:L37" si="17">D29+H29</f>
         <v>4</v>
       </c>
-      <c r="M29" s="88">
+      <c r="M29" s="105">
         <f>E29+H29</f>
         <v>6</v>
       </c>
-      <c r="N29" s="89">
+      <c r="N29" s="106">
         <f t="shared" ref="N29:N35" si="18">M29/L29*100%</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="47"/>
-      <c r="C30" s="48" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="49">
+      <c r="D30" s="66">
         <v>3</v>
       </c>
-      <c r="E30" s="44">
+      <c r="E30" s="61">
         <v>3</v>
       </c>
-      <c r="F30" s="45">
+      <c r="F30" s="62">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G30" s="50"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="50">
+      <c r="G30" s="67"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="67">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J30" s="91"/>
-      <c r="K30" s="86">
+      <c r="J30" s="108"/>
+      <c r="K30" s="103">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L30" s="87">
+      <c r="L30" s="104">
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
-      <c r="M30" s="88">
+      <c r="M30" s="105">
         <f t="shared" ref="M30:M35" si="19">E30+J30</f>
         <v>3</v>
       </c>
-      <c r="N30" s="89">
+      <c r="N30" s="106">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="47"/>
-      <c r="C31" s="48" t="s">
+      <c r="B31" s="64"/>
+      <c r="C31" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="49">
+      <c r="D31" s="66">
         <v>3</v>
       </c>
-      <c r="E31" s="44">
+      <c r="E31" s="61">
         <v>2</v>
       </c>
-      <c r="F31" s="45">
+      <c r="F31" s="62">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="G31" s="50"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="50">
+      <c r="G31" s="67"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="67">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J31" s="91"/>
-      <c r="K31" s="86">
+      <c r="J31" s="108"/>
+      <c r="K31" s="103">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L31" s="87">
+      <c r="L31" s="104">
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
-      <c r="M31" s="88">
+      <c r="M31" s="105">
         <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="N31" s="89">
+      <c r="N31" s="106">
         <f t="shared" si="18"/>
         <v>0.666666666666667</v>
       </c>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="47"/>
-      <c r="C32" s="48" t="s">
+      <c r="B32" s="64"/>
+      <c r="C32" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="44">
+      <c r="D32" s="61">
         <v>3</v>
       </c>
-      <c r="E32" s="44">
+      <c r="E32" s="61">
         <v>1</v>
       </c>
-      <c r="F32" s="45">
+      <c r="F32" s="62">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="G32" s="50"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="50">
+      <c r="G32" s="67"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="67">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J32" s="91"/>
-      <c r="K32" s="86">
+      <c r="J32" s="108"/>
+      <c r="K32" s="103">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L32" s="87">
+      <c r="L32" s="104">
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
-      <c r="M32" s="88">
+      <c r="M32" s="105">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="N32" s="89">
+      <c r="N32" s="106">
         <f t="shared" si="18"/>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="47"/>
-      <c r="C33" s="48" t="s">
+      <c r="B33" s="64"/>
+      <c r="C33" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="49">
+      <c r="D33" s="66">
         <v>6</v>
       </c>
-      <c r="E33" s="44">
+      <c r="E33" s="61">
         <v>6</v>
       </c>
-      <c r="F33" s="45">
+      <c r="F33" s="62">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G33" s="50"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="50">
+      <c r="G33" s="67"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="67">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J33" s="91"/>
-      <c r="K33" s="86">
+      <c r="J33" s="108"/>
+      <c r="K33" s="103">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L33" s="87">
+      <c r="L33" s="104">
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
-      <c r="M33" s="88">
+      <c r="M33" s="105">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="N33" s="89">
+      <c r="N33" s="106">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="47"/>
-      <c r="C34" s="48" t="s">
+      <c r="B34" s="64"/>
+      <c r="C34" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="49">
+      <c r="D34" s="66">
         <v>1</v>
       </c>
-      <c r="E34" s="44">
+      <c r="E34" s="61">
         <v>1</v>
       </c>
-      <c r="F34" s="45">
+      <c r="F34" s="62">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G34" s="50"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="50">
+      <c r="G34" s="67"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="67">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J34" s="91"/>
-      <c r="K34" s="86">
+      <c r="J34" s="108"/>
+      <c r="K34" s="103">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L34" s="87">
+      <c r="L34" s="104">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="M34" s="88">
+      <c r="M34" s="105">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="N34" s="89">
+      <c r="N34" s="106">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="47"/>
-      <c r="C35" s="48" t="s">
+      <c r="B35" s="64"/>
+      <c r="C35" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="65">
+      <c r="D35" s="82">
         <v>1</v>
       </c>
-      <c r="E35" s="44">
+      <c r="E35" s="61">
         <v>4</v>
       </c>
-      <c r="F35" s="45">
+      <c r="F35" s="62">
         <f t="shared" si="15"/>
         <v>-3</v>
       </c>
-      <c r="G35" s="50"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="50">
+      <c r="G35" s="67"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="67">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J35" s="91"/>
-      <c r="K35" s="86">
+      <c r="J35" s="108"/>
+      <c r="K35" s="103">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L35" s="87">
+      <c r="L35" s="104">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="M35" s="88">
+      <c r="M35" s="105">
         <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="N35" s="89">
+      <c r="N35" s="106">
         <f t="shared" si="18"/>
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="47"/>
-      <c r="C36" s="48" t="s">
+      <c r="B36" s="64"/>
+      <c r="C36" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="65">
+      <c r="D36" s="82">
         <v>1</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="66">
         <v>1</v>
       </c>
-      <c r="F36" s="45">
+      <c r="F36" s="62">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G36" s="50"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="86"/>
-      <c r="L36" s="87">
+      <c r="G36" s="67"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="108"/>
+      <c r="K36" s="103"/>
+      <c r="L36" s="104">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="M36" s="88">
+      <c r="M36" s="105">
         <v>1</v>
       </c>
-      <c r="N36" s="98">
+      <c r="N36" s="115">
         <v>1</v>
       </c>
     </row>
     <row r="37" ht="15" spans="2:14">
-      <c r="B37" s="47"/>
-      <c r="C37" s="48" t="s">
+      <c r="B37" s="64"/>
+      <c r="C37" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="52">
+      <c r="D37" s="69">
         <v>1</v>
       </c>
-      <c r="E37" s="49">
+      <c r="E37" s="66">
         <v>2</v>
       </c>
-      <c r="F37" s="45">
+      <c r="F37" s="62">
         <f t="shared" si="15"/>
         <v>-1</v>
       </c>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="91"/>
-      <c r="K37" s="92">
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="108"/>
+      <c r="K37" s="109">
         <f t="shared" ref="K37:K50" si="20">J37/M37*100%</f>
         <v>0</v>
       </c>
-      <c r="L37" s="93">
+      <c r="L37" s="110">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="M37" s="93">
+      <c r="M37" s="110">
         <f>E37+J37</f>
         <v>2</v>
       </c>
-      <c r="N37" s="100">
+      <c r="N37" s="117">
         <f t="shared" ref="N37:N47" si="21">M37/L37*100%</f>
         <v>2</v>
       </c>
     </row>
     <row r="38" ht="15" spans="2:14">
-      <c r="B38" s="58"/>
-      <c r="C38" s="59" t="s">
+      <c r="B38" s="75"/>
+      <c r="C38" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="60">
+      <c r="D38" s="77">
         <f t="shared" ref="D38:H38" si="22">SUM(D29:D37)</f>
         <v>23</v>
       </c>
-      <c r="E38" s="61">
+      <c r="E38" s="78">
         <f t="shared" si="22"/>
         <v>26</v>
       </c>
-      <c r="F38" s="62">
+      <c r="F38" s="79">
         <f t="shared" si="15"/>
         <v>-3</v>
       </c>
-      <c r="G38" s="63">
+      <c r="G38" s="80">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H38" s="63">
+      <c r="H38" s="80">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="I38" s="63">
+      <c r="I38" s="80">
         <f t="shared" ref="I38:I47" si="23">G38-H38</f>
         <v>0</v>
       </c>
-      <c r="J38" s="63">
+      <c r="J38" s="80">
         <f t="shared" ref="J38:M38" si="24">SUM(J29:J37)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="95">
+      <c r="K38" s="112">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L38" s="63">
+      <c r="L38" s="80">
         <f t="shared" si="24"/>
         <v>23</v>
       </c>
-      <c r="M38" s="63">
+      <c r="M38" s="80">
         <f t="shared" si="24"/>
         <v>26</v>
       </c>
-      <c r="N38" s="96">
+      <c r="N38" s="113">
         <f t="shared" si="21"/>
         <v>1.1304347826087</v>
       </c>
     </row>
     <row r="39" ht="15"/>
     <row r="40" ht="15" spans="2:14">
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="66" t="s">
+      <c r="E40" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="67" t="s">
+      <c r="F40" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="G40" s="38" t="s">
+      <c r="G40" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="39" t="s">
+      <c r="H40" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="78" t="s">
+      <c r="I40" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="J40" s="79" t="s">
+      <c r="J40" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="80" t="s">
+      <c r="K40" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="L40" s="101" t="s">
+      <c r="L40" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="M40" s="102" t="s">
+      <c r="M40" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="103" t="s">
+      <c r="N40" s="120" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="41" spans="2:14">
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="43">
+      <c r="D41" s="60">
         <v>5</v>
       </c>
-      <c r="E41" s="64">
+      <c r="E41" s="81">
         <v>4</v>
       </c>
-      <c r="F41" s="45">
+      <c r="F41" s="62">
         <f t="shared" ref="F41:F50" si="25">D41-E41</f>
         <v>1</v>
       </c>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46">
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J41" s="85"/>
-      <c r="K41" s="86">
+      <c r="J41" s="102"/>
+      <c r="K41" s="103">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L41" s="87">
+      <c r="L41" s="104">
         <f t="shared" ref="L41:L49" si="26">D41+H41</f>
         <v>5</v>
       </c>
-      <c r="M41" s="88">
+      <c r="M41" s="105">
         <f>E41+H41</f>
         <v>4</v>
       </c>
-      <c r="N41" s="89">
+      <c r="N41" s="106">
         <f t="shared" si="21"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="42" spans="2:14">
-      <c r="B42" s="47"/>
-      <c r="C42" s="48" t="s">
+      <c r="B42" s="64"/>
+      <c r="C42" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="49">
+      <c r="D42" s="66">
         <v>1</v>
       </c>
-      <c r="E42" s="44">
+      <c r="E42" s="61">
         <v>1</v>
       </c>
-      <c r="F42" s="45">
+      <c r="F42" s="62">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="G42" s="50"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="50">
+      <c r="G42" s="67"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="67">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J42" s="91"/>
-      <c r="K42" s="86">
+      <c r="J42" s="108"/>
+      <c r="K42" s="103">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L42" s="87">
+      <c r="L42" s="104">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="M42" s="88">
+      <c r="M42" s="105">
         <f t="shared" ref="M42:M49" si="27">E42+J42</f>
         <v>1</v>
       </c>
-      <c r="N42" s="89">
+      <c r="N42" s="106">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:14">
-      <c r="B43" s="47"/>
-      <c r="C43" s="48" t="s">
+      <c r="B43" s="64"/>
+      <c r="C43" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="49">
+      <c r="D43" s="66">
         <v>2</v>
       </c>
-      <c r="E43" s="44">
+      <c r="E43" s="61">
         <v>8</v>
       </c>
-      <c r="F43" s="45">
+      <c r="F43" s="62">
         <f t="shared" si="25"/>
         <v>-6</v>
       </c>
-      <c r="G43" s="50"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="50">
+      <c r="G43" s="67"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="67">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J43" s="91"/>
-      <c r="K43" s="86">
+      <c r="J43" s="108"/>
+      <c r="K43" s="103">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L43" s="87">
+      <c r="L43" s="104">
         <f t="shared" si="26"/>
         <v>2</v>
       </c>
-      <c r="M43" s="88">
+      <c r="M43" s="105">
         <f t="shared" si="27"/>
         <v>8</v>
       </c>
-      <c r="N43" s="89">
+      <c r="N43" s="106">
         <f t="shared" si="21"/>
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="2:14">
-      <c r="B44" s="47"/>
-      <c r="C44" s="48" t="s">
+      <c r="B44" s="64"/>
+      <c r="C44" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="49">
+      <c r="D44" s="66">
         <v>5</v>
       </c>
-      <c r="E44" s="44">
+      <c r="E44" s="61">
         <v>5</v>
       </c>
-      <c r="F44" s="45">
+      <c r="F44" s="62">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="G44" s="50"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="50">
+      <c r="G44" s="67"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="67">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J44" s="91"/>
-      <c r="K44" s="86">
+      <c r="J44" s="108"/>
+      <c r="K44" s="103">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L44" s="87">
+      <c r="L44" s="104">
         <f t="shared" si="26"/>
         <v>5</v>
       </c>
-      <c r="M44" s="88">
+      <c r="M44" s="105">
         <f t="shared" si="27"/>
         <v>5</v>
       </c>
-      <c r="N44" s="89">
+      <c r="N44" s="106">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:14">
-      <c r="B45" s="47"/>
-      <c r="C45" s="48" t="s">
+      <c r="B45" s="64"/>
+      <c r="C45" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="49">
+      <c r="D45" s="66">
         <v>4</v>
       </c>
-      <c r="E45" s="44">
+      <c r="E45" s="61">
         <v>7</v>
       </c>
-      <c r="F45" s="45">
+      <c r="F45" s="62">
         <f t="shared" si="25"/>
         <v>-3</v>
       </c>
-      <c r="G45" s="50"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="50">
+      <c r="G45" s="67"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="67">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J45" s="91"/>
-      <c r="K45" s="86">
+      <c r="J45" s="108"/>
+      <c r="K45" s="103">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L45" s="87">
+      <c r="L45" s="104">
         <f t="shared" si="26"/>
         <v>4</v>
       </c>
-      <c r="M45" s="88">
+      <c r="M45" s="105">
         <f t="shared" si="27"/>
         <v>7</v>
       </c>
-      <c r="N45" s="89">
+      <c r="N45" s="106">
         <f t="shared" si="21"/>
         <v>1.75</v>
       </c>
     </row>
     <row r="46" spans="2:14">
-      <c r="B46" s="47"/>
-      <c r="C46" s="48" t="s">
+      <c r="B46" s="64"/>
+      <c r="C46" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="49">
+      <c r="D46" s="66">
         <v>5</v>
       </c>
-      <c r="E46" s="44">
+      <c r="E46" s="61">
         <v>9</v>
       </c>
-      <c r="F46" s="45">
+      <c r="F46" s="62">
         <f t="shared" si="25"/>
         <v>-4</v>
       </c>
-      <c r="G46" s="50"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="50">
+      <c r="G46" s="67"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="67">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J46" s="91"/>
-      <c r="K46" s="86">
+      <c r="J46" s="108"/>
+      <c r="K46" s="103">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L46" s="87">
+      <c r="L46" s="104">
         <f t="shared" si="26"/>
         <v>5</v>
       </c>
-      <c r="M46" s="88">
+      <c r="M46" s="105">
         <f t="shared" si="27"/>
         <v>9</v>
       </c>
-      <c r="N46" s="89">
+      <c r="N46" s="106">
         <f t="shared" si="21"/>
         <v>1.8</v>
       </c>
     </row>
     <row r="47" spans="2:14">
-      <c r="B47" s="47"/>
-      <c r="C47" s="48" t="s">
+      <c r="B47" s="64"/>
+      <c r="C47" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="44">
-        <v>0</v>
-      </c>
-      <c r="E47" s="44">
+      <c r="D47" s="61">
+        <v>0</v>
+      </c>
+      <c r="E47" s="61">
         <v>2</v>
       </c>
-      <c r="F47" s="45">
+      <c r="F47" s="62">
         <f t="shared" si="25"/>
         <v>-2</v>
       </c>
-      <c r="G47" s="50"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="50">
+      <c r="G47" s="67"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="67">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J47" s="91"/>
-      <c r="K47" s="86">
+      <c r="J47" s="108"/>
+      <c r="K47" s="103">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L47" s="87">
+      <c r="L47" s="104">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="M47" s="88">
+      <c r="M47" s="105">
         <f t="shared" si="27"/>
         <v>2</v>
       </c>
-      <c r="N47" s="104" t="e">
+      <c r="N47" s="121" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="48" spans="2:14">
-      <c r="B48" s="47"/>
-      <c r="C48" s="48" t="s">
+      <c r="B48" s="64"/>
+      <c r="C48" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="65">
-        <v>0</v>
-      </c>
-      <c r="E48" s="49">
+      <c r="D48" s="82">
+        <v>0</v>
+      </c>
+      <c r="E48" s="66">
         <v>5</v>
       </c>
-      <c r="F48" s="45">
+      <c r="F48" s="62">
         <f t="shared" si="25"/>
         <v>-5</v>
       </c>
-      <c r="G48" s="50"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="91"/>
-      <c r="K48" s="86">
+      <c r="G48" s="67"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="108"/>
+      <c r="K48" s="103">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L48" s="87">
+      <c r="L48" s="104">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="M48" s="93">
+      <c r="M48" s="110">
         <f t="shared" si="27"/>
         <v>5</v>
       </c>
-      <c r="N48" s="104">
+      <c r="N48" s="121">
         <f>L48/M48</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" ht="15" spans="2:14">
-      <c r="B49" s="47"/>
-      <c r="C49" s="48" t="s">
+      <c r="B49" s="64"/>
+      <c r="C49" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="65">
+      <c r="D49" s="82">
         <v>1</v>
       </c>
-      <c r="E49" s="49">
-        <v>0</v>
-      </c>
-      <c r="F49" s="45">
+      <c r="E49" s="66">
+        <v>0</v>
+      </c>
+      <c r="F49" s="62">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="G49" s="50"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="91"/>
-      <c r="K49" s="86" t="e">
+      <c r="G49" s="67"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="108"/>
+      <c r="K49" s="103" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L49" s="87">
+      <c r="L49" s="104">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="M49" s="88">
+      <c r="M49" s="105">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="N49" s="98" t="e">
+      <c r="N49" s="115" t="e">
         <f>L49/M49</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="50" ht="15" spans="2:14">
-      <c r="B50" s="58"/>
-      <c r="C50" s="59" t="s">
+      <c r="B50" s="75"/>
+      <c r="C50" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="60">
+      <c r="D50" s="77">
         <f t="shared" ref="D50:H50" si="28">SUM(D41:D49)</f>
         <v>23</v>
       </c>
-      <c r="E50" s="61">
+      <c r="E50" s="78">
         <f t="shared" si="28"/>
         <v>41</v>
       </c>
-      <c r="F50" s="62">
+      <c r="F50" s="79">
         <f t="shared" si="25"/>
         <v>-18</v>
       </c>
-      <c r="G50" s="63">
+      <c r="G50" s="80">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="H50" s="63">
+      <c r="H50" s="80">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="I50" s="63">
+      <c r="I50" s="80">
         <f t="shared" ref="I50:I59" si="29">G50-H50</f>
         <v>0</v>
       </c>
-      <c r="J50" s="63">
+      <c r="J50" s="80">
         <f t="shared" ref="J50:M50" si="30">SUM(J41:J49)</f>
         <v>0</v>
       </c>
-      <c r="K50" s="95">
+      <c r="K50" s="112">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L50" s="63">
+      <c r="L50" s="80">
         <f t="shared" si="30"/>
         <v>23</v>
       </c>
-      <c r="M50" s="63">
+      <c r="M50" s="80">
         <f t="shared" si="30"/>
         <v>41</v>
       </c>
-      <c r="N50" s="96">
+      <c r="N50" s="113">
         <f t="shared" ref="N50:N63" si="31">M50/L50*100%</f>
         <v>1.78260869565217</v>
       </c>
     </row>
     <row r="51" ht="15"/>
     <row r="52" ht="15" spans="2:14">
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="36" t="s">
+      <c r="D52" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="66" t="s">
+      <c r="E52" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="67" t="s">
+      <c r="F52" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="38" t="s">
+      <c r="G52" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H52" s="39" t="s">
+      <c r="H52" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I52" s="78" t="s">
+      <c r="I52" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="79" t="s">
+      <c r="J52" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="K52" s="80" t="s">
+      <c r="K52" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="L52" s="101" t="s">
+      <c r="L52" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="M52" s="102" t="s">
+      <c r="M52" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="N52" s="103" t="s">
+      <c r="N52" s="120" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="53" spans="2:14">
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="42" t="s">
+      <c r="C53" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="68">
+      <c r="D53" s="85">
         <v>5</v>
       </c>
-      <c r="E53" s="69">
+      <c r="E53" s="86">
         <v>2</v>
       </c>
-      <c r="F53" s="70">
+      <c r="F53" s="87">
         <f t="shared" ref="F53:F63" si="32">D53-E53</f>
         <v>3</v>
       </c>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46">
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J53" s="85"/>
-      <c r="K53" s="86">
+      <c r="J53" s="102"/>
+      <c r="K53" s="103">
         <f t="shared" ref="K53:K63" si="33">J53/M53*100%</f>
         <v>0</v>
       </c>
-      <c r="L53" s="87">
+      <c r="L53" s="104">
         <f t="shared" ref="L53:L62" si="34">D53+H53</f>
         <v>5</v>
       </c>
-      <c r="M53" s="88">
+      <c r="M53" s="105">
         <f>E53+H53</f>
         <v>2</v>
       </c>
-      <c r="N53" s="89">
+      <c r="N53" s="106">
         <f t="shared" si="31"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="54" spans="2:14">
-      <c r="B54" s="47"/>
-      <c r="C54" s="48" t="s">
+      <c r="B54" s="64"/>
+      <c r="C54" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="68">
+      <c r="D54" s="85">
         <v>4</v>
       </c>
-      <c r="E54" s="69">
+      <c r="E54" s="86">
         <v>1</v>
       </c>
-      <c r="F54" s="68">
+      <c r="F54" s="85">
         <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G54" s="50"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="50">
+      <c r="G54" s="67"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="67">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J54" s="91"/>
-      <c r="K54" s="86">
+      <c r="J54" s="108"/>
+      <c r="K54" s="103">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L54" s="87">
+      <c r="L54" s="104">
         <f t="shared" si="34"/>
         <v>4</v>
       </c>
-      <c r="M54" s="88">
+      <c r="M54" s="105">
         <f t="shared" ref="M54:M62" si="35">E54+J54</f>
         <v>1</v>
       </c>
-      <c r="N54" s="89">
+      <c r="N54" s="106">
         <f t="shared" si="31"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="55" spans="2:14">
-      <c r="B55" s="47"/>
-      <c r="C55" s="48" t="s">
+      <c r="B55" s="64"/>
+      <c r="C55" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D55" s="68">
+      <c r="D55" s="85">
         <v>9</v>
       </c>
-      <c r="E55" s="45">
+      <c r="E55" s="62">
         <v>10</v>
       </c>
-      <c r="F55" s="68">
+      <c r="F55" s="85">
         <f t="shared" si="32"/>
         <v>-1</v>
       </c>
-      <c r="G55" s="50"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="50">
+      <c r="G55" s="67"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="67">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J55" s="91"/>
-      <c r="K55" s="86">
+      <c r="J55" s="108"/>
+      <c r="K55" s="103">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L55" s="87">
+      <c r="L55" s="104">
         <f t="shared" si="34"/>
         <v>9</v>
       </c>
-      <c r="M55" s="88">
+      <c r="M55" s="105">
         <f t="shared" si="35"/>
         <v>10</v>
       </c>
-      <c r="N55" s="89">
+      <c r="N55" s="106">
         <f t="shared" si="31"/>
         <v>1.11111111111111</v>
       </c>
     </row>
     <row r="56" spans="2:14">
-      <c r="B56" s="47"/>
-      <c r="C56" s="48" t="s">
+      <c r="B56" s="64"/>
+      <c r="C56" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="71">
+      <c r="D56" s="88">
         <v>8</v>
       </c>
-      <c r="E56" s="45">
+      <c r="E56" s="62">
         <v>5</v>
       </c>
-      <c r="F56" s="68">
+      <c r="F56" s="85">
         <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G56" s="50"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="50">
+      <c r="G56" s="67"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="67">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J56" s="91"/>
-      <c r="K56" s="86">
+      <c r="J56" s="108"/>
+      <c r="K56" s="103">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L56" s="87">
+      <c r="L56" s="104">
         <f t="shared" si="34"/>
         <v>8</v>
       </c>
-      <c r="M56" s="88">
+      <c r="M56" s="105">
         <f t="shared" si="35"/>
         <v>5</v>
       </c>
-      <c r="N56" s="89">
+      <c r="N56" s="106">
         <f t="shared" si="31"/>
         <v>0.625</v>
       </c>
     </row>
     <row r="57" spans="2:14">
-      <c r="B57" s="47"/>
-      <c r="C57" s="48" t="s">
+      <c r="B57" s="64"/>
+      <c r="C57" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="68">
+      <c r="D57" s="85">
         <v>8</v>
       </c>
-      <c r="E57" s="68">
+      <c r="E57" s="85">
         <v>10</v>
       </c>
-      <c r="F57" s="68">
+      <c r="F57" s="85">
         <f t="shared" si="32"/>
         <v>-2</v>
       </c>
-      <c r="G57" s="50"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="50">
+      <c r="G57" s="67"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="67">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J57" s="91"/>
-      <c r="K57" s="86">
+      <c r="J57" s="108"/>
+      <c r="K57" s="103">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L57" s="87">
+      <c r="L57" s="104">
         <f t="shared" si="34"/>
         <v>8</v>
       </c>
-      <c r="M57" s="88">
+      <c r="M57" s="105">
         <f t="shared" si="35"/>
         <v>10</v>
       </c>
-      <c r="N57" s="89">
+      <c r="N57" s="106">
         <f t="shared" si="31"/>
         <v>1.25</v>
       </c>
     </row>
     <row r="58" spans="2:14">
-      <c r="B58" s="47"/>
-      <c r="C58" s="48" t="s">
+      <c r="B58" s="64"/>
+      <c r="C58" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="68">
+      <c r="D58" s="85">
         <v>6</v>
       </c>
-      <c r="E58" s="69">
+      <c r="E58" s="86">
         <v>9</v>
       </c>
-      <c r="F58" s="68">
+      <c r="F58" s="85">
         <f t="shared" si="32"/>
         <v>-3</v>
       </c>
-      <c r="G58" s="50"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="50">
+      <c r="G58" s="67"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="67">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J58" s="91"/>
-      <c r="K58" s="86">
+      <c r="J58" s="108"/>
+      <c r="K58" s="103">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L58" s="87">
+      <c r="L58" s="104">
         <f t="shared" si="34"/>
         <v>6</v>
       </c>
-      <c r="M58" s="88">
+      <c r="M58" s="105">
         <f t="shared" si="35"/>
         <v>9</v>
       </c>
-      <c r="N58" s="89">
+      <c r="N58" s="106">
         <f t="shared" si="31"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="59" spans="2:14">
-      <c r="B59" s="47"/>
-      <c r="C59" s="48" t="s">
+      <c r="B59" s="64"/>
+      <c r="C59" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="71">
+      <c r="D59" s="88">
         <v>8</v>
       </c>
-      <c r="E59" s="69">
+      <c r="E59" s="86">
         <v>16</v>
       </c>
-      <c r="F59" s="68">
+      <c r="F59" s="85">
         <f t="shared" si="32"/>
         <v>-8</v>
       </c>
-      <c r="G59" s="50"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="50">
+      <c r="G59" s="67"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="67">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J59" s="91"/>
-      <c r="K59" s="86">
+      <c r="J59" s="108"/>
+      <c r="K59" s="103">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L59" s="87">
+      <c r="L59" s="104">
         <f t="shared" si="34"/>
         <v>8</v>
       </c>
-      <c r="M59" s="88">
+      <c r="M59" s="105">
         <f t="shared" si="35"/>
         <v>16</v>
       </c>
-      <c r="N59" s="89">
+      <c r="N59" s="106">
         <f t="shared" si="31"/>
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="2:14">
-      <c r="B60" s="47"/>
-      <c r="C60" s="48" t="s">
+      <c r="B60" s="64"/>
+      <c r="C60" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="71">
+      <c r="D60" s="88">
         <v>1</v>
       </c>
-      <c r="E60" s="45">
+      <c r="E60" s="62">
         <v>7</v>
       </c>
-      <c r="F60" s="68">
+      <c r="F60" s="85">
         <f t="shared" si="32"/>
         <v>-6</v>
       </c>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="91"/>
-      <c r="K60" s="92">
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="108"/>
+      <c r="K60" s="109">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L60" s="93">
+      <c r="L60" s="110">
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="M60" s="93">
+      <c r="M60" s="110">
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
-      <c r="N60" s="104">
+      <c r="N60" s="121">
         <f t="shared" si="31"/>
         <v>7</v>
       </c>
     </row>
     <row r="61" spans="2:14">
-      <c r="B61" s="54"/>
-      <c r="C61" s="48" t="s">
+      <c r="B61" s="71"/>
+      <c r="C61" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="71">
-        <v>0</v>
-      </c>
-      <c r="E61" s="45">
-        <v>0</v>
-      </c>
-      <c r="F61" s="69">
+      <c r="D61" s="88">
+        <v>0</v>
+      </c>
+      <c r="E61" s="62">
+        <v>0</v>
+      </c>
+      <c r="F61" s="86">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="91"/>
-      <c r="K61" s="92" t="e">
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="108"/>
+      <c r="K61" s="109" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L61" s="93">
+      <c r="L61" s="110">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="M61" s="93">
+      <c r="M61" s="110">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="N61" s="104" t="e">
+      <c r="N61" s="121" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="62" spans="2:14">
-      <c r="B62" s="54"/>
-      <c r="C62" s="48" t="s">
+      <c r="B62" s="71"/>
+      <c r="C62" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="72">
+      <c r="D62" s="89">
         <v>9</v>
       </c>
-      <c r="E62" s="45">
+      <c r="E62" s="62">
         <v>9</v>
       </c>
-      <c r="F62" s="45">
+      <c r="F62" s="62">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="G62" s="50"/>
-      <c r="H62" s="50"/>
-      <c r="I62" s="50">
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="67">
         <f>G62-H62</f>
         <v>0</v>
       </c>
-      <c r="J62" s="91"/>
-      <c r="K62" s="92">
+      <c r="J62" s="108"/>
+      <c r="K62" s="109">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L62" s="93">
+      <c r="L62" s="110">
         <f t="shared" si="34"/>
         <v>9</v>
       </c>
-      <c r="M62" s="93">
+      <c r="M62" s="110">
         <f t="shared" si="35"/>
         <v>9</v>
       </c>
-      <c r="N62" s="104">
+      <c r="N62" s="121">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
     </row>
     <row r="63" ht="15" spans="2:14">
-      <c r="B63" s="73"/>
-      <c r="C63" s="74" t="s">
+      <c r="B63" s="90"/>
+      <c r="C63" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="75">
+      <c r="D63" s="92">
         <f t="shared" ref="D63:H63" si="36">SUM(D53:D62)</f>
         <v>58</v>
       </c>
-      <c r="E63" s="75">
+      <c r="E63" s="92">
         <f t="shared" si="36"/>
         <v>69</v>
       </c>
-      <c r="F63" s="76">
+      <c r="F63" s="93">
         <f t="shared" si="32"/>
         <v>-11</v>
       </c>
-      <c r="G63" s="75">
+      <c r="G63" s="92">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H63" s="75">
+      <c r="H63" s="92">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="I63" s="75">
+      <c r="I63" s="92">
         <f>G63-H63</f>
         <v>0</v>
       </c>
-      <c r="J63" s="75">
+      <c r="J63" s="92">
         <f t="shared" ref="J63:M63" si="37">SUM(J53:J62)</f>
         <v>0</v>
       </c>
-      <c r="K63" s="105">
+      <c r="K63" s="122">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L63" s="75">
+      <c r="L63" s="92">
         <f t="shared" si="37"/>
         <v>58</v>
       </c>
-      <c r="M63" s="75">
+      <c r="M63" s="92">
         <f t="shared" si="37"/>
         <v>69</v>
       </c>
-      <c r="N63" s="106">
+      <c r="N63" s="123">
         <f t="shared" si="31"/>
         <v>1.18965517241379</v>
       </c>
     </row>
     <row r="64" ht="15"/>
     <row r="65" ht="15" spans="2:14">
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="36" t="s">
+      <c r="D65" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="66" t="s">
+      <c r="E65" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="F65" s="67" t="s">
+      <c r="F65" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="G65" s="38" t="s">
+      <c r="G65" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H65" s="39" t="s">
+      <c r="H65" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I65" s="78" t="s">
+      <c r="I65" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="J65" s="79" t="s">
+      <c r="J65" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="K65" s="80" t="s">
+      <c r="K65" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="L65" s="101" t="s">
+      <c r="L65" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="M65" s="102" t="s">
+      <c r="M65" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="N65" s="103" t="s">
+      <c r="N65" s="120" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="66" spans="2:14">
-      <c r="B66" s="41" t="s">
+      <c r="B66" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="42" t="s">
+      <c r="C66" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D66" s="68">
-        <v>0</v>
-      </c>
-      <c r="E66" s="69">
+      <c r="D66" s="85">
+        <v>0</v>
+      </c>
+      <c r="E66" s="86">
         <v>1</v>
       </c>
-      <c r="F66" s="70">
+      <c r="F66" s="87">
         <f>D66-E66</f>
         <v>-1</v>
       </c>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46">
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63">
         <f t="shared" ref="I66:I72" si="38">G66-H66</f>
         <v>0</v>
       </c>
-      <c r="J66" s="85"/>
-      <c r="K66" s="86">
+      <c r="J66" s="102"/>
+      <c r="K66" s="103">
         <f t="shared" ref="K66:K76" si="39">J66/M66*100%</f>
         <v>0</v>
       </c>
-      <c r="L66" s="87">
+      <c r="L66" s="104">
         <f t="shared" ref="L66:L75" si="40">D66+H66</f>
         <v>0</v>
       </c>
-      <c r="M66" s="88">
+      <c r="M66" s="105">
         <f>E66+H66</f>
         <v>1</v>
       </c>
-      <c r="N66" s="89" t="e">
+      <c r="N66" s="106" t="e">
         <f t="shared" ref="N66:N76" si="41">M66/L66*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="67" spans="2:14">
-      <c r="B67" s="47"/>
-      <c r="C67" s="48" t="s">
+      <c r="B67" s="64"/>
+      <c r="C67" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="D67" s="68">
-        <v>0</v>
-      </c>
-      <c r="E67" s="69">
+      <c r="D67" s="85">
+        <v>0</v>
+      </c>
+      <c r="E67" s="86">
         <v>3</v>
       </c>
-      <c r="F67" s="70">
+      <c r="F67" s="87">
         <f t="shared" ref="F67:F75" si="42">D67-E67</f>
         <v>-3</v>
       </c>
-      <c r="G67" s="50"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="50">
+      <c r="G67" s="67"/>
+      <c r="H67" s="63"/>
+      <c r="I67" s="67">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="J67" s="91"/>
-      <c r="K67" s="86">
+      <c r="J67" s="108"/>
+      <c r="K67" s="103">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="L67" s="87">
+      <c r="L67" s="104">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="M67" s="88">
+      <c r="M67" s="105">
         <f t="shared" ref="M67:M75" si="43">E67+J67</f>
         <v>3</v>
       </c>
-      <c r="N67" s="89" t="e">
+      <c r="N67" s="106" t="e">
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="68" spans="2:14">
-      <c r="B68" s="47"/>
-      <c r="C68" s="48" t="s">
+      <c r="B68" s="64"/>
+      <c r="C68" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D68" s="68">
+      <c r="D68" s="85">
         <v>2</v>
       </c>
-      <c r="E68" s="69">
+      <c r="E68" s="86">
         <v>3</v>
       </c>
-      <c r="F68" s="70">
+      <c r="F68" s="87">
         <f t="shared" si="42"/>
         <v>-1</v>
       </c>
-      <c r="G68" s="50"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="50">
+      <c r="G68" s="67"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="67">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="J68" s="91"/>
-      <c r="K68" s="86">
+      <c r="J68" s="108"/>
+      <c r="K68" s="103">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="L68" s="87">
+      <c r="L68" s="104">
         <f t="shared" si="40"/>
         <v>2</v>
       </c>
-      <c r="M68" s="88">
+      <c r="M68" s="105">
         <f t="shared" si="43"/>
         <v>3</v>
       </c>
-      <c r="N68" s="89">
+      <c r="N68" s="106">
         <f t="shared" si="41"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="69" spans="2:14">
-      <c r="B69" s="47"/>
-      <c r="C69" s="48" t="s">
+      <c r="B69" s="64"/>
+      <c r="C69" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="68">
+      <c r="D69" s="85">
         <v>3</v>
       </c>
-      <c r="E69" s="69">
+      <c r="E69" s="86">
         <v>5</v>
       </c>
-      <c r="F69" s="70">
+      <c r="F69" s="87">
         <f t="shared" si="42"/>
         <v>-2</v>
       </c>
-      <c r="G69" s="50"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="50">
+      <c r="G69" s="67"/>
+      <c r="H69" s="63"/>
+      <c r="I69" s="67">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="J69" s="91"/>
-      <c r="K69" s="86">
+      <c r="J69" s="108"/>
+      <c r="K69" s="103">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="L69" s="87">
+      <c r="L69" s="104">
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="M69" s="88">
+      <c r="M69" s="105">
         <f t="shared" si="43"/>
         <v>5</v>
       </c>
-      <c r="N69" s="89">
+      <c r="N69" s="106">
         <f t="shared" si="41"/>
         <v>1.66666666666667</v>
       </c>
     </row>
     <row r="70" spans="2:14">
-      <c r="B70" s="47"/>
-      <c r="C70" s="48" t="s">
+      <c r="B70" s="64"/>
+      <c r="C70" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="68">
-        <v>0</v>
-      </c>
-      <c r="E70" s="69">
+      <c r="D70" s="85">
+        <v>0</v>
+      </c>
+      <c r="E70" s="86">
         <v>5</v>
       </c>
-      <c r="F70" s="70">
+      <c r="F70" s="87">
         <f t="shared" si="42"/>
         <v>-5</v>
       </c>
-      <c r="G70" s="50"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="50">
+      <c r="G70" s="67"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="67">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="J70" s="91"/>
-      <c r="K70" s="86">
+      <c r="J70" s="108"/>
+      <c r="K70" s="103">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="L70" s="87">
+      <c r="L70" s="104">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="M70" s="88">
+      <c r="M70" s="105">
         <f t="shared" si="43"/>
         <v>5</v>
       </c>
-      <c r="N70" s="89" t="e">
+      <c r="N70" s="106" t="e">
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="71" spans="2:14">
-      <c r="B71" s="47"/>
-      <c r="C71" s="48" t="s">
+      <c r="B71" s="64"/>
+      <c r="C71" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D71" s="68">
+      <c r="D71" s="85">
         <v>3</v>
       </c>
-      <c r="E71" s="69">
+      <c r="E71" s="86">
         <v>5</v>
       </c>
-      <c r="F71" s="70">
+      <c r="F71" s="87">
         <f t="shared" si="42"/>
         <v>-2</v>
       </c>
-      <c r="G71" s="50"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="50">
+      <c r="G71" s="67"/>
+      <c r="H71" s="63"/>
+      <c r="I71" s="67">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="J71" s="91"/>
-      <c r="K71" s="86">
+      <c r="J71" s="108"/>
+      <c r="K71" s="103">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="L71" s="87">
+      <c r="L71" s="104">
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="M71" s="88">
+      <c r="M71" s="105">
         <f t="shared" si="43"/>
         <v>5</v>
       </c>
-      <c r="N71" s="89">
+      <c r="N71" s="106">
         <f t="shared" si="41"/>
         <v>1.66666666666667</v>
       </c>
     </row>
     <row r="72" spans="2:14">
-      <c r="B72" s="47"/>
-      <c r="C72" s="48" t="s">
+      <c r="B72" s="64"/>
+      <c r="C72" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="68">
+      <c r="D72" s="85">
         <v>3</v>
       </c>
-      <c r="E72" s="69">
+      <c r="E72" s="86">
         <v>5</v>
       </c>
-      <c r="F72" s="70">
+      <c r="F72" s="87">
         <f t="shared" si="42"/>
         <v>-2</v>
       </c>
-      <c r="G72" s="50"/>
-      <c r="H72" s="46"/>
-      <c r="I72" s="50">
+      <c r="G72" s="67"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="67">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="J72" s="91"/>
-      <c r="K72" s="86">
+      <c r="J72" s="108"/>
+      <c r="K72" s="103">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="L72" s="87">
+      <c r="L72" s="104">
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="M72" s="88">
+      <c r="M72" s="105">
         <f t="shared" si="43"/>
         <v>5</v>
       </c>
-      <c r="N72" s="89">
+      <c r="N72" s="106">
         <f t="shared" si="41"/>
         <v>1.66666666666667</v>
       </c>
     </row>
     <row r="73" spans="2:14">
-      <c r="B73" s="47"/>
-      <c r="C73" s="48" t="s">
+      <c r="B73" s="64"/>
+      <c r="C73" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="68">
+      <c r="D73" s="85">
         <v>3</v>
       </c>
-      <c r="E73" s="69">
+      <c r="E73" s="86">
         <v>1</v>
       </c>
-      <c r="F73" s="70">
+      <c r="F73" s="87">
         <f t="shared" si="42"/>
         <v>2</v>
       </c>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="91"/>
-      <c r="K73" s="92">
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="108"/>
+      <c r="K73" s="109">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="L73" s="93">
+      <c r="L73" s="110">
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="M73" s="93">
+      <c r="M73" s="110">
         <f t="shared" si="43"/>
         <v>1</v>
       </c>
-      <c r="N73" s="104">
+      <c r="N73" s="121">
         <f t="shared" si="41"/>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="74" spans="2:14">
-      <c r="B74" s="54"/>
-      <c r="C74" s="48" t="s">
+      <c r="B74" s="71"/>
+      <c r="C74" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D74" s="68">
-        <v>0</v>
-      </c>
-      <c r="E74" s="69">
-        <v>0</v>
-      </c>
-      <c r="F74" s="70">
+      <c r="D74" s="85">
+        <v>0</v>
+      </c>
+      <c r="E74" s="86">
+        <v>0</v>
+      </c>
+      <c r="F74" s="87">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="G74" s="50"/>
-      <c r="H74" s="50"/>
-      <c r="I74" s="50"/>
-      <c r="J74" s="91"/>
-      <c r="K74" s="92" t="e">
+      <c r="G74" s="67"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="67"/>
+      <c r="J74" s="108"/>
+      <c r="K74" s="109" t="e">
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L74" s="93">
+      <c r="L74" s="110">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="M74" s="93">
+      <c r="M74" s="110">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="N74" s="104" t="e">
+      <c r="N74" s="121" t="e">
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="75" spans="2:14">
-      <c r="B75" s="54"/>
-      <c r="C75" s="48" t="s">
+      <c r="B75" s="71"/>
+      <c r="C75" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="68">
+      <c r="D75" s="85">
         <v>2</v>
       </c>
-      <c r="E75" s="69">
+      <c r="E75" s="86">
         <v>4</v>
       </c>
-      <c r="F75" s="70">
+      <c r="F75" s="87">
         <f t="shared" si="42"/>
         <v>-2</v>
       </c>
-      <c r="G75" s="50"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="50">
+      <c r="G75" s="67"/>
+      <c r="H75" s="67"/>
+      <c r="I75" s="67">
         <f>G75-H75</f>
         <v>0</v>
       </c>
-      <c r="J75" s="91"/>
-      <c r="K75" s="92">
+      <c r="J75" s="108"/>
+      <c r="K75" s="109">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="L75" s="93">
+      <c r="L75" s="110">
         <f t="shared" si="40"/>
         <v>2</v>
       </c>
-      <c r="M75" s="93">
+      <c r="M75" s="110">
         <f t="shared" si="43"/>
         <v>4</v>
       </c>
-      <c r="N75" s="104">
+      <c r="N75" s="121">
         <f t="shared" si="41"/>
         <v>2</v>
       </c>
     </row>
     <row r="76" ht="15" spans="2:14">
-      <c r="B76" s="73"/>
-      <c r="C76" s="74" t="s">
+      <c r="B76" s="90"/>
+      <c r="C76" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="75">
+      <c r="D76" s="92">
         <f>SUM(D66:D75)</f>
         <v>16</v>
       </c>
-      <c r="E76" s="75">
+      <c r="E76" s="92">
         <f>SUM(E66:E75)</f>
         <v>32</v>
       </c>
-      <c r="F76" s="76">
+      <c r="F76" s="93">
         <v>-18</v>
       </c>
-      <c r="G76" s="75">
+      <c r="G76" s="92">
         <f>SUM(G66:G75)</f>
         <v>0</v>
       </c>
-      <c r="H76" s="75">
+      <c r="H76" s="92">
         <f>SUM(H66:H75)</f>
         <v>0</v>
       </c>
-      <c r="I76" s="75">
+      <c r="I76" s="92">
         <f>G76-H76</f>
         <v>0</v>
       </c>
-      <c r="J76" s="75">
+      <c r="J76" s="92">
         <f>SUM(J66:J75)</f>
         <v>0</v>
       </c>
-      <c r="K76" s="105">
+      <c r="K76" s="122">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="L76" s="75">
+      <c r="L76" s="92">
         <f>SUM(L66:L75)</f>
         <v>16</v>
       </c>
-      <c r="M76" s="75">
+      <c r="M76" s="92">
         <f>SUM(M66:M75)</f>
         <v>32</v>
       </c>
-      <c r="N76" s="106">
+      <c r="N76" s="123">
         <f t="shared" si="41"/>
         <v>2</v>
       </c>
@@ -4890,460 +5453,1996 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:D34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="1"/>
-    <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="59.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="13"/>
+    <col min="2" max="2" width="9.875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="59.25" style="14" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15" spans="1:5">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="21">
         <v>43190</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
+      <c r="D2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="21">
         <v>43190</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="21">
+        <v>43191</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="29">
+        <v>43191</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="29">
+        <v>43195</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="27"/>
+      <c r="B7" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="21">
+        <v>43196</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="27"/>
+      <c r="B8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="21">
+        <v>43197</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="27"/>
+      <c r="B9" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="33">
+        <v>43197</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="27"/>
+      <c r="B10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="7">
-        <v>43191</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="15">
-        <v>43191</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="15">
-        <v>43195</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="13"/>
-      <c r="B7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="7">
-        <v>43196</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="13"/>
-      <c r="B8" s="6" t="s">
+      <c r="C10" s="33">
+        <v>43197</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="27"/>
+      <c r="B11" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="27"/>
+      <c r="B12" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="21">
+        <v>43204</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="27"/>
+      <c r="B13" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="21">
+        <v>43204</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="27"/>
+      <c r="B14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="7">
-        <v>43197</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="13"/>
-      <c r="B9" s="17" t="s">
+      <c r="C14" s="21">
+        <v>43204</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="27"/>
+      <c r="B15" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="18">
-        <v>43197</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="13"/>
-      <c r="B10" s="20" t="s">
+      <c r="C15" s="21">
+        <v>43205</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="27"/>
+      <c r="B16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="21">
+        <v>43205</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="27"/>
+      <c r="B17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="21">
+        <v>43211</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="27"/>
+      <c r="B18" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="21">
+        <v>43211</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="27"/>
+      <c r="B19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="21">
+        <v>43211</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="27"/>
+      <c r="B20" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="21">
+        <v>43212</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="27"/>
+      <c r="B21" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="18">
-        <v>43197</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="13"/>
-      <c r="B11" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="13"/>
-      <c r="B12" s="22" t="s">
+      <c r="C21" s="41">
+        <v>43219</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="27"/>
+      <c r="B22" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="41">
+        <v>43219</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="27"/>
+      <c r="B23" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="29">
+        <v>43220</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="27"/>
+      <c r="B24" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="29">
+        <v>43220</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="27"/>
+      <c r="B25" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="29">
+        <v>43220</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="27"/>
+      <c r="B26" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="43">
+        <v>43220</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="27"/>
+      <c r="B27" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="43">
+        <v>43221</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="23"/>
+      <c r="B28" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="43">
+        <v>43221</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="43">
+        <v>43221</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="48"/>
+      <c r="B30" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="7">
-        <v>43204</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="13"/>
-      <c r="B13" s="8" t="s">
+      <c r="C30" s="29">
+        <v>43221</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="48"/>
+      <c r="B31" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="29">
+        <v>43225</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="48"/>
+      <c r="B32" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="7">
-        <v>43204</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="13"/>
-      <c r="B14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="7">
-        <v>43204</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="13"/>
-      <c r="B15" s="17" t="s">
+      <c r="C32" s="29">
+        <v>43225</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="48"/>
+      <c r="B33" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="29">
+        <v>43225</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="48"/>
+      <c r="B34" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="7">
-        <v>43205</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="13"/>
-      <c r="B16" s="8" t="s">
+      <c r="C34" s="29">
+        <v>43226</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="37"/>
+      <c r="B35" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="7">
-        <v>43205</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="13"/>
-      <c r="B17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="7">
-        <v>43211</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="13"/>
-      <c r="B18" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="7">
-        <v>43211</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="13"/>
-      <c r="B19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="7">
-        <v>43211</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="13"/>
-      <c r="B20" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="7">
-        <v>43212</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="13"/>
-      <c r="B21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="26">
-        <v>43219</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="13"/>
-      <c r="B22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="26">
-        <v>43219</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="13"/>
-      <c r="B23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="15">
-        <v>43220</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="13"/>
-      <c r="B24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="15">
-        <v>43220</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="13"/>
-      <c r="B25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="15">
-        <v>43220</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="27">
-        <v>43220</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="27">
-        <v>43221</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="8"/>
-      <c r="B28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="27">
-        <v>43221</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="27">
-        <v>43221</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="31"/>
-      <c r="B30" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="15">
-        <v>43221</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="31"/>
-      <c r="B31" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="15">
-        <v>43225</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="31"/>
-      <c r="B32" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="15">
-        <v>43225</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="31"/>
-      <c r="B33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="15">
-        <v>43225</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="31"/>
-      <c r="B34" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="15">
-        <v>43226</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="22"/>
-      <c r="B35" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="15">
+      <c r="C35" s="29">
         <v>43232</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" ht="16" customHeight="1"/>
+      <c r="D35" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" ht="16" customHeight="1" spans="5:5">
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="5:5">
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="5:5">
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="5:5">
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="5:5">
+      <c r="E44" s="22"/>
+    </row>
+    <row r="91" spans="11:11">
+      <c r="K91" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="11:11">
+      <c r="K92" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="93" spans="11:11">
+      <c r="K93" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A28"/>
     <mergeCell ref="A29:A35"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
+      <formula1>$K$91:$K$93</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E36:E40">
+      <formula1>$G$3:$G$5</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G77"/>
+  <sheetViews>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" ht="40.5" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" ht="24" spans="1:7">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="7">
+        <v>43068</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" ht="24" spans="1:7">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" ht="36" spans="1:7">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="7">
+        <v>42985</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" ht="36" spans="1:7">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="7">
+        <v>42986</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" ht="36" spans="1:7">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" ht="36" spans="1:7">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" ht="36" spans="1:7">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="8">
+        <v>43033</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" ht="60" spans="1:7">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" ht="60" spans="1:7">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" ht="48" spans="1:7">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" ht="36" spans="1:7">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="5">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" ht="36" spans="1:7">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="5">
+        <v>7</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" ht="36" spans="1:7">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" ht="36" spans="1:7">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="5">
+        <v>9</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" ht="60" spans="1:7">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="5">
+        <v>8</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" ht="48" spans="1:7">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" ht="48" spans="1:7">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" ht="36" spans="1:7">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="5">
+        <v>4</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7">
+        <v>43035</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" ht="36" spans="1:7">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="10">
+        <v>43050</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="7">
+        <v>43052</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" ht="36" spans="1:7">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="10">
+        <v>43051</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="7">
+        <v>43061</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" ht="36" spans="1:7">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="10">
+        <v>43050</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" ht="24" spans="1:7">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="10">
+        <v>43079</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" ht="36" spans="1:7">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="10">
+        <v>43071</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="7">
+        <v>43087</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" ht="36" spans="1:7">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="5">
+        <v>5</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" ht="24" spans="1:7">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="10">
+        <v>43086</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" ht="36" spans="1:7">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="5">
+        <v>5</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" ht="24" spans="1:7">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="10">
+        <v>43085</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" ht="48" spans="1:7">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="10">
+        <v>43086</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" ht="36" spans="1:7">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="10">
+        <v>43085</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" ht="36" spans="1:7">
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="10">
+        <v>43092</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" ht="36" spans="1:7">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="10">
+        <v>43092</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" ht="24" spans="1:7">
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="10">
+        <v>43093</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="10">
+        <v>43092</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" ht="36" spans="1:7">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="10">
+        <v>43464</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="7">
+        <v>43166</v>
+      </c>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" ht="24" spans="1:7">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="10">
+        <v>43101</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" ht="36" spans="1:7">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="10">
+        <v>43113</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" ht="24" spans="1:7">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="10">
+        <v>43120</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" s="7">
+        <v>43153</v>
+      </c>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" ht="24" spans="1:7">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="10">
+        <v>43127</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" ht="24" spans="1:7">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="10">
+        <v>43128</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41" s="7">
+        <v>43143</v>
+      </c>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" ht="48" spans="1:7">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="10">
+        <v>43127</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42" s="7">
+        <v>43143</v>
+      </c>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" ht="24" spans="1:7">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="10">
+        <v>43128</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" ht="48" spans="1:7">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="10">
+        <v>43144</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" ht="36" spans="1:7">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="10">
+        <v>43163</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="7">
+        <v>43168</v>
+      </c>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" ht="24" spans="1:7">
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="10">
+        <v>43176</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F46" s="7">
+        <v>43185</v>
+      </c>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" ht="24" spans="1:7">
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="10">
+        <v>43183</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" s="7">
+        <v>43198</v>
+      </c>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" ht="24" spans="1:7">
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="10">
+        <v>43190</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" ht="24" spans="1:7">
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="10">
+        <v>43190</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" ht="24" spans="1:7">
+      <c r="A50" s="4">
+        <v>48</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="10">
+        <v>43191</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" ht="36" spans="1:7">
+      <c r="A51" s="4">
+        <v>49</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="10">
+        <v>43191</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" s="7">
+        <v>43218</v>
+      </c>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" ht="24" spans="1:7">
+      <c r="A52" s="4">
+        <v>50</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="10">
+        <v>43195</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" ht="36" spans="1:7">
+      <c r="A53" s="4">
+        <v>51</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="10">
+        <v>43197</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F53" s="7">
+        <v>43222</v>
+      </c>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" ht="36" spans="1:7">
+      <c r="A54" s="4">
+        <v>52</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="10">
+        <v>43197</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" ht="36" spans="1:7">
+      <c r="A55" s="4">
+        <v>53</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="10">
+        <v>43204</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F55" s="7"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" ht="36" spans="1:7">
+      <c r="A56" s="4">
+        <v>54</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" ht="36" spans="1:7">
+      <c r="A57" s="4">
+        <v>55</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="10">
+        <v>43204</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F57" s="7">
+        <v>43227</v>
+      </c>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" ht="24" spans="1:7">
+      <c r="A58" s="4">
+        <v>56</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="10">
+        <v>43204</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F58" s="7">
+        <v>43234</v>
+      </c>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" ht="36" spans="1:7">
+      <c r="A59" s="4">
+        <v>57</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="10">
+        <v>43205</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" ht="24" spans="1:7">
+      <c r="A60" s="4">
+        <v>58</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="10">
+        <v>43205</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F60" s="7">
+        <v>43228</v>
+      </c>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" ht="36" spans="1:7">
+      <c r="A61" s="4">
+        <v>59</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="10">
+        <v>43211</v>
+      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" ht="48" spans="1:7">
+      <c r="A62" s="4">
+        <v>60</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="10">
+        <v>43211</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="7">
+        <v>43235</v>
+      </c>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" ht="36" spans="1:7">
+      <c r="A63" s="4">
+        <v>61</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="10">
+        <v>43211</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F63" s="7"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" ht="36" spans="1:7">
+      <c r="A64" s="4">
+        <v>62</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="10">
+        <v>43212</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F64" s="7"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" ht="24" spans="1:7">
+      <c r="A65" s="4">
+        <v>63</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="10">
+        <v>43219</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" ht="24" spans="1:7">
+      <c r="A66" s="4">
+        <v>64</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="10">
+        <v>43219</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F66" s="7"/>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" ht="36" spans="1:7">
+      <c r="A67" s="4">
+        <v>65</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="10">
+        <v>43220</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" ht="36" spans="1:7">
+      <c r="A68" s="4">
+        <v>66</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="10">
+        <v>43220</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F68" s="7"/>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" ht="48" spans="1:7">
+      <c r="A69" s="4">
+        <v>67</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F69" s="7"/>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" ht="36" spans="1:7">
+      <c r="A70" s="4">
+        <v>68</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="10">
+        <v>43221</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F70" s="7"/>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" ht="24" spans="1:7">
+      <c r="A71" s="4">
+        <v>69</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="10">
+        <v>43221</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F71" s="7"/>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" ht="24" spans="1:7">
+      <c r="A72" s="4">
+        <v>70</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="10">
+        <v>43221</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F72" s="7"/>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" ht="24" spans="1:7">
+      <c r="A73" s="4">
+        <v>71</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" s="10">
+        <v>43225</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F73" s="7"/>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" ht="24" spans="1:7">
+      <c r="A74" s="4">
+        <v>72</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="10">
+        <v>43225</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F74" s="7"/>
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" ht="36" spans="1:7">
+      <c r="A75" s="4">
+        <v>73</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="10">
+        <v>43225</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F75" s="7"/>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" ht="36" spans="1:7">
+      <c r="A76" s="4">
+        <v>74</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" s="10">
+        <v>43226</v>
+      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F76" s="7"/>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" ht="24" spans="1:7">
+      <c r="A77" s="4">
+        <v>75</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="10">
+        <v>43232</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F77" s="7"/>
+      <c r="G77" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="F9:F10"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/部门项目数据汇总表.xlsx
+++ b/部门项目数据汇总表.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shenm\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="5" r:id="rId1"/>
     <sheet name="加班明细表" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="169">
   <si>
     <t>南京实施数据分析表</t>
   </si>
@@ -689,19 +694,25 @@
   <si>
     <t>奶酪时光驻店</t>
   </si>
+  <si>
+    <t>苗小坛南京中央店实施</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>七秒鱼上线</t>
+  </si>
+  <si>
+    <t>松匠日本料理驻店</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,158 +794,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -949,8 +816,44 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -965,13 +868,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399914548173467"/>
+        <fgColor theme="4" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
+        <fgColor theme="9" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,19 +886,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="4" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399914548173467"/>
+        <fgColor theme="9" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
+        <fgColor theme="7" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,188 +908,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="43">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1628,266 +1351,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="54">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1904,12 +1382,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1935,9 +1407,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1954,12 +1423,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1984,9 +1447,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2002,309 +1462,302 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="54">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="常规 8" xfId="19"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="常规 3 4" xfId="47"/>
-    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
-    <cellStyle name="常规 10" xfId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="52"/>
-    <cellStyle name="常规 3" xfId="53"/>
+    <cellStyle name="常规 10" xfId="3"/>
+    <cellStyle name="常规 2" xfId="4"/>
+    <cellStyle name="常规 3" xfId="5"/>
+    <cellStyle name="常规 3 4" xfId="2"/>
+    <cellStyle name="常规 8" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2562,16 +2015,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -2586,3392 +2039,3461 @@
     <col min="15" max="15" width="46.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:17">
-      <c r="A1" s="49"/>
-      <c r="B1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:17">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52" t="s">
+    <row r="1" spans="1:17" ht="15.75">
+      <c r="A1" s="39"/>
+      <c r="B1" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="95" t="s">
+      <c r="I2" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="96" t="s">
+      <c r="J2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="97" t="s">
+      <c r="K2" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="98" t="s">
+      <c r="L2" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="99" t="s">
+      <c r="M2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="100" t="s">
+      <c r="N2" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-    </row>
-    <row r="3" ht="15" spans="1:17">
-      <c r="A3" s="57" t="s">
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="60">
+      <c r="D3" s="48">
         <v>6</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="49">
         <v>12</v>
       </c>
-      <c r="F3" s="62">
-        <f t="shared" ref="F3:F13" si="0">D3-E3</f>
+      <c r="F3" s="50">
+        <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>-6</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63">
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51">
         <f t="shared" ref="I3:I9" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="102"/>
-      <c r="K3" s="103">
+      <c r="J3" s="84"/>
+      <c r="K3" s="85">
         <f t="shared" ref="K3:K10" si="2">J3/M3*100%</f>
         <v>0</v>
       </c>
-      <c r="L3" s="104">
-        <f t="shared" ref="L3:L12" si="3">D3+H3</f>
+      <c r="L3" s="86">
+        <f t="shared" ref="L3:L11" si="3">D3+H3</f>
         <v>6</v>
       </c>
-      <c r="M3" s="105">
+      <c r="M3" s="87">
         <f>E3+H3</f>
         <v>12</v>
       </c>
-      <c r="N3" s="106">
+      <c r="N3" s="88">
         <f t="shared" ref="N3:N10" si="4">M3/L3*100%</f>
         <v>2</v>
       </c>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="57">
+      <c r="A4" s="107">
         <v>4</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="65" t="s">
+      <c r="B4" s="111"/>
+      <c r="C4" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="53">
         <v>2</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="49">
         <v>4</v>
       </c>
-      <c r="F4" s="62">
+      <c r="F4" s="50">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="67">
+      <c r="G4" s="54"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="108"/>
-      <c r="K4" s="103">
+      <c r="J4" s="90"/>
+      <c r="K4" s="85">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L4" s="104">
+      <c r="L4" s="86">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M4" s="105">
+      <c r="M4" s="87">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>4</v>
       </c>
-      <c r="N4" s="106">
+      <c r="N4" s="88">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="68"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="65" t="s">
+      <c r="A5" s="108"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="66">
+      <c r="D5" s="53">
         <v>4</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="49">
         <v>3</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="67">
+      <c r="G5" s="54"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="108"/>
-      <c r="K5" s="103">
+      <c r="J5" s="90"/>
+      <c r="K5" s="85">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L5" s="104">
+      <c r="L5" s="86">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M5" s="105">
+      <c r="M5" s="87">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="N5" s="106">
+      <c r="N5" s="88">
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="68"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="65" t="s">
+      <c r="A6" s="108"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="53">
         <v>4</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="49">
         <v>3</v>
       </c>
-      <c r="F6" s="62">
+      <c r="F6" s="50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="67"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="67">
+      <c r="G6" s="54"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="108"/>
-      <c r="K6" s="103">
+      <c r="J6" s="90"/>
+      <c r="K6" s="85">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L6" s="104">
+      <c r="L6" s="86">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M6" s="105">
+      <c r="M6" s="87">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="N6" s="106">
+      <c r="N6" s="88">
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="68"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="65" t="s">
+      <c r="A7" s="108"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="66">
+      <c r="D7" s="53">
         <v>3</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="49">
         <v>1</v>
       </c>
-      <c r="F7" s="62">
+      <c r="F7" s="50">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="67">
+      <c r="G7" s="54"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="108"/>
-      <c r="K7" s="103">
+      <c r="J7" s="90"/>
+      <c r="K7" s="85">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L7" s="104">
+      <c r="L7" s="86">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="M7" s="105">
+      <c r="M7" s="87">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N7" s="106">
+      <c r="N7" s="88">
         <f t="shared" si="4"/>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="68"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="65" t="s">
+      <c r="A8" s="108"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="53">
         <v>6</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="49">
         <v>3</v>
       </c>
-      <c r="F8" s="62">
+      <c r="F8" s="50">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="67">
+      <c r="G8" s="54"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="108"/>
-      <c r="K8" s="103">
+      <c r="J8" s="90"/>
+      <c r="K8" s="85">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L8" s="104">
+      <c r="L8" s="86">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="M8" s="105">
+      <c r="M8" s="87">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="N8" s="106">
+      <c r="N8" s="88">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="107"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="68"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="65" t="s">
+      <c r="A9" s="108"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="66">
+      <c r="D9" s="53">
         <v>1</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="49">
         <v>1</v>
       </c>
-      <c r="F9" s="62">
+      <c r="F9" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="67"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="67">
+      <c r="G9" s="54"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="108"/>
-      <c r="K9" s="103">
+      <c r="J9" s="90"/>
+      <c r="K9" s="85">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L9" s="104">
+      <c r="L9" s="86">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M9" s="105">
+      <c r="M9" s="87">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N9" s="106">
+      <c r="N9" s="88">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="68"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65" t="s">
+      <c r="A10" s="108"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="69">
+      <c r="D10" s="55">
         <v>4</v>
       </c>
-      <c r="E10" s="66">
+      <c r="E10" s="53">
         <v>4</v>
       </c>
-      <c r="F10" s="62">
+      <c r="F10" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="109">
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L10" s="110">
+      <c r="L10" s="92">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M10" s="110">
+      <c r="M10" s="92">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="N10" s="111">
+      <c r="N10" s="93">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O10" s="107"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="107"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="68"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="70" t="s">
+      <c r="A11" s="108"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="55">
         <v>4</v>
       </c>
-      <c r="E11" s="66">
+      <c r="E11" s="53">
         <v>5</v>
       </c>
-      <c r="F11" s="62">
+      <c r="F11" s="50">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="110">
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="92">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M11" s="110">
+      <c r="M11" s="92">
         <v>5</v>
       </c>
-      <c r="N11" s="111">
-        <v>0</v>
-      </c>
-      <c r="O11" s="107"/>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="107"/>
+      <c r="N11" s="93">
+        <v>0</v>
+      </c>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="89"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="68"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="72" t="s">
+      <c r="A12" s="108"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="69">
+      <c r="D12" s="55">
         <v>1</v>
       </c>
-      <c r="E12" s="66">
+      <c r="E12" s="53">
         <v>1</v>
       </c>
-      <c r="F12" s="62">
-        <v>0</v>
-      </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="110">
+      <c r="F12" s="50">
+        <v>0</v>
+      </c>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="92">
         <v>1</v>
       </c>
-      <c r="M12" s="110">
+      <c r="M12" s="92">
         <v>1</v>
       </c>
-      <c r="N12" s="106">
+      <c r="N12" s="88">
         <f>M12/L12*100%</f>
         <v>1</v>
       </c>
-      <c r="O12" s="107"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="107"/>
-    </row>
-    <row r="13" ht="15" spans="1:17">
-      <c r="A13" s="68"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="73" t="s">
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="108"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="69">
+      <c r="D13" s="55">
         <v>5</v>
       </c>
-      <c r="E13" s="66">
+      <c r="E13" s="53">
         <v>6</v>
       </c>
-      <c r="F13" s="62">
+      <c r="F13" s="50">
         <f>D13-E13</f>
         <v>-1</v>
       </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67">
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54">
         <f t="shared" ref="I13:I23" si="6">G13-H13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="108"/>
-      <c r="K13" s="109">
+      <c r="J13" s="90"/>
+      <c r="K13" s="91">
         <f t="shared" ref="K13:K26" si="7">J13/M13*100%</f>
         <v>0</v>
       </c>
-      <c r="L13" s="110">
+      <c r="L13" s="92">
         <f>D13+H13</f>
         <v>5</v>
       </c>
-      <c r="M13" s="110">
+      <c r="M13" s="92">
         <f>E13+J13</f>
         <v>6</v>
       </c>
-      <c r="N13" s="111">
+      <c r="N13" s="93">
         <f t="shared" ref="N13:N26" si="8">M13/L13*100%</f>
         <v>1.2</v>
       </c>
-      <c r="O13" s="107"/>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="107"/>
-    </row>
-    <row r="14" ht="15" spans="1:17">
-      <c r="A14" s="74"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="76" t="s">
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="109"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="77">
+      <c r="D14" s="60">
         <f>SUM(D3:D13)</f>
         <v>40</v>
       </c>
-      <c r="E14" s="78">
+      <c r="E14" s="61">
         <f>SUM(E3:E13)</f>
         <v>43</v>
       </c>
-      <c r="F14" s="79">
+      <c r="F14" s="62">
         <f>D14-E14</f>
         <v>-3</v>
       </c>
-      <c r="G14" s="80">
+      <c r="G14" s="63">
         <f>SUM(G3:G13)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="80">
+      <c r="H14" s="63">
         <f>SUM(H3:H13)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="80">
+      <c r="I14" s="63">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J14" s="80">
+      <c r="J14" s="63">
         <f>SUM(J3:J13)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="112">
+      <c r="K14" s="94">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L14" s="80">
+      <c r="L14" s="63">
         <f>SUM(L3:L13)</f>
         <v>40</v>
       </c>
-      <c r="M14" s="80">
+      <c r="M14" s="63">
         <f>SUM(M3:M13)</f>
         <v>43</v>
       </c>
-      <c r="N14" s="113">
+      <c r="N14" s="95">
         <f t="shared" si="8"/>
         <v>1.075</v>
       </c>
-      <c r="O14" s="107"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="107"/>
-    </row>
-    <row r="15" ht="15"/>
-    <row r="16" ht="15" spans="2:14">
-      <c r="B16" s="52" t="s">
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="89"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="B16" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="56" t="s">
+      <c r="H16" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="95" t="s">
+      <c r="I16" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="96" t="s">
+      <c r="J16" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="97" t="s">
+      <c r="K16" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="98" t="s">
+      <c r="L16" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="99" t="s">
+      <c r="M16" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="N16" s="114" t="s">
+      <c r="N16" s="96" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="58" t="s">
+    <row r="17" spans="2:15">
+      <c r="B17" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="48">
         <v>5</v>
       </c>
-      <c r="E17" s="81">
+      <c r="E17" s="64">
         <v>5</v>
       </c>
-      <c r="F17" s="62">
+      <c r="F17" s="50">
         <f t="shared" ref="F17:F26" si="9">D17-E17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63">
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J17" s="102"/>
-      <c r="K17" s="103">
+      <c r="J17" s="84"/>
+      <c r="K17" s="85">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L17" s="104">
+      <c r="L17" s="86">
         <f t="shared" ref="L17:L25" si="10">D17+H17</f>
         <v>5</v>
       </c>
-      <c r="M17" s="105">
+      <c r="M17" s="87">
         <f>E17+H17</f>
         <v>5</v>
       </c>
-      <c r="N17" s="106">
+      <c r="N17" s="88">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="64"/>
-      <c r="C18" s="65" t="s">
+    <row r="18" spans="2:15">
+      <c r="B18" s="111"/>
+      <c r="C18" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="66">
+      <c r="D18" s="53">
         <v>7</v>
       </c>
-      <c r="E18" s="61">
+      <c r="E18" s="49">
         <v>7</v>
       </c>
-      <c r="F18" s="62">
+      <c r="F18" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G18" s="67"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="67">
+      <c r="G18" s="54"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J18" s="108"/>
-      <c r="K18" s="103">
+      <c r="J18" s="90"/>
+      <c r="K18" s="85">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L18" s="104">
+      <c r="L18" s="86">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="M18" s="105">
+      <c r="M18" s="87">
         <f t="shared" ref="M18:M25" si="11">E18+J18</f>
         <v>7</v>
       </c>
-      <c r="N18" s="106">
+      <c r="N18" s="88">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="64"/>
-      <c r="C19" s="65" t="s">
+    <row r="19" spans="2:15">
+      <c r="B19" s="111"/>
+      <c r="C19" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="66">
+      <c r="D19" s="53">
         <v>3</v>
       </c>
-      <c r="E19" s="61">
+      <c r="E19" s="49">
         <v>3</v>
       </c>
-      <c r="F19" s="62">
+      <c r="F19" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="67">
+      <c r="G19" s="54"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J19" s="108"/>
-      <c r="K19" s="103">
+      <c r="J19" s="90"/>
+      <c r="K19" s="85">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L19" s="104">
+      <c r="L19" s="86">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="M19" s="105">
+      <c r="M19" s="87">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="N19" s="106">
+      <c r="N19" s="88">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
-      <c r="B20" s="64"/>
-      <c r="C20" s="65" t="s">
+    <row r="20" spans="2:15">
+      <c r="B20" s="111"/>
+      <c r="C20" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="66">
+      <c r="D20" s="53">
         <v>2</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="49">
         <v>5</v>
       </c>
-      <c r="F20" s="62">
+      <c r="F20" s="50">
         <f t="shared" si="9"/>
         <v>-3</v>
       </c>
-      <c r="G20" s="67"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="67">
+      <c r="G20" s="54"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J20" s="108"/>
-      <c r="K20" s="103">
+      <c r="J20" s="90"/>
+      <c r="K20" s="85">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L20" s="104">
+      <c r="L20" s="86">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="M20" s="105">
+      <c r="M20" s="87">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="N20" s="106">
+      <c r="N20" s="88">
         <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="64"/>
-      <c r="C21" s="65" t="s">
+    <row r="21" spans="2:15">
+      <c r="B21" s="111"/>
+      <c r="C21" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="66">
+      <c r="D21" s="53">
         <v>3</v>
       </c>
-      <c r="E21" s="61">
+      <c r="E21" s="49">
         <v>2</v>
       </c>
-      <c r="F21" s="62">
+      <c r="F21" s="50">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="G21" s="67"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="67">
+      <c r="G21" s="54"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J21" s="108"/>
-      <c r="K21" s="103">
+      <c r="J21" s="90"/>
+      <c r="K21" s="85">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L21" s="104">
+      <c r="L21" s="86">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="M21" s="105">
+      <c r="M21" s="87">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="N21" s="106">
+      <c r="N21" s="88">
         <f t="shared" si="8"/>
-        <v>0.666666666666667</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="64"/>
-      <c r="C22" s="65" t="s">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="111"/>
+      <c r="C22" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="66">
+      <c r="D22" s="53">
         <v>10</v>
       </c>
-      <c r="E22" s="66">
+      <c r="E22" s="53">
         <v>9</v>
       </c>
-      <c r="F22" s="62">
+      <c r="F22" s="50">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="G22" s="67"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="67">
+      <c r="G22" s="54"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J22" s="108"/>
-      <c r="K22" s="103">
+      <c r="J22" s="90"/>
+      <c r="K22" s="85">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L22" s="104">
+      <c r="L22" s="86">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="M22" s="105">
+      <c r="M22" s="87">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="N22" s="106">
+      <c r="N22" s="88">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="2:14">
-      <c r="B23" s="64"/>
-      <c r="C23" s="65" t="s">
+    <row r="23" spans="2:15">
+      <c r="B23" s="111"/>
+      <c r="C23" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="82">
+      <c r="D23" s="65">
         <v>3</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="49">
         <v>6</v>
       </c>
-      <c r="F23" s="62">
+      <c r="F23" s="50">
         <f t="shared" si="9"/>
         <v>-3</v>
       </c>
-      <c r="G23" s="67"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="67">
+      <c r="G23" s="54"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J23" s="108"/>
-      <c r="K23" s="103">
+      <c r="J23" s="90"/>
+      <c r="K23" s="85">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L23" s="104">
+      <c r="L23" s="86">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="M23" s="105">
+      <c r="M23" s="87">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="N23" s="106">
+      <c r="N23" s="88">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="64"/>
-      <c r="C24" s="65" t="s">
+      <c r="B24" s="111"/>
+      <c r="C24" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="82">
+      <c r="D24" s="65">
         <v>1</v>
       </c>
-      <c r="E24" s="66">
+      <c r="E24" s="53">
         <v>1</v>
       </c>
-      <c r="F24" s="62">
+      <c r="F24" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G24" s="67"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="103">
+      <c r="G24" s="54"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="85">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L24" s="104">
+      <c r="L24" s="86">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M24" s="105">
+      <c r="M24" s="87">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="N24" s="115">
+      <c r="N24" s="97">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O24" s="116"/>
-    </row>
-    <row r="25" ht="15" spans="2:14">
-      <c r="B25" s="64"/>
-      <c r="C25" s="65" t="s">
+      <c r="O24" s="98"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="111"/>
+      <c r="C25" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="69">
+      <c r="D25" s="55">
         <v>3</v>
       </c>
-      <c r="E25" s="66">
+      <c r="E25" s="53">
         <v>3</v>
       </c>
-      <c r="F25" s="62">
+      <c r="F25" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="109">
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="91">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L25" s="110">
+      <c r="L25" s="92">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="M25" s="110">
+      <c r="M25" s="92">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="N25" s="117">
+      <c r="N25" s="99">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="2:14">
-      <c r="B26" s="75"/>
-      <c r="C26" s="76" t="s">
+    <row r="26" spans="2:15">
+      <c r="B26" s="113"/>
+      <c r="C26" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="77">
+      <c r="D26" s="60">
         <f t="shared" ref="D26:H26" si="12">SUM(D17:D25)</f>
         <v>37</v>
       </c>
-      <c r="E26" s="78">
+      <c r="E26" s="61">
         <f t="shared" si="12"/>
         <v>41</v>
       </c>
-      <c r="F26" s="79">
+      <c r="F26" s="62">
         <f t="shared" si="9"/>
         <v>-4</v>
       </c>
-      <c r="G26" s="80">
+      <c r="G26" s="63">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H26" s="80">
+      <c r="H26" s="63">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I26" s="80">
+      <c r="I26" s="63">
         <f t="shared" ref="I26:I35" si="13">G26-H26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="80">
+      <c r="J26" s="63">
         <f t="shared" ref="J26:M26" si="14">SUM(J17:J25)</f>
         <v>0</v>
       </c>
-      <c r="K26" s="112">
+      <c r="K26" s="94">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L26" s="80">
+      <c r="L26" s="63">
         <f t="shared" si="14"/>
         <v>37</v>
       </c>
-      <c r="M26" s="80">
+      <c r="M26" s="63">
         <f t="shared" si="14"/>
         <v>41</v>
       </c>
-      <c r="N26" s="113">
+      <c r="N26" s="95">
         <f t="shared" si="8"/>
-        <v>1.10810810810811</v>
-      </c>
-    </row>
-    <row r="27" ht="15"/>
-    <row r="28" ht="15" spans="2:14">
-      <c r="B28" s="52" t="s">
+        <v>1.1081081081081081</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="53" t="s">
+      <c r="D28" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="83" t="s">
+      <c r="E28" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="84" t="s">
+      <c r="F28" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="55" t="s">
+      <c r="G28" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="56" t="s">
+      <c r="H28" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="95" t="s">
+      <c r="I28" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="J28" s="96" t="s">
+      <c r="J28" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="K28" s="97" t="s">
+      <c r="K28" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="L28" s="118" t="s">
+      <c r="L28" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="M28" s="119" t="s">
+      <c r="M28" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="N28" s="120" t="s">
+      <c r="N28" s="102" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:14">
-      <c r="B29" s="58" t="s">
+    <row r="29" spans="2:15">
+      <c r="B29" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="60">
+      <c r="D29" s="48">
         <v>4</v>
       </c>
-      <c r="E29" s="81">
+      <c r="E29" s="64">
         <v>6</v>
       </c>
-      <c r="F29" s="62">
+      <c r="F29" s="50">
         <f t="shared" ref="F29:F38" si="15">D29-E29</f>
         <v>-2</v>
       </c>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63">
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J29" s="102"/>
-      <c r="K29" s="103">
+      <c r="J29" s="84"/>
+      <c r="K29" s="85">
         <f t="shared" ref="K29:K35" si="16">J29/M29*100%</f>
         <v>0</v>
       </c>
-      <c r="L29" s="104">
+      <c r="L29" s="86">
         <f t="shared" ref="L29:L37" si="17">D29+H29</f>
         <v>4</v>
       </c>
-      <c r="M29" s="105">
+      <c r="M29" s="87">
         <f>E29+H29</f>
         <v>6</v>
       </c>
-      <c r="N29" s="106">
+      <c r="N29" s="88">
         <f t="shared" ref="N29:N35" si="18">M29/L29*100%</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="2:14">
-      <c r="B30" s="64"/>
-      <c r="C30" s="65" t="s">
+    <row r="30" spans="2:15">
+      <c r="B30" s="111"/>
+      <c r="C30" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="66">
+      <c r="D30" s="53">
         <v>3</v>
       </c>
-      <c r="E30" s="61">
+      <c r="E30" s="49">
         <v>3</v>
       </c>
-      <c r="F30" s="62">
+      <c r="F30" s="50">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G30" s="67"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="67">
+      <c r="G30" s="54"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="54">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J30" s="108"/>
-      <c r="K30" s="103">
+      <c r="J30" s="90"/>
+      <c r="K30" s="85">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L30" s="104">
+      <c r="L30" s="86">
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
-      <c r="M30" s="105">
+      <c r="M30" s="87">
         <f t="shared" ref="M30:M35" si="19">E30+J30</f>
         <v>3</v>
       </c>
-      <c r="N30" s="106">
+      <c r="N30" s="88">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:14">
-      <c r="B31" s="64"/>
-      <c r="C31" s="65" t="s">
+    <row r="31" spans="2:15">
+      <c r="B31" s="111"/>
+      <c r="C31" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="66">
+      <c r="D31" s="53">
         <v>3</v>
       </c>
-      <c r="E31" s="61">
+      <c r="E31" s="49">
         <v>2</v>
       </c>
-      <c r="F31" s="62">
+      <c r="F31" s="50">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="G31" s="67"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="67">
+      <c r="G31" s="54"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="54">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J31" s="108"/>
-      <c r="K31" s="103">
+      <c r="J31" s="90"/>
+      <c r="K31" s="85">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L31" s="104">
+      <c r="L31" s="86">
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
-      <c r="M31" s="105">
+      <c r="M31" s="87">
         <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="N31" s="106">
+      <c r="N31" s="88">
         <f t="shared" si="18"/>
-        <v>0.666666666666667</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14">
-      <c r="B32" s="64"/>
-      <c r="C32" s="65" t="s">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="111"/>
+      <c r="C32" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="61">
+      <c r="D32" s="49">
         <v>3</v>
       </c>
-      <c r="E32" s="61">
+      <c r="E32" s="49">
         <v>1</v>
       </c>
-      <c r="F32" s="62">
+      <c r="F32" s="50">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="G32" s="67"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="67">
+      <c r="G32" s="54"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="54">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J32" s="108"/>
-      <c r="K32" s="103">
+      <c r="J32" s="90"/>
+      <c r="K32" s="85">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L32" s="104">
+      <c r="L32" s="86">
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
-      <c r="M32" s="105">
+      <c r="M32" s="87">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="N32" s="106">
+      <c r="N32" s="88">
         <f t="shared" si="18"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="64"/>
-      <c r="C33" s="65" t="s">
+      <c r="B33" s="111"/>
+      <c r="C33" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="66">
+      <c r="D33" s="53">
         <v>6</v>
       </c>
-      <c r="E33" s="61">
+      <c r="E33" s="49">
         <v>6</v>
       </c>
-      <c r="F33" s="62">
+      <c r="F33" s="50">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G33" s="67"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="67">
+      <c r="G33" s="54"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="54">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J33" s="108"/>
-      <c r="K33" s="103">
+      <c r="J33" s="90"/>
+      <c r="K33" s="85">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L33" s="104">
+      <c r="L33" s="86">
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
-      <c r="M33" s="105">
+      <c r="M33" s="87">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="N33" s="106">
+      <c r="N33" s="88">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="64"/>
-      <c r="C34" s="65" t="s">
+      <c r="B34" s="111"/>
+      <c r="C34" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="66">
+      <c r="D34" s="53">
         <v>1</v>
       </c>
-      <c r="E34" s="61">
+      <c r="E34" s="49">
         <v>1</v>
       </c>
-      <c r="F34" s="62">
+      <c r="F34" s="50">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G34" s="67"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="67">
+      <c r="G34" s="54"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="54">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J34" s="108"/>
-      <c r="K34" s="103">
+      <c r="J34" s="90"/>
+      <c r="K34" s="85">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L34" s="104">
+      <c r="L34" s="86">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="M34" s="105">
+      <c r="M34" s="87">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="N34" s="106">
+      <c r="N34" s="88">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="64"/>
-      <c r="C35" s="65" t="s">
+      <c r="B35" s="111"/>
+      <c r="C35" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="82">
+      <c r="D35" s="65">
         <v>1</v>
       </c>
-      <c r="E35" s="61">
+      <c r="E35" s="49">
         <v>4</v>
       </c>
-      <c r="F35" s="62">
+      <c r="F35" s="50">
         <f t="shared" si="15"/>
         <v>-3</v>
       </c>
-      <c r="G35" s="67"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="67">
+      <c r="G35" s="54"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="54">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J35" s="108"/>
-      <c r="K35" s="103">
+      <c r="J35" s="90"/>
+      <c r="K35" s="85">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L35" s="104">
+      <c r="L35" s="86">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="M35" s="105">
+      <c r="M35" s="87">
         <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="N35" s="106">
+      <c r="N35" s="88">
         <f t="shared" si="18"/>
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="64"/>
-      <c r="C36" s="65" t="s">
+      <c r="B36" s="111"/>
+      <c r="C36" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="82">
+      <c r="D36" s="65">
         <v>1</v>
       </c>
-      <c r="E36" s="66">
+      <c r="E36" s="53">
         <v>1</v>
       </c>
-      <c r="F36" s="62">
+      <c r="F36" s="50">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G36" s="67"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="104">
+      <c r="G36" s="54"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="86">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="M36" s="105">
+      <c r="M36" s="87">
         <v>1</v>
       </c>
-      <c r="N36" s="115">
+      <c r="N36" s="97">
         <v>1</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="2:14">
-      <c r="B37" s="64"/>
-      <c r="C37" s="65" t="s">
+    <row r="37" spans="2:14">
+      <c r="B37" s="111"/>
+      <c r="C37" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="69">
+      <c r="D37" s="55">
         <v>1</v>
       </c>
-      <c r="E37" s="66">
+      <c r="E37" s="53">
         <v>2</v>
       </c>
-      <c r="F37" s="62">
+      <c r="F37" s="50">
         <f t="shared" si="15"/>
         <v>-1</v>
       </c>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="108"/>
-      <c r="K37" s="109">
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="91">
         <f t="shared" ref="K37:K50" si="20">J37/M37*100%</f>
         <v>0</v>
       </c>
-      <c r="L37" s="110">
+      <c r="L37" s="92">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="M37" s="110">
+      <c r="M37" s="92">
         <f>E37+J37</f>
         <v>2</v>
       </c>
-      <c r="N37" s="117">
+      <c r="N37" s="99">
         <f t="shared" ref="N37:N47" si="21">M37/L37*100%</f>
         <v>2</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="2:14">
-      <c r="B38" s="75"/>
-      <c r="C38" s="76" t="s">
+    <row r="38" spans="2:14">
+      <c r="B38" s="113"/>
+      <c r="C38" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="77">
+      <c r="D38" s="60">
         <f t="shared" ref="D38:H38" si="22">SUM(D29:D37)</f>
         <v>23</v>
       </c>
-      <c r="E38" s="78">
+      <c r="E38" s="61">
         <f t="shared" si="22"/>
         <v>26</v>
       </c>
-      <c r="F38" s="79">
+      <c r="F38" s="62">
         <f t="shared" si="15"/>
         <v>-3</v>
       </c>
-      <c r="G38" s="80">
+      <c r="G38" s="63">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H38" s="80">
+      <c r="H38" s="63">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="I38" s="80">
+      <c r="I38" s="63">
         <f t="shared" ref="I38:I47" si="23">G38-H38</f>
         <v>0</v>
       </c>
-      <c r="J38" s="80">
+      <c r="J38" s="63">
         <f t="shared" ref="J38:M38" si="24">SUM(J29:J37)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="112">
+      <c r="K38" s="94">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L38" s="80">
+      <c r="L38" s="63">
         <f t="shared" si="24"/>
         <v>23</v>
       </c>
-      <c r="M38" s="80">
+      <c r="M38" s="63">
         <f t="shared" si="24"/>
         <v>26</v>
       </c>
-      <c r="N38" s="113">
+      <c r="N38" s="95">
         <f t="shared" si="21"/>
-        <v>1.1304347826087</v>
-      </c>
-    </row>
-    <row r="39" ht="15"/>
-    <row r="40" ht="15" spans="2:14">
-      <c r="B40" s="52" t="s">
+        <v>1.1304347826086956</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C40" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="53" t="s">
+      <c r="D40" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="83" t="s">
+      <c r="E40" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="84" t="s">
+      <c r="F40" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G40" s="55" t="s">
+      <c r="G40" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="56" t="s">
+      <c r="H40" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="95" t="s">
+      <c r="I40" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="J40" s="96" t="s">
+      <c r="J40" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="97" t="s">
+      <c r="K40" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="L40" s="118" t="s">
+      <c r="L40" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="M40" s="119" t="s">
+      <c r="M40" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="120" t="s">
+      <c r="N40" s="102" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="41" spans="2:14">
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="60">
+      <c r="D41" s="48">
         <v>5</v>
       </c>
-      <c r="E41" s="81">
+      <c r="E41" s="64">
         <v>4</v>
       </c>
-      <c r="F41" s="62">
+      <c r="F41" s="50">
         <f t="shared" ref="F41:F50" si="25">D41-E41</f>
         <v>1</v>
       </c>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63">
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J41" s="102"/>
-      <c r="K41" s="103">
+      <c r="J41" s="84"/>
+      <c r="K41" s="85">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L41" s="104">
+      <c r="L41" s="86">
         <f t="shared" ref="L41:L49" si="26">D41+H41</f>
         <v>5</v>
       </c>
-      <c r="M41" s="105">
+      <c r="M41" s="87">
         <f>E41+H41</f>
         <v>4</v>
       </c>
-      <c r="N41" s="106">
+      <c r="N41" s="88">
         <f t="shared" si="21"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="42" spans="2:14">
-      <c r="B42" s="64"/>
-      <c r="C42" s="65" t="s">
+      <c r="B42" s="111"/>
+      <c r="C42" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="66">
+      <c r="D42" s="53">
         <v>1</v>
       </c>
-      <c r="E42" s="61">
+      <c r="E42" s="49">
         <v>1</v>
       </c>
-      <c r="F42" s="62">
+      <c r="F42" s="50">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="G42" s="67"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="67">
+      <c r="G42" s="54"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="54">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J42" s="108"/>
-      <c r="K42" s="103">
+      <c r="J42" s="90"/>
+      <c r="K42" s="85">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L42" s="104">
+      <c r="L42" s="86">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="M42" s="105">
+      <c r="M42" s="87">
         <f t="shared" ref="M42:M49" si="27">E42+J42</f>
         <v>1</v>
       </c>
-      <c r="N42" s="106">
+      <c r="N42" s="88">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:14">
-      <c r="B43" s="64"/>
-      <c r="C43" s="65" t="s">
+      <c r="B43" s="111"/>
+      <c r="C43" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="66">
+      <c r="D43" s="53">
         <v>2</v>
       </c>
-      <c r="E43" s="61">
+      <c r="E43" s="49">
         <v>8</v>
       </c>
-      <c r="F43" s="62">
+      <c r="F43" s="50">
         <f t="shared" si="25"/>
         <v>-6</v>
       </c>
-      <c r="G43" s="67"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="67">
+      <c r="G43" s="54"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="54">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J43" s="108"/>
-      <c r="K43" s="103">
+      <c r="J43" s="90"/>
+      <c r="K43" s="85">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L43" s="104">
+      <c r="L43" s="86">
         <f t="shared" si="26"/>
         <v>2</v>
       </c>
-      <c r="M43" s="105">
+      <c r="M43" s="87">
         <f t="shared" si="27"/>
         <v>8</v>
       </c>
-      <c r="N43" s="106">
+      <c r="N43" s="88">
         <f t="shared" si="21"/>
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="2:14">
-      <c r="B44" s="64"/>
-      <c r="C44" s="65" t="s">
+      <c r="B44" s="111"/>
+      <c r="C44" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="66">
+      <c r="D44" s="53">
         <v>5</v>
       </c>
-      <c r="E44" s="61">
+      <c r="E44" s="49">
         <v>5</v>
       </c>
-      <c r="F44" s="62">
+      <c r="F44" s="50">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="G44" s="67"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="67">
+      <c r="G44" s="54"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="54">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J44" s="108"/>
-      <c r="K44" s="103">
+      <c r="J44" s="90"/>
+      <c r="K44" s="85">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L44" s="104">
+      <c r="L44" s="86">
         <f t="shared" si="26"/>
         <v>5</v>
       </c>
-      <c r="M44" s="105">
+      <c r="M44" s="87">
         <f t="shared" si="27"/>
         <v>5</v>
       </c>
-      <c r="N44" s="106">
+      <c r="N44" s="88">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:14">
-      <c r="B45" s="64"/>
-      <c r="C45" s="65" t="s">
+      <c r="B45" s="111"/>
+      <c r="C45" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="66">
+      <c r="D45" s="53">
         <v>4</v>
       </c>
-      <c r="E45" s="61">
+      <c r="E45" s="49">
         <v>7</v>
       </c>
-      <c r="F45" s="62">
+      <c r="F45" s="50">
         <f t="shared" si="25"/>
         <v>-3</v>
       </c>
-      <c r="G45" s="67"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="67">
+      <c r="G45" s="54"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="54">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J45" s="108"/>
-      <c r="K45" s="103">
+      <c r="J45" s="90"/>
+      <c r="K45" s="85">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L45" s="104">
+      <c r="L45" s="86">
         <f t="shared" si="26"/>
         <v>4</v>
       </c>
-      <c r="M45" s="105">
+      <c r="M45" s="87">
         <f t="shared" si="27"/>
         <v>7</v>
       </c>
-      <c r="N45" s="106">
+      <c r="N45" s="88">
         <f t="shared" si="21"/>
         <v>1.75</v>
       </c>
     </row>
     <row r="46" spans="2:14">
-      <c r="B46" s="64"/>
-      <c r="C46" s="65" t="s">
+      <c r="B46" s="111"/>
+      <c r="C46" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="66">
+      <c r="D46" s="53">
         <v>5</v>
       </c>
-      <c r="E46" s="61">
+      <c r="E46" s="49">
         <v>9</v>
       </c>
-      <c r="F46" s="62">
+      <c r="F46" s="50">
         <f t="shared" si="25"/>
         <v>-4</v>
       </c>
-      <c r="G46" s="67"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="67">
+      <c r="G46" s="54"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="54">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J46" s="108"/>
-      <c r="K46" s="103">
+      <c r="J46" s="90"/>
+      <c r="K46" s="85">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L46" s="104">
+      <c r="L46" s="86">
         <f t="shared" si="26"/>
         <v>5</v>
       </c>
-      <c r="M46" s="105">
+      <c r="M46" s="87">
         <f t="shared" si="27"/>
         <v>9</v>
       </c>
-      <c r="N46" s="106">
+      <c r="N46" s="88">
         <f t="shared" si="21"/>
         <v>1.8</v>
       </c>
     </row>
     <row r="47" spans="2:14">
-      <c r="B47" s="64"/>
-      <c r="C47" s="65" t="s">
+      <c r="B47" s="111"/>
+      <c r="C47" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="61">
-        <v>0</v>
-      </c>
-      <c r="E47" s="61">
+      <c r="D47" s="49">
+        <v>0</v>
+      </c>
+      <c r="E47" s="49">
         <v>2</v>
       </c>
-      <c r="F47" s="62">
+      <c r="F47" s="50">
         <f t="shared" si="25"/>
         <v>-2</v>
       </c>
-      <c r="G47" s="67"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="67">
+      <c r="G47" s="54"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="54">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J47" s="108"/>
-      <c r="K47" s="103">
+      <c r="J47" s="90"/>
+      <c r="K47" s="85">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L47" s="104">
+      <c r="L47" s="86">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="M47" s="105">
+      <c r="M47" s="87">
         <f t="shared" si="27"/>
         <v>2</v>
       </c>
-      <c r="N47" s="121" t="e">
+      <c r="N47" s="103" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="48" spans="2:14">
-      <c r="B48" s="64"/>
-      <c r="C48" s="65" t="s">
+      <c r="B48" s="111"/>
+      <c r="C48" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="82">
-        <v>0</v>
-      </c>
-      <c r="E48" s="66">
+      <c r="D48" s="65">
+        <v>0</v>
+      </c>
+      <c r="E48" s="53">
         <v>5</v>
       </c>
-      <c r="F48" s="62">
+      <c r="F48" s="50">
         <f t="shared" si="25"/>
         <v>-5</v>
       </c>
-      <c r="G48" s="67"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="108"/>
-      <c r="K48" s="103">
+      <c r="G48" s="54"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="90"/>
+      <c r="K48" s="85">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L48" s="104">
+      <c r="L48" s="86">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="M48" s="110">
+      <c r="M48" s="92">
         <f t="shared" si="27"/>
         <v>5</v>
       </c>
-      <c r="N48" s="121">
+      <c r="N48" s="103">
         <f>L48/M48</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="15" spans="2:14">
-      <c r="B49" s="64"/>
-      <c r="C49" s="65" t="s">
+    <row r="49" spans="2:14">
+      <c r="B49" s="111"/>
+      <c r="C49" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="82">
+      <c r="D49" s="65">
         <v>1</v>
       </c>
-      <c r="E49" s="66">
-        <v>0</v>
-      </c>
-      <c r="F49" s="62">
+      <c r="E49" s="53">
+        <v>0</v>
+      </c>
+      <c r="F49" s="50">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="G49" s="67"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="108"/>
-      <c r="K49" s="103" t="e">
+      <c r="G49" s="54"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="90"/>
+      <c r="K49" s="85" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L49" s="104">
+      <c r="L49" s="86">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="M49" s="105">
+      <c r="M49" s="87">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="N49" s="115" t="e">
+      <c r="N49" s="97" t="e">
         <f>L49/M49</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" ht="15" spans="2:14">
-      <c r="B50" s="75"/>
-      <c r="C50" s="76" t="s">
+    <row r="50" spans="2:14">
+      <c r="B50" s="113"/>
+      <c r="C50" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="77">
+      <c r="D50" s="60">
         <f t="shared" ref="D50:H50" si="28">SUM(D41:D49)</f>
         <v>23</v>
       </c>
-      <c r="E50" s="78">
+      <c r="E50" s="61">
         <f t="shared" si="28"/>
         <v>41</v>
       </c>
-      <c r="F50" s="79">
+      <c r="F50" s="62">
         <f t="shared" si="25"/>
         <v>-18</v>
       </c>
-      <c r="G50" s="80">
+      <c r="G50" s="63">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="H50" s="80">
+      <c r="H50" s="63">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="I50" s="80">
+      <c r="I50" s="63">
         <f t="shared" ref="I50:I59" si="29">G50-H50</f>
         <v>0</v>
       </c>
-      <c r="J50" s="80">
+      <c r="J50" s="63">
         <f t="shared" ref="J50:M50" si="30">SUM(J41:J49)</f>
         <v>0</v>
       </c>
-      <c r="K50" s="112">
+      <c r="K50" s="94">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L50" s="80">
+      <c r="L50" s="63">
         <f t="shared" si="30"/>
         <v>23</v>
       </c>
-      <c r="M50" s="80">
+      <c r="M50" s="63">
         <f t="shared" si="30"/>
         <v>41</v>
       </c>
-      <c r="N50" s="113">
+      <c r="N50" s="95">
         <f t="shared" ref="N50:N63" si="31">M50/L50*100%</f>
-        <v>1.78260869565217</v>
-      </c>
-    </row>
-    <row r="51" ht="15"/>
-    <row r="52" ht="15" spans="2:14">
-      <c r="B52" s="52" t="s">
+        <v>1.7826086956521738</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="52" t="s">
+      <c r="C52" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="53" t="s">
+      <c r="D52" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="83" t="s">
+      <c r="E52" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="84" t="s">
+      <c r="F52" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="55" t="s">
+      <c r="G52" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H52" s="56" t="s">
+      <c r="H52" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I52" s="95" t="s">
+      <c r="I52" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="96" t="s">
+      <c r="J52" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="K52" s="97" t="s">
+      <c r="K52" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="L52" s="118" t="s">
+      <c r="L52" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="M52" s="119" t="s">
+      <c r="M52" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="N52" s="120" t="s">
+      <c r="N52" s="102" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="53" spans="2:14">
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="85">
+      <c r="D53" s="68">
         <v>5</v>
       </c>
-      <c r="E53" s="86">
+      <c r="E53" s="69">
         <v>2</v>
       </c>
-      <c r="F53" s="87">
+      <c r="F53" s="70">
         <f t="shared" ref="F53:F63" si="32">D53-E53</f>
         <v>3</v>
       </c>
-      <c r="G53" s="63"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="63">
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J53" s="102"/>
-      <c r="K53" s="103">
+      <c r="J53" s="84"/>
+      <c r="K53" s="85">
         <f t="shared" ref="K53:K63" si="33">J53/M53*100%</f>
         <v>0</v>
       </c>
-      <c r="L53" s="104">
+      <c r="L53" s="86">
         <f t="shared" ref="L53:L62" si="34">D53+H53</f>
         <v>5</v>
       </c>
-      <c r="M53" s="105">
+      <c r="M53" s="87">
         <f>E53+H53</f>
         <v>2</v>
       </c>
-      <c r="N53" s="106">
+      <c r="N53" s="88">
         <f t="shared" si="31"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="54" spans="2:14">
-      <c r="B54" s="64"/>
-      <c r="C54" s="65" t="s">
+      <c r="B54" s="111"/>
+      <c r="C54" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="85">
+      <c r="D54" s="68">
         <v>4</v>
       </c>
-      <c r="E54" s="86">
+      <c r="E54" s="69">
         <v>1</v>
       </c>
-      <c r="F54" s="85">
+      <c r="F54" s="68">
         <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G54" s="67"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="67">
+      <c r="G54" s="54"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="54">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J54" s="108"/>
-      <c r="K54" s="103">
+      <c r="J54" s="90"/>
+      <c r="K54" s="85">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L54" s="104">
+      <c r="L54" s="86">
         <f t="shared" si="34"/>
         <v>4</v>
       </c>
-      <c r="M54" s="105">
+      <c r="M54" s="87">
         <f t="shared" ref="M54:M62" si="35">E54+J54</f>
         <v>1</v>
       </c>
-      <c r="N54" s="106">
+      <c r="N54" s="88">
         <f t="shared" si="31"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="55" spans="2:14">
-      <c r="B55" s="64"/>
-      <c r="C55" s="65" t="s">
+      <c r="B55" s="111"/>
+      <c r="C55" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D55" s="85">
+      <c r="D55" s="68">
         <v>9</v>
       </c>
-      <c r="E55" s="62">
+      <c r="E55" s="50">
         <v>10</v>
       </c>
-      <c r="F55" s="85">
+      <c r="F55" s="68">
         <f t="shared" si="32"/>
         <v>-1</v>
       </c>
-      <c r="G55" s="67"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="67">
+      <c r="G55" s="54"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="54">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J55" s="108"/>
-      <c r="K55" s="103">
+      <c r="J55" s="90"/>
+      <c r="K55" s="85">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L55" s="104">
+      <c r="L55" s="86">
         <f t="shared" si="34"/>
         <v>9</v>
       </c>
-      <c r="M55" s="105">
+      <c r="M55" s="87">
         <f t="shared" si="35"/>
         <v>10</v>
       </c>
-      <c r="N55" s="106">
+      <c r="N55" s="88">
         <f t="shared" si="31"/>
-        <v>1.11111111111111</v>
+        <v>1.1111111111111112</v>
       </c>
     </row>
     <row r="56" spans="2:14">
-      <c r="B56" s="64"/>
-      <c r="C56" s="65" t="s">
+      <c r="B56" s="111"/>
+      <c r="C56" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="88">
+      <c r="D56" s="71">
         <v>8</v>
       </c>
-      <c r="E56" s="62">
+      <c r="E56" s="50">
         <v>5</v>
       </c>
-      <c r="F56" s="85">
+      <c r="F56" s="68">
         <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G56" s="67"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="67">
+      <c r="G56" s="54"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="54">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J56" s="108"/>
-      <c r="K56" s="103">
+      <c r="J56" s="90"/>
+      <c r="K56" s="85">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L56" s="104">
+      <c r="L56" s="86">
         <f t="shared" si="34"/>
         <v>8</v>
       </c>
-      <c r="M56" s="105">
+      <c r="M56" s="87">
         <f t="shared" si="35"/>
         <v>5</v>
       </c>
-      <c r="N56" s="106">
+      <c r="N56" s="88">
         <f t="shared" si="31"/>
         <v>0.625</v>
       </c>
     </row>
     <row r="57" spans="2:14">
-      <c r="B57" s="64"/>
-      <c r="C57" s="65" t="s">
+      <c r="B57" s="111"/>
+      <c r="C57" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="85">
+      <c r="D57" s="68">
         <v>8</v>
       </c>
-      <c r="E57" s="85">
+      <c r="E57" s="68">
         <v>10</v>
       </c>
-      <c r="F57" s="85">
+      <c r="F57" s="68">
         <f t="shared" si="32"/>
         <v>-2</v>
       </c>
-      <c r="G57" s="67"/>
-      <c r="H57" s="63"/>
-      <c r="I57" s="67">
+      <c r="G57" s="54"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="54">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J57" s="108"/>
-      <c r="K57" s="103">
+      <c r="J57" s="90"/>
+      <c r="K57" s="85">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L57" s="104">
+      <c r="L57" s="86">
         <f t="shared" si="34"/>
         <v>8</v>
       </c>
-      <c r="M57" s="105">
+      <c r="M57" s="87">
         <f t="shared" si="35"/>
         <v>10</v>
       </c>
-      <c r="N57" s="106">
+      <c r="N57" s="88">
         <f t="shared" si="31"/>
         <v>1.25</v>
       </c>
     </row>
     <row r="58" spans="2:14">
-      <c r="B58" s="64"/>
-      <c r="C58" s="65" t="s">
+      <c r="B58" s="111"/>
+      <c r="C58" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="85">
+      <c r="D58" s="68">
         <v>6</v>
       </c>
-      <c r="E58" s="86">
+      <c r="E58" s="69">
         <v>9</v>
       </c>
-      <c r="F58" s="85">
+      <c r="F58" s="68">
         <f t="shared" si="32"/>
         <v>-3</v>
       </c>
-      <c r="G58" s="67"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="67">
+      <c r="G58" s="54"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="54">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J58" s="108"/>
-      <c r="K58" s="103">
+      <c r="J58" s="90"/>
+      <c r="K58" s="85">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L58" s="104">
+      <c r="L58" s="86">
         <f t="shared" si="34"/>
         <v>6</v>
       </c>
-      <c r="M58" s="105">
+      <c r="M58" s="87">
         <f t="shared" si="35"/>
         <v>9</v>
       </c>
-      <c r="N58" s="106">
+      <c r="N58" s="88">
         <f t="shared" si="31"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="59" spans="2:14">
-      <c r="B59" s="64"/>
-      <c r="C59" s="65" t="s">
+      <c r="B59" s="111"/>
+      <c r="C59" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="88">
+      <c r="D59" s="71">
         <v>8</v>
       </c>
-      <c r="E59" s="86">
+      <c r="E59" s="69">
         <v>16</v>
       </c>
-      <c r="F59" s="85">
+      <c r="F59" s="68">
         <f t="shared" si="32"/>
         <v>-8</v>
       </c>
-      <c r="G59" s="67"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="67">
+      <c r="G59" s="54"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="54">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J59" s="108"/>
-      <c r="K59" s="103">
+      <c r="J59" s="90"/>
+      <c r="K59" s="85">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L59" s="104">
+      <c r="L59" s="86">
         <f t="shared" si="34"/>
         <v>8</v>
       </c>
-      <c r="M59" s="105">
+      <c r="M59" s="87">
         <f t="shared" si="35"/>
         <v>16</v>
       </c>
-      <c r="N59" s="106">
+      <c r="N59" s="88">
         <f t="shared" si="31"/>
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="2:14">
-      <c r="B60" s="64"/>
-      <c r="C60" s="65" t="s">
+      <c r="B60" s="111"/>
+      <c r="C60" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="88">
+      <c r="D60" s="71">
         <v>1</v>
       </c>
-      <c r="E60" s="62">
+      <c r="E60" s="50">
         <v>7</v>
       </c>
-      <c r="F60" s="85">
+      <c r="F60" s="68">
         <f t="shared" si="32"/>
         <v>-6</v>
       </c>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="108"/>
-      <c r="K60" s="109">
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="90"/>
+      <c r="K60" s="91">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L60" s="110">
+      <c r="L60" s="92">
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="M60" s="110">
+      <c r="M60" s="92">
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
-      <c r="N60" s="121">
+      <c r="N60" s="103">
         <f t="shared" si="31"/>
         <v>7</v>
       </c>
     </row>
     <row r="61" spans="2:14">
-      <c r="B61" s="71"/>
-      <c r="C61" s="65" t="s">
+      <c r="B61" s="112"/>
+      <c r="C61" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="88">
-        <v>0</v>
-      </c>
-      <c r="E61" s="62">
-        <v>0</v>
-      </c>
-      <c r="F61" s="86">
+      <c r="D61" s="71">
+        <v>0</v>
+      </c>
+      <c r="E61" s="50">
+        <v>0</v>
+      </c>
+      <c r="F61" s="69">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="108"/>
-      <c r="K61" s="109" t="e">
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="90"/>
+      <c r="K61" s="91" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L61" s="110">
+      <c r="L61" s="92">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="M61" s="110">
+      <c r="M61" s="92">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="N61" s="121" t="e">
+      <c r="N61" s="103" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="62" spans="2:14">
-      <c r="B62" s="71"/>
-      <c r="C62" s="65" t="s">
+      <c r="B62" s="112"/>
+      <c r="C62" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="89">
+      <c r="D62" s="72">
         <v>9</v>
       </c>
-      <c r="E62" s="62">
+      <c r="E62" s="50">
         <v>9</v>
       </c>
-      <c r="F62" s="62">
+      <c r="F62" s="50">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
-      <c r="I62" s="67">
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54">
         <f>G62-H62</f>
         <v>0</v>
       </c>
-      <c r="J62" s="108"/>
-      <c r="K62" s="109">
+      <c r="J62" s="90"/>
+      <c r="K62" s="91">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L62" s="110">
+      <c r="L62" s="92">
         <f t="shared" si="34"/>
         <v>9</v>
       </c>
-      <c r="M62" s="110">
+      <c r="M62" s="92">
         <f t="shared" si="35"/>
         <v>9</v>
       </c>
-      <c r="N62" s="121">
+      <c r="N62" s="103">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" ht="15" spans="2:14">
-      <c r="B63" s="90"/>
-      <c r="C63" s="91" t="s">
+    <row r="63" spans="2:14">
+      <c r="B63" s="114"/>
+      <c r="C63" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="92">
+      <c r="D63" s="74">
         <f t="shared" ref="D63:H63" si="36">SUM(D53:D62)</f>
         <v>58</v>
       </c>
-      <c r="E63" s="92">
+      <c r="E63" s="74">
         <f t="shared" si="36"/>
         <v>69</v>
       </c>
-      <c r="F63" s="93">
+      <c r="F63" s="75">
         <f t="shared" si="32"/>
         <v>-11</v>
       </c>
-      <c r="G63" s="92">
+      <c r="G63" s="74">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H63" s="92">
+      <c r="H63" s="74">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="I63" s="92">
+      <c r="I63" s="74">
         <f>G63-H63</f>
         <v>0</v>
       </c>
-      <c r="J63" s="92">
+      <c r="J63" s="74">
         <f t="shared" ref="J63:M63" si="37">SUM(J53:J62)</f>
         <v>0</v>
       </c>
-      <c r="K63" s="122">
+      <c r="K63" s="104">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L63" s="92">
+      <c r="L63" s="74">
         <f t="shared" si="37"/>
         <v>58</v>
       </c>
-      <c r="M63" s="92">
+      <c r="M63" s="74">
         <f t="shared" si="37"/>
         <v>69</v>
       </c>
-      <c r="N63" s="123">
+      <c r="N63" s="105">
         <f t="shared" si="31"/>
-        <v>1.18965517241379</v>
-      </c>
-    </row>
-    <row r="64" ht="15"/>
-    <row r="65" ht="15" spans="2:14">
-      <c r="B65" s="52" t="s">
+        <v>1.1896551724137931</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14">
+      <c r="B65" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="52" t="s">
+      <c r="C65" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="53" t="s">
+      <c r="D65" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="83" t="s">
+      <c r="E65" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F65" s="84" t="s">
+      <c r="F65" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G65" s="55" t="s">
+      <c r="G65" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H65" s="56" t="s">
+      <c r="H65" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I65" s="95" t="s">
+      <c r="I65" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="J65" s="96" t="s">
+      <c r="J65" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="K65" s="97" t="s">
+      <c r="K65" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="L65" s="118" t="s">
+      <c r="L65" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="M65" s="119" t="s">
+      <c r="M65" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="N65" s="120" t="s">
+      <c r="N65" s="102" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="66" spans="2:14">
-      <c r="B66" s="58" t="s">
+      <c r="B66" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="59" t="s">
+      <c r="C66" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D66" s="85">
-        <v>0</v>
-      </c>
-      <c r="E66" s="86">
-        <v>1</v>
-      </c>
-      <c r="F66" s="87">
+      <c r="D66" s="68">
+        <v>0</v>
+      </c>
+      <c r="E66" s="69">
+        <v>2</v>
+      </c>
+      <c r="F66" s="70">
         <f>D66-E66</f>
-        <v>-1</v>
-      </c>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="63">
+        <v>-2</v>
+      </c>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51">
         <f t="shared" ref="I66:I72" si="38">G66-H66</f>
         <v>0</v>
       </c>
-      <c r="J66" s="102"/>
-      <c r="K66" s="103">
+      <c r="J66" s="84"/>
+      <c r="K66" s="85">
         <f t="shared" ref="K66:K76" si="39">J66/M66*100%</f>
         <v>0</v>
       </c>
-      <c r="L66" s="104">
+      <c r="L66" s="86">
         <f t="shared" ref="L66:L75" si="40">D66+H66</f>
         <v>0</v>
       </c>
-      <c r="M66" s="105">
+      <c r="M66" s="87">
         <f>E66+H66</f>
-        <v>1</v>
-      </c>
-      <c r="N66" s="106" t="e">
+        <v>2</v>
+      </c>
+      <c r="N66" s="88" t="e">
         <f t="shared" ref="N66:N76" si="41">M66/L66*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="67" spans="2:14">
-      <c r="B67" s="64"/>
-      <c r="C67" s="65" t="s">
+      <c r="B67" s="111"/>
+      <c r="C67" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D67" s="85">
-        <v>0</v>
-      </c>
-      <c r="E67" s="86">
+      <c r="D67" s="68">
+        <v>0</v>
+      </c>
+      <c r="E67" s="69">
         <v>3</v>
       </c>
-      <c r="F67" s="87">
+      <c r="F67" s="70">
         <f t="shared" ref="F67:F75" si="42">D67-E67</f>
         <v>-3</v>
       </c>
-      <c r="G67" s="67"/>
-      <c r="H67" s="63"/>
-      <c r="I67" s="67">
+      <c r="G67" s="54"/>
+      <c r="H67" s="51"/>
+      <c r="I67" s="54">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="J67" s="108"/>
-      <c r="K67" s="103">
+      <c r="J67" s="90"/>
+      <c r="K67" s="85">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="L67" s="104">
+      <c r="L67" s="86">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="M67" s="105">
+      <c r="M67" s="87">
         <f t="shared" ref="M67:M75" si="43">E67+J67</f>
         <v>3</v>
       </c>
-      <c r="N67" s="106" t="e">
+      <c r="N67" s="88" t="e">
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="68" spans="2:14">
-      <c r="B68" s="64"/>
-      <c r="C68" s="65" t="s">
+      <c r="B68" s="111"/>
+      <c r="C68" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D68" s="85">
+      <c r="D68" s="68">
+        <v>6</v>
+      </c>
+      <c r="E68" s="69">
+        <v>5</v>
+      </c>
+      <c r="F68" s="70">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="G68" s="54"/>
+      <c r="H68" s="51"/>
+      <c r="I68" s="54">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="90"/>
+      <c r="K68" s="85">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="86">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="M68" s="87">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+      <c r="N68" s="88">
+        <f t="shared" si="41"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14">
+      <c r="B69" s="111"/>
+      <c r="C69" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="68">
+        <v>3</v>
+      </c>
+      <c r="E69" s="69">
+        <v>7</v>
+      </c>
+      <c r="F69" s="70">
+        <f t="shared" si="42"/>
+        <v>-4</v>
+      </c>
+      <c r="G69" s="54"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="54">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="90"/>
+      <c r="K69" s="85">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="86">
+        <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="M69" s="87">
+        <f t="shared" si="43"/>
+        <v>7</v>
+      </c>
+      <c r="N69" s="88">
+        <f t="shared" si="41"/>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14">
+      <c r="B70" s="111"/>
+      <c r="C70" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="68">
+        <v>9</v>
+      </c>
+      <c r="E70" s="69">
+        <v>5</v>
+      </c>
+      <c r="F70" s="70">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="G70" s="54"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="54">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="90"/>
+      <c r="K70" s="85">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="86">
+        <f t="shared" si="40"/>
+        <v>9</v>
+      </c>
+      <c r="M70" s="87">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+      <c r="N70" s="88">
+        <f t="shared" si="41"/>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14">
+      <c r="B71" s="111"/>
+      <c r="C71" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="68">
+        <v>3</v>
+      </c>
+      <c r="E71" s="69">
+        <v>5</v>
+      </c>
+      <c r="F71" s="70">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="G71" s="54"/>
+      <c r="H71" s="51"/>
+      <c r="I71" s="54">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="90"/>
+      <c r="K71" s="85">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="86">
+        <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="M71" s="87">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+      <c r="N71" s="88">
+        <f t="shared" si="41"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14">
+      <c r="B72" s="111"/>
+      <c r="C72" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="68">
+        <v>5</v>
+      </c>
+      <c r="E72" s="69">
+        <v>12</v>
+      </c>
+      <c r="F72" s="70">
+        <f t="shared" si="42"/>
+        <v>-7</v>
+      </c>
+      <c r="G72" s="54"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="54">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="90"/>
+      <c r="K72" s="85">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="86">
+        <f t="shared" si="40"/>
+        <v>5</v>
+      </c>
+      <c r="M72" s="87">
+        <f t="shared" si="43"/>
+        <v>12</v>
+      </c>
+      <c r="N72" s="88">
+        <f t="shared" si="41"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14">
+      <c r="B73" s="111"/>
+      <c r="C73" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="68">
+        <v>5</v>
+      </c>
+      <c r="E73" s="69">
+        <v>3</v>
+      </c>
+      <c r="F73" s="70">
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
-      <c r="E68" s="86">
+      <c r="G73" s="54"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="90"/>
+      <c r="K73" s="91">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="92">
+        <f t="shared" si="40"/>
+        <v>5</v>
+      </c>
+      <c r="M73" s="92">
+        <f t="shared" si="43"/>
         <v>3</v>
       </c>
-      <c r="F68" s="87">
+      <c r="N73" s="103">
+        <f t="shared" si="41"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14">
+      <c r="B74" s="112"/>
+      <c r="C74" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="68">
+        <v>0</v>
+      </c>
+      <c r="E74" s="69">
+        <v>0</v>
+      </c>
+      <c r="F74" s="70">
         <f t="shared" si="42"/>
-        <v>-1</v>
-      </c>
-      <c r="G68" s="67"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="67">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="108"/>
-      <c r="K68" s="103">
+        <v>0</v>
+      </c>
+      <c r="G74" s="54"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="90"/>
+      <c r="K74" s="91" t="e">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="L68" s="104">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L74" s="92">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="92">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N74" s="103" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14">
+      <c r="B75" s="112"/>
+      <c r="C75" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="68">
+        <v>2</v>
+      </c>
+      <c r="E75" s="69">
+        <v>4</v>
+      </c>
+      <c r="F75" s="70">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="G75" s="54"/>
+      <c r="H75" s="54"/>
+      <c r="I75" s="54">
+        <f>G75-H75</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="90"/>
+      <c r="K75" s="91">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="92">
         <f t="shared" si="40"/>
         <v>2</v>
       </c>
-      <c r="M68" s="105">
-        <f t="shared" si="43"/>
-        <v>3</v>
-      </c>
-      <c r="N68" s="106">
-        <f t="shared" si="41"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14">
-      <c r="B69" s="64"/>
-      <c r="C69" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" s="85">
-        <v>3</v>
-      </c>
-      <c r="E69" s="86">
-        <v>5</v>
-      </c>
-      <c r="F69" s="87">
-        <f t="shared" si="42"/>
-        <v>-2</v>
-      </c>
-      <c r="G69" s="67"/>
-      <c r="H69" s="63"/>
-      <c r="I69" s="67">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="108"/>
-      <c r="K69" s="103">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="L69" s="104">
-        <f t="shared" si="40"/>
-        <v>3</v>
-      </c>
-      <c r="M69" s="105">
-        <f t="shared" si="43"/>
-        <v>5</v>
-      </c>
-      <c r="N69" s="106">
-        <f t="shared" si="41"/>
-        <v>1.66666666666667</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14">
-      <c r="B70" s="64"/>
-      <c r="C70" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" s="85">
-        <v>0</v>
-      </c>
-      <c r="E70" s="86">
-        <v>5</v>
-      </c>
-      <c r="F70" s="87">
-        <f t="shared" si="42"/>
-        <v>-5</v>
-      </c>
-      <c r="G70" s="67"/>
-      <c r="H70" s="63"/>
-      <c r="I70" s="67">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="108"/>
-      <c r="K70" s="103">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="L70" s="104">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="M70" s="105">
-        <f t="shared" si="43"/>
-        <v>5</v>
-      </c>
-      <c r="N70" s="106" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14">
-      <c r="B71" s="64"/>
-      <c r="C71" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="D71" s="85">
-        <v>3</v>
-      </c>
-      <c r="E71" s="86">
-        <v>5</v>
-      </c>
-      <c r="F71" s="87">
-        <f t="shared" si="42"/>
-        <v>-2</v>
-      </c>
-      <c r="G71" s="67"/>
-      <c r="H71" s="63"/>
-      <c r="I71" s="67">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J71" s="108"/>
-      <c r="K71" s="103">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="L71" s="104">
-        <f t="shared" si="40"/>
-        <v>3</v>
-      </c>
-      <c r="M71" s="105">
-        <f t="shared" si="43"/>
-        <v>5</v>
-      </c>
-      <c r="N71" s="106">
-        <f t="shared" si="41"/>
-        <v>1.66666666666667</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14">
-      <c r="B72" s="64"/>
-      <c r="C72" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72" s="85">
-        <v>3</v>
-      </c>
-      <c r="E72" s="86">
-        <v>5</v>
-      </c>
-      <c r="F72" s="87">
-        <f t="shared" si="42"/>
-        <v>-2</v>
-      </c>
-      <c r="G72" s="67"/>
-      <c r="H72" s="63"/>
-      <c r="I72" s="67">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J72" s="108"/>
-      <c r="K72" s="103">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="L72" s="104">
-        <f t="shared" si="40"/>
-        <v>3</v>
-      </c>
-      <c r="M72" s="105">
-        <f t="shared" si="43"/>
-        <v>5</v>
-      </c>
-      <c r="N72" s="106">
-        <f t="shared" si="41"/>
-        <v>1.66666666666667</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14">
-      <c r="B73" s="64"/>
-      <c r="C73" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="D73" s="85">
-        <v>3</v>
-      </c>
-      <c r="E73" s="86">
-        <v>1</v>
-      </c>
-      <c r="F73" s="87">
-        <f t="shared" si="42"/>
-        <v>2</v>
-      </c>
-      <c r="G73" s="67"/>
-      <c r="H73" s="67"/>
-      <c r="I73" s="67"/>
-      <c r="J73" s="108"/>
-      <c r="K73" s="109">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="L73" s="110">
-        <f t="shared" si="40"/>
-        <v>3</v>
-      </c>
-      <c r="M73" s="110">
-        <f t="shared" si="43"/>
-        <v>1</v>
-      </c>
-      <c r="N73" s="121">
-        <f t="shared" si="41"/>
-        <v>0.333333333333333</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14">
-      <c r="B74" s="71"/>
-      <c r="C74" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="85">
-        <v>0</v>
-      </c>
-      <c r="E74" s="86">
-        <v>0</v>
-      </c>
-      <c r="F74" s="87">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="67"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="67"/>
-      <c r="J74" s="108"/>
-      <c r="K74" s="109" t="e">
-        <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L74" s="110">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="M74" s="110">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="N74" s="121" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14">
-      <c r="B75" s="71"/>
-      <c r="C75" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="D75" s="85">
-        <v>2</v>
-      </c>
-      <c r="E75" s="86">
-        <v>4</v>
-      </c>
-      <c r="F75" s="87">
-        <f t="shared" si="42"/>
-        <v>-2</v>
-      </c>
-      <c r="G75" s="67"/>
-      <c r="H75" s="67"/>
-      <c r="I75" s="67">
-        <f>G75-H75</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="108"/>
-      <c r="K75" s="109">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="L75" s="110">
-        <f t="shared" si="40"/>
-        <v>2</v>
-      </c>
-      <c r="M75" s="110">
+      <c r="M75" s="92">
         <f t="shared" si="43"/>
         <v>4</v>
       </c>
-      <c r="N75" s="121">
+      <c r="N75" s="103">
         <f t="shared" si="41"/>
         <v>2</v>
       </c>
     </row>
-    <row r="76" ht="15" spans="2:14">
-      <c r="B76" s="90"/>
-      <c r="C76" s="91" t="s">
+    <row r="76" spans="2:14">
+      <c r="B76" s="114"/>
+      <c r="C76" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="92">
+      <c r="D76" s="74">
         <f>SUM(D66:D75)</f>
-        <v>16</v>
-      </c>
-      <c r="E76" s="92">
+        <v>33</v>
+      </c>
+      <c r="E76" s="74">
         <f>SUM(E66:E75)</f>
-        <v>32</v>
-      </c>
-      <c r="F76" s="93">
+        <v>46</v>
+      </c>
+      <c r="F76" s="75">
         <v>-18</v>
       </c>
-      <c r="G76" s="92">
+      <c r="G76" s="74">
         <f>SUM(G66:G75)</f>
         <v>0</v>
       </c>
-      <c r="H76" s="92">
+      <c r="H76" s="74">
         <f>SUM(H66:H75)</f>
         <v>0</v>
       </c>
-      <c r="I76" s="92">
+      <c r="I76" s="74">
         <f>G76-H76</f>
         <v>0</v>
       </c>
-      <c r="J76" s="92">
+      <c r="J76" s="74">
         <f>SUM(J66:J75)</f>
         <v>0</v>
       </c>
-      <c r="K76" s="122">
+      <c r="K76" s="104">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="L76" s="92">
+      <c r="L76" s="74">
         <f>SUM(L66:L75)</f>
-        <v>16</v>
-      </c>
-      <c r="M76" s="92">
+        <v>33</v>
+      </c>
+      <c r="M76" s="74">
         <f>SUM(M66:M75)</f>
-        <v>32</v>
-      </c>
-      <c r="N76" s="123">
+        <v>46</v>
+      </c>
+      <c r="N76" s="105">
         <f t="shared" si="41"/>
-        <v>2</v>
+        <v>1.393939393939394</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B41:B50"/>
+    <mergeCell ref="B53:B63"/>
+    <mergeCell ref="B66:B76"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="A4:A14"/>
     <mergeCell ref="B3:B14"/>
     <mergeCell ref="B17:B26"/>
     <mergeCell ref="B29:B38"/>
-    <mergeCell ref="B41:B50"/>
-    <mergeCell ref="B53:B63"/>
-    <mergeCell ref="B66:B76"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="13"/>
-    <col min="2" max="2" width="9.875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="59.25" style="14" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="15" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="10"/>
+    <col min="2" max="2" width="9.875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="59.25" style="11" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="17">
         <v>43190</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="116"/>
+      <c r="B3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="17">
         <v>43190</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="22"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="17">
         <v>43191</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28" t="s">
+      <c r="A5" s="118"/>
+      <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="23">
         <v>43191</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28" t="s">
+      <c r="A6" s="118"/>
+      <c r="B6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="23">
         <v>43195</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="18" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="27"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="118"/>
+      <c r="B7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="17">
         <v>43196</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="18" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="27"/>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="118"/>
+      <c r="B8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="17">
         <v>43197</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="18" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="27"/>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="118"/>
+      <c r="B9" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="27">
         <v>43197</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="18" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="27"/>
-      <c r="B10" s="35" t="s">
+      <c r="A10" s="118"/>
+      <c r="B10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="27">
         <v>43197</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="18" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="27"/>
-      <c r="B11" s="37" t="s">
+      <c r="A11" s="118"/>
+      <c r="B11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="27"/>
-      <c r="B12" s="37" t="s">
+      <c r="A12" s="118"/>
+      <c r="B12" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="17">
         <v>43204</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="27"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="118"/>
+      <c r="B13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="17">
         <v>43204</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="22"/>
+      <c r="E13" s="18" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="27"/>
-      <c r="B14" s="20" t="s">
+      <c r="A14" s="118"/>
+      <c r="B14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="17">
         <v>43204</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="22"/>
+      <c r="E14" s="18" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="27"/>
-      <c r="B15" s="32" t="s">
+      <c r="A15" s="118"/>
+      <c r="B15" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="17">
         <v>43205</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="18" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="27"/>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="118"/>
+      <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="17">
         <v>43205</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="22"/>
+      <c r="E16" s="18" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="27"/>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="118"/>
+      <c r="B17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="17">
         <v>43211</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="22"/>
+      <c r="E17" s="18" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="27"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="118"/>
+      <c r="B18" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="17">
         <v>43211</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="22"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="27"/>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="118"/>
+      <c r="B19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="17">
         <v>43211</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="22"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="27"/>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="118"/>
+      <c r="B20" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="17">
         <v>43212</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="27"/>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="118"/>
+      <c r="B21" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="34">
         <v>43219</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="22"/>
+      <c r="E21" s="18" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="27"/>
-      <c r="B22" s="23" t="s">
+      <c r="A22" s="118"/>
+      <c r="B22" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="34">
         <v>43219</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="22"/>
+      <c r="E22" s="18" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="27"/>
-      <c r="B23" s="23" t="s">
+      <c r="A23" s="118"/>
+      <c r="B23" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="23">
         <v>43220</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="22"/>
+      <c r="E23" s="18" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="27"/>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="118"/>
+      <c r="B24" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="23">
         <v>43220</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="22"/>
+      <c r="E24" s="18" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="27"/>
-      <c r="B25" s="23" t="s">
+      <c r="A25" s="118"/>
+      <c r="B25" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="23">
         <v>43220</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="22"/>
+      <c r="E25" s="18" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28" t="s">
+      <c r="A26" s="118"/>
+      <c r="B26" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C26" s="35">
         <v>43220</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="22"/>
+      <c r="E26" s="18" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28" t="s">
+      <c r="A27" s="118"/>
+      <c r="B27" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="43">
+      <c r="C27" s="35">
         <v>43221</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="22"/>
+      <c r="E27" s="18" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="23"/>
-      <c r="B28" s="20" t="s">
+      <c r="A28" s="116"/>
+      <c r="B28" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="35">
         <v>43221</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="22"/>
+      <c r="E28" s="18" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="35">
         <v>43221</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="22"/>
+      <c r="E29" s="18" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="48"/>
-      <c r="B30" s="37" t="s">
+      <c r="A30" s="120"/>
+      <c r="B30" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="23">
         <v>43221</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="22"/>
+      <c r="E30" s="18" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="48"/>
-      <c r="B31" s="37" t="s">
+      <c r="A31" s="120"/>
+      <c r="B31" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="23">
         <v>43225</v>
       </c>
-      <c r="D31" s="44" t="s">
+      <c r="D31" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="22"/>
+      <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="48"/>
-      <c r="B32" s="23" t="s">
+      <c r="A32" s="120"/>
+      <c r="B32" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="23">
         <v>43225</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="22"/>
+      <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="48"/>
-      <c r="B33" s="20" t="s">
+      <c r="A33" s="120"/>
+      <c r="B33" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="23">
         <v>43225</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="22"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="48"/>
-      <c r="B34" s="46" t="s">
+      <c r="A34" s="120"/>
+      <c r="B34" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="23">
         <v>43226</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="22"/>
+      <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="37"/>
-      <c r="B35" s="23" t="s">
+      <c r="A35" s="121"/>
+      <c r="B35" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="23">
         <v>43232</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="22"/>
-    </row>
-    <row r="36" spans="5:5">
-      <c r="E36" s="22"/>
-    </row>
-    <row r="37" ht="16" customHeight="1" spans="5:5">
-      <c r="E37" s="22"/>
-    </row>
-    <row r="38" spans="5:5">
-      <c r="E38" s="22"/>
-    </row>
-    <row r="39" spans="5:5">
-      <c r="E39" s="22"/>
-    </row>
-    <row r="40" spans="5:5">
-      <c r="E40" s="22"/>
-    </row>
-    <row r="41" spans="5:5">
-      <c r="E41" s="22"/>
-    </row>
-    <row r="42" spans="5:5">
-      <c r="E42" s="22"/>
-    </row>
-    <row r="43" spans="5:5">
-      <c r="E43" s="22"/>
-    </row>
-    <row r="44" spans="5:5">
-      <c r="E44" s="22"/>
-    </row>
-    <row r="91" spans="11:11">
-      <c r="K91" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="92" spans="11:11">
-      <c r="K92" t="s">
-        <v>68</v>
-      </c>
+      <c r="E35" s="18"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="30"/>
+      <c r="B36" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="23">
+        <v>43239</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="18"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="30"/>
+      <c r="B37" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="23">
+        <v>43240</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="18"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="35">
+        <v>43240</v>
+      </c>
+      <c r="D38" s="125" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" s="18"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.95" customHeight="1">
+      <c r="E39" s="18"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="E40" s="18"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="E41" s="18"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="E42" s="18"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="E43" s="18"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="E44" s="18"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="E45" s="18"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="E46" s="18"/>
     </row>
     <row r="93" spans="11:11">
       <c r="K93" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="11:11">
+      <c r="K94" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="11:11">
+      <c r="K95" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5981,1468 +5503,1467 @@
     <mergeCell ref="A4:A28"/>
     <mergeCell ref="A29:A35"/>
   </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
-      <formula1>$K$91:$K$93</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E38">
+      <formula1>$K$93:$K$95</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E36:E40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E39:E42">
       <formula1>$G$3:$G$5</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" ht="40.5" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+    </row>
+    <row r="2" spans="1:7" ht="40.5">
+      <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" ht="24" spans="1:7">
-      <c r="A3" s="4">
+    <row r="3" spans="1:7" ht="24">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>43068</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" ht="24" spans="1:7">
-      <c r="A4" s="4">
+    <row r="4" spans="1:7" ht="24">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" ht="36" spans="1:7">
-      <c r="A5" s="4">
+    <row r="5" spans="1:7" ht="36">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>42985</v>
       </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" ht="36" spans="1:7">
-      <c r="A6" s="4">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="36">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>42986</v>
       </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" ht="36" spans="1:7">
-      <c r="A7" s="4">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="36">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" ht="36" spans="1:7">
-      <c r="A8" s="4">
+    <row r="8" spans="1:7" ht="36">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>4</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" ht="36" spans="1:7">
-      <c r="A9" s="4">
+    <row r="9" spans="1:7" ht="36">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>4</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="123">
         <v>43033</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" ht="60" spans="1:7">
-      <c r="A10" s="4">
+    <row r="10" spans="1:7" ht="60">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>3.5</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="124"/>
+      <c r="G10" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" ht="60" spans="1:7">
-      <c r="A11" s="4">
+    <row r="11" spans="1:7" ht="60">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>8</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" ht="48" spans="1:7">
-      <c r="A12" s="4">
+    <row r="12" spans="1:7" ht="48">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>1.5</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" ht="36" spans="1:7">
-      <c r="A13" s="4">
+    <row r="13" spans="1:7" ht="36">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>8</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" ht="36" spans="1:7">
-      <c r="A14" s="4">
+    <row r="14" spans="1:7" ht="36">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>7</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" ht="36" spans="1:7">
-      <c r="A15" s="4">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="36">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>4.5</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" ht="36" spans="1:7">
-      <c r="A16" s="4">
+    <row r="16" spans="1:7" ht="36">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>9</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" ht="60" spans="1:7">
-      <c r="A17" s="4">
+    <row r="17" spans="1:7" ht="60">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>8</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" ht="48" spans="1:7">
-      <c r="A18" s="4">
+    <row r="18" spans="1:7" ht="48">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>8.5</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" ht="48" spans="1:7">
-      <c r="A19" s="4">
+    <row r="19" spans="1:7" ht="48">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>6.5</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" ht="36" spans="1:7">
-      <c r="A20" s="4">
+    <row r="20" spans="1:7" ht="36">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>4</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>43035</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" ht="36" spans="1:7">
-      <c r="A21" s="4">
+    <row r="21" spans="1:7" ht="36">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="7">
         <v>43050</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>43052</v>
       </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" ht="36" spans="1:7">
-      <c r="A22" s="4">
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="36">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="7">
         <v>43051</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <v>43061</v>
       </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" ht="36" spans="1:7">
-      <c r="A23" s="4">
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="36">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="7">
         <v>43050</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" ht="24" spans="1:7">
-      <c r="A24" s="4">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="24">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="7">
         <v>43079</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6" t="s">
+      <c r="D24" s="4"/>
+      <c r="E24" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" ht="36" spans="1:7">
-      <c r="A25" s="4">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="36">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="7">
         <v>43071</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6" t="s">
+      <c r="D25" s="4"/>
+      <c r="E25" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>43087</v>
       </c>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" ht="36" spans="1:7">
-      <c r="A26" s="4">
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="36">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>5</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" ht="24" spans="1:7">
-      <c r="A27" s="4">
+      <c r="F26" s="6"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" ht="24">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="7">
         <v>43086</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6" t="s">
+      <c r="D27" s="4"/>
+      <c r="E27" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" ht="36" spans="1:7">
-      <c r="A28" s="4">
+      <c r="F27" s="6"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" ht="36">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>5</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" ht="24" spans="1:7">
-      <c r="A29" s="4">
+      <c r="F28" s="6"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" ht="24">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="7">
         <v>43085</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" ht="48" spans="1:7">
-      <c r="A30" s="4">
+      <c r="F29" s="6"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" ht="48">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="7">
         <v>43086</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6" t="s">
+      <c r="D30" s="4"/>
+      <c r="E30" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" ht="36" spans="1:7">
-      <c r="A31" s="4">
+      <c r="F30" s="6"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" ht="36">
+      <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="7">
         <v>43085</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6" t="s">
+      <c r="D31" s="4"/>
+      <c r="E31" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" ht="36" spans="1:7">
-      <c r="A32" s="4">
+      <c r="F31" s="6"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" ht="36">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="7">
         <v>43092</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6" t="s">
+      <c r="D32" s="4"/>
+      <c r="E32" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" ht="36" spans="1:7">
-      <c r="A33" s="4">
+      <c r="F32" s="6"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" ht="36">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="7">
         <v>43092</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6" t="s">
+      <c r="D33" s="4"/>
+      <c r="E33" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" ht="24" spans="1:7">
-      <c r="A34" s="4">
+      <c r="F33" s="6"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" ht="24">
+      <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="7">
         <v>43093</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="6" t="s">
+      <c r="D34" s="4"/>
+      <c r="E34" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="7">
         <v>43092</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6" t="s">
+      <c r="D35" s="4"/>
+      <c r="E35" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" ht="36" spans="1:7">
-      <c r="A36" s="4">
+      <c r="F35" s="6"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" ht="36">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="7">
         <v>43464</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="6" t="s">
+      <c r="D36" s="4"/>
+      <c r="E36" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="6">
         <v>43166</v>
       </c>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" ht="24" spans="1:7">
-      <c r="A37" s="4">
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" ht="24">
+      <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="7">
         <v>43101</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="6" t="s">
+      <c r="D37" s="4"/>
+      <c r="E37" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" ht="36" spans="1:7">
-      <c r="A38" s="4">
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" ht="36">
+      <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="7">
         <v>43113</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="6" t="s">
+      <c r="D38" s="4"/>
+      <c r="E38" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" ht="24" spans="1:7">
-      <c r="A39" s="4">
+      <c r="F38" s="6"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" ht="24">
+      <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="7">
         <v>43120</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="6" t="s">
+      <c r="D39" s="4"/>
+      <c r="E39" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <v>43153</v>
       </c>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" ht="24" spans="1:7">
-      <c r="A40" s="4">
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" ht="24">
+      <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="7">
         <v>43127</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="6" t="s">
+      <c r="D40" s="4"/>
+      <c r="E40" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" ht="24" spans="1:7">
-      <c r="A41" s="4">
+      <c r="F40" s="6"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" ht="24">
+      <c r="A41" s="3">
         <v>39</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="7">
         <v>43128</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="6" t="s">
+      <c r="D41" s="4"/>
+      <c r="E41" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="6">
         <v>43143</v>
       </c>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" ht="48" spans="1:7">
-      <c r="A42" s="4">
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" ht="48">
+      <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="7">
         <v>43127</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="6" t="s">
+      <c r="D42" s="4"/>
+      <c r="E42" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="6">
         <v>43143</v>
       </c>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" ht="24" spans="1:7">
-      <c r="A43" s="4">
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" ht="24">
+      <c r="A43" s="3">
         <v>41</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="7">
         <v>43128</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="6" t="s">
+      <c r="D43" s="4"/>
+      <c r="E43" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" ht="48" spans="1:7">
-      <c r="A44" s="4">
+      <c r="F43" s="6"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" ht="48">
+      <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="7">
         <v>43144</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="6" t="s">
+      <c r="D44" s="4"/>
+      <c r="E44" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" ht="36" spans="1:7">
-      <c r="A45" s="4">
+      <c r="F44" s="6"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" ht="36">
+      <c r="A45" s="3">
         <v>43</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="7">
         <v>43163</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="6" t="s">
+      <c r="D45" s="4"/>
+      <c r="E45" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="6">
         <v>43168</v>
       </c>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" ht="24" spans="1:7">
-      <c r="A46" s="4">
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" ht="24">
+      <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="7">
         <v>43176</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="6" t="s">
+      <c r="D46" s="4"/>
+      <c r="E46" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="6">
         <v>43185</v>
       </c>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" ht="24" spans="1:7">
-      <c r="A47" s="4">
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" ht="24">
+      <c r="A47" s="3">
         <v>45</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="7">
         <v>43183</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="6" t="s">
+      <c r="D47" s="4"/>
+      <c r="E47" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="6">
         <v>43198</v>
       </c>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" ht="24" spans="1:7">
-      <c r="A48" s="4">
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" ht="24">
+      <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="7">
         <v>43190</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="6" t="s">
+      <c r="D48" s="4"/>
+      <c r="E48" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" ht="24" spans="1:7">
-      <c r="A49" s="4">
+      <c r="F48" s="6"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" ht="24">
+      <c r="A49" s="3">
         <v>47</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="7">
         <v>43190</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="6" t="s">
+      <c r="D49" s="4"/>
+      <c r="E49" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" ht="24" spans="1:7">
-      <c r="A50" s="4">
+      <c r="F49" s="6"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" ht="24">
+      <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="7">
         <v>43191</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="6" t="s">
+      <c r="D50" s="4"/>
+      <c r="E50" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" ht="36" spans="1:7">
-      <c r="A51" s="4">
+      <c r="F50" s="6"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" ht="36">
+      <c r="A51" s="3">
         <v>49</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="7">
         <v>43191</v>
       </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="6" t="s">
+      <c r="D51" s="4"/>
+      <c r="E51" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="6">
         <v>43218</v>
       </c>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" ht="24" spans="1:7">
-      <c r="A52" s="4">
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" ht="24">
+      <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="7">
         <v>43195</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="6" t="s">
+      <c r="D52" s="4"/>
+      <c r="E52" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" ht="36" spans="1:7">
-      <c r="A53" s="4">
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" ht="36">
+      <c r="A53" s="3">
         <v>51</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="7">
         <v>43197</v>
       </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="6" t="s">
+      <c r="D53" s="4"/>
+      <c r="E53" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="6">
         <v>43222</v>
       </c>
-      <c r="G53" s="5"/>
-    </row>
-    <row r="54" ht="36" spans="1:7">
-      <c r="A54" s="4">
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" ht="36">
+      <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="7">
         <v>43197</v>
       </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="6" t="s">
+      <c r="D54" s="4"/>
+      <c r="E54" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="5"/>
-    </row>
-    <row r="55" ht="36" spans="1:7">
-      <c r="A55" s="4">
+      <c r="F54" s="6"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" ht="36">
+      <c r="A55" s="3">
         <v>53</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="7">
         <v>43204</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="6" t="s">
+      <c r="D55" s="4"/>
+      <c r="E55" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="5"/>
-    </row>
-    <row r="56" ht="36" spans="1:7">
-      <c r="A56" s="4">
+      <c r="F55" s="6"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" ht="36">
+      <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="6" t="s">
+      <c r="D56" s="4"/>
+      <c r="E56" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="5"/>
-    </row>
-    <row r="57" ht="36" spans="1:7">
-      <c r="A57" s="4">
+      <c r="F56" s="6"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" ht="36">
+      <c r="A57" s="3">
         <v>55</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="7">
         <v>43204</v>
       </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="6" t="s">
+      <c r="D57" s="4"/>
+      <c r="E57" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="6">
         <v>43227</v>
       </c>
-      <c r="G57" s="5"/>
-    </row>
-    <row r="58" ht="24" spans="1:7">
-      <c r="A58" s="4">
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" ht="24">
+      <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="7">
         <v>43204</v>
       </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="6" t="s">
+      <c r="D58" s="4"/>
+      <c r="E58" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="6">
         <v>43234</v>
       </c>
-      <c r="G58" s="5"/>
-    </row>
-    <row r="59" ht="36" spans="1:7">
-      <c r="A59" s="4">
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" ht="36">
+      <c r="A59" s="3">
         <v>57</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="7">
         <v>43205</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="6" t="s">
+      <c r="D59" s="4"/>
+      <c r="E59" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F59" s="7"/>
-      <c r="G59" s="5"/>
-    </row>
-    <row r="60" ht="24" spans="1:7">
-      <c r="A60" s="4">
+      <c r="F59" s="6"/>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" ht="24">
+      <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="7">
         <v>43205</v>
       </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="6" t="s">
+      <c r="D60" s="4"/>
+      <c r="E60" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="6">
         <v>43228</v>
       </c>
-      <c r="G60" s="5"/>
-    </row>
-    <row r="61" ht="36" spans="1:7">
-      <c r="A61" s="4">
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" ht="36">
+      <c r="A61" s="3">
         <v>59</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="7">
         <v>43211</v>
       </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="6" t="s">
+      <c r="D61" s="4"/>
+      <c r="E61" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="5"/>
-    </row>
-    <row r="62" ht="48" spans="1:7">
-      <c r="A62" s="4">
+      <c r="F61" s="6"/>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" ht="48">
+      <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="7">
         <v>43211</v>
       </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="6" t="s">
+      <c r="D62" s="4"/>
+      <c r="E62" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="6">
         <v>43235</v>
       </c>
-      <c r="G62" s="5"/>
-    </row>
-    <row r="63" ht="36" spans="1:7">
-      <c r="A63" s="4">
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" ht="36">
+      <c r="A63" s="3">
         <v>61</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63" s="7">
         <v>43211</v>
       </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="6" t="s">
+      <c r="D63" s="4"/>
+      <c r="E63" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="5"/>
-    </row>
-    <row r="64" ht="36" spans="1:7">
-      <c r="A64" s="4">
+      <c r="F63" s="6"/>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" ht="36">
+      <c r="A64" s="3">
         <v>62</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="7">
         <v>43212</v>
       </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="6" t="s">
+      <c r="D64" s="4"/>
+      <c r="E64" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="5"/>
-    </row>
-    <row r="65" ht="24" spans="1:7">
-      <c r="A65" s="4">
+      <c r="F64" s="6"/>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="1:7" ht="24">
+      <c r="A65" s="3">
         <v>63</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="7">
         <v>43219</v>
       </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="6" t="s">
+      <c r="D65" s="4"/>
+      <c r="E65" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="5"/>
-    </row>
-    <row r="66" ht="24" spans="1:7">
-      <c r="A66" s="4">
+      <c r="F65" s="6"/>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" ht="24">
+      <c r="A66" s="3">
         <v>64</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66" s="7">
         <v>43219</v>
       </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="6" t="s">
+      <c r="D66" s="4"/>
+      <c r="E66" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="5"/>
-    </row>
-    <row r="67" ht="36" spans="1:7">
-      <c r="A67" s="4">
+      <c r="F66" s="6"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:7" ht="36">
+      <c r="A67" s="3">
         <v>65</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67" s="7">
         <v>43220</v>
       </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="6" t="s">
+      <c r="D67" s="4"/>
+      <c r="E67" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F67" s="7"/>
-      <c r="G67" s="5"/>
-    </row>
-    <row r="68" ht="36" spans="1:7">
-      <c r="A68" s="4">
+      <c r="F67" s="6"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" ht="36">
+      <c r="A68" s="3">
         <v>66</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="7">
         <v>43220</v>
       </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="6" t="s">
+      <c r="D68" s="4"/>
+      <c r="E68" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F68" s="7"/>
-      <c r="G68" s="5"/>
-    </row>
-    <row r="69" ht="48" spans="1:7">
-      <c r="A69" s="4">
+      <c r="F68" s="6"/>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:7" ht="48">
+      <c r="A69" s="3">
         <v>67</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="6" t="s">
+      <c r="D69" s="4"/>
+      <c r="E69" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F69" s="7"/>
-      <c r="G69" s="5"/>
-    </row>
-    <row r="70" ht="36" spans="1:7">
-      <c r="A70" s="4">
+      <c r="F69" s="6"/>
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="1:7" ht="36">
+      <c r="A70" s="3">
         <v>68</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="7">
         <v>43221</v>
       </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="6" t="s">
+      <c r="D70" s="4"/>
+      <c r="E70" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F70" s="7"/>
-      <c r="G70" s="5"/>
-    </row>
-    <row r="71" ht="24" spans="1:7">
-      <c r="A71" s="4">
+      <c r="F70" s="6"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:7" ht="24">
+      <c r="A71" s="3">
         <v>69</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C71" s="7">
         <v>43221</v>
       </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="6" t="s">
+      <c r="D71" s="4"/>
+      <c r="E71" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F71" s="7"/>
-      <c r="G71" s="5"/>
-    </row>
-    <row r="72" ht="24" spans="1:7">
-      <c r="A72" s="4">
+      <c r="F71" s="6"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:7" ht="24">
+      <c r="A72" s="3">
         <v>70</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="7">
         <v>43221</v>
       </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="6" t="s">
+      <c r="D72" s="4"/>
+      <c r="E72" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F72" s="7"/>
-      <c r="G72" s="5"/>
-    </row>
-    <row r="73" ht="24" spans="1:7">
-      <c r="A73" s="4">
+      <c r="F72" s="6"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:7" ht="24">
+      <c r="A73" s="3">
         <v>71</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="10">
+      <c r="C73" s="7">
         <v>43225</v>
       </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="6" t="s">
+      <c r="D73" s="4"/>
+      <c r="E73" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F73" s="7"/>
-      <c r="G73" s="5"/>
-    </row>
-    <row r="74" ht="24" spans="1:7">
-      <c r="A74" s="4">
+      <c r="F73" s="6"/>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="1:7" ht="24">
+      <c r="A74" s="3">
         <v>72</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="10">
+      <c r="C74" s="7">
         <v>43225</v>
       </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="6" t="s">
+      <c r="D74" s="4"/>
+      <c r="E74" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F74" s="7"/>
-      <c r="G74" s="5"/>
-    </row>
-    <row r="75" ht="36" spans="1:7">
-      <c r="A75" s="4">
+      <c r="F74" s="6"/>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="1:7" ht="36">
+      <c r="A75" s="3">
         <v>73</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="10">
+      <c r="C75" s="7">
         <v>43225</v>
       </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="6" t="s">
+      <c r="D75" s="4"/>
+      <c r="E75" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F75" s="7"/>
-      <c r="G75" s="5"/>
-    </row>
-    <row r="76" ht="36" spans="1:7">
-      <c r="A76" s="4">
+      <c r="F75" s="6"/>
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="1:7" ht="36">
+      <c r="A76" s="3">
         <v>74</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C76" s="7">
         <v>43226</v>
       </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="6" t="s">
+      <c r="D76" s="4"/>
+      <c r="E76" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F76" s="7"/>
-      <c r="G76" s="5"/>
-    </row>
-    <row r="77" ht="24" spans="1:7">
-      <c r="A77" s="4">
+      <c r="F76" s="6"/>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="1:7" ht="24">
+      <c r="A77" s="3">
         <v>75</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C77" s="10">
+      <c r="C77" s="7">
         <v>43232</v>
       </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="6" t="s">
+      <c r="D77" s="4"/>
+      <c r="E77" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F77" s="7"/>
-      <c r="G77" s="5"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="F9:F10"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/部门项目数据汇总表.xlsx
+++ b/部门项目数据汇总表.xlsx
@@ -704,13 +704,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,19 +769,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -804,15 +791,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -826,50 +882,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -883,32 +906,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -916,43 +931,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -966,6 +945,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -979,7 +959,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1036,7 +1016,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,175 +1190,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1664,11 +1638,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1688,6 +1668,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1699,21 +1706,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1743,34 +1735,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1779,146 +1753,146 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2019,7 +1993,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2040,36 +2014,32 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2096,10 +2066,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2114,7 +2084,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2123,7 +2093,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2144,25 +2114,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2189,16 +2159,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2219,7 +2189,7 @@
     <xf numFmtId="9" fontId="7" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2252,10 +2222,10 @@
     <xf numFmtId="9" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2280,10 +2250,10 @@
     <xf numFmtId="9" fontId="7" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2612,8 +2582,8 @@
   <sheetPr/>
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66:E75"/>
+    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -2629,2848 +2599,2848 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:17">
-      <c r="A1" s="52"/>
-      <c r="B1" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
+      <c r="A1" s="50"/>
+      <c r="B1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
     </row>
     <row r="2" ht="16.5" spans="1:17">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="98" t="s">
+      <c r="I2" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="99" t="s">
+      <c r="J2" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="100" t="s">
+      <c r="K2" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="101" t="s">
+      <c r="L2" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="102" t="s">
+      <c r="M2" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="103" t="s">
+      <c r="N2" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
     </row>
     <row r="3" ht="15" spans="1:17">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="63">
+      <c r="D3" s="61">
         <v>6</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="62">
         <v>12</v>
       </c>
-      <c r="F3" s="65">
+      <c r="F3" s="63">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>-6</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66">
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64">
         <f t="shared" ref="I3:I9" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="105"/>
-      <c r="K3" s="106">
+      <c r="J3" s="103"/>
+      <c r="K3" s="104">
         <f t="shared" ref="K3:K10" si="2">J3/M3*100%</f>
         <v>0</v>
       </c>
-      <c r="L3" s="107">
+      <c r="L3" s="105">
         <f t="shared" ref="L3:L11" si="3">D3+H3</f>
         <v>6</v>
       </c>
-      <c r="M3" s="108">
+      <c r="M3" s="106">
         <f>E3+H3</f>
         <v>12</v>
       </c>
-      <c r="N3" s="109">
+      <c r="N3" s="107">
         <f t="shared" ref="N3:N10" si="4">M3/L3*100%</f>
         <v>2</v>
       </c>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="60">
+      <c r="A4" s="58">
         <v>4</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="69">
+      <c r="D4" s="67">
         <v>2</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="62">
         <v>4</v>
       </c>
-      <c r="F4" s="65">
+      <c r="F4" s="63">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="70">
+      <c r="G4" s="68"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="111"/>
-      <c r="K4" s="106">
+      <c r="J4" s="109"/>
+      <c r="K4" s="104">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L4" s="107">
+      <c r="L4" s="105">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M4" s="108">
+      <c r="M4" s="106">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>4</v>
       </c>
-      <c r="N4" s="109">
+      <c r="N4" s="107">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="71"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="67">
         <v>4</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="62">
         <v>3</v>
       </c>
-      <c r="F5" s="65">
+      <c r="F5" s="63">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G5" s="70"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="70">
+      <c r="G5" s="68"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="111"/>
-      <c r="K5" s="106">
+      <c r="J5" s="109"/>
+      <c r="K5" s="104">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L5" s="107">
+      <c r="L5" s="105">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M5" s="108">
+      <c r="M5" s="106">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="N5" s="109">
+      <c r="N5" s="107">
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="71"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="68" t="s">
+      <c r="A6" s="69"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="67">
         <v>4</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="62">
         <v>3</v>
       </c>
-      <c r="F6" s="65">
+      <c r="F6" s="63">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="70"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="70">
+      <c r="G6" s="68"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="111"/>
-      <c r="K6" s="106">
+      <c r="J6" s="109"/>
+      <c r="K6" s="104">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L6" s="107">
+      <c r="L6" s="105">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M6" s="108">
+      <c r="M6" s="106">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="N6" s="109">
+      <c r="N6" s="107">
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="110"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="108"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="71"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="68" t="s">
+      <c r="A7" s="69"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="67">
         <v>3</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="62">
         <v>1</v>
       </c>
-      <c r="F7" s="65">
+      <c r="F7" s="63">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="70">
+      <c r="G7" s="68"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="106">
+      <c r="J7" s="109"/>
+      <c r="K7" s="104">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L7" s="107">
+      <c r="L7" s="105">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="M7" s="108">
+      <c r="M7" s="106">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N7" s="109">
+      <c r="N7" s="107">
         <f t="shared" si="4"/>
         <v>0.333333333333333</v>
       </c>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="71"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="68" t="s">
+      <c r="A8" s="69"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="69">
+      <c r="D8" s="67">
         <v>6</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="62">
         <v>3</v>
       </c>
-      <c r="F8" s="65">
+      <c r="F8" s="63">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G8" s="70"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="70">
+      <c r="G8" s="68"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="111"/>
-      <c r="K8" s="106">
+      <c r="J8" s="109"/>
+      <c r="K8" s="104">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L8" s="107">
+      <c r="L8" s="105">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="M8" s="108">
+      <c r="M8" s="106">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="N8" s="109">
+      <c r="N8" s="107">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="108"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="71"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="68" t="s">
+      <c r="A9" s="69"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="69">
+      <c r="D9" s="67">
         <v>1</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="62">
         <v>1</v>
       </c>
-      <c r="F9" s="65">
+      <c r="F9" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="70"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="70">
+      <c r="G9" s="68"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="111"/>
-      <c r="K9" s="106">
+      <c r="J9" s="109"/>
+      <c r="K9" s="104">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L9" s="107">
+      <c r="L9" s="105">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M9" s="108">
+      <c r="M9" s="106">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N9" s="109">
+      <c r="N9" s="107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O9" s="110"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="110"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="71"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="68" t="s">
+      <c r="A10" s="69"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="70">
         <v>4</v>
       </c>
-      <c r="E10" s="69">
+      <c r="E10" s="67">
         <v>4</v>
       </c>
-      <c r="F10" s="65">
+      <c r="F10" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="112">
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L10" s="113">
+      <c r="L10" s="111">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M10" s="113">
+      <c r="M10" s="111">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="N10" s="114">
+      <c r="N10" s="112">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="71"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="73" t="s">
+      <c r="A11" s="69"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="72">
+      <c r="D11" s="70">
         <v>4</v>
       </c>
-      <c r="E11" s="69">
+      <c r="E11" s="67">
         <v>5</v>
       </c>
-      <c r="F11" s="65">
+      <c r="F11" s="63">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="113">
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="111">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M11" s="113">
+      <c r="M11" s="111">
         <v>5</v>
       </c>
-      <c r="N11" s="114">
-        <v>0</v>
-      </c>
-      <c r="O11" s="110"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="110"/>
+      <c r="N11" s="112">
+        <v>0</v>
+      </c>
+      <c r="O11" s="108"/>
+      <c r="P11" s="108"/>
+      <c r="Q11" s="108"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="71"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="75" t="s">
+      <c r="A12" s="69"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="72">
+      <c r="D12" s="70">
         <v>1</v>
       </c>
-      <c r="E12" s="69">
+      <c r="E12" s="67">
         <v>1</v>
       </c>
-      <c r="F12" s="65">
-        <v>0</v>
-      </c>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="113">
+      <c r="F12" s="63">
+        <v>0</v>
+      </c>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="111">
         <v>1</v>
       </c>
-      <c r="M12" s="113">
+      <c r="M12" s="111">
         <v>1</v>
       </c>
-      <c r="N12" s="109">
+      <c r="N12" s="107">
         <f>M12/L12*100%</f>
         <v>1</v>
       </c>
-      <c r="O12" s="110"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="110"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="108"/>
     </row>
     <row r="13" ht="15" spans="1:17">
-      <c r="A13" s="71"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="76" t="s">
+      <c r="A13" s="69"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="72">
+      <c r="D13" s="70">
         <v>5</v>
       </c>
-      <c r="E13" s="69">
+      <c r="E13" s="67">
         <v>6</v>
       </c>
-      <c r="F13" s="65">
+      <c r="F13" s="63">
         <f>D13-E13</f>
         <v>-1</v>
       </c>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70">
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68">
         <f t="shared" ref="I13:I23" si="6">G13-H13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="111"/>
-      <c r="K13" s="112">
+      <c r="J13" s="109"/>
+      <c r="K13" s="110">
         <f t="shared" ref="K13:K26" si="7">J13/M13*100%</f>
         <v>0</v>
       </c>
-      <c r="L13" s="113">
+      <c r="L13" s="111">
         <f>D13+H13</f>
         <v>5</v>
       </c>
-      <c r="M13" s="113">
+      <c r="M13" s="111">
         <f>E13+J13</f>
         <v>6</v>
       </c>
-      <c r="N13" s="114">
+      <c r="N13" s="112">
         <f t="shared" ref="N13:N26" si="8">M13/L13*100%</f>
         <v>1.2</v>
       </c>
-      <c r="O13" s="110"/>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="110"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="108"/>
     </row>
     <row r="14" ht="15" spans="1:17">
-      <c r="A14" s="77"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="79" t="s">
+      <c r="A14" s="75"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D14" s="78">
         <f>SUM(D3:D13)</f>
         <v>40</v>
       </c>
-      <c r="E14" s="81">
+      <c r="E14" s="79">
         <f>SUM(E3:E13)</f>
         <v>43</v>
       </c>
-      <c r="F14" s="82">
+      <c r="F14" s="80">
         <f>D14-E14</f>
         <v>-3</v>
       </c>
-      <c r="G14" s="83">
+      <c r="G14" s="81">
         <f>SUM(G3:G13)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="83">
+      <c r="H14" s="81">
         <f>SUM(H3:H13)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="83">
+      <c r="I14" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J14" s="83">
+      <c r="J14" s="81">
         <f>SUM(J3:J13)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="115">
+      <c r="K14" s="113">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L14" s="83">
+      <c r="L14" s="81">
         <f>SUM(L3:L13)</f>
         <v>40</v>
       </c>
-      <c r="M14" s="83">
+      <c r="M14" s="81">
         <f>SUM(M3:M13)</f>
         <v>43</v>
       </c>
-      <c r="N14" s="116">
+      <c r="N14" s="114">
         <f t="shared" si="8"/>
         <v>1.075</v>
       </c>
-      <c r="O14" s="110"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="110"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="108"/>
     </row>
     <row r="15" ht="15"/>
     <row r="16" ht="15" spans="2:14">
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="58" t="s">
+      <c r="G16" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="59" t="s">
+      <c r="H16" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="98" t="s">
+      <c r="I16" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="99" t="s">
+      <c r="J16" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="100" t="s">
+      <c r="K16" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="101" t="s">
+      <c r="L16" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="102" t="s">
+      <c r="M16" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="N16" s="117" t="s">
+      <c r="N16" s="115" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="61">
         <v>5</v>
       </c>
-      <c r="E17" s="84">
+      <c r="E17" s="82">
         <v>5</v>
       </c>
-      <c r="F17" s="65">
+      <c r="F17" s="63">
         <f t="shared" ref="F17:F26" si="9">D17-E17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66">
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J17" s="105"/>
-      <c r="K17" s="106">
+      <c r="J17" s="103"/>
+      <c r="K17" s="104">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L17" s="107">
+      <c r="L17" s="105">
         <f t="shared" ref="L17:L25" si="10">D17+H17</f>
         <v>5</v>
       </c>
-      <c r="M17" s="108">
+      <c r="M17" s="106">
         <f>E17+H17</f>
         <v>5</v>
       </c>
-      <c r="N17" s="109">
+      <c r="N17" s="107">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="67"/>
-      <c r="C18" s="68" t="s">
+      <c r="B18" s="65"/>
+      <c r="C18" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="69">
+      <c r="D18" s="67">
         <v>7</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="62">
         <v>7</v>
       </c>
-      <c r="F18" s="65">
+      <c r="F18" s="63">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G18" s="70"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="70">
+      <c r="G18" s="68"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="68">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J18" s="111"/>
-      <c r="K18" s="106">
+      <c r="J18" s="109"/>
+      <c r="K18" s="104">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L18" s="107">
+      <c r="L18" s="105">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="M18" s="108">
+      <c r="M18" s="106">
         <f t="shared" ref="M18:M25" si="11">E18+J18</f>
         <v>7</v>
       </c>
-      <c r="N18" s="109">
+      <c r="N18" s="107">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="67"/>
-      <c r="C19" s="68" t="s">
+      <c r="B19" s="65"/>
+      <c r="C19" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="69">
+      <c r="D19" s="67">
         <v>3</v>
       </c>
-      <c r="E19" s="64">
+      <c r="E19" s="62">
         <v>3</v>
       </c>
-      <c r="F19" s="65">
+      <c r="F19" s="63">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G19" s="70"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="70">
+      <c r="G19" s="68"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="68">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J19" s="111"/>
-      <c r="K19" s="106">
+      <c r="J19" s="109"/>
+      <c r="K19" s="104">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L19" s="107">
+      <c r="L19" s="105">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="M19" s="108">
+      <c r="M19" s="106">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="N19" s="109">
+      <c r="N19" s="107">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="67"/>
-      <c r="C20" s="68" t="s">
+      <c r="B20" s="65"/>
+      <c r="C20" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="69">
+      <c r="D20" s="67">
         <v>2</v>
       </c>
-      <c r="E20" s="64">
+      <c r="E20" s="62">
         <v>5</v>
       </c>
-      <c r="F20" s="65">
+      <c r="F20" s="63">
         <f t="shared" si="9"/>
         <v>-3</v>
       </c>
-      <c r="G20" s="70"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="70">
+      <c r="G20" s="68"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="68">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J20" s="111"/>
-      <c r="K20" s="106">
+      <c r="J20" s="109"/>
+      <c r="K20" s="104">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L20" s="107">
+      <c r="L20" s="105">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="M20" s="108">
+      <c r="M20" s="106">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="N20" s="109">
+      <c r="N20" s="107">
         <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="67"/>
-      <c r="C21" s="68" t="s">
+      <c r="B21" s="65"/>
+      <c r="C21" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="69">
+      <c r="D21" s="67">
         <v>3</v>
       </c>
-      <c r="E21" s="64">
+      <c r="E21" s="62">
         <v>2</v>
       </c>
-      <c r="F21" s="65">
+      <c r="F21" s="63">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="G21" s="70"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="70">
+      <c r="G21" s="68"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="68">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J21" s="111"/>
-      <c r="K21" s="106">
+      <c r="J21" s="109"/>
+      <c r="K21" s="104">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L21" s="107">
+      <c r="L21" s="105">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="M21" s="108">
+      <c r="M21" s="106">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="N21" s="109">
+      <c r="N21" s="107">
         <f t="shared" si="8"/>
         <v>0.666666666666667</v>
       </c>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="67"/>
-      <c r="C22" s="68" t="s">
+      <c r="B22" s="65"/>
+      <c r="C22" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="69">
+      <c r="D22" s="67">
         <v>10</v>
       </c>
-      <c r="E22" s="69">
+      <c r="E22" s="67">
         <v>9</v>
       </c>
-      <c r="F22" s="65">
+      <c r="F22" s="63">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="G22" s="70"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="70">
+      <c r="G22" s="68"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="68">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J22" s="111"/>
-      <c r="K22" s="106">
+      <c r="J22" s="109"/>
+      <c r="K22" s="104">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L22" s="107">
+      <c r="L22" s="105">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="M22" s="108">
+      <c r="M22" s="106">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="N22" s="109">
+      <c r="N22" s="107">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="67"/>
-      <c r="C23" s="68" t="s">
+      <c r="B23" s="65"/>
+      <c r="C23" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="85">
+      <c r="D23" s="83">
         <v>3</v>
       </c>
-      <c r="E23" s="64">
+      <c r="E23" s="62">
         <v>6</v>
       </c>
-      <c r="F23" s="65">
+      <c r="F23" s="63">
         <f t="shared" si="9"/>
         <v>-3</v>
       </c>
-      <c r="G23" s="70"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="70">
+      <c r="G23" s="68"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="68">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J23" s="111"/>
-      <c r="K23" s="106">
+      <c r="J23" s="109"/>
+      <c r="K23" s="104">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L23" s="107">
+      <c r="L23" s="105">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="M23" s="108">
+      <c r="M23" s="106">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="N23" s="109">
+      <c r="N23" s="107">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="67"/>
-      <c r="C24" s="68" t="s">
+      <c r="B24" s="65"/>
+      <c r="C24" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="85">
+      <c r="D24" s="83">
         <v>1</v>
       </c>
-      <c r="E24" s="69">
+      <c r="E24" s="67">
         <v>1</v>
       </c>
-      <c r="F24" s="65">
+      <c r="F24" s="63">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G24" s="70"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="106">
+      <c r="G24" s="68"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="104">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L24" s="107">
+      <c r="L24" s="105">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M24" s="108">
+      <c r="M24" s="106">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="N24" s="118">
+      <c r="N24" s="116">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O24" s="119"/>
+      <c r="O24" s="117"/>
     </row>
     <row r="25" ht="15" spans="2:14">
-      <c r="B25" s="67"/>
-      <c r="C25" s="68" t="s">
+      <c r="B25" s="65"/>
+      <c r="C25" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="72">
+      <c r="D25" s="70">
         <v>3</v>
       </c>
-      <c r="E25" s="69">
+      <c r="E25" s="67">
         <v>3</v>
       </c>
-      <c r="F25" s="65">
+      <c r="F25" s="63">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="112">
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="110">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L25" s="113">
+      <c r="L25" s="111">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="M25" s="113">
+      <c r="M25" s="111">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="N25" s="120">
+      <c r="N25" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" ht="15" spans="2:14">
-      <c r="B26" s="78"/>
-      <c r="C26" s="79" t="s">
+      <c r="B26" s="76"/>
+      <c r="C26" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="80">
+      <c r="D26" s="78">
         <f t="shared" ref="D26:H26" si="12">SUM(D17:D25)</f>
         <v>37</v>
       </c>
-      <c r="E26" s="81">
+      <c r="E26" s="79">
         <f t="shared" si="12"/>
         <v>41</v>
       </c>
-      <c r="F26" s="82">
+      <c r="F26" s="80">
         <f t="shared" si="9"/>
         <v>-4</v>
       </c>
-      <c r="G26" s="83">
+      <c r="G26" s="81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H26" s="83">
+      <c r="H26" s="81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I26" s="83">
+      <c r="I26" s="81">
         <f t="shared" ref="I26:I35" si="13">G26-H26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="83">
+      <c r="J26" s="81">
         <f t="shared" ref="J26:M26" si="14">SUM(J17:J25)</f>
         <v>0</v>
       </c>
-      <c r="K26" s="115">
+      <c r="K26" s="113">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L26" s="83">
+      <c r="L26" s="81">
         <f t="shared" si="14"/>
         <v>37</v>
       </c>
-      <c r="M26" s="83">
+      <c r="M26" s="81">
         <f t="shared" si="14"/>
         <v>41</v>
       </c>
-      <c r="N26" s="116">
+      <c r="N26" s="114">
         <f t="shared" si="8"/>
         <v>1.10810810810811</v>
       </c>
     </row>
     <row r="27" ht="15"/>
     <row r="28" ht="15" spans="2:14">
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="56" t="s">
+      <c r="D28" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="86" t="s">
+      <c r="E28" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="87" t="s">
+      <c r="F28" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="58" t="s">
+      <c r="G28" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="59" t="s">
+      <c r="H28" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="98" t="s">
+      <c r="I28" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="J28" s="99" t="s">
+      <c r="J28" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="K28" s="100" t="s">
+      <c r="K28" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="L28" s="121" t="s">
+      <c r="L28" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="M28" s="122" t="s">
+      <c r="M28" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="N28" s="123" t="s">
+      <c r="N28" s="121" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="63">
+      <c r="D29" s="61">
         <v>4</v>
       </c>
-      <c r="E29" s="84">
+      <c r="E29" s="82">
         <v>6</v>
       </c>
-      <c r="F29" s="65">
+      <c r="F29" s="63">
         <f t="shared" ref="F29:F38" si="15">D29-E29</f>
         <v>-2</v>
       </c>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66">
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J29" s="105"/>
-      <c r="K29" s="106">
+      <c r="J29" s="103"/>
+      <c r="K29" s="104">
         <f t="shared" ref="K29:K35" si="16">J29/M29*100%</f>
         <v>0</v>
       </c>
-      <c r="L29" s="107">
+      <c r="L29" s="105">
         <f t="shared" ref="L29:L37" si="17">D29+H29</f>
         <v>4</v>
       </c>
-      <c r="M29" s="108">
+      <c r="M29" s="106">
         <f>E29+H29</f>
         <v>6</v>
       </c>
-      <c r="N29" s="109">
+      <c r="N29" s="107">
         <f t="shared" ref="N29:N35" si="18">M29/L29*100%</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="67"/>
-      <c r="C30" s="68" t="s">
+      <c r="B30" s="65"/>
+      <c r="C30" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="69">
+      <c r="D30" s="67">
         <v>3</v>
       </c>
-      <c r="E30" s="64">
+      <c r="E30" s="62">
         <v>3</v>
       </c>
-      <c r="F30" s="65">
+      <c r="F30" s="63">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G30" s="70"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="70">
+      <c r="G30" s="68"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="68">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J30" s="111"/>
-      <c r="K30" s="106">
+      <c r="J30" s="109"/>
+      <c r="K30" s="104">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L30" s="107">
+      <c r="L30" s="105">
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
-      <c r="M30" s="108">
+      <c r="M30" s="106">
         <f t="shared" ref="M30:M35" si="19">E30+J30</f>
         <v>3</v>
       </c>
-      <c r="N30" s="109">
+      <c r="N30" s="107">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="67"/>
-      <c r="C31" s="68" t="s">
+      <c r="B31" s="65"/>
+      <c r="C31" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="69">
+      <c r="D31" s="67">
         <v>3</v>
       </c>
-      <c r="E31" s="64">
+      <c r="E31" s="62">
         <v>2</v>
       </c>
-      <c r="F31" s="65">
+      <c r="F31" s="63">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="G31" s="70"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="70">
+      <c r="G31" s="68"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="68">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J31" s="111"/>
-      <c r="K31" s="106">
+      <c r="J31" s="109"/>
+      <c r="K31" s="104">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L31" s="107">
+      <c r="L31" s="105">
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
-      <c r="M31" s="108">
+      <c r="M31" s="106">
         <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="N31" s="109">
+      <c r="N31" s="107">
         <f t="shared" si="18"/>
         <v>0.666666666666667</v>
       </c>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="67"/>
-      <c r="C32" s="68" t="s">
+      <c r="B32" s="65"/>
+      <c r="C32" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="64">
+      <c r="D32" s="62">
         <v>3</v>
       </c>
-      <c r="E32" s="64">
+      <c r="E32" s="62">
         <v>1</v>
       </c>
-      <c r="F32" s="65">
+      <c r="F32" s="63">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="G32" s="70"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="70">
+      <c r="G32" s="68"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="68">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J32" s="111"/>
-      <c r="K32" s="106">
+      <c r="J32" s="109"/>
+      <c r="K32" s="104">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L32" s="107">
+      <c r="L32" s="105">
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
-      <c r="M32" s="108">
+      <c r="M32" s="106">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="N32" s="109">
+      <c r="N32" s="107">
         <f t="shared" si="18"/>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="67"/>
-      <c r="C33" s="68" t="s">
+      <c r="B33" s="65"/>
+      <c r="C33" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="69">
+      <c r="D33" s="67">
         <v>6</v>
       </c>
-      <c r="E33" s="64">
+      <c r="E33" s="62">
         <v>6</v>
       </c>
-      <c r="F33" s="65">
+      <c r="F33" s="63">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G33" s="70"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="70">
+      <c r="G33" s="68"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="68">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J33" s="111"/>
-      <c r="K33" s="106">
+      <c r="J33" s="109"/>
+      <c r="K33" s="104">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L33" s="107">
+      <c r="L33" s="105">
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
-      <c r="M33" s="108">
+      <c r="M33" s="106">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="N33" s="109">
+      <c r="N33" s="107">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="67"/>
-      <c r="C34" s="68" t="s">
+      <c r="B34" s="65"/>
+      <c r="C34" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="69">
+      <c r="D34" s="67">
         <v>1</v>
       </c>
-      <c r="E34" s="64">
+      <c r="E34" s="62">
         <v>1</v>
       </c>
-      <c r="F34" s="65">
+      <c r="F34" s="63">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G34" s="70"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="70">
+      <c r="G34" s="68"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="68">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J34" s="111"/>
-      <c r="K34" s="106">
+      <c r="J34" s="109"/>
+      <c r="K34" s="104">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L34" s="107">
+      <c r="L34" s="105">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="M34" s="108">
+      <c r="M34" s="106">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="N34" s="109">
+      <c r="N34" s="107">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="67"/>
-      <c r="C35" s="68" t="s">
+      <c r="B35" s="65"/>
+      <c r="C35" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="85">
+      <c r="D35" s="83">
         <v>1</v>
       </c>
-      <c r="E35" s="64">
+      <c r="E35" s="62">
         <v>4</v>
       </c>
-      <c r="F35" s="65">
+      <c r="F35" s="63">
         <f t="shared" si="15"/>
         <v>-3</v>
       </c>
-      <c r="G35" s="70"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="70">
+      <c r="G35" s="68"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="68">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J35" s="111"/>
-      <c r="K35" s="106">
+      <c r="J35" s="109"/>
+      <c r="K35" s="104">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L35" s="107">
+      <c r="L35" s="105">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="M35" s="108">
+      <c r="M35" s="106">
         <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="N35" s="109">
+      <c r="N35" s="107">
         <f t="shared" si="18"/>
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="67"/>
-      <c r="C36" s="68" t="s">
+      <c r="B36" s="65"/>
+      <c r="C36" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="85">
+      <c r="D36" s="83">
         <v>1</v>
       </c>
-      <c r="E36" s="69">
+      <c r="E36" s="67">
         <v>1</v>
       </c>
-      <c r="F36" s="65">
+      <c r="F36" s="63">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G36" s="70"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="111"/>
-      <c r="K36" s="106"/>
-      <c r="L36" s="107">
+      <c r="G36" s="68"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="109"/>
+      <c r="K36" s="104"/>
+      <c r="L36" s="105">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="M36" s="108">
+      <c r="M36" s="106">
         <v>1</v>
       </c>
-      <c r="N36" s="118">
+      <c r="N36" s="116">
         <v>1</v>
       </c>
     </row>
     <row r="37" ht="15" spans="2:14">
-      <c r="B37" s="67"/>
-      <c r="C37" s="68" t="s">
+      <c r="B37" s="65"/>
+      <c r="C37" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="72">
+      <c r="D37" s="70">
         <v>1</v>
       </c>
-      <c r="E37" s="69">
+      <c r="E37" s="67">
         <v>2</v>
       </c>
-      <c r="F37" s="65">
+      <c r="F37" s="63">
         <f t="shared" si="15"/>
         <v>-1</v>
       </c>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="111"/>
-      <c r="K37" s="112">
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="109"/>
+      <c r="K37" s="110">
         <f t="shared" ref="K37:K50" si="20">J37/M37*100%</f>
         <v>0</v>
       </c>
-      <c r="L37" s="113">
+      <c r="L37" s="111">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="M37" s="113">
+      <c r="M37" s="111">
         <f>E37+J37</f>
         <v>2</v>
       </c>
-      <c r="N37" s="120">
+      <c r="N37" s="118">
         <f t="shared" ref="N37:N47" si="21">M37/L37*100%</f>
         <v>2</v>
       </c>
     </row>
     <row r="38" ht="15" spans="2:14">
-      <c r="B38" s="78"/>
-      <c r="C38" s="79" t="s">
+      <c r="B38" s="76"/>
+      <c r="C38" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="80">
+      <c r="D38" s="78">
         <f t="shared" ref="D38:H38" si="22">SUM(D29:D37)</f>
         <v>23</v>
       </c>
-      <c r="E38" s="81">
+      <c r="E38" s="79">
         <f t="shared" si="22"/>
         <v>26</v>
       </c>
-      <c r="F38" s="82">
+      <c r="F38" s="80">
         <f t="shared" si="15"/>
         <v>-3</v>
       </c>
-      <c r="G38" s="83">
+      <c r="G38" s="81">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H38" s="83">
+      <c r="H38" s="81">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="I38" s="83">
+      <c r="I38" s="81">
         <f t="shared" ref="I38:I47" si="23">G38-H38</f>
         <v>0</v>
       </c>
-      <c r="J38" s="83">
+      <c r="J38" s="81">
         <f t="shared" ref="J38:M38" si="24">SUM(J29:J37)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="115">
+      <c r="K38" s="113">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L38" s="83">
+      <c r="L38" s="81">
         <f t="shared" si="24"/>
         <v>23</v>
       </c>
-      <c r="M38" s="83">
+      <c r="M38" s="81">
         <f t="shared" si="24"/>
         <v>26</v>
       </c>
-      <c r="N38" s="116">
+      <c r="N38" s="114">
         <f t="shared" si="21"/>
         <v>1.1304347826087</v>
       </c>
     </row>
     <row r="39" ht="15"/>
     <row r="40" ht="15" spans="2:14">
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="56" t="s">
+      <c r="D40" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="86" t="s">
+      <c r="E40" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="87" t="s">
+      <c r="F40" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="G40" s="58" t="s">
+      <c r="G40" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="59" t="s">
+      <c r="H40" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="98" t="s">
+      <c r="I40" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="J40" s="99" t="s">
+      <c r="J40" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="100" t="s">
+      <c r="K40" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="L40" s="121" t="s">
+      <c r="L40" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="M40" s="122" t="s">
+      <c r="M40" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="123" t="s">
+      <c r="N40" s="121" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="41" spans="2:14">
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="63">
+      <c r="D41" s="61">
         <v>5</v>
       </c>
-      <c r="E41" s="84">
+      <c r="E41" s="82">
         <v>4</v>
       </c>
-      <c r="F41" s="65">
+      <c r="F41" s="63">
         <f t="shared" ref="F41:F50" si="25">D41-E41</f>
         <v>1</v>
       </c>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66">
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J41" s="105"/>
-      <c r="K41" s="106">
+      <c r="J41" s="103"/>
+      <c r="K41" s="104">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L41" s="107">
+      <c r="L41" s="105">
         <f t="shared" ref="L41:L49" si="26">D41+H41</f>
         <v>5</v>
       </c>
-      <c r="M41" s="108">
+      <c r="M41" s="106">
         <f>E41+H41</f>
         <v>4</v>
       </c>
-      <c r="N41" s="109">
+      <c r="N41" s="107">
         <f t="shared" si="21"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="42" spans="2:14">
-      <c r="B42" s="67"/>
-      <c r="C42" s="68" t="s">
+      <c r="B42" s="65"/>
+      <c r="C42" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="69">
+      <c r="D42" s="67">
         <v>1</v>
       </c>
-      <c r="E42" s="64">
+      <c r="E42" s="62">
         <v>1</v>
       </c>
-      <c r="F42" s="65">
+      <c r="F42" s="63">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="G42" s="70"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="70">
+      <c r="G42" s="68"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="68">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J42" s="111"/>
-      <c r="K42" s="106">
+      <c r="J42" s="109"/>
+      <c r="K42" s="104">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L42" s="107">
+      <c r="L42" s="105">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="M42" s="108">
+      <c r="M42" s="106">
         <f t="shared" ref="M42:M49" si="27">E42+J42</f>
         <v>1</v>
       </c>
-      <c r="N42" s="109">
+      <c r="N42" s="107">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:14">
-      <c r="B43" s="67"/>
-      <c r="C43" s="68" t="s">
+      <c r="B43" s="65"/>
+      <c r="C43" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="69">
+      <c r="D43" s="67">
         <v>2</v>
       </c>
-      <c r="E43" s="64">
+      <c r="E43" s="62">
         <v>8</v>
       </c>
-      <c r="F43" s="65">
+      <c r="F43" s="63">
         <f t="shared" si="25"/>
         <v>-6</v>
       </c>
-      <c r="G43" s="70"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="70">
+      <c r="G43" s="68"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="68">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J43" s="111"/>
-      <c r="K43" s="106">
+      <c r="J43" s="109"/>
+      <c r="K43" s="104">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L43" s="107">
+      <c r="L43" s="105">
         <f t="shared" si="26"/>
         <v>2</v>
       </c>
-      <c r="M43" s="108">
+      <c r="M43" s="106">
         <f t="shared" si="27"/>
         <v>8</v>
       </c>
-      <c r="N43" s="109">
+      <c r="N43" s="107">
         <f t="shared" si="21"/>
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="2:14">
-      <c r="B44" s="67"/>
-      <c r="C44" s="68" t="s">
+      <c r="B44" s="65"/>
+      <c r="C44" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="69">
+      <c r="D44" s="67">
         <v>5</v>
       </c>
-      <c r="E44" s="64">
+      <c r="E44" s="62">
         <v>5</v>
       </c>
-      <c r="F44" s="65">
+      <c r="F44" s="63">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="G44" s="70"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="70">
+      <c r="G44" s="68"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="68">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J44" s="111"/>
-      <c r="K44" s="106">
+      <c r="J44" s="109"/>
+      <c r="K44" s="104">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L44" s="107">
+      <c r="L44" s="105">
         <f t="shared" si="26"/>
         <v>5</v>
       </c>
-      <c r="M44" s="108">
+      <c r="M44" s="106">
         <f t="shared" si="27"/>
         <v>5</v>
       </c>
-      <c r="N44" s="109">
+      <c r="N44" s="107">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:14">
-      <c r="B45" s="67"/>
-      <c r="C45" s="68" t="s">
+      <c r="B45" s="65"/>
+      <c r="C45" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="69">
+      <c r="D45" s="67">
         <v>4</v>
       </c>
-      <c r="E45" s="64">
+      <c r="E45" s="62">
         <v>7</v>
       </c>
-      <c r="F45" s="65">
+      <c r="F45" s="63">
         <f t="shared" si="25"/>
         <v>-3</v>
       </c>
-      <c r="G45" s="70"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="70">
+      <c r="G45" s="68"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="68">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J45" s="111"/>
-      <c r="K45" s="106">
+      <c r="J45" s="109"/>
+      <c r="K45" s="104">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L45" s="107">
+      <c r="L45" s="105">
         <f t="shared" si="26"/>
         <v>4</v>
       </c>
-      <c r="M45" s="108">
+      <c r="M45" s="106">
         <f t="shared" si="27"/>
         <v>7</v>
       </c>
-      <c r="N45" s="109">
+      <c r="N45" s="107">
         <f t="shared" si="21"/>
         <v>1.75</v>
       </c>
     </row>
     <row r="46" spans="2:14">
-      <c r="B46" s="67"/>
-      <c r="C46" s="68" t="s">
+      <c r="B46" s="65"/>
+      <c r="C46" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="69">
+      <c r="D46" s="67">
         <v>5</v>
       </c>
-      <c r="E46" s="64">
+      <c r="E46" s="62">
         <v>9</v>
       </c>
-      <c r="F46" s="65">
+      <c r="F46" s="63">
         <f t="shared" si="25"/>
         <v>-4</v>
       </c>
-      <c r="G46" s="70"/>
-      <c r="H46" s="66"/>
-      <c r="I46" s="70">
+      <c r="G46" s="68"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="68">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J46" s="111"/>
-      <c r="K46" s="106">
+      <c r="J46" s="109"/>
+      <c r="K46" s="104">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L46" s="107">
+      <c r="L46" s="105">
         <f t="shared" si="26"/>
         <v>5</v>
       </c>
-      <c r="M46" s="108">
+      <c r="M46" s="106">
         <f t="shared" si="27"/>
         <v>9</v>
       </c>
-      <c r="N46" s="109">
+      <c r="N46" s="107">
         <f t="shared" si="21"/>
         <v>1.8</v>
       </c>
     </row>
     <row r="47" spans="2:14">
-      <c r="B47" s="67"/>
-      <c r="C47" s="68" t="s">
+      <c r="B47" s="65"/>
+      <c r="C47" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="64">
-        <v>0</v>
-      </c>
-      <c r="E47" s="64">
+      <c r="D47" s="62">
+        <v>0</v>
+      </c>
+      <c r="E47" s="62">
         <v>2</v>
       </c>
-      <c r="F47" s="65">
+      <c r="F47" s="63">
         <f t="shared" si="25"/>
         <v>-2</v>
       </c>
-      <c r="G47" s="70"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="70">
+      <c r="G47" s="68"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="68">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J47" s="111"/>
-      <c r="K47" s="106">
+      <c r="J47" s="109"/>
+      <c r="K47" s="104">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L47" s="107">
+      <c r="L47" s="105">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="M47" s="108">
+      <c r="M47" s="106">
         <f t="shared" si="27"/>
         <v>2</v>
       </c>
-      <c r="N47" s="124" t="e">
+      <c r="N47" s="122" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="48" spans="2:14">
-      <c r="B48" s="67"/>
-      <c r="C48" s="68" t="s">
+      <c r="B48" s="65"/>
+      <c r="C48" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="85">
-        <v>0</v>
-      </c>
-      <c r="E48" s="69">
+      <c r="D48" s="83">
+        <v>0</v>
+      </c>
+      <c r="E48" s="67">
         <v>5</v>
       </c>
-      <c r="F48" s="65">
+      <c r="F48" s="63">
         <f t="shared" si="25"/>
         <v>-5</v>
       </c>
-      <c r="G48" s="70"/>
-      <c r="H48" s="66"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="111"/>
-      <c r="K48" s="106">
+      <c r="G48" s="68"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="109"/>
+      <c r="K48" s="104">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L48" s="107">
+      <c r="L48" s="105">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="M48" s="113">
+      <c r="M48" s="111">
         <f t="shared" si="27"/>
         <v>5</v>
       </c>
-      <c r="N48" s="124">
+      <c r="N48" s="122">
         <f>L48/M48</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" ht="15" spans="2:14">
-      <c r="B49" s="67"/>
-      <c r="C49" s="68" t="s">
+      <c r="B49" s="65"/>
+      <c r="C49" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="85">
+      <c r="D49" s="83">
         <v>1</v>
       </c>
-      <c r="E49" s="69">
-        <v>0</v>
-      </c>
-      <c r="F49" s="65">
+      <c r="E49" s="67">
+        <v>0</v>
+      </c>
+      <c r="F49" s="63">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="G49" s="70"/>
-      <c r="H49" s="66"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="111"/>
-      <c r="K49" s="106" t="e">
+      <c r="G49" s="68"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="109"/>
+      <c r="K49" s="104" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L49" s="107">
+      <c r="L49" s="105">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="M49" s="108">
+      <c r="M49" s="106">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="N49" s="118" t="e">
+      <c r="N49" s="116" t="e">
         <f>L49/M49</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="50" ht="15" spans="2:14">
-      <c r="B50" s="78"/>
-      <c r="C50" s="79" t="s">
+      <c r="B50" s="76"/>
+      <c r="C50" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="80">
+      <c r="D50" s="78">
         <f t="shared" ref="D50:H50" si="28">SUM(D41:D49)</f>
         <v>23</v>
       </c>
-      <c r="E50" s="81">
+      <c r="E50" s="79">
         <f t="shared" si="28"/>
         <v>41</v>
       </c>
-      <c r="F50" s="82">
+      <c r="F50" s="80">
         <f t="shared" si="25"/>
         <v>-18</v>
       </c>
-      <c r="G50" s="83">
+      <c r="G50" s="81">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="H50" s="83">
+      <c r="H50" s="81">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="I50" s="83">
+      <c r="I50" s="81">
         <f t="shared" ref="I50:I59" si="29">G50-H50</f>
         <v>0</v>
       </c>
-      <c r="J50" s="83">
+      <c r="J50" s="81">
         <f t="shared" ref="J50:M50" si="30">SUM(J41:J49)</f>
         <v>0</v>
       </c>
-      <c r="K50" s="115">
+      <c r="K50" s="113">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L50" s="83">
+      <c r="L50" s="81">
         <f t="shared" si="30"/>
         <v>23</v>
       </c>
-      <c r="M50" s="83">
+      <c r="M50" s="81">
         <f t="shared" si="30"/>
         <v>41</v>
       </c>
-      <c r="N50" s="116">
+      <c r="N50" s="114">
         <f t="shared" ref="N50:N63" si="31">M50/L50*100%</f>
         <v>1.78260869565217</v>
       </c>
     </row>
     <row r="51" ht="15"/>
     <row r="52" ht="15" spans="2:14">
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="56" t="s">
+      <c r="D52" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="86" t="s">
+      <c r="E52" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="87" t="s">
+      <c r="F52" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="58" t="s">
+      <c r="G52" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H52" s="59" t="s">
+      <c r="H52" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I52" s="98" t="s">
+      <c r="I52" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="99" t="s">
+      <c r="J52" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="K52" s="100" t="s">
+      <c r="K52" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="L52" s="121" t="s">
+      <c r="L52" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="M52" s="122" t="s">
+      <c r="M52" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="N52" s="123" t="s">
+      <c r="N52" s="121" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="53" spans="2:14">
-      <c r="B53" s="61" t="s">
+      <c r="B53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="62" t="s">
+      <c r="C53" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="88">
+      <c r="D53" s="86">
         <v>5</v>
       </c>
-      <c r="E53" s="89">
+      <c r="E53" s="87">
         <v>2</v>
       </c>
-      <c r="F53" s="90">
+      <c r="F53" s="88">
         <f t="shared" ref="F53:F63" si="32">D53-E53</f>
         <v>3</v>
       </c>
-      <c r="G53" s="66"/>
-      <c r="H53" s="66"/>
-      <c r="I53" s="66">
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J53" s="105"/>
-      <c r="K53" s="106">
+      <c r="J53" s="103"/>
+      <c r="K53" s="104">
         <f t="shared" ref="K53:K63" si="33">J53/M53*100%</f>
         <v>0</v>
       </c>
-      <c r="L53" s="107">
+      <c r="L53" s="105">
         <f t="shared" ref="L53:L62" si="34">D53+H53</f>
         <v>5</v>
       </c>
-      <c r="M53" s="108">
+      <c r="M53" s="106">
         <f>E53+H53</f>
         <v>2</v>
       </c>
-      <c r="N53" s="109">
+      <c r="N53" s="107">
         <f t="shared" si="31"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="54" spans="2:14">
-      <c r="B54" s="67"/>
-      <c r="C54" s="68" t="s">
+      <c r="B54" s="65"/>
+      <c r="C54" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="88">
+      <c r="D54" s="86">
         <v>4</v>
       </c>
-      <c r="E54" s="89">
+      <c r="E54" s="87">
         <v>1</v>
       </c>
-      <c r="F54" s="88">
+      <c r="F54" s="86">
         <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G54" s="70"/>
-      <c r="H54" s="66"/>
-      <c r="I54" s="70">
+      <c r="G54" s="68"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="68">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J54" s="111"/>
-      <c r="K54" s="106">
+      <c r="J54" s="109"/>
+      <c r="K54" s="104">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L54" s="107">
+      <c r="L54" s="105">
         <f t="shared" si="34"/>
         <v>4</v>
       </c>
-      <c r="M54" s="108">
+      <c r="M54" s="106">
         <f t="shared" ref="M54:M62" si="35">E54+J54</f>
         <v>1</v>
       </c>
-      <c r="N54" s="109">
+      <c r="N54" s="107">
         <f t="shared" si="31"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="55" spans="2:14">
-      <c r="B55" s="67"/>
-      <c r="C55" s="68" t="s">
+      <c r="B55" s="65"/>
+      <c r="C55" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="D55" s="88">
+      <c r="D55" s="86">
         <v>9</v>
       </c>
-      <c r="E55" s="65">
+      <c r="E55" s="63">
         <v>10</v>
       </c>
-      <c r="F55" s="88">
+      <c r="F55" s="86">
         <f t="shared" si="32"/>
         <v>-1</v>
       </c>
-      <c r="G55" s="70"/>
-      <c r="H55" s="66"/>
-      <c r="I55" s="70">
+      <c r="G55" s="68"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="68">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J55" s="111"/>
-      <c r="K55" s="106">
+      <c r="J55" s="109"/>
+      <c r="K55" s="104">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L55" s="107">
+      <c r="L55" s="105">
         <f t="shared" si="34"/>
         <v>9</v>
       </c>
-      <c r="M55" s="108">
+      <c r="M55" s="106">
         <f t="shared" si="35"/>
         <v>10</v>
       </c>
-      <c r="N55" s="109">
+      <c r="N55" s="107">
         <f t="shared" si="31"/>
         <v>1.11111111111111</v>
       </c>
     </row>
     <row r="56" spans="2:14">
-      <c r="B56" s="67"/>
-      <c r="C56" s="68" t="s">
+      <c r="B56" s="65"/>
+      <c r="C56" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="91">
+      <c r="D56" s="89">
         <v>8</v>
       </c>
-      <c r="E56" s="65">
+      <c r="E56" s="63">
         <v>5</v>
       </c>
-      <c r="F56" s="88">
+      <c r="F56" s="86">
         <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G56" s="70"/>
-      <c r="H56" s="66"/>
-      <c r="I56" s="70">
+      <c r="G56" s="68"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="68">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J56" s="111"/>
-      <c r="K56" s="106">
+      <c r="J56" s="109"/>
+      <c r="K56" s="104">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L56" s="107">
+      <c r="L56" s="105">
         <f t="shared" si="34"/>
         <v>8</v>
       </c>
-      <c r="M56" s="108">
+      <c r="M56" s="106">
         <f t="shared" si="35"/>
         <v>5</v>
       </c>
-      <c r="N56" s="109">
+      <c r="N56" s="107">
         <f t="shared" si="31"/>
         <v>0.625</v>
       </c>
     </row>
     <row r="57" spans="2:14">
-      <c r="B57" s="67"/>
-      <c r="C57" s="68" t="s">
+      <c r="B57" s="65"/>
+      <c r="C57" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="88">
+      <c r="D57" s="86">
         <v>8</v>
       </c>
-      <c r="E57" s="88">
+      <c r="E57" s="86">
         <v>10</v>
       </c>
-      <c r="F57" s="88">
+      <c r="F57" s="86">
         <f t="shared" si="32"/>
         <v>-2</v>
       </c>
-      <c r="G57" s="70"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="70">
+      <c r="G57" s="68"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="68">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J57" s="111"/>
-      <c r="K57" s="106">
+      <c r="J57" s="109"/>
+      <c r="K57" s="104">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L57" s="107">
+      <c r="L57" s="105">
         <f t="shared" si="34"/>
         <v>8</v>
       </c>
-      <c r="M57" s="108">
+      <c r="M57" s="106">
         <f t="shared" si="35"/>
         <v>10</v>
       </c>
-      <c r="N57" s="109">
+      <c r="N57" s="107">
         <f t="shared" si="31"/>
         <v>1.25</v>
       </c>
     </row>
     <row r="58" spans="2:14">
-      <c r="B58" s="67"/>
-      <c r="C58" s="68" t="s">
+      <c r="B58" s="65"/>
+      <c r="C58" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="88">
+      <c r="D58" s="86">
         <v>6</v>
       </c>
-      <c r="E58" s="89">
+      <c r="E58" s="87">
         <v>9</v>
       </c>
-      <c r="F58" s="88">
+      <c r="F58" s="86">
         <f t="shared" si="32"/>
         <v>-3</v>
       </c>
-      <c r="G58" s="70"/>
-      <c r="H58" s="66"/>
-      <c r="I58" s="70">
+      <c r="G58" s="68"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="68">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J58" s="111"/>
-      <c r="K58" s="106">
+      <c r="J58" s="109"/>
+      <c r="K58" s="104">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L58" s="107">
+      <c r="L58" s="105">
         <f t="shared" si="34"/>
         <v>6</v>
       </c>
-      <c r="M58" s="108">
+      <c r="M58" s="106">
         <f t="shared" si="35"/>
         <v>9</v>
       </c>
-      <c r="N58" s="109">
+      <c r="N58" s="107">
         <f t="shared" si="31"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="59" spans="2:14">
-      <c r="B59" s="67"/>
-      <c r="C59" s="68" t="s">
+      <c r="B59" s="65"/>
+      <c r="C59" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="91">
+      <c r="D59" s="89">
         <v>8</v>
       </c>
-      <c r="E59" s="89">
+      <c r="E59" s="87">
         <v>16</v>
       </c>
-      <c r="F59" s="88">
+      <c r="F59" s="86">
         <f t="shared" si="32"/>
         <v>-8</v>
       </c>
-      <c r="G59" s="70"/>
-      <c r="H59" s="66"/>
-      <c r="I59" s="70">
+      <c r="G59" s="68"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="68">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J59" s="111"/>
-      <c r="K59" s="106">
+      <c r="J59" s="109"/>
+      <c r="K59" s="104">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L59" s="107">
+      <c r="L59" s="105">
         <f t="shared" si="34"/>
         <v>8</v>
       </c>
-      <c r="M59" s="108">
+      <c r="M59" s="106">
         <f t="shared" si="35"/>
         <v>16</v>
       </c>
-      <c r="N59" s="109">
+      <c r="N59" s="107">
         <f t="shared" si="31"/>
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="2:14">
-      <c r="B60" s="67"/>
-      <c r="C60" s="68" t="s">
+      <c r="B60" s="65"/>
+      <c r="C60" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="91">
+      <c r="D60" s="89">
         <v>1</v>
       </c>
-      <c r="E60" s="65">
+      <c r="E60" s="63">
         <v>7</v>
       </c>
-      <c r="F60" s="88">
+      <c r="F60" s="86">
         <f t="shared" si="32"/>
         <v>-6</v>
       </c>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="111"/>
-      <c r="K60" s="112">
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="109"/>
+      <c r="K60" s="110">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L60" s="113">
+      <c r="L60" s="111">
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="M60" s="113">
+      <c r="M60" s="111">
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
-      <c r="N60" s="124">
+      <c r="N60" s="122">
         <f t="shared" si="31"/>
         <v>7</v>
       </c>
     </row>
     <row r="61" spans="2:14">
-      <c r="B61" s="74"/>
-      <c r="C61" s="68" t="s">
+      <c r="B61" s="72"/>
+      <c r="C61" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="91">
-        <v>0</v>
-      </c>
-      <c r="E61" s="65">
-        <v>0</v>
-      </c>
-      <c r="F61" s="89">
+      <c r="D61" s="89">
+        <v>0</v>
+      </c>
+      <c r="E61" s="63">
+        <v>0</v>
+      </c>
+      <c r="F61" s="87">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="G61" s="70"/>
-      <c r="H61" s="70"/>
-      <c r="I61" s="70"/>
-      <c r="J61" s="111"/>
-      <c r="K61" s="112" t="e">
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="109"/>
+      <c r="K61" s="110" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L61" s="113">
+      <c r="L61" s="111">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="M61" s="113">
+      <c r="M61" s="111">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="N61" s="124" t="e">
+      <c r="N61" s="122" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="62" spans="2:14">
-      <c r="B62" s="74"/>
-      <c r="C62" s="68" t="s">
+      <c r="B62" s="72"/>
+      <c r="C62" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="92">
+      <c r="D62" s="90">
         <v>9</v>
       </c>
-      <c r="E62" s="65">
+      <c r="E62" s="63">
         <v>9</v>
       </c>
-      <c r="F62" s="65">
+      <c r="F62" s="63">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="70">
+      <c r="G62" s="68"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="68">
         <f>G62-H62</f>
         <v>0</v>
       </c>
-      <c r="J62" s="111"/>
-      <c r="K62" s="112">
+      <c r="J62" s="109"/>
+      <c r="K62" s="110">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L62" s="113">
+      <c r="L62" s="111">
         <f t="shared" si="34"/>
         <v>9</v>
       </c>
-      <c r="M62" s="113">
+      <c r="M62" s="111">
         <f t="shared" si="35"/>
         <v>9</v>
       </c>
-      <c r="N62" s="124">
+      <c r="N62" s="122">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
     </row>
     <row r="63" ht="15" spans="2:14">
-      <c r="B63" s="93"/>
-      <c r="C63" s="94" t="s">
+      <c r="B63" s="91"/>
+      <c r="C63" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="95">
+      <c r="D63" s="93">
         <f t="shared" ref="D63:H63" si="36">SUM(D53:D62)</f>
         <v>58</v>
       </c>
-      <c r="E63" s="95">
+      <c r="E63" s="93">
         <f t="shared" si="36"/>
         <v>69</v>
       </c>
-      <c r="F63" s="96">
+      <c r="F63" s="94">
         <f t="shared" si="32"/>
         <v>-11</v>
       </c>
-      <c r="G63" s="95">
+      <c r="G63" s="93">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H63" s="95">
+      <c r="H63" s="93">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="I63" s="95">
+      <c r="I63" s="93">
         <f>G63-H63</f>
         <v>0</v>
       </c>
-      <c r="J63" s="95">
+      <c r="J63" s="93">
         <f t="shared" ref="J63:M63" si="37">SUM(J53:J62)</f>
         <v>0</v>
       </c>
-      <c r="K63" s="125">
+      <c r="K63" s="123">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L63" s="95">
+      <c r="L63" s="93">
         <f t="shared" si="37"/>
         <v>58</v>
       </c>
-      <c r="M63" s="95">
+      <c r="M63" s="93">
         <f t="shared" si="37"/>
         <v>69</v>
       </c>
-      <c r="N63" s="126">
+      <c r="N63" s="124">
         <f t="shared" si="31"/>
         <v>1.18965517241379</v>
       </c>
     </row>
     <row r="64" ht="15"/>
     <row r="65" ht="15" spans="2:14">
-      <c r="B65" s="55" t="s">
+      <c r="B65" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="55" t="s">
+      <c r="C65" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="56" t="s">
+      <c r="D65" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="86" t="s">
+      <c r="E65" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="F65" s="87" t="s">
+      <c r="F65" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="G65" s="58" t="s">
+      <c r="G65" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H65" s="59" t="s">
+      <c r="H65" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I65" s="98" t="s">
+      <c r="I65" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="J65" s="99" t="s">
+      <c r="J65" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="K65" s="100" t="s">
+      <c r="K65" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="L65" s="121" t="s">
+      <c r="L65" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="M65" s="122" t="s">
+      <c r="M65" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="N65" s="123" t="s">
+      <c r="N65" s="121" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="66" spans="2:14">
-      <c r="B66" s="61" t="s">
+      <c r="B66" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="62" t="s">
+      <c r="C66" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D66" s="88">
-        <v>0</v>
-      </c>
-      <c r="E66" s="89">
+      <c r="D66" s="86">
+        <v>0</v>
+      </c>
+      <c r="E66" s="87">
         <v>2</v>
       </c>
-      <c r="F66" s="90">
+      <c r="F66" s="88">
         <f>D66-E66</f>
         <v>-2</v>
       </c>
-      <c r="G66" s="66"/>
-      <c r="H66" s="66"/>
-      <c r="I66" s="66">
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="64">
         <f t="shared" ref="I66:I72" si="38">G66-H66</f>
         <v>0</v>
       </c>
-      <c r="J66" s="105"/>
-      <c r="K66" s="106">
+      <c r="J66" s="103"/>
+      <c r="K66" s="104">
         <f t="shared" ref="K66:K76" si="39">J66/M66*100%</f>
         <v>0</v>
       </c>
-      <c r="L66" s="107">
+      <c r="L66" s="105">
         <f t="shared" ref="L66:L75" si="40">D66+H66</f>
         <v>0</v>
       </c>
-      <c r="M66" s="108">
+      <c r="M66" s="106">
         <f>E66+H66</f>
         <v>2</v>
       </c>
-      <c r="N66" s="109" t="e">
+      <c r="N66" s="107" t="e">
         <f t="shared" ref="N66:N76" si="41">M66/L66*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="67" spans="2:14">
-      <c r="B67" s="67"/>
-      <c r="C67" s="68" t="s">
+      <c r="B67" s="65"/>
+      <c r="C67" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D67" s="88">
-        <v>0</v>
-      </c>
-      <c r="E67" s="89">
+      <c r="D67" s="86">
+        <v>0</v>
+      </c>
+      <c r="E67" s="87">
         <v>3</v>
       </c>
-      <c r="F67" s="90">
+      <c r="F67" s="88">
         <f t="shared" ref="F67:F75" si="42">D67-E67</f>
         <v>-3</v>
       </c>
-      <c r="G67" s="70"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="70">
+      <c r="G67" s="68"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="68">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="J67" s="111"/>
-      <c r="K67" s="106">
+      <c r="J67" s="109"/>
+      <c r="K67" s="104">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="L67" s="107">
+      <c r="L67" s="105">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="M67" s="108">
+      <c r="M67" s="106">
         <f t="shared" ref="M67:M75" si="43">E67+J67</f>
         <v>3</v>
       </c>
-      <c r="N67" s="109" t="e">
+      <c r="N67" s="107" t="e">
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="68" spans="2:14">
-      <c r="B68" s="67"/>
-      <c r="C68" s="68" t="s">
+      <c r="B68" s="65"/>
+      <c r="C68" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="D68" s="88">
+      <c r="D68" s="86">
         <v>6</v>
       </c>
-      <c r="E68" s="89">
+      <c r="E68" s="87">
         <v>4</v>
       </c>
-      <c r="F68" s="90">
+      <c r="F68" s="88">
         <f t="shared" si="42"/>
         <v>2</v>
       </c>
-      <c r="G68" s="70"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="70">
+      <c r="G68" s="68"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="68">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="J68" s="111"/>
-      <c r="K68" s="106">
+      <c r="J68" s="109"/>
+      <c r="K68" s="104">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="L68" s="107">
+      <c r="L68" s="105">
         <f t="shared" si="40"/>
         <v>6</v>
       </c>
-      <c r="M68" s="108">
+      <c r="M68" s="106">
         <f t="shared" si="43"/>
         <v>4</v>
       </c>
-      <c r="N68" s="109">
+      <c r="N68" s="107">
         <f t="shared" si="41"/>
         <v>0.666666666666667</v>
       </c>
     </row>
     <row r="69" spans="2:14">
-      <c r="B69" s="67"/>
-      <c r="C69" s="68" t="s">
+      <c r="B69" s="65"/>
+      <c r="C69" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="88">
+      <c r="D69" s="86">
         <v>3</v>
       </c>
-      <c r="E69" s="89">
+      <c r="E69" s="87">
         <v>7</v>
       </c>
-      <c r="F69" s="90">
+      <c r="F69" s="88">
         <f t="shared" si="42"/>
         <v>-4</v>
       </c>
-      <c r="G69" s="70"/>
-      <c r="H69" s="66"/>
-      <c r="I69" s="70">
+      <c r="G69" s="68"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="68">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="J69" s="111"/>
-      <c r="K69" s="106">
+      <c r="J69" s="109"/>
+      <c r="K69" s="104">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="L69" s="107">
+      <c r="L69" s="105">
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="M69" s="108">
+      <c r="M69" s="106">
         <f t="shared" si="43"/>
         <v>7</v>
       </c>
-      <c r="N69" s="109">
+      <c r="N69" s="107">
         <f t="shared" si="41"/>
         <v>2.33333333333333</v>
       </c>
     </row>
     <row r="70" spans="2:14">
-      <c r="B70" s="67"/>
-      <c r="C70" s="68" t="s">
+      <c r="B70" s="65"/>
+      <c r="C70" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="88">
+      <c r="D70" s="86">
         <v>9</v>
       </c>
-      <c r="E70" s="89">
+      <c r="E70" s="87">
         <v>5</v>
       </c>
-      <c r="F70" s="90">
+      <c r="F70" s="88">
         <f t="shared" si="42"/>
         <v>4</v>
       </c>
-      <c r="G70" s="70"/>
-      <c r="H70" s="66"/>
-      <c r="I70" s="70">
+      <c r="G70" s="68"/>
+      <c r="H70" s="64"/>
+      <c r="I70" s="68">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="J70" s="111"/>
-      <c r="K70" s="106">
+      <c r="J70" s="109"/>
+      <c r="K70" s="104">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="L70" s="107">
+      <c r="L70" s="105">
         <f t="shared" si="40"/>
         <v>9</v>
       </c>
-      <c r="M70" s="108">
+      <c r="M70" s="106">
         <f t="shared" si="43"/>
         <v>5</v>
       </c>
-      <c r="N70" s="109">
+      <c r="N70" s="107">
         <f t="shared" si="41"/>
         <v>0.555555555555556</v>
       </c>
     </row>
     <row r="71" spans="2:14">
-      <c r="B71" s="67"/>
-      <c r="C71" s="68" t="s">
+      <c r="B71" s="65"/>
+      <c r="C71" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D71" s="88">
+      <c r="D71" s="86">
         <v>3</v>
       </c>
-      <c r="E71" s="89">
+      <c r="E71" s="87">
         <v>5</v>
       </c>
-      <c r="F71" s="90">
+      <c r="F71" s="88">
         <f t="shared" si="42"/>
         <v>-2</v>
       </c>
-      <c r="G71" s="70"/>
-      <c r="H71" s="66"/>
-      <c r="I71" s="70">
+      <c r="G71" s="68"/>
+      <c r="H71" s="64"/>
+      <c r="I71" s="68">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="J71" s="111"/>
-      <c r="K71" s="106">
+      <c r="J71" s="109"/>
+      <c r="K71" s="104">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="L71" s="107">
+      <c r="L71" s="105">
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="M71" s="108">
+      <c r="M71" s="106">
         <f t="shared" si="43"/>
         <v>5</v>
       </c>
-      <c r="N71" s="109">
+      <c r="N71" s="107">
         <f t="shared" si="41"/>
         <v>1.66666666666667</v>
       </c>
     </row>
     <row r="72" spans="2:14">
-      <c r="B72" s="67"/>
-      <c r="C72" s="68" t="s">
+      <c r="B72" s="65"/>
+      <c r="C72" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="88">
+      <c r="D72" s="86">
         <v>5</v>
       </c>
-      <c r="E72" s="89">
+      <c r="E72" s="87">
         <v>12</v>
       </c>
-      <c r="F72" s="90">
+      <c r="F72" s="88">
         <f t="shared" si="42"/>
         <v>-7</v>
       </c>
-      <c r="G72" s="70"/>
-      <c r="H72" s="66"/>
-      <c r="I72" s="70">
+      <c r="G72" s="68"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="68">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="J72" s="111"/>
-      <c r="K72" s="106">
+      <c r="J72" s="109"/>
+      <c r="K72" s="104">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="L72" s="107">
+      <c r="L72" s="105">
         <f t="shared" si="40"/>
         <v>5</v>
       </c>
-      <c r="M72" s="108">
+      <c r="M72" s="106">
         <f t="shared" si="43"/>
         <v>12</v>
       </c>
-      <c r="N72" s="109">
+      <c r="N72" s="107">
         <f t="shared" si="41"/>
         <v>2.4</v>
       </c>
     </row>
     <row r="73" spans="2:14">
-      <c r="B73" s="67"/>
-      <c r="C73" s="68" t="s">
+      <c r="B73" s="65"/>
+      <c r="C73" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="88">
+      <c r="D73" s="86">
         <v>5</v>
       </c>
-      <c r="E73" s="89">
+      <c r="E73" s="87">
         <v>3</v>
       </c>
-      <c r="F73" s="90">
+      <c r="F73" s="88">
         <f t="shared" si="42"/>
         <v>2</v>
       </c>
-      <c r="G73" s="70"/>
-      <c r="H73" s="70"/>
-      <c r="I73" s="70"/>
-      <c r="J73" s="111"/>
-      <c r="K73" s="112">
+      <c r="G73" s="68"/>
+      <c r="H73" s="68"/>
+      <c r="I73" s="68"/>
+      <c r="J73" s="109"/>
+      <c r="K73" s="110">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="L73" s="113">
+      <c r="L73" s="111">
         <f t="shared" si="40"/>
         <v>5</v>
       </c>
-      <c r="M73" s="113">
+      <c r="M73" s="111">
         <f t="shared" si="43"/>
         <v>3</v>
       </c>
-      <c r="N73" s="124">
+      <c r="N73" s="122">
         <f t="shared" si="41"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="74" spans="2:14">
-      <c r="B74" s="74"/>
-      <c r="C74" s="68" t="s">
+      <c r="B74" s="72"/>
+      <c r="C74" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D74" s="88">
-        <v>0</v>
-      </c>
-      <c r="E74" s="89">
-        <v>0</v>
-      </c>
-      <c r="F74" s="90">
+      <c r="D74" s="86">
+        <v>0</v>
+      </c>
+      <c r="E74" s="87">
+        <v>0</v>
+      </c>
+      <c r="F74" s="88">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="G74" s="70"/>
-      <c r="H74" s="70"/>
-      <c r="I74" s="70"/>
-      <c r="J74" s="111"/>
-      <c r="K74" s="112" t="e">
+      <c r="G74" s="68"/>
+      <c r="H74" s="68"/>
+      <c r="I74" s="68"/>
+      <c r="J74" s="109"/>
+      <c r="K74" s="110" t="e">
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L74" s="113">
+      <c r="L74" s="111">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="M74" s="113">
+      <c r="M74" s="111">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="N74" s="124" t="e">
+      <c r="N74" s="122" t="e">
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="75" spans="2:14">
-      <c r="B75" s="74"/>
-      <c r="C75" s="68" t="s">
+      <c r="B75" s="72"/>
+      <c r="C75" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="88">
+      <c r="D75" s="86">
         <v>2</v>
       </c>
-      <c r="E75" s="89">
+      <c r="E75" s="87">
         <v>4</v>
       </c>
-      <c r="F75" s="90">
+      <c r="F75" s="88">
         <f t="shared" si="42"/>
         <v>-2</v>
       </c>
-      <c r="G75" s="70"/>
-      <c r="H75" s="70"/>
-      <c r="I75" s="70">
+      <c r="G75" s="68"/>
+      <c r="H75" s="68"/>
+      <c r="I75" s="68">
         <f>G75-H75</f>
         <v>0</v>
       </c>
-      <c r="J75" s="111"/>
-      <c r="K75" s="112">
+      <c r="J75" s="109"/>
+      <c r="K75" s="110">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="L75" s="113">
+      <c r="L75" s="111">
         <f t="shared" si="40"/>
         <v>2</v>
       </c>
-      <c r="M75" s="113">
+      <c r="M75" s="111">
         <f t="shared" si="43"/>
         <v>4</v>
       </c>
-      <c r="N75" s="124">
+      <c r="N75" s="122">
         <f t="shared" si="41"/>
         <v>2</v>
       </c>
     </row>
     <row r="76" ht="15" spans="2:14">
-      <c r="B76" s="93"/>
-      <c r="C76" s="94" t="s">
+      <c r="B76" s="91"/>
+      <c r="C76" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="95">
+      <c r="D76" s="93">
         <f>SUM(D66:D75)</f>
         <v>33</v>
       </c>
-      <c r="E76" s="95">
+      <c r="E76" s="93">
         <f>SUM(E66:E75)</f>
         <v>45</v>
       </c>
-      <c r="F76" s="96">
+      <c r="F76" s="94">
         <v>-18</v>
       </c>
-      <c r="G76" s="95">
+      <c r="G76" s="93">
         <f>SUM(G66:G75)</f>
         <v>0</v>
       </c>
-      <c r="H76" s="95">
+      <c r="H76" s="93">
         <f>SUM(H66:H75)</f>
         <v>0</v>
       </c>
-      <c r="I76" s="95">
+      <c r="I76" s="93">
         <f>G76-H76</f>
         <v>0</v>
       </c>
-      <c r="J76" s="95">
+      <c r="J76" s="93">
         <f>SUM(J66:J75)</f>
         <v>0</v>
       </c>
-      <c r="K76" s="125">
+      <c r="K76" s="123">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="L76" s="95">
+      <c r="L76" s="93">
         <f>SUM(L66:L75)</f>
         <v>33</v>
       </c>
-      <c r="M76" s="95">
+      <c r="M76" s="93">
         <f>SUM(M66:M75)</f>
         <v>45</v>
       </c>
-      <c r="N76" s="126">
+      <c r="N76" s="124">
         <f t="shared" si="41"/>
         <v>1.36363636363636</v>
       </c>
@@ -5928,7 +5898,7 @@
       <c r="C29" s="44">
         <v>43221</v>
       </c>
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="45" t="s">
         <v>57</v>
       </c>
       <c r="E29" s="22" t="s">
@@ -5936,7 +5906,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="49"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="37" t="s">
         <v>34</v>
       </c>
@@ -5951,20 +5921,20 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="49"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="37" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="29">
         <v>43225</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="49" t="s">
         <v>64</v>
       </c>
       <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="49"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="23" t="s">
         <v>28</v>
       </c>
@@ -5977,7 +5947,7 @@
       <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="49"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="20" t="s">
         <v>22</v>
       </c>
@@ -5990,7 +5960,7 @@
       <c r="E33" s="22"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="49"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="47" t="s">
         <v>25</v>
       </c>
@@ -6048,7 +6018,7 @@
       <c r="C38" s="44">
         <v>43240</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="41" t="s">
         <v>71</v>
       </c>
       <c r="E38" s="22"/>

--- a/部门项目数据汇总表.xlsx
+++ b/部门项目数据汇总表.xlsx
@@ -704,10 +704,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="35">
@@ -791,30 +791,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -827,44 +805,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -882,19 +828,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -906,18 +878,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -937,9 +922,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -950,6 +943,13 @@
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1022,19 +1022,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,7 +1052,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,7 +1106,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,25 +1130,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,85 +1184,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1638,17 +1638,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1671,15 +1676,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1691,6 +1687,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1724,173 +1735,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2582,8 +2582,8 @@
   <sheetPr/>
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -5135,14 +5135,14 @@
         <v>18</v>
       </c>
       <c r="D69" s="86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E69" s="87">
         <v>7</v>
       </c>
       <c r="F69" s="88">
         <f t="shared" si="42"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="G69" s="68"/>
       <c r="H69" s="64"/>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="L69" s="105">
         <f t="shared" si="40"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M69" s="106">
         <f t="shared" si="43"/>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="N69" s="107">
         <f t="shared" si="41"/>
-        <v>2.33333333333333</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="70" spans="2:14">
@@ -5363,14 +5363,14 @@
         <v>25</v>
       </c>
       <c r="D75" s="86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E75" s="87">
         <v>4</v>
       </c>
       <c r="F75" s="88">
         <f t="shared" si="42"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G75" s="68"/>
       <c r="H75" s="68"/>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="L75" s="111">
         <f t="shared" si="40"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M75" s="111">
         <f t="shared" si="43"/>
@@ -5393,7 +5393,7 @@
       </c>
       <c r="N75" s="122">
         <f t="shared" si="41"/>
-        <v>2</v>
+        <v>1.33333333333333</v>
       </c>
     </row>
     <row r="76" ht="15" spans="2:14">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="D76" s="93">
         <f>SUM(D66:D75)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E76" s="93">
         <f>SUM(E66:E75)</f>
@@ -5434,7 +5434,7 @@
       </c>
       <c r="L76" s="93">
         <f>SUM(L66:L75)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M76" s="93">
         <f>SUM(M66:M75)</f>
@@ -5442,7 +5442,7 @@
       </c>
       <c r="N76" s="124">
         <f t="shared" si="41"/>
-        <v>1.36363636363636</v>
+        <v>1.28571428571429</v>
       </c>
     </row>
   </sheetData>

--- a/部门项目数据汇总表.xlsx
+++ b/部门项目数据汇总表.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="项目数据分析表" sheetId="5" r:id="rId1"/>
-    <sheet name="加班明细表" sheetId="4" r:id="rId2"/>
+    <sheet name="加班明细表" sheetId="4" r:id="rId1"/>
+    <sheet name="项目数据分析表" sheetId="5" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -16,17 +16,173 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
+  <si>
+    <t>月份</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>加班内容</t>
+  </si>
+  <si>
+    <t>补贴方式</t>
+  </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>黄纯伟</t>
+  </si>
+  <si>
+    <t>无锡六府实施</t>
+  </si>
+  <si>
+    <t>陈乾维</t>
+  </si>
+  <si>
+    <t>大卤爷营业驻店</t>
+  </si>
+  <si>
+    <t>4月</t>
+  </si>
+  <si>
+    <t>顾鹏</t>
+  </si>
+  <si>
+    <t>南京水游城/六府餐饮驻店</t>
+  </si>
+  <si>
+    <t>公司值班</t>
+  </si>
+  <si>
+    <t>薪资</t>
+  </si>
+  <si>
+    <t>杨磊</t>
+  </si>
+  <si>
+    <t>高阳</t>
+  </si>
+  <si>
+    <t>方兆强</t>
+  </si>
+  <si>
+    <t>让签签飞实施及培训</t>
+  </si>
+  <si>
+    <t>百鹅汇售后</t>
+  </si>
+  <si>
+    <t>翁晨</t>
+  </si>
+  <si>
+    <t>14日~15日</t>
+  </si>
+  <si>
+    <t>前往常熟安装内存条</t>
+  </si>
+  <si>
+    <t>周腾飞</t>
+  </si>
+  <si>
+    <t>前往苏州安装内存条</t>
+  </si>
+  <si>
+    <t>徐沛华</t>
+  </si>
+  <si>
+    <t>李不管南通店实施</t>
+  </si>
+  <si>
+    <t>已调休</t>
+  </si>
+  <si>
+    <t>鲜货俚火锅实施</t>
+  </si>
+  <si>
+    <t>拴宝水饺东南大学店实施及培训</t>
+  </si>
+  <si>
+    <t>李不管南通店驻店</t>
+  </si>
+  <si>
+    <t>哈尔滨水饺（云食集店）实施培训</t>
+  </si>
+  <si>
+    <t>八戒肥肠托乐嘉店实施及驻店</t>
+  </si>
+  <si>
+    <t>美蛙鱼头火锅如东店实施并培训</t>
+  </si>
+  <si>
+    <t>劳动节值班</t>
+  </si>
+  <si>
+    <t>家的味道实施（项目取消）</t>
+  </si>
+  <si>
+    <t>老厨人深海炖锅实施并培训</t>
+  </si>
+  <si>
+    <t>熊牛日式炭烧肉上线培训</t>
+  </si>
+  <si>
+    <t>泰州姜堰市锦江花园06-09室/槐店王婆大虾泰州店上线实施</t>
+  </si>
+  <si>
+    <t>井憩茶饮驻店</t>
+  </si>
+  <si>
+    <t>5月</t>
+  </si>
+  <si>
+    <t>前往董家金牌锅贴安庆馄饨上线</t>
+  </si>
+  <si>
+    <t>甜荟茶饮设备迁移实施培训</t>
+  </si>
+  <si>
+    <t>奶酪时光南师附中店驻店</t>
+  </si>
+  <si>
+    <t>来福家大食堂驻店</t>
+  </si>
+  <si>
+    <t>花食间庐山路店实施培训</t>
+  </si>
+  <si>
+    <t>三庐奶茶驻店</t>
+  </si>
+  <si>
+    <t>七秒鱼上线</t>
+  </si>
+  <si>
+    <t>松匠日本料理驻店</t>
+  </si>
+  <si>
+    <t>苗小坛南京中央店实施</t>
+  </si>
+  <si>
+    <t>陆记潮汕粥驻店</t>
+  </si>
+  <si>
+    <t>鲜货俚火锅/售后</t>
+  </si>
+  <si>
+    <t>老厨人紫荆广场店实施</t>
+  </si>
+  <si>
+    <t>未调休</t>
+  </si>
   <si>
     <t>南京实施数据分析表</t>
   </si>
   <si>
-    <t>月份</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
     <t>单店项目立项数</t>
   </si>
   <si>
@@ -72,169 +228,22 @@
     <t>熊正兴</t>
   </si>
   <si>
-    <t>黄纯伟</t>
-  </si>
-  <si>
-    <t>高阳</t>
-  </si>
-  <si>
     <t>周俊</t>
   </si>
   <si>
     <t>刘乐乐</t>
   </si>
   <si>
-    <t>陈乾维</t>
-  </si>
-  <si>
-    <t>杨磊</t>
-  </si>
-  <si>
-    <t>顾鹏</t>
-  </si>
-  <si>
-    <t>方兆强</t>
-  </si>
-  <si>
     <t>合计</t>
   </si>
   <si>
     <t>1月</t>
   </si>
   <si>
-    <t>徐沛华</t>
-  </si>
-  <si>
     <t>2月</t>
   </si>
   <si>
     <t>鲁青鹏</t>
-  </si>
-  <si>
-    <t>3月</t>
-  </si>
-  <si>
-    <t>翁晨</t>
-  </si>
-  <si>
-    <t>4月</t>
-  </si>
-  <si>
-    <t>周腾飞</t>
-  </si>
-  <si>
-    <t>5月</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>加班内容</t>
-  </si>
-  <si>
-    <t>补贴方式</t>
-  </si>
-  <si>
-    <t>无锡六府实施</t>
-  </si>
-  <si>
-    <t>大卤爷营业驻店</t>
-  </si>
-  <si>
-    <t>南京水游城/六府餐饮驻店</t>
-  </si>
-  <si>
-    <t>公司值班</t>
-  </si>
-  <si>
-    <t>薪资</t>
-  </si>
-  <si>
-    <t>让签签飞实施及培训</t>
-  </si>
-  <si>
-    <t>百鹅汇售后</t>
-  </si>
-  <si>
-    <t>14日~15日</t>
-  </si>
-  <si>
-    <t>前往常熟安装内存条</t>
-  </si>
-  <si>
-    <t>前往苏州安装内存条</t>
-  </si>
-  <si>
-    <t>李不管南通店实施</t>
-  </si>
-  <si>
-    <t>已调休</t>
-  </si>
-  <si>
-    <t>鲜货俚火锅实施</t>
-  </si>
-  <si>
-    <t>拴宝水饺东南大学店实施及培训</t>
-  </si>
-  <si>
-    <t>李不管南通店驻店</t>
-  </si>
-  <si>
-    <t>哈尔滨水饺（云食集店）实施培训</t>
-  </si>
-  <si>
-    <t>八戒肥肠托乐嘉店实施及驻店</t>
-  </si>
-  <si>
-    <t>美蛙鱼头火锅如东店实施并培训</t>
-  </si>
-  <si>
-    <t>劳动节值班</t>
-  </si>
-  <si>
-    <t>家的味道实施（项目取消）</t>
-  </si>
-  <si>
-    <t>老厨人深海炖锅实施并培训</t>
-  </si>
-  <si>
-    <t>熊牛日式炭烧肉上线培训</t>
-  </si>
-  <si>
-    <t>泰州姜堰市锦江花园06-09室/槐店王婆大虾泰州店上线实施</t>
-  </si>
-  <si>
-    <t>井憩茶饮驻店</t>
-  </si>
-  <si>
-    <t>前往董家金牌锅贴安庆馄饨上线</t>
-  </si>
-  <si>
-    <t>甜荟茶饮设备迁移实施培训</t>
-  </si>
-  <si>
-    <t>奶酪时光南师附中店驻店</t>
-  </si>
-  <si>
-    <t>来福家大食堂驻店</t>
-  </si>
-  <si>
-    <t>花食间庐山路店实施培训</t>
-  </si>
-  <si>
-    <t>三庐奶茶驻店</t>
-  </si>
-  <si>
-    <t>七秒鱼上线</t>
-  </si>
-  <si>
-    <t>松匠日本料理驻店</t>
-  </si>
-  <si>
-    <t>苗小坛南京中央店实施</t>
-  </si>
-  <si>
-    <t>未调休</t>
   </si>
   <si>
     <t>加班调休登记表</t>
@@ -704,9 +713,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -742,6 +751,14 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -750,27 +767,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -792,14 +788,93 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,110 +896,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -939,17 +913,52 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -965,18 +974,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1016,13 +1013,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,7 +1031,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,55 +1079,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,7 +1115,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,73 +1193,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,10 +1258,60 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1261,50 +1320,7 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
@@ -1314,10 +1330,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
@@ -1325,18 +1365,61 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right/>
@@ -1351,16 +1434,42 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="medium">
         <color auto="1"/>
@@ -1375,6 +1484,19 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -1387,7 +1509,124 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
@@ -1397,34 +1636,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
@@ -1432,228 +1647,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1682,15 +1686,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1706,17 +1701,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1741,10 +1750,10 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1753,146 +1762,146 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1930,21 +1939,244 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1953,7 +2185,7 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1962,11 +2194,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1975,10 +2207,10 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1987,13 +2219,13 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2002,259 +2234,57 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="58" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2580,10 +2610,672 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:K97"/>
+  <sheetViews>
+    <sheetView topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40:D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9.125" style="88"/>
+    <col min="2" max="2" width="9.875" style="88" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="88" customWidth="1"/>
+    <col min="4" max="4" width="59.25" style="89" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="90" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:5">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="96">
+        <v>43190</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="97"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="98"/>
+      <c r="B3" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="96">
+        <v>43190</v>
+      </c>
+      <c r="D3" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="97"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="96">
+        <v>43191</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="97"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="102"/>
+      <c r="B5" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="104">
+        <v>43191</v>
+      </c>
+      <c r="D5" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="97"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="102"/>
+      <c r="B6" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="104">
+        <v>43195</v>
+      </c>
+      <c r="D6" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="102"/>
+      <c r="B7" s="99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="96">
+        <v>43196</v>
+      </c>
+      <c r="D7" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="102"/>
+      <c r="B8" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="96">
+        <v>43197</v>
+      </c>
+      <c r="D8" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="102"/>
+      <c r="B9" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="108">
+        <v>43197</v>
+      </c>
+      <c r="D9" s="109" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="102"/>
+      <c r="B10" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="108">
+        <v>43197</v>
+      </c>
+      <c r="D10" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="102"/>
+      <c r="B11" s="112" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="113" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="97"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="102"/>
+      <c r="B12" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="96">
+        <v>43204</v>
+      </c>
+      <c r="D12" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="97"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="102"/>
+      <c r="B13" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="96">
+        <v>43204</v>
+      </c>
+      <c r="D13" s="115" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="102"/>
+      <c r="B14" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="96">
+        <v>43204</v>
+      </c>
+      <c r="D14" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="102"/>
+      <c r="B15" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="96">
+        <v>43205</v>
+      </c>
+      <c r="D15" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="102"/>
+      <c r="B16" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="96">
+        <v>43205</v>
+      </c>
+      <c r="D16" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="102"/>
+      <c r="B17" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="96">
+        <v>43211</v>
+      </c>
+      <c r="D17" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="102"/>
+      <c r="B18" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="96">
+        <v>43211</v>
+      </c>
+      <c r="D18" s="115" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="97"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="102"/>
+      <c r="B19" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="96">
+        <v>43211</v>
+      </c>
+      <c r="D19" s="115" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="97"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="102"/>
+      <c r="B20" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="96">
+        <v>43212</v>
+      </c>
+      <c r="D20" s="115" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="97"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="102"/>
+      <c r="B21" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="117">
+        <v>43219</v>
+      </c>
+      <c r="D21" s="118" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="102"/>
+      <c r="B22" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="117">
+        <v>43219</v>
+      </c>
+      <c r="D22" s="118" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="102"/>
+      <c r="B23" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="104">
+        <v>43220</v>
+      </c>
+      <c r="D23" s="118" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="102"/>
+      <c r="B24" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="104">
+        <v>43220</v>
+      </c>
+      <c r="D24" s="118" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="102"/>
+      <c r="B25" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="104">
+        <v>43220</v>
+      </c>
+      <c r="D25" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="102"/>
+      <c r="B26" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="119">
+        <v>43220</v>
+      </c>
+      <c r="D26" s="118" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="102"/>
+      <c r="B27" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="119">
+        <v>43221</v>
+      </c>
+      <c r="D27" s="118" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="98"/>
+      <c r="B28" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="119">
+        <v>43221</v>
+      </c>
+      <c r="D28" s="120" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="121" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="122" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="119">
+        <v>43221</v>
+      </c>
+      <c r="D29" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="123"/>
+      <c r="B30" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="104">
+        <v>43221</v>
+      </c>
+      <c r="D30" s="118" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="123"/>
+      <c r="B31" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="104">
+        <v>43225</v>
+      </c>
+      <c r="D31" s="124" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="97"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="123"/>
+      <c r="B32" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="104">
+        <v>43225</v>
+      </c>
+      <c r="D32" s="115" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="97"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="123"/>
+      <c r="B33" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="104">
+        <v>43225</v>
+      </c>
+      <c r="D33" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="97"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="123"/>
+      <c r="B34" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="104">
+        <v>43226</v>
+      </c>
+      <c r="D34" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="97"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="112"/>
+      <c r="B35" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="104">
+        <v>43232</v>
+      </c>
+      <c r="D35" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="97"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="112"/>
+      <c r="B36" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="104">
+        <v>43239</v>
+      </c>
+      <c r="D36" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="97"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="112"/>
+      <c r="B37" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="104">
+        <v>43240</v>
+      </c>
+      <c r="D37" s="115" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="97"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="119">
+        <v>43240</v>
+      </c>
+      <c r="D38" s="116" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="97"/>
+    </row>
+    <row r="39" ht="15.95" customHeight="1" spans="2:5">
+      <c r="B39" s="125" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="126">
+        <v>43246</v>
+      </c>
+      <c r="D39" s="127" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="128"/>
+    </row>
+    <row r="40" ht="15.95" customHeight="1" spans="2:5">
+      <c r="B40" s="129" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="130">
+        <v>43246</v>
+      </c>
+      <c r="D40" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="128"/>
+    </row>
+    <row r="41" ht="15.95" customHeight="1" spans="2:5">
+      <c r="B41" s="129" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="130">
+        <v>43247</v>
+      </c>
+      <c r="D41" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="128"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="125" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="126">
+        <v>43247</v>
+      </c>
+      <c r="D42" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="128"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="36"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="36"/>
+    </row>
+    <row r="45" spans="5:5">
+      <c r="E45" s="97"/>
+    </row>
+    <row r="46" spans="5:5">
+      <c r="E46" s="97"/>
+    </row>
+    <row r="47" spans="5:5">
+      <c r="E47" s="97"/>
+    </row>
+    <row r="48" spans="5:5">
+      <c r="E48" s="97"/>
+    </row>
+    <row r="95" spans="11:11">
+      <c r="K95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="11:11">
+      <c r="K96" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="11:11">
+      <c r="K97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A28"/>
+    <mergeCell ref="A29:A35"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E39 E40 E41 E42">
+      <formula1>"薪资补贴,调休,未调休"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E38">
+      <formula1>$K$95:$K$97</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -2599,2850 +3291,2850 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:17">
-      <c r="A1" s="50"/>
-      <c r="B1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
     </row>
     <row r="2" ht="16.5" spans="1:17">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="56" t="s">
+      <c r="D2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+    </row>
+    <row r="3" ht="15" spans="1:17">
+      <c r="A3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="24">
         <v>6</v>
       </c>
-      <c r="H2" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="97" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="99" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="100" t="s">
+      <c r="E3" s="25">
         <v>12</v>
       </c>
-      <c r="N2" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-    </row>
-    <row r="3" ht="15" spans="1:17">
-      <c r="A3" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="61">
-        <v>6</v>
-      </c>
-      <c r="E3" s="62">
-        <v>12</v>
-      </c>
-      <c r="F3" s="63">
+      <c r="F3" s="26">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>-6</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64">
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27">
         <f t="shared" ref="I3:I9" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="103"/>
-      <c r="K3" s="104">
+      <c r="J3" s="66"/>
+      <c r="K3" s="67">
         <f t="shared" ref="K3:K10" si="2">J3/M3*100%</f>
         <v>0</v>
       </c>
-      <c r="L3" s="105">
+      <c r="L3" s="68">
         <f t="shared" ref="L3:L11" si="3">D3+H3</f>
         <v>6</v>
       </c>
-      <c r="M3" s="106">
+      <c r="M3" s="69">
         <f>E3+H3</f>
         <v>12</v>
       </c>
-      <c r="N3" s="107">
+      <c r="N3" s="70">
         <f t="shared" ref="N3:N10" si="4">M3/L3*100%</f>
         <v>2</v>
       </c>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="58">
+      <c r="A4" s="21">
         <v>4</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="67">
+      <c r="B4" s="28"/>
+      <c r="C4" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="30">
         <v>2</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="25">
         <v>4</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="26">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="G4" s="68"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="68">
+      <c r="G4" s="31"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="109"/>
-      <c r="K4" s="104">
+      <c r="J4" s="72"/>
+      <c r="K4" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L4" s="105">
+      <c r="L4" s="68">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M4" s="106">
+      <c r="M4" s="69">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>4</v>
       </c>
-      <c r="N4" s="107">
+      <c r="N4" s="70">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="O4" s="108"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="69"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="67">
+      <c r="A5" s="32"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="30">
         <v>4</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="25">
         <v>3</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="68">
+      <c r="G5" s="31"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="109"/>
-      <c r="K5" s="104">
+      <c r="J5" s="72"/>
+      <c r="K5" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L5" s="105">
+      <c r="L5" s="68">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M5" s="106">
+      <c r="M5" s="69">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="N5" s="107">
+      <c r="N5" s="70">
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="69"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="67">
+      <c r="A6" s="32"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="30">
         <v>4</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="25">
         <v>3</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="68">
+      <c r="G6" s="31"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="109"/>
-      <c r="K6" s="104">
+      <c r="J6" s="72"/>
+      <c r="K6" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L6" s="105">
+      <c r="L6" s="68">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M6" s="106">
+      <c r="M6" s="69">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="N6" s="107">
+      <c r="N6" s="70">
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="69"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="67">
+      <c r="A7" s="32"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="30">
         <v>3</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="25">
         <v>1</v>
       </c>
-      <c r="F7" s="63">
+      <c r="F7" s="26">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="68">
+      <c r="G7" s="31"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="104">
+      <c r="J7" s="72"/>
+      <c r="K7" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L7" s="105">
+      <c r="L7" s="68">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="M7" s="106">
+      <c r="M7" s="69">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N7" s="107">
+      <c r="N7" s="70">
         <f t="shared" si="4"/>
         <v>0.333333333333333</v>
       </c>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="69"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="67">
+      <c r="A8" s="32"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="30">
         <v>6</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="25">
         <v>3</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="26">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="68">
+      <c r="G8" s="31"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="109"/>
-      <c r="K8" s="104">
+      <c r="J8" s="72"/>
+      <c r="K8" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L8" s="105">
+      <c r="L8" s="68">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="M8" s="106">
+      <c r="M8" s="69">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="N8" s="107">
+      <c r="N8" s="70">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="69"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="67">
+      <c r="A9" s="32"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="30">
         <v>1</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="25">
         <v>1</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="68"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="68">
+      <c r="G9" s="31"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="109"/>
-      <c r="K9" s="104">
+      <c r="J9" s="72"/>
+      <c r="K9" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L9" s="105">
+      <c r="L9" s="68">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M9" s="106">
+      <c r="M9" s="69">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N9" s="107">
+      <c r="N9" s="70">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="69"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="70">
+      <c r="A10" s="32"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="33">
         <v>4</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="30">
         <v>4</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="110">
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="73">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L10" s="111">
+      <c r="L10" s="74">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M10" s="111">
+      <c r="M10" s="74">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="N10" s="112">
+      <c r="N10" s="75">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O10" s="108"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="108"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="69"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="70">
+      <c r="A11" s="32"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="33">
         <v>4</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="30">
         <v>5</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="26">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="111">
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="74">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M11" s="111">
+      <c r="M11" s="74">
         <v>5</v>
       </c>
-      <c r="N11" s="112">
-        <v>0</v>
-      </c>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="108"/>
+      <c r="N11" s="75">
+        <v>0</v>
+      </c>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="69"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="70">
+      <c r="A12" s="32"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="33">
         <v>1</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="30">
         <v>1</v>
       </c>
-      <c r="F12" s="63">
-        <v>0</v>
-      </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="111">
+      <c r="F12" s="26">
+        <v>0</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="74">
         <v>1</v>
       </c>
-      <c r="M12" s="111">
+      <c r="M12" s="74">
         <v>1</v>
       </c>
-      <c r="N12" s="107">
+      <c r="N12" s="70">
         <f>M12/L12*100%</f>
         <v>1</v>
       </c>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="108"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
     </row>
     <row r="13" ht="15" spans="1:17">
-      <c r="A13" s="69"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="70">
+      <c r="A13" s="32"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="33">
         <v>5</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="30">
         <v>6</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="26">
         <f>D13-E13</f>
         <v>-1</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68">
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31">
         <f t="shared" ref="I13:I23" si="6">G13-H13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="109"/>
-      <c r="K13" s="110">
+      <c r="J13" s="72"/>
+      <c r="K13" s="73">
         <f t="shared" ref="K13:K26" si="7">J13/M13*100%</f>
         <v>0</v>
       </c>
-      <c r="L13" s="111">
+      <c r="L13" s="74">
         <f>D13+H13</f>
         <v>5</v>
       </c>
-      <c r="M13" s="111">
+      <c r="M13" s="74">
         <f>E13+J13</f>
         <v>6</v>
       </c>
-      <c r="N13" s="112">
+      <c r="N13" s="75">
         <f t="shared" ref="N13:N26" si="8">M13/L13*100%</f>
         <v>1.2</v>
       </c>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
     </row>
     <row r="14" ht="15" spans="1:17">
-      <c r="A14" s="75"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="78">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="41">
         <f>SUM(D3:D13)</f>
         <v>40</v>
       </c>
-      <c r="E14" s="79">
+      <c r="E14" s="42">
         <f>SUM(E3:E13)</f>
         <v>43</v>
       </c>
-      <c r="F14" s="80">
+      <c r="F14" s="43">
         <f>D14-E14</f>
         <v>-3</v>
       </c>
-      <c r="G14" s="81">
+      <c r="G14" s="44">
         <f>SUM(G3:G13)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="81">
+      <c r="H14" s="44">
         <f>SUM(H3:H13)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="81">
+      <c r="I14" s="44">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J14" s="81">
+      <c r="J14" s="44">
         <f>SUM(J3:J13)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="113">
+      <c r="K14" s="76">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L14" s="81">
+      <c r="L14" s="44">
         <f>SUM(L3:L13)</f>
         <v>40</v>
       </c>
-      <c r="M14" s="81">
+      <c r="M14" s="44">
         <f>SUM(M3:M13)</f>
         <v>43</v>
       </c>
-      <c r="N14" s="114">
+      <c r="N14" s="77">
         <f t="shared" si="8"/>
         <v>1.075</v>
       </c>
-      <c r="O14" s="108"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="108"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
     </row>
     <row r="15" ht="15"/>
     <row r="16" ht="15" spans="2:14">
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="54" t="s">
+      <c r="D16" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" s="78" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="24">
         <v>5</v>
       </c>
-      <c r="G16" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="97" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" s="99" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="115" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="61">
+      <c r="E17" s="45">
         <v>5</v>
       </c>
-      <c r="E17" s="82">
-        <v>5</v>
-      </c>
-      <c r="F17" s="63">
+      <c r="F17" s="26">
         <f t="shared" ref="F17:F26" si="9">D17-E17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64">
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J17" s="103"/>
-      <c r="K17" s="104">
+      <c r="J17" s="66"/>
+      <c r="K17" s="67">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L17" s="105">
+      <c r="L17" s="68">
         <f t="shared" ref="L17:L25" si="10">D17+H17</f>
         <v>5</v>
       </c>
-      <c r="M17" s="106">
+      <c r="M17" s="69">
         <f>E17+H17</f>
         <v>5</v>
       </c>
-      <c r="N17" s="107">
+      <c r="N17" s="70">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="65"/>
-      <c r="C18" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="67">
+      <c r="B18" s="28"/>
+      <c r="C18" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="30">
         <v>7</v>
       </c>
-      <c r="E18" s="62">
+      <c r="E18" s="25">
         <v>7</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="68">
+      <c r="G18" s="31"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J18" s="109"/>
-      <c r="K18" s="104">
+      <c r="J18" s="72"/>
+      <c r="K18" s="67">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L18" s="105">
+      <c r="L18" s="68">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="M18" s="106">
+      <c r="M18" s="69">
         <f t="shared" ref="M18:M25" si="11">E18+J18</f>
         <v>7</v>
       </c>
-      <c r="N18" s="107">
+      <c r="N18" s="70">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="65"/>
-      <c r="C19" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="67">
+      <c r="B19" s="28"/>
+      <c r="C19" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="30">
         <v>3</v>
       </c>
-      <c r="E19" s="62">
+      <c r="E19" s="25">
         <v>3</v>
       </c>
-      <c r="F19" s="63">
+      <c r="F19" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G19" s="68"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="68">
+      <c r="G19" s="31"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J19" s="109"/>
-      <c r="K19" s="104">
+      <c r="J19" s="72"/>
+      <c r="K19" s="67">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L19" s="105">
+      <c r="L19" s="68">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="M19" s="106">
+      <c r="M19" s="69">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="N19" s="107">
+      <c r="N19" s="70">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="65"/>
-      <c r="C20" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="67">
+      <c r="B20" s="28"/>
+      <c r="C20" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="30">
         <v>2</v>
       </c>
-      <c r="E20" s="62">
+      <c r="E20" s="25">
         <v>5</v>
       </c>
-      <c r="F20" s="63">
+      <c r="F20" s="26">
         <f t="shared" si="9"/>
         <v>-3</v>
       </c>
-      <c r="G20" s="68"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="68">
+      <c r="G20" s="31"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J20" s="109"/>
-      <c r="K20" s="104">
+      <c r="J20" s="72"/>
+      <c r="K20" s="67">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L20" s="105">
+      <c r="L20" s="68">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="M20" s="106">
+      <c r="M20" s="69">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="N20" s="107">
+      <c r="N20" s="70">
         <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="65"/>
-      <c r="C21" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="67">
+      <c r="B21" s="28"/>
+      <c r="C21" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="30">
         <v>3</v>
       </c>
-      <c r="E21" s="62">
+      <c r="E21" s="25">
         <v>2</v>
       </c>
-      <c r="F21" s="63">
+      <c r="F21" s="26">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="G21" s="68"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="68">
+      <c r="G21" s="31"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J21" s="109"/>
-      <c r="K21" s="104">
+      <c r="J21" s="72"/>
+      <c r="K21" s="67">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L21" s="105">
+      <c r="L21" s="68">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="M21" s="106">
+      <c r="M21" s="69">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="N21" s="107">
+      <c r="N21" s="70">
         <f t="shared" si="8"/>
         <v>0.666666666666667</v>
       </c>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="65"/>
-      <c r="C22" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="67">
+      <c r="B22" s="28"/>
+      <c r="C22" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="30">
         <v>10</v>
       </c>
-      <c r="E22" s="67">
+      <c r="E22" s="30">
         <v>9</v>
       </c>
-      <c r="F22" s="63">
+      <c r="F22" s="26">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="G22" s="68"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="68">
+      <c r="G22" s="31"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J22" s="109"/>
-      <c r="K22" s="104">
+      <c r="J22" s="72"/>
+      <c r="K22" s="67">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L22" s="105">
+      <c r="L22" s="68">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="M22" s="106">
+      <c r="M22" s="69">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="N22" s="107">
+      <c r="N22" s="70">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="65"/>
-      <c r="C23" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="83">
+      <c r="B23" s="28"/>
+      <c r="C23" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="46">
         <v>3</v>
       </c>
-      <c r="E23" s="62">
+      <c r="E23" s="25">
         <v>6</v>
       </c>
-      <c r="F23" s="63">
+      <c r="F23" s="26">
         <f t="shared" si="9"/>
         <v>-3</v>
       </c>
-      <c r="G23" s="68"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="68">
+      <c r="G23" s="31"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J23" s="109"/>
-      <c r="K23" s="104">
+      <c r="J23" s="72"/>
+      <c r="K23" s="67">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L23" s="105">
+      <c r="L23" s="68">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="M23" s="106">
+      <c r="M23" s="69">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="N23" s="107">
+      <c r="N23" s="70">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="65"/>
-      <c r="C24" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="83">
+      <c r="B24" s="28"/>
+      <c r="C24" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="46">
         <v>1</v>
       </c>
-      <c r="E24" s="67">
+      <c r="E24" s="30">
         <v>1</v>
       </c>
-      <c r="F24" s="63">
+      <c r="F24" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G24" s="68"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="104">
+      <c r="G24" s="31"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="67">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L24" s="105">
+      <c r="L24" s="68">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M24" s="106">
+      <c r="M24" s="69">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="N24" s="116">
+      <c r="N24" s="79">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O24" s="117"/>
+      <c r="O24" s="80"/>
     </row>
     <row r="25" ht="15" spans="2:14">
-      <c r="B25" s="65"/>
-      <c r="C25" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="70">
+      <c r="B25" s="28"/>
+      <c r="C25" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="33">
         <v>3</v>
       </c>
-      <c r="E25" s="67">
+      <c r="E25" s="30">
         <v>3</v>
       </c>
-      <c r="F25" s="63">
+      <c r="F25" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="110">
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="73">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L25" s="111">
+      <c r="L25" s="74">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="M25" s="111">
+      <c r="M25" s="74">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="N25" s="118">
+      <c r="N25" s="81">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" ht="15" spans="2:14">
-      <c r="B26" s="76"/>
-      <c r="C26" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="78">
+      <c r="B26" s="39"/>
+      <c r="C26" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="41">
         <f t="shared" ref="D26:H26" si="12">SUM(D17:D25)</f>
         <v>37</v>
       </c>
-      <c r="E26" s="79">
+      <c r="E26" s="42">
         <f t="shared" si="12"/>
         <v>41</v>
       </c>
-      <c r="F26" s="80">
+      <c r="F26" s="43">
         <f t="shared" si="9"/>
         <v>-4</v>
       </c>
-      <c r="G26" s="81">
+      <c r="G26" s="44">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H26" s="81">
+      <c r="H26" s="44">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I26" s="81">
+      <c r="I26" s="44">
         <f t="shared" ref="I26:I35" si="13">G26-H26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="81">
+      <c r="J26" s="44">
         <f t="shared" ref="J26:M26" si="14">SUM(J17:J25)</f>
         <v>0</v>
       </c>
-      <c r="K26" s="113">
+      <c r="K26" s="76">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L26" s="81">
+      <c r="L26" s="44">
         <f t="shared" si="14"/>
         <v>37</v>
       </c>
-      <c r="M26" s="81">
+      <c r="M26" s="44">
         <f t="shared" si="14"/>
         <v>41</v>
       </c>
-      <c r="N26" s="114">
+      <c r="N26" s="77">
         <f t="shared" si="8"/>
         <v>1.10810810810811</v>
       </c>
     </row>
     <row r="27" ht="15"/>
     <row r="28" ht="15" spans="2:14">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="84" t="s">
+      <c r="D28" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I28" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="K28" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="L28" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="M28" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="N28" s="84" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="24">
         <v>4</v>
       </c>
-      <c r="F28" s="85" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="56" t="s">
+      <c r="E29" s="45">
         <v>6</v>
       </c>
-      <c r="H28" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="J28" s="97" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="L28" s="119" t="s">
-        <v>11</v>
-      </c>
-      <c r="M28" s="120" t="s">
-        <v>12</v>
-      </c>
-      <c r="N28" s="121" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14">
-      <c r="B29" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="61">
-        <v>4</v>
-      </c>
-      <c r="E29" s="82">
-        <v>6</v>
-      </c>
-      <c r="F29" s="63">
+      <c r="F29" s="26">
         <f t="shared" ref="F29:F38" si="15">D29-E29</f>
         <v>-2</v>
       </c>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64">
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J29" s="103"/>
-      <c r="K29" s="104">
+      <c r="J29" s="66"/>
+      <c r="K29" s="67">
         <f t="shared" ref="K29:K35" si="16">J29/M29*100%</f>
         <v>0</v>
       </c>
-      <c r="L29" s="105">
+      <c r="L29" s="68">
         <f t="shared" ref="L29:L37" si="17">D29+H29</f>
         <v>4</v>
       </c>
-      <c r="M29" s="106">
+      <c r="M29" s="69">
         <f>E29+H29</f>
         <v>6</v>
       </c>
-      <c r="N29" s="107">
+      <c r="N29" s="70">
         <f t="shared" ref="N29:N35" si="18">M29/L29*100%</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="65"/>
-      <c r="C30" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="67">
+      <c r="B30" s="28"/>
+      <c r="C30" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="30">
         <v>3</v>
       </c>
-      <c r="E30" s="62">
+      <c r="E30" s="25">
         <v>3</v>
       </c>
-      <c r="F30" s="63">
+      <c r="F30" s="26">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G30" s="68"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="68">
+      <c r="G30" s="31"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J30" s="109"/>
-      <c r="K30" s="104">
+      <c r="J30" s="72"/>
+      <c r="K30" s="67">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L30" s="105">
+      <c r="L30" s="68">
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
-      <c r="M30" s="106">
+      <c r="M30" s="69">
         <f t="shared" ref="M30:M35" si="19">E30+J30</f>
         <v>3</v>
       </c>
-      <c r="N30" s="107">
+      <c r="N30" s="70">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="65"/>
-      <c r="C31" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="67">
+      <c r="B31" s="28"/>
+      <c r="C31" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="30">
         <v>3</v>
       </c>
-      <c r="E31" s="62">
+      <c r="E31" s="25">
         <v>2</v>
       </c>
-      <c r="F31" s="63">
+      <c r="F31" s="26">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="G31" s="68"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="68">
+      <c r="G31" s="31"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J31" s="109"/>
-      <c r="K31" s="104">
+      <c r="J31" s="72"/>
+      <c r="K31" s="67">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L31" s="105">
+      <c r="L31" s="68">
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
-      <c r="M31" s="106">
+      <c r="M31" s="69">
         <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="N31" s="107">
+      <c r="N31" s="70">
         <f t="shared" si="18"/>
         <v>0.666666666666667</v>
       </c>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="65"/>
-      <c r="C32" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="62">
+      <c r="B32" s="28"/>
+      <c r="C32" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="25">
         <v>3</v>
       </c>
-      <c r="E32" s="62">
+      <c r="E32" s="25">
         <v>1</v>
       </c>
-      <c r="F32" s="63">
+      <c r="F32" s="26">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="G32" s="68"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="68">
+      <c r="G32" s="31"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J32" s="109"/>
-      <c r="K32" s="104">
+      <c r="J32" s="72"/>
+      <c r="K32" s="67">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L32" s="105">
+      <c r="L32" s="68">
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
-      <c r="M32" s="106">
+      <c r="M32" s="69">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="N32" s="107">
+      <c r="N32" s="70">
         <f t="shared" si="18"/>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="65"/>
-      <c r="C33" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="67">
+      <c r="B33" s="28"/>
+      <c r="C33" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="62">
+      <c r="D33" s="30">
         <v>6</v>
       </c>
-      <c r="F33" s="63">
+      <c r="E33" s="25">
+        <v>6</v>
+      </c>
+      <c r="F33" s="26">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G33" s="68"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="68">
+      <c r="G33" s="31"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J33" s="109"/>
-      <c r="K33" s="104">
+      <c r="J33" s="72"/>
+      <c r="K33" s="67">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L33" s="105">
+      <c r="L33" s="68">
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
-      <c r="M33" s="106">
+      <c r="M33" s="69">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="N33" s="107">
+      <c r="N33" s="70">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="65"/>
-      <c r="C34" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="67">
+      <c r="B34" s="28"/>
+      <c r="C34" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="30">
         <v>1</v>
       </c>
-      <c r="E34" s="62">
+      <c r="E34" s="25">
         <v>1</v>
       </c>
-      <c r="F34" s="63">
+      <c r="F34" s="26">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G34" s="68"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="68">
+      <c r="G34" s="31"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J34" s="109"/>
-      <c r="K34" s="104">
+      <c r="J34" s="72"/>
+      <c r="K34" s="67">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L34" s="105">
+      <c r="L34" s="68">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="M34" s="106">
+      <c r="M34" s="69">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="N34" s="107">
+      <c r="N34" s="70">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="65"/>
-      <c r="C35" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="83">
+      <c r="B35" s="28"/>
+      <c r="C35" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="46">
         <v>1</v>
       </c>
-      <c r="E35" s="62">
+      <c r="E35" s="25">
         <v>4</v>
       </c>
-      <c r="F35" s="63">
+      <c r="F35" s="26">
         <f t="shared" si="15"/>
         <v>-3</v>
       </c>
-      <c r="G35" s="68"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="68">
+      <c r="G35" s="31"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J35" s="109"/>
-      <c r="K35" s="104">
+      <c r="J35" s="72"/>
+      <c r="K35" s="67">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L35" s="105">
+      <c r="L35" s="68">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="M35" s="106">
+      <c r="M35" s="69">
         <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="N35" s="107">
+      <c r="N35" s="70">
         <f t="shared" si="18"/>
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="65"/>
-      <c r="C36" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="83">
+      <c r="B36" s="28"/>
+      <c r="C36" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="46">
         <v>1</v>
       </c>
-      <c r="E36" s="67">
+      <c r="E36" s="30">
         <v>1</v>
       </c>
-      <c r="F36" s="63">
+      <c r="F36" s="26">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G36" s="68"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="109"/>
-      <c r="K36" s="104"/>
-      <c r="L36" s="105">
+      <c r="G36" s="31"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="68">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="M36" s="106">
+      <c r="M36" s="69">
         <v>1</v>
       </c>
-      <c r="N36" s="116">
+      <c r="N36" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="37" ht="15" spans="2:14">
-      <c r="B37" s="65"/>
-      <c r="C37" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="70">
+      <c r="B37" s="28"/>
+      <c r="C37" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="33">
         <v>1</v>
       </c>
-      <c r="E37" s="67">
+      <c r="E37" s="30">
         <v>2</v>
       </c>
-      <c r="F37" s="63">
+      <c r="F37" s="26">
         <f t="shared" si="15"/>
         <v>-1</v>
       </c>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="109"/>
-      <c r="K37" s="110">
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="73">
         <f t="shared" ref="K37:K50" si="20">J37/M37*100%</f>
         <v>0</v>
       </c>
-      <c r="L37" s="111">
+      <c r="L37" s="74">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="M37" s="111">
+      <c r="M37" s="74">
         <f>E37+J37</f>
         <v>2</v>
       </c>
-      <c r="N37" s="118">
+      <c r="N37" s="81">
         <f t="shared" ref="N37:N47" si="21">M37/L37*100%</f>
         <v>2</v>
       </c>
     </row>
     <row r="38" ht="15" spans="2:14">
-      <c r="B38" s="76"/>
-      <c r="C38" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="78">
+      <c r="B38" s="39"/>
+      <c r="C38" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="41">
         <f t="shared" ref="D38:H38" si="22">SUM(D29:D37)</f>
         <v>23</v>
       </c>
-      <c r="E38" s="79">
+      <c r="E38" s="42">
         <f t="shared" si="22"/>
         <v>26</v>
       </c>
-      <c r="F38" s="80">
+      <c r="F38" s="43">
         <f t="shared" si="15"/>
         <v>-3</v>
       </c>
-      <c r="G38" s="81">
+      <c r="G38" s="44">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H38" s="81">
+      <c r="H38" s="44">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="I38" s="81">
+      <c r="I38" s="44">
         <f t="shared" ref="I38:I47" si="23">G38-H38</f>
         <v>0</v>
       </c>
-      <c r="J38" s="81">
+      <c r="J38" s="44">
         <f t="shared" ref="J38:M38" si="24">SUM(J29:J37)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="113">
+      <c r="K38" s="76">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L38" s="81">
+      <c r="L38" s="44">
         <f t="shared" si="24"/>
         <v>23</v>
       </c>
-      <c r="M38" s="81">
+      <c r="M38" s="44">
         <f t="shared" si="24"/>
         <v>26</v>
       </c>
-      <c r="N38" s="114">
+      <c r="N38" s="77">
         <f t="shared" si="21"/>
         <v>1.1304347826087</v>
       </c>
     </row>
     <row r="39" ht="15"/>
     <row r="40" ht="15" spans="2:14">
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="84" t="s">
+      <c r="D40" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I40" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="J40" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="K40" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="L40" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="M40" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="N40" s="84" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="24">
+        <v>5</v>
+      </c>
+      <c r="E41" s="45">
         <v>4</v>
       </c>
-      <c r="F40" s="85" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="J40" s="97" t="s">
-        <v>9</v>
-      </c>
-      <c r="K40" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="L40" s="119" t="s">
-        <v>11</v>
-      </c>
-      <c r="M40" s="120" t="s">
-        <v>12</v>
-      </c>
-      <c r="N40" s="121" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14">
-      <c r="B41" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="61">
-        <v>5</v>
-      </c>
-      <c r="E41" s="82">
-        <v>4</v>
-      </c>
-      <c r="F41" s="63">
+      <c r="F41" s="26">
         <f t="shared" ref="F41:F50" si="25">D41-E41</f>
         <v>1</v>
       </c>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64">
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J41" s="103"/>
-      <c r="K41" s="104">
+      <c r="J41" s="66"/>
+      <c r="K41" s="67">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L41" s="105">
+      <c r="L41" s="68">
         <f t="shared" ref="L41:L49" si="26">D41+H41</f>
         <v>5</v>
       </c>
-      <c r="M41" s="106">
+      <c r="M41" s="69">
         <f>E41+H41</f>
         <v>4</v>
       </c>
-      <c r="N41" s="107">
+      <c r="N41" s="70">
         <f t="shared" si="21"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="42" spans="2:14">
-      <c r="B42" s="65"/>
-      <c r="C42" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="67">
+      <c r="B42" s="28"/>
+      <c r="C42" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="30">
         <v>1</v>
       </c>
-      <c r="E42" s="62">
+      <c r="E42" s="25">
         <v>1</v>
       </c>
-      <c r="F42" s="63">
+      <c r="F42" s="26">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="G42" s="68"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="68">
+      <c r="G42" s="31"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J42" s="109"/>
-      <c r="K42" s="104">
+      <c r="J42" s="72"/>
+      <c r="K42" s="67">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L42" s="105">
+      <c r="L42" s="68">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="M42" s="106">
+      <c r="M42" s="69">
         <f t="shared" ref="M42:M49" si="27">E42+J42</f>
         <v>1</v>
       </c>
-      <c r="N42" s="107">
+      <c r="N42" s="70">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:14">
-      <c r="B43" s="65"/>
-      <c r="C43" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="67">
+      <c r="B43" s="28"/>
+      <c r="C43" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="30">
         <v>2</v>
       </c>
-      <c r="E43" s="62">
+      <c r="E43" s="25">
         <v>8</v>
       </c>
-      <c r="F43" s="63">
+      <c r="F43" s="26">
         <f t="shared" si="25"/>
         <v>-6</v>
       </c>
-      <c r="G43" s="68"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="68">
+      <c r="G43" s="31"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J43" s="109"/>
-      <c r="K43" s="104">
+      <c r="J43" s="72"/>
+      <c r="K43" s="67">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L43" s="105">
+      <c r="L43" s="68">
         <f t="shared" si="26"/>
         <v>2</v>
       </c>
-      <c r="M43" s="106">
+      <c r="M43" s="69">
         <f t="shared" si="27"/>
         <v>8</v>
       </c>
-      <c r="N43" s="107">
+      <c r="N43" s="70">
         <f t="shared" si="21"/>
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="2:14">
-      <c r="B44" s="65"/>
-      <c r="C44" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="67">
+      <c r="B44" s="28"/>
+      <c r="C44" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="30">
         <v>5</v>
       </c>
-      <c r="E44" s="62">
+      <c r="E44" s="25">
         <v>5</v>
       </c>
-      <c r="F44" s="63">
+      <c r="F44" s="26">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="G44" s="68"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="68">
+      <c r="G44" s="31"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J44" s="109"/>
-      <c r="K44" s="104">
+      <c r="J44" s="72"/>
+      <c r="K44" s="67">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L44" s="105">
+      <c r="L44" s="68">
         <f t="shared" si="26"/>
         <v>5</v>
       </c>
-      <c r="M44" s="106">
+      <c r="M44" s="69">
         <f t="shared" si="27"/>
         <v>5</v>
       </c>
-      <c r="N44" s="107">
+      <c r="N44" s="70">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:14">
-      <c r="B45" s="65"/>
-      <c r="C45" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="67">
+      <c r="B45" s="28"/>
+      <c r="C45" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="30">
         <v>4</v>
       </c>
-      <c r="E45" s="62">
+      <c r="E45" s="25">
         <v>7</v>
       </c>
-      <c r="F45" s="63">
+      <c r="F45" s="26">
         <f t="shared" si="25"/>
         <v>-3</v>
       </c>
-      <c r="G45" s="68"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="68">
+      <c r="G45" s="31"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J45" s="109"/>
-      <c r="K45" s="104">
+      <c r="J45" s="72"/>
+      <c r="K45" s="67">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L45" s="105">
+      <c r="L45" s="68">
         <f t="shared" si="26"/>
         <v>4</v>
       </c>
-      <c r="M45" s="106">
+      <c r="M45" s="69">
         <f t="shared" si="27"/>
         <v>7</v>
       </c>
-      <c r="N45" s="107">
+      <c r="N45" s="70">
         <f t="shared" si="21"/>
         <v>1.75</v>
       </c>
     </row>
     <row r="46" spans="2:14">
-      <c r="B46" s="65"/>
-      <c r="C46" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="67">
+      <c r="B46" s="28"/>
+      <c r="C46" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="30">
         <v>5</v>
       </c>
-      <c r="E46" s="62">
+      <c r="E46" s="25">
         <v>9</v>
       </c>
-      <c r="F46" s="63">
+      <c r="F46" s="26">
         <f t="shared" si="25"/>
         <v>-4</v>
       </c>
-      <c r="G46" s="68"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="68">
+      <c r="G46" s="31"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J46" s="109"/>
-      <c r="K46" s="104">
+      <c r="J46" s="72"/>
+      <c r="K46" s="67">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L46" s="105">
+      <c r="L46" s="68">
         <f t="shared" si="26"/>
         <v>5</v>
       </c>
-      <c r="M46" s="106">
+      <c r="M46" s="69">
         <f t="shared" si="27"/>
         <v>9</v>
       </c>
-      <c r="N46" s="107">
+      <c r="N46" s="70">
         <f t="shared" si="21"/>
         <v>1.8</v>
       </c>
     </row>
     <row r="47" spans="2:14">
-      <c r="B47" s="65"/>
-      <c r="C47" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="62">
-        <v>0</v>
-      </c>
-      <c r="E47" s="62">
+      <c r="B47" s="28"/>
+      <c r="C47" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="25">
+        <v>0</v>
+      </c>
+      <c r="E47" s="25">
         <v>2</v>
       </c>
-      <c r="F47" s="63">
+      <c r="F47" s="26">
         <f t="shared" si="25"/>
         <v>-2</v>
       </c>
-      <c r="G47" s="68"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="68">
+      <c r="G47" s="31"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J47" s="109"/>
-      <c r="K47" s="104">
+      <c r="J47" s="72"/>
+      <c r="K47" s="67">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L47" s="105">
+      <c r="L47" s="68">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="M47" s="106">
+      <c r="M47" s="69">
         <f t="shared" si="27"/>
         <v>2</v>
       </c>
-      <c r="N47" s="122" t="e">
+      <c r="N47" s="85" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="48" spans="2:14">
-      <c r="B48" s="65"/>
-      <c r="C48" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="83">
-        <v>0</v>
-      </c>
-      <c r="E48" s="67">
+      <c r="B48" s="28"/>
+      <c r="C48" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="46">
+        <v>0</v>
+      </c>
+      <c r="E48" s="30">
         <v>5</v>
       </c>
-      <c r="F48" s="63">
+      <c r="F48" s="26">
         <f t="shared" si="25"/>
         <v>-5</v>
       </c>
-      <c r="G48" s="68"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="109"/>
-      <c r="K48" s="104">
+      <c r="G48" s="31"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="67">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L48" s="105">
+      <c r="L48" s="68">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="M48" s="111">
+      <c r="M48" s="74">
         <f t="shared" si="27"/>
         <v>5</v>
       </c>
-      <c r="N48" s="122">
+      <c r="N48" s="85">
         <f>L48/M48</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" ht="15" spans="2:14">
-      <c r="B49" s="65"/>
-      <c r="C49" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="83">
+      <c r="B49" s="28"/>
+      <c r="C49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="46">
         <v>1</v>
       </c>
-      <c r="E49" s="67">
-        <v>0</v>
-      </c>
-      <c r="F49" s="63">
+      <c r="E49" s="30">
+        <v>0</v>
+      </c>
+      <c r="F49" s="26">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="G49" s="68"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="109"/>
-      <c r="K49" s="104" t="e">
+      <c r="G49" s="31"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="72"/>
+      <c r="K49" s="67" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L49" s="105">
+      <c r="L49" s="68">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="M49" s="106">
+      <c r="M49" s="69">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="N49" s="116" t="e">
+      <c r="N49" s="79" t="e">
         <f>L49/M49</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="50" ht="15" spans="2:14">
-      <c r="B50" s="76"/>
-      <c r="C50" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" s="78">
+      <c r="B50" s="39"/>
+      <c r="C50" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="41">
         <f t="shared" ref="D50:H50" si="28">SUM(D41:D49)</f>
         <v>23</v>
       </c>
-      <c r="E50" s="79">
+      <c r="E50" s="42">
         <f t="shared" si="28"/>
         <v>41</v>
       </c>
-      <c r="F50" s="80">
+      <c r="F50" s="43">
         <f t="shared" si="25"/>
         <v>-18</v>
       </c>
-      <c r="G50" s="81">
+      <c r="G50" s="44">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="H50" s="81">
+      <c r="H50" s="44">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="I50" s="81">
+      <c r="I50" s="44">
         <f t="shared" ref="I50:I59" si="29">G50-H50</f>
         <v>0</v>
       </c>
-      <c r="J50" s="81">
+      <c r="J50" s="44">
         <f t="shared" ref="J50:M50" si="30">SUM(J41:J49)</f>
         <v>0</v>
       </c>
-      <c r="K50" s="113">
+      <c r="K50" s="76">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L50" s="81">
+      <c r="L50" s="44">
         <f t="shared" si="30"/>
         <v>23</v>
       </c>
-      <c r="M50" s="81">
+      <c r="M50" s="44">
         <f t="shared" si="30"/>
         <v>41</v>
       </c>
-      <c r="N50" s="114">
+      <c r="N50" s="77">
         <f t="shared" ref="N50:N63" si="31">M50/L50*100%</f>
         <v>1.78260869565217</v>
       </c>
     </row>
     <row r="51" ht="15"/>
     <row r="52" ht="15" spans="2:14">
-      <c r="B52" s="53" t="s">
+      <c r="B52" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="53" t="s">
+      <c r="D52" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I52" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="J52" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="K52" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="L52" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="M52" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="N52" s="84" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="49">
+        <v>5</v>
+      </c>
+      <c r="E53" s="50">
         <v>2</v>
       </c>
-      <c r="D52" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="84" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="85" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="H52" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="I52" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="97" t="s">
-        <v>9</v>
-      </c>
-      <c r="K52" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="L52" s="119" t="s">
-        <v>11</v>
-      </c>
-      <c r="M52" s="120" t="s">
-        <v>12</v>
-      </c>
-      <c r="N52" s="121" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14">
-      <c r="B53" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="86">
-        <v>5</v>
-      </c>
-      <c r="E53" s="87">
-        <v>2</v>
-      </c>
-      <c r="F53" s="88">
+      <c r="F53" s="51">
         <f t="shared" ref="F53:F63" si="32">D53-E53</f>
         <v>3</v>
       </c>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64">
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J53" s="103"/>
-      <c r="K53" s="104">
+      <c r="J53" s="66"/>
+      <c r="K53" s="67">
         <f t="shared" ref="K53:K63" si="33">J53/M53*100%</f>
         <v>0</v>
       </c>
-      <c r="L53" s="105">
+      <c r="L53" s="68">
         <f t="shared" ref="L53:L62" si="34">D53+H53</f>
         <v>5</v>
       </c>
-      <c r="M53" s="106">
+      <c r="M53" s="69">
         <f>E53+H53</f>
         <v>2</v>
       </c>
-      <c r="N53" s="107">
+      <c r="N53" s="70">
         <f t="shared" si="31"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="54" spans="2:14">
-      <c r="B54" s="65"/>
-      <c r="C54" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" s="86">
+      <c r="B54" s="28"/>
+      <c r="C54" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="49">
         <v>4</v>
       </c>
-      <c r="E54" s="87">
+      <c r="E54" s="50">
         <v>1</v>
       </c>
-      <c r="F54" s="86">
+      <c r="F54" s="49">
         <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G54" s="68"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="68">
+      <c r="G54" s="31"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J54" s="109"/>
-      <c r="K54" s="104">
+      <c r="J54" s="72"/>
+      <c r="K54" s="67">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L54" s="105">
+      <c r="L54" s="68">
         <f t="shared" si="34"/>
         <v>4</v>
       </c>
-      <c r="M54" s="106">
+      <c r="M54" s="69">
         <f t="shared" ref="M54:M62" si="35">E54+J54</f>
         <v>1</v>
       </c>
-      <c r="N54" s="107">
+      <c r="N54" s="70">
         <f t="shared" si="31"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="55" spans="2:14">
-      <c r="B55" s="65"/>
-      <c r="C55" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="D55" s="86">
+      <c r="B55" s="28"/>
+      <c r="C55" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="49">
         <v>9</v>
       </c>
-      <c r="E55" s="63">
+      <c r="E55" s="26">
         <v>10</v>
       </c>
-      <c r="F55" s="86">
+      <c r="F55" s="49">
         <f t="shared" si="32"/>
         <v>-1</v>
       </c>
-      <c r="G55" s="68"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="68">
+      <c r="G55" s="31"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J55" s="109"/>
-      <c r="K55" s="104">
+      <c r="J55" s="72"/>
+      <c r="K55" s="67">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L55" s="105">
+      <c r="L55" s="68">
         <f t="shared" si="34"/>
         <v>9</v>
       </c>
-      <c r="M55" s="106">
+      <c r="M55" s="69">
         <f t="shared" si="35"/>
         <v>10</v>
       </c>
-      <c r="N55" s="107">
+      <c r="N55" s="70">
         <f t="shared" si="31"/>
         <v>1.11111111111111</v>
       </c>
     </row>
     <row r="56" spans="2:14">
-      <c r="B56" s="65"/>
-      <c r="C56" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="89">
+      <c r="B56" s="28"/>
+      <c r="C56" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="52">
         <v>8</v>
       </c>
-      <c r="E56" s="63">
+      <c r="E56" s="26">
         <v>5</v>
       </c>
-      <c r="F56" s="86">
+      <c r="F56" s="49">
         <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G56" s="68"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="68">
+      <c r="G56" s="31"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J56" s="109"/>
-      <c r="K56" s="104">
+      <c r="J56" s="72"/>
+      <c r="K56" s="67">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L56" s="105">
+      <c r="L56" s="68">
         <f t="shared" si="34"/>
         <v>8</v>
       </c>
-      <c r="M56" s="106">
+      <c r="M56" s="69">
         <f t="shared" si="35"/>
         <v>5</v>
       </c>
-      <c r="N56" s="107">
+      <c r="N56" s="70">
         <f t="shared" si="31"/>
         <v>0.625</v>
       </c>
     </row>
     <row r="57" spans="2:14">
-      <c r="B57" s="65"/>
-      <c r="C57" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="86">
+      <c r="B57" s="28"/>
+      <c r="C57" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="49">
         <v>8</v>
       </c>
-      <c r="E57" s="86">
+      <c r="E57" s="49">
         <v>10</v>
       </c>
-      <c r="F57" s="86">
+      <c r="F57" s="49">
         <f t="shared" si="32"/>
         <v>-2</v>
       </c>
-      <c r="G57" s="68"/>
-      <c r="H57" s="64"/>
-      <c r="I57" s="68">
+      <c r="G57" s="31"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J57" s="109"/>
-      <c r="K57" s="104">
+      <c r="J57" s="72"/>
+      <c r="K57" s="67">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L57" s="105">
+      <c r="L57" s="68">
         <f t="shared" si="34"/>
         <v>8</v>
       </c>
-      <c r="M57" s="106">
+      <c r="M57" s="69">
         <f t="shared" si="35"/>
         <v>10</v>
       </c>
-      <c r="N57" s="107">
+      <c r="N57" s="70">
         <f t="shared" si="31"/>
         <v>1.25</v>
       </c>
     </row>
     <row r="58" spans="2:14">
-      <c r="B58" s="65"/>
-      <c r="C58" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="D58" s="86">
+      <c r="B58" s="28"/>
+      <c r="C58" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="49">
         <v>6</v>
       </c>
-      <c r="E58" s="87">
+      <c r="E58" s="50">
         <v>9</v>
       </c>
-      <c r="F58" s="86">
+      <c r="F58" s="49">
         <f t="shared" si="32"/>
         <v>-3</v>
       </c>
-      <c r="G58" s="68"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="68">
+      <c r="G58" s="31"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J58" s="109"/>
-      <c r="K58" s="104">
+      <c r="J58" s="72"/>
+      <c r="K58" s="67">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L58" s="105">
+      <c r="L58" s="68">
         <f t="shared" si="34"/>
         <v>6</v>
       </c>
-      <c r="M58" s="106">
+      <c r="M58" s="69">
         <f t="shared" si="35"/>
         <v>9</v>
       </c>
-      <c r="N58" s="107">
+      <c r="N58" s="70">
         <f t="shared" si="31"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="59" spans="2:14">
-      <c r="B59" s="65"/>
-      <c r="C59" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="89">
+      <c r="B59" s="28"/>
+      <c r="C59" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="52">
         <v>8</v>
       </c>
-      <c r="E59" s="87">
+      <c r="E59" s="50">
         <v>16</v>
       </c>
-      <c r="F59" s="86">
+      <c r="F59" s="49">
         <f t="shared" si="32"/>
         <v>-8</v>
       </c>
-      <c r="G59" s="68"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="68">
+      <c r="G59" s="31"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="31">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J59" s="109"/>
-      <c r="K59" s="104">
+      <c r="J59" s="72"/>
+      <c r="K59" s="67">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L59" s="105">
+      <c r="L59" s="68">
         <f t="shared" si="34"/>
         <v>8</v>
       </c>
-      <c r="M59" s="106">
+      <c r="M59" s="69">
         <f t="shared" si="35"/>
         <v>16</v>
       </c>
-      <c r="N59" s="107">
+      <c r="N59" s="70">
         <f t="shared" si="31"/>
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="2:14">
-      <c r="B60" s="65"/>
-      <c r="C60" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="89">
+      <c r="B60" s="28"/>
+      <c r="C60" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="52">
         <v>1</v>
       </c>
-      <c r="E60" s="63">
+      <c r="E60" s="26">
         <v>7</v>
       </c>
-      <c r="F60" s="86">
+      <c r="F60" s="49">
         <f t="shared" si="32"/>
         <v>-6</v>
       </c>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="109"/>
-      <c r="K60" s="110">
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="72"/>
+      <c r="K60" s="73">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L60" s="111">
+      <c r="L60" s="74">
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="M60" s="111">
+      <c r="M60" s="74">
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
-      <c r="N60" s="122">
+      <c r="N60" s="85">
         <f t="shared" si="31"/>
         <v>7</v>
       </c>
     </row>
     <row r="61" spans="2:14">
-      <c r="B61" s="72"/>
-      <c r="C61" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="89">
-        <v>0</v>
-      </c>
-      <c r="E61" s="63">
-        <v>0</v>
-      </c>
-      <c r="F61" s="87">
+      <c r="B61" s="35"/>
+      <c r="C61" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="52">
+        <v>0</v>
+      </c>
+      <c r="E61" s="26">
+        <v>0</v>
+      </c>
+      <c r="F61" s="50">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="G61" s="68"/>
-      <c r="H61" s="68"/>
-      <c r="I61" s="68"/>
-      <c r="J61" s="109"/>
-      <c r="K61" s="110" t="e">
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="72"/>
+      <c r="K61" s="73" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L61" s="111">
+      <c r="L61" s="74">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="M61" s="111">
+      <c r="M61" s="74">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="N61" s="122" t="e">
+      <c r="N61" s="85" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="62" spans="2:14">
-      <c r="B62" s="72"/>
-      <c r="C62" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" s="90">
+      <c r="B62" s="35"/>
+      <c r="C62" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="53">
         <v>9</v>
       </c>
-      <c r="E62" s="63">
+      <c r="E62" s="26">
         <v>9</v>
       </c>
-      <c r="F62" s="63">
+      <c r="F62" s="26">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="G62" s="68"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68">
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31">
         <f>G62-H62</f>
         <v>0</v>
       </c>
-      <c r="J62" s="109"/>
-      <c r="K62" s="110">
+      <c r="J62" s="72"/>
+      <c r="K62" s="73">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L62" s="111">
+      <c r="L62" s="74">
         <f t="shared" si="34"/>
         <v>9</v>
       </c>
-      <c r="M62" s="111">
+      <c r="M62" s="74">
         <f t="shared" si="35"/>
         <v>9</v>
       </c>
-      <c r="N62" s="122">
+      <c r="N62" s="85">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
     </row>
     <row r="63" ht="15" spans="2:14">
-      <c r="B63" s="91"/>
-      <c r="C63" s="92" t="s">
-        <v>26</v>
-      </c>
-      <c r="D63" s="93">
+      <c r="B63" s="54"/>
+      <c r="C63" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="56">
         <f t="shared" ref="D63:H63" si="36">SUM(D53:D62)</f>
         <v>58</v>
       </c>
-      <c r="E63" s="93">
+      <c r="E63" s="56">
         <f t="shared" si="36"/>
         <v>69</v>
       </c>
-      <c r="F63" s="94">
+      <c r="F63" s="57">
         <f t="shared" si="32"/>
         <v>-11</v>
       </c>
-      <c r="G63" s="93">
+      <c r="G63" s="56">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H63" s="93">
+      <c r="H63" s="56">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="I63" s="93">
+      <c r="I63" s="56">
         <f>G63-H63</f>
         <v>0</v>
       </c>
-      <c r="J63" s="93">
+      <c r="J63" s="56">
         <f t="shared" ref="J63:M63" si="37">SUM(J53:J62)</f>
         <v>0</v>
       </c>
-      <c r="K63" s="123">
+      <c r="K63" s="86">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L63" s="93">
+      <c r="L63" s="56">
         <f t="shared" si="37"/>
         <v>58</v>
       </c>
-      <c r="M63" s="93">
+      <c r="M63" s="56">
         <f t="shared" si="37"/>
         <v>69</v>
       </c>
-      <c r="N63" s="124">
+      <c r="N63" s="87">
         <f t="shared" si="31"/>
         <v>1.18965517241379</v>
       </c>
     </row>
     <row r="64" ht="15"/>
     <row r="65" ht="15" spans="2:14">
-      <c r="B65" s="53" t="s">
+      <c r="B65" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="53" t="s">
+      <c r="D65" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E65" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="F65" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H65" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I65" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="J65" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="K65" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="L65" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="M65" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="N65" s="84" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14">
+      <c r="B66" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="49">
+        <v>1</v>
+      </c>
+      <c r="E66" s="50">
         <v>2</v>
       </c>
-      <c r="D65" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="84" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65" s="85" t="s">
-        <v>5</v>
-      </c>
-      <c r="G65" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="H65" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="I65" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="J65" s="97" t="s">
-        <v>9</v>
-      </c>
-      <c r="K65" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="L65" s="119" t="s">
-        <v>11</v>
-      </c>
-      <c r="M65" s="120" t="s">
-        <v>12</v>
-      </c>
-      <c r="N65" s="121" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14">
-      <c r="B66" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="C66" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66" s="86">
-        <v>0</v>
-      </c>
-      <c r="E66" s="87">
-        <v>2</v>
-      </c>
-      <c r="F66" s="88">
+      <c r="F66" s="51">
         <f>D66-E66</f>
-        <v>-2</v>
-      </c>
-      <c r="G66" s="64"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="64">
+        <v>-1</v>
+      </c>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27">
         <f t="shared" ref="I66:I72" si="38">G66-H66</f>
         <v>0</v>
       </c>
-      <c r="J66" s="103"/>
-      <c r="K66" s="104">
+      <c r="J66" s="66"/>
+      <c r="K66" s="67">
         <f t="shared" ref="K66:K76" si="39">J66/M66*100%</f>
         <v>0</v>
       </c>
-      <c r="L66" s="105">
+      <c r="L66" s="68">
         <f t="shared" ref="L66:L75" si="40">D66+H66</f>
-        <v>0</v>
-      </c>
-      <c r="M66" s="106">
+        <v>1</v>
+      </c>
+      <c r="M66" s="69">
         <f>E66+H66</f>
         <v>2</v>
       </c>
-      <c r="N66" s="107" t="e">
+      <c r="N66" s="70">
         <f t="shared" ref="N66:N76" si="41">M66/L66*100%</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="2:14">
-      <c r="B67" s="65"/>
-      <c r="C67" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="D67" s="86">
-        <v>0</v>
-      </c>
-      <c r="E67" s="87">
+      <c r="B67" s="28"/>
+      <c r="C67" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="49">
+        <v>0</v>
+      </c>
+      <c r="E67" s="50">
         <v>3</v>
       </c>
-      <c r="F67" s="88">
+      <c r="F67" s="51">
         <f t="shared" ref="F67:F75" si="42">D67-E67</f>
         <v>-3</v>
       </c>
-      <c r="G67" s="68"/>
-      <c r="H67" s="64"/>
-      <c r="I67" s="68">
+      <c r="G67" s="31"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="31">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="J67" s="109"/>
-      <c r="K67" s="104">
+      <c r="J67" s="72"/>
+      <c r="K67" s="67">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="L67" s="105">
+      <c r="L67" s="68">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="M67" s="106">
+      <c r="M67" s="69">
         <f t="shared" ref="M67:M75" si="43">E67+J67</f>
         <v>3</v>
       </c>
-      <c r="N67" s="107" t="e">
+      <c r="N67" s="70" t="e">
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="68" spans="2:14">
-      <c r="B68" s="65"/>
-      <c r="C68" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="D68" s="86">
+      <c r="B68" s="28"/>
+      <c r="C68" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="49">
+        <v>9</v>
+      </c>
+      <c r="E68" s="50">
+        <v>5</v>
+      </c>
+      <c r="F68" s="51">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="G68" s="31"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="31">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="72"/>
+      <c r="K68" s="67">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="68">
+        <f t="shared" si="40"/>
+        <v>9</v>
+      </c>
+      <c r="M68" s="69">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+      <c r="N68" s="70">
+        <f t="shared" si="41"/>
+        <v>0.555555555555556</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14">
+      <c r="B69" s="28"/>
+      <c r="C69" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E68" s="87">
+      <c r="D69" s="49">
         <v>4</v>
       </c>
-      <c r="F68" s="88">
+      <c r="E69" s="50">
+        <v>7</v>
+      </c>
+      <c r="F69" s="51">
         <f t="shared" si="42"/>
-        <v>2</v>
-      </c>
-      <c r="G68" s="68"/>
-      <c r="H68" s="64"/>
-      <c r="I68" s="68">
+        <v>-3</v>
+      </c>
+      <c r="G69" s="31"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="31">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="J68" s="109"/>
-      <c r="K68" s="104">
+      <c r="J69" s="72"/>
+      <c r="K69" s="67">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="L68" s="105">
+      <c r="L69" s="68">
+        <f t="shared" si="40"/>
+        <v>4</v>
+      </c>
+      <c r="M69" s="69">
+        <f t="shared" si="43"/>
+        <v>7</v>
+      </c>
+      <c r="N69" s="70">
+        <f t="shared" si="41"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14">
+      <c r="B70" s="28"/>
+      <c r="C70" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="49">
+        <v>10</v>
+      </c>
+      <c r="E70" s="50">
+        <v>6</v>
+      </c>
+      <c r="F70" s="51">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="G70" s="31"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="31">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="72"/>
+      <c r="K70" s="67">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="68">
+        <f t="shared" si="40"/>
+        <v>10</v>
+      </c>
+      <c r="M70" s="69">
+        <f t="shared" si="43"/>
+        <v>6</v>
+      </c>
+      <c r="N70" s="70">
+        <f t="shared" si="41"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14">
+      <c r="B71" s="28"/>
+      <c r="C71" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="49">
+        <v>3</v>
+      </c>
+      <c r="E71" s="50">
+        <v>5</v>
+      </c>
+      <c r="F71" s="51">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="G71" s="31"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="31">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="72"/>
+      <c r="K71" s="67">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="68">
+        <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="M71" s="69">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+      <c r="N71" s="70">
+        <f t="shared" si="41"/>
+        <v>1.66666666666667</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14">
+      <c r="B72" s="28"/>
+      <c r="C72" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="49">
+        <v>5</v>
+      </c>
+      <c r="E72" s="50">
+        <v>12</v>
+      </c>
+      <c r="F72" s="51">
+        <f t="shared" si="42"/>
+        <v>-7</v>
+      </c>
+      <c r="G72" s="31"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="31">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="72"/>
+      <c r="K72" s="67">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="68">
+        <f t="shared" si="40"/>
+        <v>5</v>
+      </c>
+      <c r="M72" s="69">
+        <f t="shared" si="43"/>
+        <v>12</v>
+      </c>
+      <c r="N72" s="70">
+        <f t="shared" si="41"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14">
+      <c r="B73" s="28"/>
+      <c r="C73" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="49">
+        <v>6</v>
+      </c>
+      <c r="E73" s="50">
+        <v>3</v>
+      </c>
+      <c r="F73" s="51">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="72"/>
+      <c r="K73" s="73">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="74">
         <f t="shared" si="40"/>
         <v>6</v>
       </c>
-      <c r="M68" s="106">
+      <c r="M73" s="74">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+      <c r="N73" s="85">
+        <f t="shared" si="41"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14">
+      <c r="B74" s="35"/>
+      <c r="C74" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D74" s="49">
+        <v>0</v>
+      </c>
+      <c r="E74" s="50">
+        <v>0</v>
+      </c>
+      <c r="F74" s="51">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="72"/>
+      <c r="K74" s="73" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L74" s="74">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="74">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N74" s="85" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14">
+      <c r="B75" s="35"/>
+      <c r="C75" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="49">
+        <v>3</v>
+      </c>
+      <c r="E75" s="50">
+        <v>4</v>
+      </c>
+      <c r="F75" s="51">
+        <f t="shared" si="42"/>
+        <v>-1</v>
+      </c>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31">
+        <f>G75-H75</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="72"/>
+      <c r="K75" s="73">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="74">
+        <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="M75" s="74">
         <f t="shared" si="43"/>
         <v>4</v>
       </c>
-      <c r="N68" s="107">
-        <f t="shared" si="41"/>
-        <v>0.666666666666667</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14">
-      <c r="B69" s="65"/>
-      <c r="C69" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" s="86">
-        <v>4</v>
-      </c>
-      <c r="E69" s="87">
-        <v>7</v>
-      </c>
-      <c r="F69" s="88">
-        <f t="shared" si="42"/>
-        <v>-3</v>
-      </c>
-      <c r="G69" s="68"/>
-      <c r="H69" s="64"/>
-      <c r="I69" s="68">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="109"/>
-      <c r="K69" s="104">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="L69" s="105">
-        <f t="shared" si="40"/>
-        <v>4</v>
-      </c>
-      <c r="M69" s="106">
-        <f t="shared" si="43"/>
-        <v>7</v>
-      </c>
-      <c r="N69" s="107">
-        <f t="shared" si="41"/>
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14">
-      <c r="B70" s="65"/>
-      <c r="C70" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" s="86">
-        <v>9</v>
-      </c>
-      <c r="E70" s="87">
-        <v>5</v>
-      </c>
-      <c r="F70" s="88">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="G70" s="68"/>
-      <c r="H70" s="64"/>
-      <c r="I70" s="68">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="109"/>
-      <c r="K70" s="104">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="L70" s="105">
-        <f t="shared" si="40"/>
-        <v>9</v>
-      </c>
-      <c r="M70" s="106">
-        <f t="shared" si="43"/>
-        <v>5</v>
-      </c>
-      <c r="N70" s="107">
-        <f t="shared" si="41"/>
-        <v>0.555555555555556</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14">
-      <c r="B71" s="65"/>
-      <c r="C71" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="D71" s="86">
-        <v>3</v>
-      </c>
-      <c r="E71" s="87">
-        <v>5</v>
-      </c>
-      <c r="F71" s="88">
-        <f t="shared" si="42"/>
-        <v>-2</v>
-      </c>
-      <c r="G71" s="68"/>
-      <c r="H71" s="64"/>
-      <c r="I71" s="68">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J71" s="109"/>
-      <c r="K71" s="104">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="L71" s="105">
-        <f t="shared" si="40"/>
-        <v>3</v>
-      </c>
-      <c r="M71" s="106">
-        <f t="shared" si="43"/>
-        <v>5</v>
-      </c>
-      <c r="N71" s="107">
-        <f t="shared" si="41"/>
-        <v>1.66666666666667</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14">
-      <c r="B72" s="65"/>
-      <c r="C72" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72" s="86">
-        <v>5</v>
-      </c>
-      <c r="E72" s="87">
-        <v>12</v>
-      </c>
-      <c r="F72" s="88">
-        <f t="shared" si="42"/>
-        <v>-7</v>
-      </c>
-      <c r="G72" s="68"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="68">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J72" s="109"/>
-      <c r="K72" s="104">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="L72" s="105">
-        <f t="shared" si="40"/>
-        <v>5</v>
-      </c>
-      <c r="M72" s="106">
-        <f t="shared" si="43"/>
-        <v>12</v>
-      </c>
-      <c r="N72" s="107">
-        <f t="shared" si="41"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14">
-      <c r="B73" s="65"/>
-      <c r="C73" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D73" s="86">
-        <v>5</v>
-      </c>
-      <c r="E73" s="87">
-        <v>3</v>
-      </c>
-      <c r="F73" s="88">
-        <f t="shared" si="42"/>
-        <v>2</v>
-      </c>
-      <c r="G73" s="68"/>
-      <c r="H73" s="68"/>
-      <c r="I73" s="68"/>
-      <c r="J73" s="109"/>
-      <c r="K73" s="110">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="L73" s="111">
-        <f t="shared" si="40"/>
-        <v>5</v>
-      </c>
-      <c r="M73" s="111">
-        <f t="shared" si="43"/>
-        <v>3</v>
-      </c>
-      <c r="N73" s="122">
-        <f t="shared" si="41"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14">
-      <c r="B74" s="72"/>
-      <c r="C74" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="86">
-        <v>0</v>
-      </c>
-      <c r="E74" s="87">
-        <v>0</v>
-      </c>
-      <c r="F74" s="88">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="68"/>
-      <c r="H74" s="68"/>
-      <c r="I74" s="68"/>
-      <c r="J74" s="109"/>
-      <c r="K74" s="110" t="e">
-        <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L74" s="111">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="M74" s="111">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="N74" s="122" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14">
-      <c r="B75" s="72"/>
-      <c r="C75" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="D75" s="86">
-        <v>3</v>
-      </c>
-      <c r="E75" s="87">
-        <v>4</v>
-      </c>
-      <c r="F75" s="88">
-        <f t="shared" si="42"/>
-        <v>-1</v>
-      </c>
-      <c r="G75" s="68"/>
-      <c r="H75" s="68"/>
-      <c r="I75" s="68">
-        <f>G75-H75</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="109"/>
-      <c r="K75" s="110">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="L75" s="111">
-        <f t="shared" si="40"/>
-        <v>3</v>
-      </c>
-      <c r="M75" s="111">
-        <f t="shared" si="43"/>
-        <v>4</v>
-      </c>
-      <c r="N75" s="122">
+      <c r="N75" s="85">
         <f t="shared" si="41"/>
         <v>1.33333333333333</v>
       </c>
     </row>
     <row r="76" ht="15" spans="2:14">
-      <c r="B76" s="91"/>
-      <c r="C76" s="92" t="s">
-        <v>26</v>
-      </c>
-      <c r="D76" s="93">
+      <c r="B76" s="54"/>
+      <c r="C76" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" s="56">
         <f>SUM(D66:D75)</f>
-        <v>35</v>
-      </c>
-      <c r="E76" s="93">
+        <v>41</v>
+      </c>
+      <c r="E76" s="56">
         <f>SUM(E66:E75)</f>
-        <v>45</v>
-      </c>
-      <c r="F76" s="94">
+        <v>47</v>
+      </c>
+      <c r="F76" s="57">
         <v>-18</v>
       </c>
-      <c r="G76" s="93">
+      <c r="G76" s="56">
         <f>SUM(G66:G75)</f>
         <v>0</v>
       </c>
-      <c r="H76" s="93">
+      <c r="H76" s="56">
         <f>SUM(H66:H75)</f>
         <v>0</v>
       </c>
-      <c r="I76" s="93">
+      <c r="I76" s="56">
         <f>G76-H76</f>
         <v>0</v>
       </c>
-      <c r="J76" s="93">
+      <c r="J76" s="56">
         <f>SUM(J66:J75)</f>
         <v>0</v>
       </c>
-      <c r="K76" s="123">
+      <c r="K76" s="86">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="L76" s="93">
+      <c r="L76" s="56">
         <f>SUM(L66:L75)</f>
-        <v>35</v>
-      </c>
-      <c r="M76" s="93">
+        <v>41</v>
+      </c>
+      <c r="M76" s="56">
         <f>SUM(M66:M75)</f>
-        <v>45</v>
-      </c>
-      <c r="N76" s="124">
+        <v>47</v>
+      </c>
+      <c r="N76" s="87">
         <f t="shared" si="41"/>
-        <v>1.28571428571429</v>
+        <v>1.14634146341463</v>
       </c>
     </row>
   </sheetData>
@@ -5462,632 +6154,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K95"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9.125" style="13"/>
-    <col min="2" max="2" width="9.875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="59.25" style="14" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" spans="1:5">
-      <c r="A1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="21">
-        <v>43190</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="21">
-        <v>43190</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="22"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="21">
-        <v>43191</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="22"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="29">
-        <v>43191</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="22"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="29">
-        <v>43195</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="27"/>
-      <c r="B7" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="21">
-        <v>43196</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="27"/>
-      <c r="B8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="21">
-        <v>43197</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="27"/>
-      <c r="B9" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="33">
-        <v>43197</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="27"/>
-      <c r="B10" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="33">
-        <v>43197</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="27"/>
-      <c r="B11" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="22"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="27"/>
-      <c r="B12" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="21">
-        <v>43204</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="27"/>
-      <c r="B13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="21">
-        <v>43204</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="27"/>
-      <c r="B14" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="21">
-        <v>43204</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="27"/>
-      <c r="B15" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="21">
-        <v>43205</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="27"/>
-      <c r="B16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="21">
-        <v>43205</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="27"/>
-      <c r="B17" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="21">
-        <v>43211</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="27"/>
-      <c r="B18" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="21">
-        <v>43211</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="22"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="27"/>
-      <c r="B19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="21">
-        <v>43211</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="27"/>
-      <c r="B20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="21">
-        <v>43212</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="22"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="27"/>
-      <c r="B21" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="42">
-        <v>43219</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="27"/>
-      <c r="B22" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="42">
-        <v>43219</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="27"/>
-      <c r="B23" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="29">
-        <v>43220</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="27"/>
-      <c r="B24" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="29">
-        <v>43220</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="27"/>
-      <c r="B25" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="29">
-        <v>43220</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="44">
-        <v>43220</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="44">
-        <v>43221</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="23"/>
-      <c r="B28" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="44">
-        <v>43221</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="44">
-        <v>43221</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="48"/>
-      <c r="B30" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="29">
-        <v>43221</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="48"/>
-      <c r="B31" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="29">
-        <v>43225</v>
-      </c>
-      <c r="D31" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="22"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="48"/>
-      <c r="B32" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="29">
-        <v>43225</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="22"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="48"/>
-      <c r="B33" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="29">
-        <v>43225</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="22"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="48"/>
-      <c r="B34" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="29">
-        <v>43226</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="22"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="37"/>
-      <c r="B35" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="29">
-        <v>43232</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="22"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="37"/>
-      <c r="B36" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="29">
-        <v>43239</v>
-      </c>
-      <c r="D36" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="22"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="37"/>
-      <c r="B37" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="29">
-        <v>43240</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="22"/>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="44">
-        <v>43240</v>
-      </c>
-      <c r="D38" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="22"/>
-    </row>
-    <row r="39" ht="15.95" customHeight="1" spans="5:5">
-      <c r="E39" s="22"/>
-    </row>
-    <row r="40" spans="5:5">
-      <c r="E40" s="22"/>
-    </row>
-    <row r="41" spans="5:5">
-      <c r="E41" s="22"/>
-    </row>
-    <row r="42" spans="5:5">
-      <c r="E42" s="22"/>
-    </row>
-    <row r="43" spans="5:5">
-      <c r="E43" s="22"/>
-    </row>
-    <row r="44" spans="5:5">
-      <c r="E44" s="22"/>
-    </row>
-    <row r="45" spans="5:5">
-      <c r="E45" s="22"/>
-    </row>
-    <row r="46" spans="5:5">
-      <c r="E46" s="22"/>
-    </row>
-    <row r="93" spans="11:11">
-      <c r="K93" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="94" spans="11:11">
-      <c r="K94" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="95" spans="11:11">
-      <c r="K95" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A28"/>
-    <mergeCell ref="A29:A35"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E38">
-      <formula1>$K$93:$K$95</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E39:E42">
-      <formula1>$G$3:$G$5</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -6095,7 +6167,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6106,25 +6178,25 @@
     </row>
     <row r="2" ht="40.5" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="24" spans="1:7">
@@ -6132,22 +6204,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F3" s="7">
         <v>43068</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" ht="24" spans="1:7">
@@ -6155,22 +6227,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" ht="36" spans="1:7">
@@ -6178,14 +6250,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F5" s="7">
         <v>42985</v>
@@ -6197,14 +6269,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F6" s="7">
         <v>42986</v>
@@ -6216,20 +6288,20 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" ht="36" spans="1:7">
@@ -6237,22 +6309,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D8" s="6">
         <v>4</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" ht="36" spans="1:7">
@@ -6260,22 +6332,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D9" s="6">
         <v>4</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F9" s="8">
         <v>43033</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" ht="60" spans="1:7">
@@ -6283,20 +6355,20 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D10" s="6">
         <v>3.5</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" ht="60" spans="1:7">
@@ -6304,20 +6376,20 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D11" s="5">
         <v>8</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" ht="48" spans="1:7">
@@ -6325,20 +6397,20 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D12" s="5">
         <v>1.5</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" ht="36" spans="1:7">
@@ -6346,20 +6418,20 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D13" s="5">
         <v>8</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" ht="36" spans="1:7">
@@ -6367,16 +6439,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D14" s="5">
         <v>7</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -6386,20 +6458,20 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D15" s="5">
         <v>4.5</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" ht="36" spans="1:7">
@@ -6407,20 +6479,20 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D16" s="5">
         <v>9</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" ht="60" spans="1:7">
@@ -6428,22 +6500,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D17" s="5">
         <v>8</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" ht="48" spans="1:7">
@@ -6451,22 +6523,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D18" s="5">
         <v>8.5</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" ht="48" spans="1:7">
@@ -6474,22 +6546,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D19" s="5">
         <v>6.5</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" ht="36" spans="1:7">
@@ -6497,22 +6569,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D20" s="5">
         <v>4</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F20" s="7">
         <v>43035</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" ht="36" spans="1:7">
@@ -6520,14 +6592,14 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C21" s="10">
         <v>43050</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F21" s="7">
         <v>43052</v>
@@ -6539,14 +6611,14 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C22" s="10">
         <v>43051</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7">
         <v>43061</v>
@@ -6558,14 +6630,14 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C23" s="10">
         <v>43050</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -6575,14 +6647,14 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C24" s="10">
         <v>43079</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -6592,14 +6664,14 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C25" s="10">
         <v>43071</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F25" s="7">
         <v>43087</v>
@@ -6611,16 +6683,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D26" s="5">
         <v>5</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="5"/>
@@ -6630,14 +6702,14 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C27" s="10">
         <v>43086</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="5"/>
@@ -6647,16 +6719,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D28" s="5">
         <v>5</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="5"/>
@@ -6666,14 +6738,14 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C29" s="10">
         <v>43085</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="5"/>
@@ -6683,14 +6755,14 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="C30" s="10">
         <v>43086</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="5"/>
@@ -6700,14 +6772,14 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C31" s="10">
         <v>43085</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="5"/>
@@ -6717,14 +6789,14 @@
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C32" s="10">
         <v>43092</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="5"/>
@@ -6734,14 +6806,14 @@
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C33" s="10">
         <v>43092</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="5"/>
@@ -6751,14 +6823,14 @@
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C34" s="10">
         <v>43093</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="5"/>
@@ -6768,14 +6840,14 @@
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C35" s="10">
         <v>43092</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="5"/>
@@ -6785,14 +6857,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C36" s="10">
         <v>43464</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F36" s="7">
         <v>43166</v>
@@ -6804,17 +6876,17 @@
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C37" s="10">
         <v>43101</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G37" s="5"/>
     </row>
@@ -6823,14 +6895,14 @@
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C38" s="10">
         <v>43113</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="5"/>
@@ -6840,14 +6912,14 @@
         <v>37</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C39" s="10">
         <v>43120</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F39" s="7">
         <v>43153</v>
@@ -6859,14 +6931,14 @@
         <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C40" s="10">
         <v>43127</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="5"/>
@@ -6876,14 +6948,14 @@
         <v>39</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C41" s="10">
         <v>43128</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F41" s="7">
         <v>43143</v>
@@ -6895,14 +6967,14 @@
         <v>40</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C42" s="10">
         <v>43127</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F42" s="7">
         <v>43143</v>
@@ -6914,14 +6986,14 @@
         <v>41</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C43" s="10">
         <v>43128</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="5"/>
@@ -6931,14 +7003,14 @@
         <v>42</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C44" s="10">
         <v>43144</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="5"/>
@@ -6948,14 +7020,14 @@
         <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C45" s="10">
         <v>43163</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F45" s="7">
         <v>43168</v>
@@ -6967,14 +7039,14 @@
         <v>44</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C46" s="10">
         <v>43176</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F46" s="7">
         <v>43185</v>
@@ -6986,14 +7058,14 @@
         <v>45</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C47" s="10">
         <v>43183</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F47" s="7">
         <v>43198</v>
@@ -7005,14 +7077,14 @@
         <v>46</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C48" s="10">
         <v>43190</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="5"/>
@@ -7022,14 +7094,14 @@
         <v>47</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C49" s="10">
         <v>43190</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="5"/>
@@ -7039,14 +7111,14 @@
         <v>48</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C50" s="10">
         <v>43191</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="5"/>
@@ -7056,14 +7128,14 @@
         <v>49</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C51" s="10">
         <v>43191</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F51" s="7">
         <v>43218</v>
@@ -7075,17 +7147,17 @@
         <v>50</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C52" s="10">
         <v>43195</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G52" s="5"/>
     </row>
@@ -7094,14 +7166,14 @@
         <v>51</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C53" s="10">
         <v>43197</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F53" s="7">
         <v>43222</v>
@@ -7113,14 +7185,14 @@
         <v>52</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C54" s="10">
         <v>43197</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="5"/>
@@ -7130,14 +7202,14 @@
         <v>53</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C55" s="10">
         <v>43204</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="5"/>
@@ -7147,14 +7219,14 @@
         <v>54</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="5"/>
@@ -7164,14 +7236,14 @@
         <v>55</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C57" s="10">
         <v>43204</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F57" s="7">
         <v>43227</v>
@@ -7183,14 +7255,14 @@
         <v>56</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C58" s="10">
         <v>43204</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F58" s="7">
         <v>43234</v>
@@ -7202,14 +7274,14 @@
         <v>57</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C59" s="10">
         <v>43205</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="6" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="5"/>
@@ -7219,14 +7291,14 @@
         <v>58</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C60" s="10">
         <v>43205</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="6" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F60" s="7">
         <v>43228</v>
@@ -7238,14 +7310,14 @@
         <v>59</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C61" s="10">
         <v>43211</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="5"/>
@@ -7255,14 +7327,14 @@
         <v>60</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C62" s="10">
         <v>43211</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="6" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F62" s="7">
         <v>43235</v>
@@ -7274,14 +7346,14 @@
         <v>61</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C63" s="10">
         <v>43211</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="5"/>
@@ -7291,14 +7363,14 @@
         <v>62</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C64" s="10">
         <v>43212</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="5"/>
@@ -7308,14 +7380,14 @@
         <v>63</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C65" s="10">
         <v>43219</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="5"/>
@@ -7325,14 +7397,14 @@
         <v>64</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C66" s="10">
         <v>43219</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="5"/>
@@ -7342,14 +7414,14 @@
         <v>65</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C67" s="10">
         <v>43220</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="5"/>
@@ -7359,14 +7431,14 @@
         <v>66</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C68" s="10">
         <v>43220</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="5"/>
@@ -7376,14 +7448,14 @@
         <v>67</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="5"/>
@@ -7393,14 +7465,14 @@
         <v>68</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C70" s="10">
         <v>43221</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="5"/>
@@ -7410,14 +7482,14 @@
         <v>69</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C71" s="10">
         <v>43221</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="5"/>
@@ -7427,14 +7499,14 @@
         <v>70</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C72" s="10">
         <v>43221</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="5"/>
@@ -7444,14 +7516,14 @@
         <v>71</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C73" s="10">
         <v>43225</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="5"/>
@@ -7461,14 +7533,14 @@
         <v>72</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C74" s="10">
         <v>43225</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="5"/>
@@ -7478,14 +7550,14 @@
         <v>73</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C75" s="10">
         <v>43225</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="6" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="5"/>
@@ -7495,14 +7567,14 @@
         <v>74</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C76" s="10">
         <v>43226</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="6" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="5"/>
@@ -7512,14 +7584,14 @@
         <v>75</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C77" s="10">
         <v>43232</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="6" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="5"/>

--- a/部门项目数据汇总表.xlsx
+++ b/部门项目数据汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="加班明细表" sheetId="4" r:id="rId1"/>
@@ -713,10 +713,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="35">
@@ -800,15 +800,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,15 +823,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,45 +876,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -890,6 +891,14 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -904,19 +913,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -926,9 +927,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -936,7 +937,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -954,9 +955,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1025,13 +1025,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,7 +1037,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,61 +1073,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,7 +1085,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,49 +1097,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,13 +1115,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1644,6 +1644,21 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1662,6 +1677,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1673,15 +1697,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1703,20 +1718,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1730,17 +1734,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1750,10 +1750,10 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1762,146 +1762,146 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2276,15 +2276,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2612,7 +2603,7 @@
   <sheetPr/>
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView topLeftCell="B26" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
       <selection activeCell="D40" sqref="D40:D41"/>
     </sheetView>
   </sheetViews>
@@ -3181,25 +3172,25 @@
       <c r="E39" s="128"/>
     </row>
     <row r="40" ht="15.95" customHeight="1" spans="2:5">
-      <c r="B40" s="129" t="s">
+      <c r="B40" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="130">
+      <c r="C40" s="126">
         <v>43246</v>
       </c>
-      <c r="D40" s="131" t="s">
+      <c r="D40" s="127" t="s">
         <v>51</v>
       </c>
       <c r="E40" s="128"/>
     </row>
     <row r="41" ht="15.95" customHeight="1" spans="2:5">
-      <c r="B41" s="129" t="s">
+      <c r="B41" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="130">
+      <c r="C41" s="126">
         <v>43247</v>
       </c>
-      <c r="D41" s="131" t="s">
+      <c r="D41" s="127" t="s">
         <v>51</v>
       </c>
       <c r="E41" s="128"/>
@@ -3274,8 +3265,8 @@
   <sheetPr/>
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -5866,14 +5857,14 @@
         <v>16</v>
       </c>
       <c r="D70" s="49">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" s="50">
         <v>6</v>
       </c>
       <c r="F70" s="51">
         <f t="shared" si="42"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G70" s="31"/>
       <c r="H70" s="27"/>
@@ -5888,7 +5879,7 @@
       </c>
       <c r="L70" s="68">
         <f t="shared" si="40"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M70" s="69">
         <f t="shared" si="43"/>
@@ -5896,7 +5887,7 @@
       </c>
       <c r="N70" s="70">
         <f t="shared" si="41"/>
-        <v>0.6</v>
+        <v>0.545454545454545</v>
       </c>
     </row>
     <row r="71" spans="2:14">
@@ -6055,14 +6046,14 @@
         <v>17</v>
       </c>
       <c r="D75" s="49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E75" s="50">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F75" s="51">
         <f t="shared" si="42"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G75" s="31"/>
       <c r="H75" s="31"/>
@@ -6077,15 +6068,15 @@
       </c>
       <c r="L75" s="74">
         <f t="shared" si="40"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M75" s="74">
         <f t="shared" si="43"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N75" s="85">
         <f t="shared" si="41"/>
-        <v>1.33333333333333</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="76" ht="15" spans="2:14">
@@ -6095,11 +6086,11 @@
       </c>
       <c r="D76" s="56">
         <f>SUM(D66:D75)</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E76" s="56">
         <f>SUM(E66:E75)</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F76" s="57">
         <v>-18</v>
@@ -6126,15 +6117,15 @@
       </c>
       <c r="L76" s="56">
         <f>SUM(L66:L75)</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M76" s="56">
         <f>SUM(M66:M75)</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N76" s="87">
         <f t="shared" si="41"/>
-        <v>1.14634146341463</v>
+        <v>1.13636363636364</v>
       </c>
     </row>
   </sheetData>

--- a/部门项目数据汇总表.xlsx
+++ b/部门项目数据汇总表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
   <si>
     <t>月份</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>鲜货俚火锅/售后</t>
+  </si>
+  <si>
+    <t>前往四季乾元七秒鱼驻店</t>
   </si>
   <si>
     <t>老厨人紫荆广场店实施</t>
@@ -713,10 +716,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="35">
@@ -800,16 +803,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,22 +813,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -846,16 +826,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,20 +843,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,7 +864,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -907,15 +881,27 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -924,27 +910,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -959,6 +924,44 @@
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1025,18 +1028,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1049,7 +1040,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,25 +1130,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,19 +1178,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,49 +1190,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,37 +1202,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1647,41 +1650,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1719,8 +1692,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1728,8 +1731,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1750,10 +1753,10 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1762,146 +1765,146 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2276,6 +2279,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2601,10 +2610,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40:D41"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -3184,37 +3193,46 @@
       <c r="E40" s="128"/>
     </row>
     <row r="41" ht="15.95" customHeight="1" spans="2:5">
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="129" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="126">
+        <v>43246</v>
+      </c>
+      <c r="D41" s="130" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="128"/>
+    </row>
+    <row r="42" ht="15.95" customHeight="1" spans="2:5">
+      <c r="B42" s="36" t="s">
         <v>16</v>
-      </c>
-      <c r="C41" s="126">
-        <v>43247</v>
-      </c>
-      <c r="D41" s="127" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="128"/>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="125" t="s">
-        <v>25</v>
       </c>
       <c r="C42" s="126">
         <v>43247</v>
       </c>
       <c r="D42" s="127" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E42" s="128"/>
     </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="36"/>
+    <row r="43" spans="2:5">
+      <c r="B43" s="125" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="126">
+        <v>43247</v>
+      </c>
+      <c r="D43" s="127" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="128"/>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="36"/>
     </row>
-    <row r="45" spans="5:5">
-      <c r="E45" s="97"/>
+    <row r="45" spans="2:2">
+      <c r="B45" s="36"/>
     </row>
     <row r="46" spans="5:5">
       <c r="E46" s="97"/>
@@ -3225,18 +3243,21 @@
     <row r="48" spans="5:5">
       <c r="E48" s="97"/>
     </row>
-    <row r="95" spans="11:11">
-      <c r="K95" t="s">
-        <v>14</v>
-      </c>
+    <row r="49" spans="5:5">
+      <c r="E49" s="97"/>
     </row>
     <row r="96" spans="11:11">
       <c r="K96" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="11:11">
       <c r="K97" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="98" spans="11:11">
+      <c r="K98" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3247,11 +3268,11 @@
     <mergeCell ref="A29:A35"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E39 E40 E41 E42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E39 E40 E41 E42 E43">
       <formula1>"薪资补贴,调休,未调休"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E38">
-      <formula1>$K$95:$K$97</formula1>
+      <formula1>$K$96:$K$98</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3266,7 +3287,7 @@
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="L77" sqref="L77"/>
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -3284,7 +3305,7 @@
     <row r="1" ht="16.5" spans="1:17">
       <c r="A1" s="13"/>
       <c r="B1" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -3311,37 +3332,37 @@
         <v>1</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J2" s="60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K2" s="61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L2" s="62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M2" s="63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N2" s="64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O2" s="65"/>
       <c r="P2" s="65"/>
@@ -3352,10 +3373,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D3" s="24">
         <v>6</v>
@@ -3400,7 +3421,7 @@
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" s="30">
         <v>2</v>
@@ -3443,7 +3464,7 @@
       <c r="A5" s="32"/>
       <c r="B5" s="28"/>
       <c r="C5" s="29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" s="30">
         <v>4</v>
@@ -3572,7 +3593,7 @@
       <c r="A8" s="32"/>
       <c r="B8" s="28"/>
       <c r="C8" s="29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" s="30">
         <v>6</v>
@@ -3615,7 +3636,7 @@
       <c r="A9" s="32"/>
       <c r="B9" s="28"/>
       <c r="C9" s="29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D9" s="30">
         <v>1</v>
@@ -3810,7 +3831,7 @@
       <c r="A14" s="38"/>
       <c r="B14" s="39"/>
       <c r="C14" s="40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D14" s="41">
         <f>SUM(D3:D13)</f>
@@ -3869,42 +3890,42 @@
         <v>1</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I16" s="59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J16" s="60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K16" s="61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L16" s="62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M16" s="63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N16" s="78" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>17</v>
@@ -4024,7 +4045,7 @@
     <row r="20" spans="2:14">
       <c r="B20" s="28"/>
       <c r="C20" s="29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20" s="30">
         <v>2</v>
@@ -4180,7 +4201,7 @@
     <row r="24" spans="2:15">
       <c r="B24" s="28"/>
       <c r="C24" s="29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="46">
         <v>1</v>
@@ -4253,7 +4274,7 @@
     <row r="26" ht="15" spans="2:14">
       <c r="B26" s="39"/>
       <c r="C26" s="40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D26" s="41">
         <f t="shared" ref="D26:H26" si="12">SUM(D17:D25)</f>
@@ -4309,42 +4330,42 @@
         <v>1</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F28" s="48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I28" s="59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J28" s="60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K28" s="61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L28" s="82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M28" s="83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N28" s="84" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>17</v>
@@ -4386,7 +4407,7 @@
     <row r="30" spans="2:14">
       <c r="B30" s="28"/>
       <c r="C30" s="29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D30" s="30">
         <v>3</v>
@@ -4620,7 +4641,7 @@
     <row r="36" spans="2:14">
       <c r="B36" s="28"/>
       <c r="C36" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D36" s="46">
         <v>1</v>
@@ -4687,7 +4708,7 @@
     <row r="38" ht="15" spans="2:14">
       <c r="B38" s="39"/>
       <c r="C38" s="40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D38" s="41">
         <f t="shared" ref="D38:H38" si="22">SUM(D29:D37)</f>
@@ -4743,37 +4764,37 @@
         <v>1</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F40" s="48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I40" s="59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J40" s="60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K40" s="61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L40" s="82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M40" s="83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N40" s="84" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="2:14">
@@ -4820,7 +4841,7 @@
     <row r="42" spans="2:14">
       <c r="B42" s="28"/>
       <c r="C42" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D42" s="30">
         <v>1</v>
@@ -5126,7 +5147,7 @@
     <row r="50" ht="15" spans="2:14">
       <c r="B50" s="39"/>
       <c r="C50" s="40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D50" s="41">
         <f t="shared" ref="D50:H50" si="28">SUM(D41:D49)</f>
@@ -5182,37 +5203,37 @@
         <v>1</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E52" s="47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F52" s="48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I52" s="59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J52" s="60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K52" s="61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L52" s="82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M52" s="83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N52" s="84" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="2:14">
@@ -5529,7 +5550,7 @@
     <row r="61" spans="2:14">
       <c r="B61" s="35"/>
       <c r="C61" s="29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D61" s="52">
         <v>0</v>
@@ -5604,7 +5625,7 @@
     <row r="63" ht="15" spans="2:14">
       <c r="B63" s="54"/>
       <c r="C63" s="55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D63" s="56">
         <f t="shared" ref="D63:H63" si="36">SUM(D53:D62)</f>
@@ -5660,37 +5681,37 @@
         <v>1</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E65" s="47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F65" s="48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H65" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I65" s="59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J65" s="60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K65" s="61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L65" s="82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M65" s="83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N65" s="84" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:14">
@@ -5740,14 +5761,14 @@
         <v>23</v>
       </c>
       <c r="D67" s="49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E67" s="50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F67" s="51">
         <f t="shared" ref="F67:F75" si="42">D67-E67</f>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G67" s="31"/>
       <c r="H67" s="27"/>
@@ -5762,15 +5783,15 @@
       </c>
       <c r="L67" s="68">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M67" s="69">
         <f t="shared" ref="M67:M75" si="43">E67+J67</f>
-        <v>3</v>
-      </c>
-      <c r="N67" s="70" t="e">
+        <v>4</v>
+      </c>
+      <c r="N67" s="70">
         <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
+        <v>1.33333333333333</v>
       </c>
     </row>
     <row r="68" spans="2:14">
@@ -6007,7 +6028,7 @@
     <row r="74" spans="2:14">
       <c r="B74" s="35"/>
       <c r="C74" s="29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D74" s="49">
         <v>0</v>
@@ -6082,15 +6103,15 @@
     <row r="76" ht="15" spans="2:14">
       <c r="B76" s="54"/>
       <c r="C76" s="55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D76" s="56">
         <f>SUM(D66:D75)</f>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E76" s="56">
         <f>SUM(E66:E75)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F76" s="57">
         <v>-18</v>
@@ -6117,15 +6138,15 @@
       </c>
       <c r="L76" s="56">
         <f>SUM(L66:L75)</f>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M76" s="56">
         <f>SUM(M66:M75)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N76" s="87">
         <f t="shared" si="41"/>
-        <v>1.13636363636364</v>
+        <v>1.08510638297872</v>
       </c>
     </row>
   </sheetData>
@@ -6158,7 +6179,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6169,25 +6190,25 @@
     </row>
     <row r="2" ht="40.5" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="24" spans="1:7">
@@ -6198,19 +6219,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F3" s="7">
         <v>43068</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" ht="24" spans="1:7">
@@ -6221,19 +6242,19 @@
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="5" ht="36" spans="1:7">
@@ -6241,14 +6262,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F5" s="7">
         <v>42985</v>
@@ -6260,14 +6281,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F6" s="7">
         <v>42986</v>
@@ -6279,20 +6300,20 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" ht="36" spans="1:7">
@@ -6303,19 +6324,19 @@
         <v>15</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D8" s="6">
         <v>4</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" ht="36" spans="1:7">
@@ -6326,19 +6347,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D9" s="6">
         <v>4</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F9" s="8">
         <v>43033</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" ht="60" spans="1:7">
@@ -6349,17 +6370,17 @@
         <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D10" s="6">
         <v>3.5</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" ht="60" spans="1:7">
@@ -6370,17 +6391,17 @@
         <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D11" s="5">
         <v>8</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" ht="48" spans="1:7">
@@ -6391,17 +6412,17 @@
         <v>15</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D12" s="5">
         <v>1.5</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" ht="36" spans="1:7">
@@ -6412,17 +6433,17 @@
         <v>6</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D13" s="5">
         <v>8</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" ht="36" spans="1:7">
@@ -6430,16 +6451,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D14" s="5">
         <v>7</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -6452,17 +6473,17 @@
         <v>6</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D15" s="5">
         <v>4.5</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" ht="36" spans="1:7">
@@ -6473,17 +6494,17 @@
         <v>6</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D16" s="5">
         <v>9</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" ht="60" spans="1:7">
@@ -6494,19 +6515,19 @@
         <v>6</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D17" s="5">
         <v>8</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" ht="48" spans="1:7">
@@ -6517,19 +6538,19 @@
         <v>6</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D18" s="5">
         <v>8.5</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" ht="48" spans="1:7">
@@ -6540,19 +6561,19 @@
         <v>6</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D19" s="5">
         <v>6.5</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" ht="36" spans="1:7">
@@ -6563,19 +6584,19 @@
         <v>17</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D20" s="5">
         <v>4</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F20" s="7">
         <v>43035</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" ht="36" spans="1:7">
@@ -6590,7 +6611,7 @@
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F21" s="7">
         <v>43052</v>
@@ -6609,7 +6630,7 @@
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7">
         <v>43061</v>
@@ -6628,7 +6649,7 @@
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -6645,7 +6666,7 @@
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -6662,7 +6683,7 @@
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F25" s="7">
         <v>43087</v>
@@ -6674,16 +6695,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D26" s="5">
         <v>5</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="5"/>
@@ -6700,7 +6721,7 @@
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="5"/>
@@ -6713,13 +6734,13 @@
         <v>15</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D28" s="5">
         <v>5</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="5"/>
@@ -6736,7 +6757,7 @@
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="5"/>
@@ -6746,14 +6767,14 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="10">
         <v>43086</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="5"/>
@@ -6770,7 +6791,7 @@
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="5"/>
@@ -6787,7 +6808,7 @@
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="5"/>
@@ -6804,7 +6825,7 @@
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="5"/>
@@ -6821,7 +6842,7 @@
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="5"/>
@@ -6838,7 +6859,7 @@
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="5"/>
@@ -6855,7 +6876,7 @@
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F36" s="7">
         <v>43166</v>
@@ -6874,10 +6895,10 @@
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G37" s="5"/>
     </row>
@@ -6893,7 +6914,7 @@
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="5"/>
@@ -6910,7 +6931,7 @@
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F39" s="7">
         <v>43153</v>
@@ -6929,7 +6950,7 @@
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="5"/>
@@ -6946,7 +6967,7 @@
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F41" s="7">
         <v>43143</v>
@@ -6965,7 +6986,7 @@
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F42" s="7">
         <v>43143</v>
@@ -6984,7 +7005,7 @@
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="5"/>
@@ -7001,7 +7022,7 @@
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="5"/>
@@ -7018,7 +7039,7 @@
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F45" s="7">
         <v>43168</v>
@@ -7037,7 +7058,7 @@
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F46" s="7">
         <v>43185</v>
@@ -7056,7 +7077,7 @@
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F47" s="7">
         <v>43198</v>
@@ -7075,7 +7096,7 @@
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="5"/>
@@ -7092,7 +7113,7 @@
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="5"/>
@@ -7109,7 +7130,7 @@
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="5"/>
@@ -7126,7 +7147,7 @@
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F51" s="7">
         <v>43218</v>
@@ -7145,10 +7166,10 @@
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G52" s="5"/>
     </row>
@@ -7164,7 +7185,7 @@
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F53" s="7">
         <v>43222</v>
@@ -7183,7 +7204,7 @@
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="5"/>
@@ -7200,7 +7221,7 @@
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="5"/>
@@ -7213,11 +7234,11 @@
         <v>20</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="5"/>
@@ -7234,7 +7255,7 @@
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F57" s="7">
         <v>43227</v>
@@ -7253,7 +7274,7 @@
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F58" s="7">
         <v>43234</v>
@@ -7308,7 +7329,7 @@
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="5"/>
@@ -7344,7 +7365,7 @@
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="5"/>
@@ -7361,7 +7382,7 @@
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="5"/>
@@ -7378,7 +7399,7 @@
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="5"/>
@@ -7395,7 +7416,7 @@
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="5"/>
@@ -7412,7 +7433,7 @@
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="5"/>
@@ -7429,7 +7450,7 @@
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="5"/>
@@ -7442,11 +7463,11 @@
         <v>16</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="5"/>
@@ -7463,7 +7484,7 @@
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="5"/>
@@ -7480,7 +7501,7 @@
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="5"/>
@@ -7497,7 +7518,7 @@
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="5"/>
@@ -7514,7 +7535,7 @@
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="5"/>
@@ -7531,7 +7552,7 @@
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="5"/>

--- a/部门项目数据汇总表.xlsx
+++ b/部门项目数据汇总表.xlsx
@@ -716,11 +716,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -803,16 +803,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -826,9 +818,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,14 +833,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,39 +887,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -913,15 +907,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -937,22 +940,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -963,6 +958,11 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1028,25 +1028,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,43 +1088,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,7 +1118,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,85 +1172,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1650,11 +1650,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1674,17 +1695,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1693,7 +1708,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1708,21 +1723,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1753,10 +1753,10 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1765,146 +1765,146 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2279,12 +2279,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -3193,13 +3187,13 @@
       <c r="E40" s="128"/>
     </row>
     <row r="41" ht="15.95" customHeight="1" spans="2:5">
-      <c r="B41" s="129" t="s">
+      <c r="B41" s="125" t="s">
         <v>23</v>
       </c>
       <c r="C41" s="126">
         <v>43246</v>
       </c>
-      <c r="D41" s="130" t="s">
+      <c r="D41" s="127" t="s">
         <v>52</v>
       </c>
       <c r="E41" s="128"/>
@@ -5917,14 +5911,14 @@
         <v>11</v>
       </c>
       <c r="D71" s="49">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E71" s="50">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F71" s="51">
         <f t="shared" si="42"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="G71" s="31"/>
       <c r="H71" s="27"/>
@@ -5939,15 +5933,15 @@
       </c>
       <c r="L71" s="68">
         <f t="shared" si="40"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M71" s="69">
         <f t="shared" si="43"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N71" s="70">
         <f t="shared" si="41"/>
-        <v>1.66666666666667</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="72" spans="2:14">
@@ -6107,11 +6101,11 @@
       </c>
       <c r="D76" s="56">
         <f>SUM(D66:D75)</f>
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E76" s="56">
         <f>SUM(E66:E75)</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F76" s="57">
         <v>-18</v>
@@ -6138,15 +6132,15 @@
       </c>
       <c r="L76" s="56">
         <f>SUM(L66:L75)</f>
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="M76" s="56">
         <f>SUM(M66:M75)</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N76" s="87">
         <f t="shared" si="41"/>
-        <v>1.08510638297872</v>
+        <v>0.981481481481482</v>
       </c>
     </row>
   </sheetData>
@@ -6172,7 +6166,7 @@
   <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>

--- a/部门项目数据汇总表.xlsx
+++ b/部门项目数据汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="加班明细表" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174">
   <si>
     <t>月份</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>老厨人紫荆广场店实施</t>
+  </si>
+  <si>
+    <t>前往四道汤万达茂店实施</t>
   </si>
   <si>
     <t>未调休</t>
@@ -716,13 +719,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -803,6 +806,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -818,38 +850,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,26 +881,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -895,20 +897,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -923,6 +918,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -930,7 +926,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -947,10 +957,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -958,11 +973,6 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1028,7 +1038,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,31 +1158,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,85 +1188,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1166,25 +1200,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,12 +1216,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="43">
     <border>
@@ -1647,6 +1657,21 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1661,36 +1686,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1728,6 +1723,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1753,158 +1763,158 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2279,6 +2289,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2606,8 +2622,8 @@
   <sheetPr/>
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -3222,8 +3238,16 @@
       </c>
       <c r="E43" s="128"/>
     </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="36"/>
+    <row r="44" spans="2:4">
+      <c r="B44" s="129" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="126">
+        <v>43247</v>
+      </c>
+      <c r="D44" s="130" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="36"/>
@@ -3247,7 +3271,7 @@
     </row>
     <row r="97" spans="11:11">
       <c r="K97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="11:11">
@@ -3280,8 +3304,8 @@
   <sheetPr/>
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -3299,7 +3323,7 @@
     <row r="1" ht="16.5" spans="1:17">
       <c r="A1" s="13"/>
       <c r="B1" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -3326,37 +3350,37 @@
         <v>1</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J2" s="60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K2" s="61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L2" s="62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M2" s="63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N2" s="64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O2" s="65"/>
       <c r="P2" s="65"/>
@@ -3367,10 +3391,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D3" s="24">
         <v>6</v>
@@ -3415,7 +3439,7 @@
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4" s="30">
         <v>2</v>
@@ -3458,7 +3482,7 @@
       <c r="A5" s="32"/>
       <c r="B5" s="28"/>
       <c r="C5" s="29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" s="30">
         <v>4</v>
@@ -3587,7 +3611,7 @@
       <c r="A8" s="32"/>
       <c r="B8" s="28"/>
       <c r="C8" s="29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" s="30">
         <v>6</v>
@@ -3630,7 +3654,7 @@
       <c r="A9" s="32"/>
       <c r="B9" s="28"/>
       <c r="C9" s="29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" s="30">
         <v>1</v>
@@ -3825,7 +3849,7 @@
       <c r="A14" s="38"/>
       <c r="B14" s="39"/>
       <c r="C14" s="40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D14" s="41">
         <f>SUM(D3:D13)</f>
@@ -3884,42 +3908,42 @@
         <v>1</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I16" s="59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J16" s="60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K16" s="61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L16" s="62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M16" s="63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N16" s="78" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>17</v>
@@ -4039,7 +4063,7 @@
     <row r="20" spans="2:14">
       <c r="B20" s="28"/>
       <c r="C20" s="29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D20" s="30">
         <v>2</v>
@@ -4195,7 +4219,7 @@
     <row r="24" spans="2:15">
       <c r="B24" s="28"/>
       <c r="C24" s="29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="46">
         <v>1</v>
@@ -4268,7 +4292,7 @@
     <row r="26" ht="15" spans="2:14">
       <c r="B26" s="39"/>
       <c r="C26" s="40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="41">
         <f t="shared" ref="D26:H26" si="12">SUM(D17:D25)</f>
@@ -4324,42 +4348,42 @@
         <v>1</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F28" s="48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I28" s="59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J28" s="60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K28" s="61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L28" s="82" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M28" s="83" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N28" s="84" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>17</v>
@@ -4401,7 +4425,7 @@
     <row r="30" spans="2:14">
       <c r="B30" s="28"/>
       <c r="C30" s="29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D30" s="30">
         <v>3</v>
@@ -4635,7 +4659,7 @@
     <row r="36" spans="2:14">
       <c r="B36" s="28"/>
       <c r="C36" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D36" s="46">
         <v>1</v>
@@ -4702,7 +4726,7 @@
     <row r="38" ht="15" spans="2:14">
       <c r="B38" s="39"/>
       <c r="C38" s="40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D38" s="41">
         <f t="shared" ref="D38:H38" si="22">SUM(D29:D37)</f>
@@ -4758,37 +4782,37 @@
         <v>1</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F40" s="48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I40" s="59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J40" s="60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K40" s="61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L40" s="82" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M40" s="83" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N40" s="84" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="2:14">
@@ -4835,7 +4859,7 @@
     <row r="42" spans="2:14">
       <c r="B42" s="28"/>
       <c r="C42" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D42" s="30">
         <v>1</v>
@@ -5141,7 +5165,7 @@
     <row r="50" ht="15" spans="2:14">
       <c r="B50" s="39"/>
       <c r="C50" s="40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D50" s="41">
         <f t="shared" ref="D50:H50" si="28">SUM(D41:D49)</f>
@@ -5197,37 +5221,37 @@
         <v>1</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E52" s="47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F52" s="48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I52" s="59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J52" s="60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K52" s="61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L52" s="82" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M52" s="83" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N52" s="84" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="2:14">
@@ -5397,11 +5421,11 @@
         <v>8</v>
       </c>
       <c r="E57" s="49">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F57" s="49">
         <f t="shared" si="32"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="G57" s="31"/>
       <c r="H57" s="27"/>
@@ -5420,11 +5444,11 @@
       </c>
       <c r="M57" s="69">
         <f t="shared" si="35"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N57" s="70">
         <f t="shared" si="31"/>
-        <v>1.25</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="58" spans="2:14">
@@ -5475,11 +5499,11 @@
         <v>8</v>
       </c>
       <c r="E59" s="50">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F59" s="49">
         <f t="shared" si="32"/>
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="G59" s="31"/>
       <c r="H59" s="27"/>
@@ -5498,11 +5522,11 @@
       </c>
       <c r="M59" s="69">
         <f t="shared" si="35"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N59" s="70">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="60" spans="2:14">
@@ -5544,7 +5568,7 @@
     <row r="61" spans="2:14">
       <c r="B61" s="35"/>
       <c r="C61" s="29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D61" s="52">
         <v>0</v>
@@ -5619,7 +5643,7 @@
     <row r="63" ht="15" spans="2:14">
       <c r="B63" s="54"/>
       <c r="C63" s="55" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D63" s="56">
         <f t="shared" ref="D63:H63" si="36">SUM(D53:D62)</f>
@@ -5627,11 +5651,11 @@
       </c>
       <c r="E63" s="56">
         <f t="shared" si="36"/>
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F63" s="57">
         <f t="shared" si="32"/>
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="G63" s="56">
         <f t="shared" si="36"/>
@@ -5659,11 +5683,11 @@
       </c>
       <c r="M63" s="56">
         <f t="shared" si="37"/>
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="N63" s="87">
         <f t="shared" si="31"/>
-        <v>1.18965517241379</v>
+        <v>1.10344827586207</v>
       </c>
     </row>
     <row r="64" ht="15"/>
@@ -5675,37 +5699,37 @@
         <v>1</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E65" s="47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F65" s="48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H65" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I65" s="59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J65" s="60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K65" s="61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L65" s="82" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M65" s="83" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N65" s="84" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:14">
@@ -5794,10 +5818,10 @@
         <v>25</v>
       </c>
       <c r="D68" s="49">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" s="50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F68" s="51">
         <f t="shared" si="42"/>
@@ -5816,15 +5840,15 @@
       </c>
       <c r="L68" s="68">
         <f t="shared" si="40"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M68" s="69">
         <f t="shared" si="43"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N68" s="70">
         <f t="shared" si="41"/>
-        <v>0.555555555555556</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="69" spans="2:14">
@@ -5875,11 +5899,11 @@
         <v>11</v>
       </c>
       <c r="E70" s="50">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F70" s="51">
         <f t="shared" si="42"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G70" s="31"/>
       <c r="H70" s="27"/>
@@ -5898,11 +5922,11 @@
       </c>
       <c r="M70" s="69">
         <f t="shared" si="43"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N70" s="70">
         <f t="shared" si="41"/>
-        <v>0.545454545454545</v>
+        <v>0.818181818181818</v>
       </c>
     </row>
     <row r="71" spans="2:14">
@@ -5950,14 +5974,14 @@
         <v>15</v>
       </c>
       <c r="D72" s="49">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E72" s="50">
         <v>12</v>
       </c>
       <c r="F72" s="51">
         <f t="shared" si="42"/>
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="G72" s="31"/>
       <c r="H72" s="27"/>
@@ -5972,7 +5996,7 @@
       </c>
       <c r="L72" s="68">
         <f t="shared" si="40"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M72" s="69">
         <f t="shared" si="43"/>
@@ -5980,7 +6004,7 @@
       </c>
       <c r="N72" s="70">
         <f t="shared" si="41"/>
-        <v>2.4</v>
+        <v>1.71428571428571</v>
       </c>
     </row>
     <row r="73" spans="2:14">
@@ -6022,7 +6046,7 @@
     <row r="74" spans="2:14">
       <c r="B74" s="35"/>
       <c r="C74" s="29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D74" s="49">
         <v>0</v>
@@ -6097,15 +6121,15 @@
     <row r="76" ht="15" spans="2:14">
       <c r="B76" s="54"/>
       <c r="C76" s="55" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D76" s="56">
         <f>SUM(D66:D75)</f>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E76" s="56">
         <f>SUM(E66:E75)</f>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F76" s="57">
         <v>-18</v>
@@ -6132,15 +6156,15 @@
       </c>
       <c r="L76" s="56">
         <f>SUM(L66:L75)</f>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M76" s="56">
         <f>SUM(M66:M75)</f>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N76" s="87">
         <f t="shared" si="41"/>
-        <v>0.981481481481482</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6173,7 +6197,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6184,25 +6208,25 @@
     </row>
     <row r="2" ht="40.5" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="24" spans="1:7">
@@ -6213,19 +6237,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F3" s="7">
         <v>43068</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" ht="24" spans="1:7">
@@ -6236,19 +6260,19 @@
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" ht="36" spans="1:7">
@@ -6256,14 +6280,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F5" s="7">
         <v>42985</v>
@@ -6275,14 +6299,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F6" s="7">
         <v>42986</v>
@@ -6294,20 +6318,20 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" ht="36" spans="1:7">
@@ -6318,19 +6342,19 @@
         <v>15</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D8" s="6">
         <v>4</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" ht="36" spans="1:7">
@@ -6341,19 +6365,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D9" s="6">
         <v>4</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F9" s="8">
         <v>43033</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" ht="60" spans="1:7">
@@ -6364,17 +6388,17 @@
         <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D10" s="6">
         <v>3.5</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" ht="60" spans="1:7">
@@ -6385,17 +6409,17 @@
         <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D11" s="5">
         <v>8</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" ht="48" spans="1:7">
@@ -6406,17 +6430,17 @@
         <v>15</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D12" s="5">
         <v>1.5</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" ht="36" spans="1:7">
@@ -6427,17 +6451,17 @@
         <v>6</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D13" s="5">
         <v>8</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" ht="36" spans="1:7">
@@ -6445,16 +6469,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D14" s="5">
         <v>7</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -6467,17 +6491,17 @@
         <v>6</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D15" s="5">
         <v>4.5</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" ht="36" spans="1:7">
@@ -6488,17 +6512,17 @@
         <v>6</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D16" s="5">
         <v>9</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" ht="60" spans="1:7">
@@ -6509,19 +6533,19 @@
         <v>6</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D17" s="5">
         <v>8</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" ht="48" spans="1:7">
@@ -6532,19 +6556,19 @@
         <v>6</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D18" s="5">
         <v>8.5</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" ht="48" spans="1:7">
@@ -6555,19 +6579,19 @@
         <v>6</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D19" s="5">
         <v>6.5</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" ht="36" spans="1:7">
@@ -6578,19 +6602,19 @@
         <v>17</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D20" s="5">
         <v>4</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F20" s="7">
         <v>43035</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" ht="36" spans="1:7">
@@ -6605,7 +6629,7 @@
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F21" s="7">
         <v>43052</v>
@@ -6624,7 +6648,7 @@
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7">
         <v>43061</v>
@@ -6643,7 +6667,7 @@
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -6660,7 +6684,7 @@
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -6677,7 +6701,7 @@
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F25" s="7">
         <v>43087</v>
@@ -6689,16 +6713,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D26" s="5">
         <v>5</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="5"/>
@@ -6715,7 +6739,7 @@
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="5"/>
@@ -6728,13 +6752,13 @@
         <v>15</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D28" s="5">
         <v>5</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="5"/>
@@ -6751,7 +6775,7 @@
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="5"/>
@@ -6761,14 +6785,14 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="10">
         <v>43086</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="5"/>
@@ -6785,7 +6809,7 @@
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="5"/>
@@ -6802,7 +6826,7 @@
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="5"/>
@@ -6819,7 +6843,7 @@
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="5"/>
@@ -6836,7 +6860,7 @@
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="5"/>
@@ -6853,7 +6877,7 @@
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="5"/>
@@ -6870,7 +6894,7 @@
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F36" s="7">
         <v>43166</v>
@@ -6889,10 +6913,10 @@
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G37" s="5"/>
     </row>
@@ -6908,7 +6932,7 @@
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="5"/>
@@ -6925,7 +6949,7 @@
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F39" s="7">
         <v>43153</v>
@@ -6944,7 +6968,7 @@
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="5"/>
@@ -6961,7 +6985,7 @@
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F41" s="7">
         <v>43143</v>
@@ -6980,7 +7004,7 @@
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F42" s="7">
         <v>43143</v>
@@ -6999,7 +7023,7 @@
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="5"/>
@@ -7016,7 +7040,7 @@
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="5"/>
@@ -7033,7 +7057,7 @@
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F45" s="7">
         <v>43168</v>
@@ -7052,7 +7076,7 @@
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F46" s="7">
         <v>43185</v>
@@ -7071,7 +7095,7 @@
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F47" s="7">
         <v>43198</v>
@@ -7090,7 +7114,7 @@
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="5"/>
@@ -7107,7 +7131,7 @@
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="5"/>
@@ -7124,7 +7148,7 @@
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="5"/>
@@ -7141,7 +7165,7 @@
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F51" s="7">
         <v>43218</v>
@@ -7160,10 +7184,10 @@
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G52" s="5"/>
     </row>
@@ -7179,7 +7203,7 @@
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F53" s="7">
         <v>43222</v>
@@ -7198,7 +7222,7 @@
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="5"/>
@@ -7215,7 +7239,7 @@
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="5"/>
@@ -7228,11 +7252,11 @@
         <v>20</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="5"/>
@@ -7249,7 +7273,7 @@
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F57" s="7">
         <v>43227</v>
@@ -7268,7 +7292,7 @@
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F58" s="7">
         <v>43234</v>
@@ -7323,7 +7347,7 @@
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="5"/>
@@ -7359,7 +7383,7 @@
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="5"/>
@@ -7376,7 +7400,7 @@
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="5"/>
@@ -7393,7 +7417,7 @@
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="5"/>
@@ -7410,7 +7434,7 @@
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="5"/>
@@ -7427,7 +7451,7 @@
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="5"/>
@@ -7444,7 +7468,7 @@
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="5"/>
@@ -7457,11 +7481,11 @@
         <v>16</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="5"/>
@@ -7478,7 +7502,7 @@
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="5"/>
@@ -7495,7 +7519,7 @@
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="5"/>
@@ -7512,7 +7536,7 @@
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="5"/>
@@ -7529,7 +7553,7 @@
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="5"/>
@@ -7546,7 +7570,7 @@
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="5"/>

--- a/部门项目数据汇总表.xlsx
+++ b/部门项目数据汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="加班明细表" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178">
   <si>
     <t>月份</t>
   </si>
@@ -183,6 +183,15 @@
     <t>前往四道汤万达茂店实施</t>
   </si>
   <si>
+    <t>前往和记烤鸭店驻店</t>
+  </si>
+  <si>
+    <t>前往日久料理如皋店驻店</t>
+  </si>
+  <si>
+    <t>佬李头柴锅饭实施培训并更换打印机</t>
+  </si>
+  <si>
     <t>未调休</t>
   </si>
   <si>
@@ -250,6 +259,9 @@
   </si>
   <si>
     <t>鲁青鹏</t>
+  </si>
+  <si>
+    <t>6月</t>
   </si>
   <si>
     <t>加班调休登记表</t>
@@ -719,13 +731,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -809,7 +821,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -820,6 +832,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -827,16 +861,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -844,15 +870,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -867,7 +893,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -881,13 +907,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -896,31 +915,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -928,14 +932,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -949,15 +945,24 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1038,13 +1043,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,7 +1067,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,13 +1097,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,25 +1121,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,19 +1139,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1146,73 +1211,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1661,16 +1666,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1690,11 +1715,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1704,21 +1744,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1737,36 +1762,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1775,146 +1780,146 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2290,11 +2295,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2620,10 +2631,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -3239,43 +3250,81 @@
       <c r="E43" s="128"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="129" t="s">
+      <c r="B44" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C44" s="126">
         <v>43247</v>
       </c>
-      <c r="D44" s="130" t="s">
+      <c r="D44" s="129" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="36"/>
-    </row>
-    <row r="46" spans="5:5">
+    <row r="45" spans="2:4">
+      <c r="B45" s="130" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="126">
+        <v>43253</v>
+      </c>
+      <c r="D45" s="131" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="126">
+        <v>43253</v>
+      </c>
+      <c r="D46" s="131" t="s">
+        <v>56</v>
+      </c>
       <c r="E46" s="97"/>
     </row>
-    <row r="47" spans="5:5">
+    <row r="47" spans="2:5">
+      <c r="B47" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="126">
+        <v>43253</v>
+      </c>
+      <c r="D47" s="131" t="s">
+        <v>57</v>
+      </c>
       <c r="E47" s="97"/>
     </row>
-    <row r="48" spans="5:5">
+    <row r="48" spans="2:5">
+      <c r="B48" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="126">
+        <v>43254</v>
+      </c>
+      <c r="D48" s="131" t="s">
+        <v>56</v>
+      </c>
       <c r="E48" s="97"/>
     </row>
     <row r="49" spans="5:5">
       <c r="E49" s="97"/>
     </row>
-    <row r="96" spans="11:11">
-      <c r="K96" t="s">
-        <v>14</v>
-      </c>
+    <row r="50" spans="5:5">
+      <c r="E50" s="97"/>
     </row>
     <row r="97" spans="11:11">
       <c r="K97" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="11:11">
       <c r="K98" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="99" spans="11:11">
+      <c r="K99" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3290,7 +3339,7 @@
       <formula1>"薪资补贴,调休,未调休"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E38">
-      <formula1>$K$96:$K$98</formula1>
+      <formula1>$K$97:$K$99</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3302,10 +3351,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView topLeftCell="B67" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -3323,7 +3372,7 @@
     <row r="1" ht="16.5" spans="1:17">
       <c r="A1" s="13"/>
       <c r="B1" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -3350,37 +3399,37 @@
         <v>1</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J2" s="60" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K2" s="61" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L2" s="62" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M2" s="63" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N2" s="64" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O2" s="65"/>
       <c r="P2" s="65"/>
@@ -3391,10 +3440,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D3" s="24">
         <v>6</v>
@@ -3439,7 +3488,7 @@
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="29" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D4" s="30">
         <v>2</v>
@@ -3482,7 +3531,7 @@
       <c r="A5" s="32"/>
       <c r="B5" s="28"/>
       <c r="C5" s="29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D5" s="30">
         <v>4</v>
@@ -3611,7 +3660,7 @@
       <c r="A8" s="32"/>
       <c r="B8" s="28"/>
       <c r="C8" s="29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D8" s="30">
         <v>6</v>
@@ -3654,7 +3703,7 @@
       <c r="A9" s="32"/>
       <c r="B9" s="28"/>
       <c r="C9" s="29" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D9" s="30">
         <v>1</v>
@@ -3849,7 +3898,7 @@
       <c r="A14" s="38"/>
       <c r="B14" s="39"/>
       <c r="C14" s="40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D14" s="41">
         <f>SUM(D3:D13)</f>
@@ -3908,42 +3957,42 @@
         <v>1</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I16" s="59" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J16" s="60" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K16" s="61" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L16" s="62" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M16" s="63" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N16" s="78" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="22" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>17</v>
@@ -4063,7 +4112,7 @@
     <row r="20" spans="2:14">
       <c r="B20" s="28"/>
       <c r="C20" s="29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D20" s="30">
         <v>2</v>
@@ -4219,7 +4268,7 @@
     <row r="24" spans="2:15">
       <c r="B24" s="28"/>
       <c r="C24" s="29" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D24" s="46">
         <v>1</v>
@@ -4292,7 +4341,7 @@
     <row r="26" ht="15" spans="2:14">
       <c r="B26" s="39"/>
       <c r="C26" s="40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D26" s="41">
         <f t="shared" ref="D26:H26" si="12">SUM(D17:D25)</f>
@@ -4348,42 +4397,42 @@
         <v>1</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F28" s="48" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I28" s="59" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J28" s="60" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K28" s="61" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L28" s="82" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M28" s="83" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N28" s="84" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>17</v>
@@ -4425,7 +4474,7 @@
     <row r="30" spans="2:14">
       <c r="B30" s="28"/>
       <c r="C30" s="29" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D30" s="30">
         <v>3</v>
@@ -4659,7 +4708,7 @@
     <row r="36" spans="2:14">
       <c r="B36" s="28"/>
       <c r="C36" s="29" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D36" s="46">
         <v>1</v>
@@ -4726,7 +4775,7 @@
     <row r="38" ht="15" spans="2:14">
       <c r="B38" s="39"/>
       <c r="C38" s="40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D38" s="41">
         <f t="shared" ref="D38:H38" si="22">SUM(D29:D37)</f>
@@ -4782,37 +4831,37 @@
         <v>1</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F40" s="48" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I40" s="59" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J40" s="60" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K40" s="61" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L40" s="82" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M40" s="83" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N40" s="84" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="2:14">
@@ -4859,7 +4908,7 @@
     <row r="42" spans="2:14">
       <c r="B42" s="28"/>
       <c r="C42" s="29" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D42" s="30">
         <v>1</v>
@@ -5165,7 +5214,7 @@
     <row r="50" ht="15" spans="2:14">
       <c r="B50" s="39"/>
       <c r="C50" s="40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D50" s="41">
         <f t="shared" ref="D50:H50" si="28">SUM(D41:D49)</f>
@@ -5221,37 +5270,37 @@
         <v>1</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E52" s="47" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F52" s="48" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I52" s="59" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J52" s="60" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K52" s="61" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L52" s="82" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M52" s="83" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N52" s="84" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="2:14">
@@ -5568,7 +5617,7 @@
     <row r="61" spans="2:14">
       <c r="B61" s="35"/>
       <c r="C61" s="29" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D61" s="52">
         <v>0</v>
@@ -5643,7 +5692,7 @@
     <row r="63" ht="15" spans="2:14">
       <c r="B63" s="54"/>
       <c r="C63" s="55" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D63" s="56">
         <f t="shared" ref="D63:H63" si="36">SUM(D53:D62)</f>
@@ -5699,37 +5748,37 @@
         <v>1</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E65" s="47" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F65" s="48" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H65" s="20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I65" s="59" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J65" s="60" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K65" s="61" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L65" s="82" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M65" s="83" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N65" s="84" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:14">
@@ -6046,7 +6095,7 @@
     <row r="74" spans="2:14">
       <c r="B74" s="35"/>
       <c r="C74" s="29" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D74" s="49">
         <v>0</v>
@@ -6097,7 +6146,7 @@
       <c r="G75" s="31"/>
       <c r="H75" s="31"/>
       <c r="I75" s="31">
-        <f>G75-H75</f>
+        <f t="shared" ref="I75:I85" si="44">G75-H75</f>
         <v>0</v>
       </c>
       <c r="J75" s="72"/>
@@ -6121,7 +6170,7 @@
     <row r="76" ht="15" spans="2:14">
       <c r="B76" s="54"/>
       <c r="C76" s="55" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D76" s="56">
         <f>SUM(D66:D75)</f>
@@ -6143,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="56">
-        <f>G76-H76</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="J76" s="56">
@@ -6167,8 +6216,447 @@
         <v>1</v>
       </c>
     </row>
+    <row r="77" ht="15"/>
+    <row r="78" ht="15" spans="2:14">
+      <c r="B78" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E78" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="F78" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="G78" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H78" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I78" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="J78" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="K78" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="L78" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="M78" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="N78" s="84" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14">
+      <c r="B79" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="49">
+        <v>2</v>
+      </c>
+      <c r="E79" s="50">
+        <v>0</v>
+      </c>
+      <c r="F79" s="51">
+        <f t="shared" ref="F79:F88" si="45">D79-E79</f>
+        <v>2</v>
+      </c>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="66"/>
+      <c r="K79" s="67" t="e">
+        <f t="shared" ref="K79:K89" si="46">J79/M79*100%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L79" s="68">
+        <f t="shared" ref="L79:L88" si="47">D79+H79</f>
+        <v>2</v>
+      </c>
+      <c r="M79" s="69">
+        <f>E79+H79</f>
+        <v>0</v>
+      </c>
+      <c r="N79" s="70">
+        <f t="shared" ref="N79:N89" si="48">M79/L79*100%</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14">
+      <c r="B80" s="28"/>
+      <c r="C80" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="49">
+        <v>0</v>
+      </c>
+      <c r="E80" s="50">
+        <v>0</v>
+      </c>
+      <c r="F80" s="51">
+        <v>0</v>
+      </c>
+      <c r="G80" s="31"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="31">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="72"/>
+      <c r="K80" s="67" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L80" s="68">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="M80" s="69">
+        <f t="shared" ref="M80:M88" si="49">E80+J80</f>
+        <v>0</v>
+      </c>
+      <c r="N80" s="70" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14">
+      <c r="B81" s="28"/>
+      <c r="C81" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="49">
+        <v>0</v>
+      </c>
+      <c r="E81" s="50">
+        <v>3</v>
+      </c>
+      <c r="F81" s="51">
+        <f t="shared" si="45"/>
+        <v>-3</v>
+      </c>
+      <c r="G81" s="31"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="31">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="72"/>
+      <c r="K81" s="67">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="L81" s="68">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="M81" s="69">
+        <f t="shared" si="49"/>
+        <v>3</v>
+      </c>
+      <c r="N81" s="70" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14">
+      <c r="B82" s="28"/>
+      <c r="C82" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="49">
+        <v>2</v>
+      </c>
+      <c r="E82" s="50">
+        <v>0</v>
+      </c>
+      <c r="F82" s="51">
+        <f t="shared" si="45"/>
+        <v>2</v>
+      </c>
+      <c r="G82" s="31"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="31">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="72"/>
+      <c r="K82" s="67" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L82" s="68">
+        <f t="shared" si="47"/>
+        <v>2</v>
+      </c>
+      <c r="M82" s="69">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N82" s="70">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14">
+      <c r="B83" s="28"/>
+      <c r="C83" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="49">
+        <v>2</v>
+      </c>
+      <c r="E83" s="50">
+        <v>0</v>
+      </c>
+      <c r="F83" s="51">
+        <v>0</v>
+      </c>
+      <c r="G83" s="31"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="31">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="72"/>
+      <c r="K83" s="67" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L83" s="68">
+        <f t="shared" si="47"/>
+        <v>2</v>
+      </c>
+      <c r="M83" s="69">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N83" s="70">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14">
+      <c r="B84" s="28"/>
+      <c r="C84" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="49">
+        <v>0</v>
+      </c>
+      <c r="E84" s="50">
+        <v>0</v>
+      </c>
+      <c r="F84" s="51">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="31"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="31">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="72"/>
+      <c r="K84" s="67" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L84" s="68">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="M84" s="69">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="70" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14">
+      <c r="B85" s="28"/>
+      <c r="C85" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="49">
+        <v>0</v>
+      </c>
+      <c r="E85" s="50">
+        <v>1</v>
+      </c>
+      <c r="F85" s="51">
+        <f t="shared" si="45"/>
+        <v>-1</v>
+      </c>
+      <c r="G85" s="31"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="31">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="72"/>
+      <c r="K85" s="67">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="L85" s="68">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="M85" s="69">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="N85" s="70" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14">
+      <c r="B86" s="28"/>
+      <c r="C86" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="49">
+        <v>0</v>
+      </c>
+      <c r="E86" s="50">
+        <v>0</v>
+      </c>
+      <c r="F86" s="51">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
+      <c r="J86" s="72"/>
+      <c r="K86" s="73" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L86" s="74">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="M86" s="74">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N86" s="85" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14">
+      <c r="B87" s="35"/>
+      <c r="C87" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="49">
+        <v>1</v>
+      </c>
+      <c r="E87" s="50">
+        <v>0</v>
+      </c>
+      <c r="F87" s="51">
+        <f>D87-E87</f>
+        <v>1</v>
+      </c>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31">
+        <f>G87-H87</f>
+        <v>0</v>
+      </c>
+      <c r="J87" s="72"/>
+      <c r="K87" s="73" t="e">
+        <f>J87/M87*100%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L87" s="74">
+        <f>D87+H87</f>
+        <v>1</v>
+      </c>
+      <c r="M87" s="74">
+        <f>E87+J87</f>
+        <v>0</v>
+      </c>
+      <c r="N87" s="85">
+        <f>M87/L87*100%</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" ht="15" spans="2:14">
+      <c r="B88" s="54"/>
+      <c r="C88" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="D88" s="56">
+        <f>SUM(D79:D87)</f>
+        <v>7</v>
+      </c>
+      <c r="E88" s="56">
+        <f>SUM(E79:E87)</f>
+        <v>4</v>
+      </c>
+      <c r="F88" s="57">
+        <v>-18</v>
+      </c>
+      <c r="G88" s="56">
+        <f>SUM(G79:G87)</f>
+        <v>0</v>
+      </c>
+      <c r="H88" s="56">
+        <f>SUM(H79:H87)</f>
+        <v>0</v>
+      </c>
+      <c r="I88" s="56">
+        <f>G88-H88</f>
+        <v>0</v>
+      </c>
+      <c r="J88" s="56">
+        <f>SUM(J79:J87)</f>
+        <v>0</v>
+      </c>
+      <c r="K88" s="86">
+        <f>J88/M88*100%</f>
+        <v>0</v>
+      </c>
+      <c r="L88" s="56">
+        <f>SUM(L79:L87)</f>
+        <v>7</v>
+      </c>
+      <c r="M88" s="56">
+        <f>SUM(M79:M87)</f>
+        <v>4</v>
+      </c>
+      <c r="N88" s="87">
+        <f>M88/L88*100%</f>
+        <v>0.571428571428571</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="A4:A14"/>
     <mergeCell ref="B3:B14"/>
@@ -6177,6 +6665,7 @@
     <mergeCell ref="B41:B50"/>
     <mergeCell ref="B53:B63"/>
     <mergeCell ref="B66:B76"/>
+    <mergeCell ref="B79:B88"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6189,7 +6678,7 @@
   <sheetPr/>
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
@@ -6197,7 +6686,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6208,25 +6697,25 @@
     </row>
     <row r="2" ht="40.5" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" ht="24" spans="1:7">
@@ -6237,19 +6726,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F3" s="7">
         <v>43068</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" ht="24" spans="1:7">
@@ -6260,19 +6749,19 @@
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" ht="36" spans="1:7">
@@ -6280,14 +6769,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F5" s="7">
         <v>42985</v>
@@ -6299,14 +6788,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F6" s="7">
         <v>42986</v>
@@ -6318,20 +6807,20 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" ht="36" spans="1:7">
@@ -6342,19 +6831,19 @@
         <v>15</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D8" s="6">
         <v>4</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" ht="36" spans="1:7">
@@ -6365,19 +6854,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D9" s="6">
         <v>4</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F9" s="8">
         <v>43033</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" ht="60" spans="1:7">
@@ -6388,17 +6877,17 @@
         <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D10" s="6">
         <v>3.5</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" ht="60" spans="1:7">
@@ -6409,17 +6898,17 @@
         <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D11" s="5">
         <v>8</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" ht="48" spans="1:7">
@@ -6430,17 +6919,17 @@
         <v>15</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D12" s="5">
         <v>1.5</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" ht="36" spans="1:7">
@@ -6451,17 +6940,17 @@
         <v>6</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D13" s="5">
         <v>8</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" ht="36" spans="1:7">
@@ -6469,16 +6958,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D14" s="5">
         <v>7</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -6491,17 +6980,17 @@
         <v>6</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D15" s="5">
         <v>4.5</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" ht="36" spans="1:7">
@@ -6512,17 +7001,17 @@
         <v>6</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D16" s="5">
         <v>9</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" ht="60" spans="1:7">
@@ -6533,19 +7022,19 @@
         <v>6</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D17" s="5">
         <v>8</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" ht="48" spans="1:7">
@@ -6556,19 +7045,19 @@
         <v>6</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D18" s="5">
         <v>8.5</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" ht="48" spans="1:7">
@@ -6579,19 +7068,19 @@
         <v>6</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D19" s="5">
         <v>6.5</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" ht="36" spans="1:7">
@@ -6602,19 +7091,19 @@
         <v>17</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D20" s="5">
         <v>4</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F20" s="7">
         <v>43035</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" ht="36" spans="1:7">
@@ -6629,7 +7118,7 @@
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F21" s="7">
         <v>43052</v>
@@ -6648,7 +7137,7 @@
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F22" s="7">
         <v>43061</v>
@@ -6667,7 +7156,7 @@
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -6684,7 +7173,7 @@
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -6701,7 +7190,7 @@
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F25" s="7">
         <v>43087</v>
@@ -6713,16 +7202,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D26" s="5">
         <v>5</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="5"/>
@@ -6739,7 +7228,7 @@
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="5"/>
@@ -6752,13 +7241,13 @@
         <v>15</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D28" s="5">
         <v>5</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="5"/>
@@ -6775,7 +7264,7 @@
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="5"/>
@@ -6785,14 +7274,14 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C30" s="10">
         <v>43086</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="5"/>
@@ -6809,7 +7298,7 @@
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="5"/>
@@ -6826,7 +7315,7 @@
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="5"/>
@@ -6843,7 +7332,7 @@
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="5"/>
@@ -6860,7 +7349,7 @@
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="5"/>
@@ -6877,7 +7366,7 @@
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="5"/>
@@ -6894,7 +7383,7 @@
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F36" s="7">
         <v>43166</v>
@@ -6913,10 +7402,10 @@
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G37" s="5"/>
     </row>
@@ -6932,7 +7421,7 @@
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="6" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="5"/>
@@ -6949,7 +7438,7 @@
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F39" s="7">
         <v>43153</v>
@@ -6968,7 +7457,7 @@
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="5"/>
@@ -6985,7 +7474,7 @@
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F41" s="7">
         <v>43143</v>
@@ -7004,7 +7493,7 @@
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="6" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F42" s="7">
         <v>43143</v>
@@ -7023,7 +7512,7 @@
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="5"/>
@@ -7040,7 +7529,7 @@
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="5"/>
@@ -7057,7 +7546,7 @@
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F45" s="7">
         <v>43168</v>
@@ -7076,7 +7565,7 @@
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F46" s="7">
         <v>43185</v>
@@ -7095,7 +7584,7 @@
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="6" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F47" s="7">
         <v>43198</v>
@@ -7114,7 +7603,7 @@
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="5"/>
@@ -7131,7 +7620,7 @@
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="5"/>
@@ -7148,7 +7637,7 @@
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="5"/>
@@ -7165,7 +7654,7 @@
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F51" s="7">
         <v>43218</v>
@@ -7184,10 +7673,10 @@
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G52" s="5"/>
     </row>
@@ -7203,7 +7692,7 @@
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F53" s="7">
         <v>43222</v>
@@ -7222,7 +7711,7 @@
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="5"/>
@@ -7239,7 +7728,7 @@
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="5"/>
@@ -7252,11 +7741,11 @@
         <v>20</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="5"/>
@@ -7273,7 +7762,7 @@
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F57" s="7">
         <v>43227</v>
@@ -7292,7 +7781,7 @@
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F58" s="7">
         <v>43234</v>
@@ -7347,7 +7836,7 @@
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="5"/>
@@ -7383,7 +7872,7 @@
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="5"/>
@@ -7400,7 +7889,7 @@
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="5"/>
@@ -7417,7 +7906,7 @@
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="5"/>
@@ -7434,7 +7923,7 @@
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="5"/>
@@ -7451,7 +7940,7 @@
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="5"/>
@@ -7468,7 +7957,7 @@
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="5"/>
@@ -7481,11 +7970,11 @@
         <v>16</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="5"/>
@@ -7502,7 +7991,7 @@
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="5"/>
@@ -7519,7 +8008,7 @@
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="5"/>
@@ -7536,7 +8025,7 @@
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="5"/>
@@ -7553,7 +8042,7 @@
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="6" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="5"/>
@@ -7570,7 +8059,7 @@
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="5"/>

--- a/部门项目数据汇总表.xlsx
+++ b/部门项目数据汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="加班明细表" sheetId="4" r:id="rId1"/>
@@ -731,11 +731,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -819,14 +819,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -840,10 +852,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -854,33 +868,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -899,37 +890,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -938,14 +898,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -962,6 +928,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -969,12 +943,38 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1043,37 +1043,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,7 +1085,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,43 +1121,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,31 +1151,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,19 +1181,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1211,13 +1199,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1662,6 +1662,36 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1682,10 +1712,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1693,57 +1721,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1762,16 +1744,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1780,100 +1780,106 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1882,44 +1888,38 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2297,15 +2297,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2633,7 +2624,7 @@
   <sheetPr/>
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+    <sheetView topLeftCell="B28" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -3261,48 +3252,48 @@
       </c>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="130" t="s">
+      <c r="B45" s="125" t="s">
         <v>20</v>
       </c>
       <c r="C45" s="126">
         <v>43253</v>
       </c>
-      <c r="D45" s="131" t="s">
+      <c r="D45" s="127" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="130" t="s">
+      <c r="B46" s="125" t="s">
         <v>23</v>
       </c>
       <c r="C46" s="126">
         <v>43253</v>
       </c>
-      <c r="D46" s="131" t="s">
+      <c r="D46" s="127" t="s">
         <v>56</v>
       </c>
       <c r="E46" s="97"/>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="132" t="s">
+      <c r="B47" s="125" t="s">
         <v>25</v>
       </c>
       <c r="C47" s="126">
         <v>43253</v>
       </c>
-      <c r="D47" s="131" t="s">
+      <c r="D47" s="127" t="s">
         <v>57</v>
       </c>
       <c r="E47" s="97"/>
     </row>
     <row r="48" spans="2:5">
-      <c r="B48" s="130" t="s">
+      <c r="B48" s="125" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="126">
         <v>43254</v>
       </c>
-      <c r="D48" s="131" t="s">
+      <c r="D48" s="127" t="s">
         <v>56</v>
       </c>
       <c r="E48" s="97"/>
@@ -3353,8 +3344,8 @@
   <sheetPr/>
   <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView topLeftCell="B67" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
+      <selection activeCell="M89" sqref="M89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -6272,8 +6263,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="51">
-        <f t="shared" ref="F79:F88" si="45">D79-E79</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
@@ -6283,11 +6273,11 @@
       </c>
       <c r="J79" s="66"/>
       <c r="K79" s="67" t="e">
-        <f t="shared" ref="K79:K89" si="46">J79/M79*100%</f>
+        <f t="shared" ref="K79:K89" si="45">J79/M79*100%</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L79" s="68">
-        <f t="shared" ref="L79:L88" si="47">D79+H79</f>
+        <f t="shared" ref="L79:L88" si="46">D79+H79</f>
         <v>2</v>
       </c>
       <c r="M79" s="69">
@@ -6295,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="N79" s="70">
-        <f t="shared" ref="N79:N89" si="48">M79/L79*100%</f>
+        <f t="shared" ref="N79:N89" si="47">M79/L79*100%</f>
         <v>0</v>
       </c>
     </row>
@@ -6321,19 +6311,19 @@
       </c>
       <c r="J80" s="72"/>
       <c r="K80" s="67" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L80" s="68">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L80" s="68">
+        <v>0</v>
+      </c>
+      <c r="M80" s="69">
+        <f t="shared" ref="M80:M88" si="48">E80+J80</f>
+        <v>0</v>
+      </c>
+      <c r="N80" s="70" t="e">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="M80" s="69">
-        <f t="shared" ref="M80:M88" si="49">E80+J80</f>
-        <v>0</v>
-      </c>
-      <c r="N80" s="70" t="e">
-        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6349,8 +6339,7 @@
         <v>3</v>
       </c>
       <c r="F81" s="51">
-        <f t="shared" si="45"/>
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="G81" s="31"/>
       <c r="H81" s="27"/>
@@ -6360,19 +6349,19 @@
       </c>
       <c r="J81" s="72"/>
       <c r="K81" s="67">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="L81" s="68">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="L81" s="68">
+      <c r="M81" s="69">
+        <f t="shared" si="48"/>
+        <v>3</v>
+      </c>
+      <c r="N81" s="70" t="e">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="M81" s="69">
-        <f t="shared" si="49"/>
-        <v>3</v>
-      </c>
-      <c r="N81" s="70" t="e">
-        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6385,10 +6374,9 @@
         <v>2</v>
       </c>
       <c r="E82" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F82" s="51">
-        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="G82" s="31"/>
@@ -6398,21 +6386,21 @@
         <v>0</v>
       </c>
       <c r="J82" s="72"/>
-      <c r="K82" s="67" t="e">
+      <c r="K82" s="67">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="L82" s="68">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L82" s="68">
+        <v>2</v>
+      </c>
+      <c r="M82" s="69">
+        <f t="shared" si="48"/>
+        <v>2</v>
+      </c>
+      <c r="N82" s="70">
         <f t="shared" si="47"/>
-        <v>2</v>
-      </c>
-      <c r="M82" s="69">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="N82" s="70">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="2:14">
@@ -6437,19 +6425,19 @@
       </c>
       <c r="J83" s="72"/>
       <c r="K83" s="67" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L83" s="68">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L83" s="68">
+        <v>2</v>
+      </c>
+      <c r="M83" s="69">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="N83" s="70">
         <f t="shared" si="47"/>
-        <v>2</v>
-      </c>
-      <c r="M83" s="69">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="N83" s="70">
-        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -6465,7 +6453,6 @@
         <v>0</v>
       </c>
       <c r="F84" s="51">
-        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G84" s="31"/>
@@ -6476,19 +6463,19 @@
       </c>
       <c r="J84" s="72"/>
       <c r="K84" s="67" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L84" s="68">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L84" s="68">
+        <v>0</v>
+      </c>
+      <c r="M84" s="69">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="70" t="e">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="M84" s="69">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="N84" s="70" t="e">
-        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6504,8 +6491,7 @@
         <v>1</v>
       </c>
       <c r="F85" s="51">
-        <f t="shared" si="45"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G85" s="31"/>
       <c r="H85" s="27"/>
@@ -6515,19 +6501,19 @@
       </c>
       <c r="J85" s="72"/>
       <c r="K85" s="67">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="L85" s="68">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="L85" s="68">
+      <c r="M85" s="69">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="N85" s="70" t="e">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="M85" s="69">
-        <f t="shared" si="49"/>
-        <v>1</v>
-      </c>
-      <c r="N85" s="70" t="e">
-        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6543,7 +6529,6 @@
         <v>0</v>
       </c>
       <c r="F86" s="51">
-        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G86" s="31"/>
@@ -6551,19 +6536,19 @@
       <c r="I86" s="31"/>
       <c r="J86" s="72"/>
       <c r="K86" s="73" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L86" s="74">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L86" s="74">
+        <v>0</v>
+      </c>
+      <c r="M86" s="74">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="N86" s="85" t="e">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="M86" s="74">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="N86" s="85" t="e">
-        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6579,8 +6564,7 @@
         <v>0</v>
       </c>
       <c r="F87" s="51">
-        <f>D87-E87</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" s="31"/>
       <c r="H87" s="31"/>
@@ -6590,19 +6574,19 @@
       </c>
       <c r="J87" s="72"/>
       <c r="K87" s="73" t="e">
-        <f>J87/M87*100%</f>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L87" s="74">
-        <f>D87+H87</f>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="M87" s="74">
-        <f>E87+J87</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="N87" s="85">
-        <f>M87/L87*100%</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>
@@ -6612,15 +6596,16 @@
         <v>77</v>
       </c>
       <c r="D88" s="56">
-        <f>SUM(D79:D87)</f>
+        <f t="shared" ref="D88:F88" si="49">SUM(D79:D87)</f>
         <v>7</v>
       </c>
       <c r="E88" s="56">
-        <f>SUM(E79:E87)</f>
-        <v>4</v>
+        <f t="shared" si="49"/>
+        <v>6</v>
       </c>
       <c r="F88" s="57">
-        <v>-18</v>
+        <f t="shared" si="49"/>
+        <v>6</v>
       </c>
       <c r="G88" s="56">
         <f>SUM(G79:G87)</f>
@@ -6639,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="K88" s="86">
-        <f>J88/M88*100%</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="L88" s="56">
@@ -6648,11 +6633,11 @@
       </c>
       <c r="M88" s="56">
         <f>SUM(M79:M87)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N88" s="87">
-        <f>M88/L88*100%</f>
-        <v>0.571428571428571</v>
+        <f t="shared" si="47"/>
+        <v>0.857142857142857</v>
       </c>
     </row>
   </sheetData>
@@ -6678,7 +6663,7 @@
   <sheetPr/>
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
